--- a/config_management/change_requests/Revised SOW.xlsx
+++ b/config_management/change_requests/Revised SOW.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bus4005\eclipse\workspace\STEPMOD\config_management\change_requests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18936" windowHeight="7488" tabRatio="708"/>
   </bookViews>
   <sheets>
     <sheet name="Remaining SOW" sheetId="1" r:id="rId1"/>
@@ -1970,7 +1970,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2333,27 +2333,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2408,8 +2414,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2719,11 +2725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="157125304"/>
-        <c:axId val="157125688"/>
+        <c:axId val="206409496"/>
+        <c:axId val="206128304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="157125304"/>
+        <c:axId val="206409496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +2772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157125688"/>
+        <c:crossAx val="206128304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2774,7 +2780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157125688"/>
+        <c:axId val="206128304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,7 +2831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157125304"/>
+        <c:crossAx val="206409496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3751,38 +3757,38 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="R128" sqref="R128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="9.140625" style="49"/>
-    <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="51.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="9.109375" style="49"/>
+    <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="51.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="4" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="16" max="19" width="12.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="19" width="12.109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.88671875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="116"/>
       <c r="B1" s="116" t="s">
         <v>0</v>
@@ -3849,7 +3855,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="115"/>
       <c r="B2" s="48">
         <v>3551</v>
@@ -3912,7 +3918,7 @@
       </c>
       <c r="W2" s="17"/>
     </row>
-    <row r="3" spans="1:23" s="25" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="25" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="23">
         <v>4452</v>
@@ -3963,72 +3969,68 @@
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="3" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="55">
-        <v>3675</v>
-      </c>
-      <c r="C4" s="115" t="s">
+      <c r="B4" s="98">
+        <v>6042</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="27">
         <v>12</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="O4" s="17"/>
+      <c r="L4" s="29">
+        <v>42860</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="91">
         <v>42906</v>
       </c>
       <c r="Q4" s="93">
-        <v>42935</v>
+        <v>42916</v>
       </c>
       <c r="R4" s="95">
-        <v>42937</v>
+        <v>42922</v>
       </c>
       <c r="S4" s="96">
-        <v>42944</v>
-      </c>
-      <c r="T4" s="115">
-        <v>1051</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="V4" s="115" t="s">
-        <v>213</v>
-      </c>
-      <c r="W4" s="17"/>
-    </row>
-    <row r="5" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>42930</v>
+      </c>
+      <c r="T4" s="27">
+        <v>101</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="V4" s="27">
+        <v>6041</v>
+      </c>
+      <c r="W4" s="28"/>
+    </row>
+    <row r="5" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="27">
         <v>3889</v>
@@ -4077,7 +4079,7 @@
       <c r="V5" s="28"/>
       <c r="W5" s="28"/>
     </row>
-    <row r="6" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="27">
         <v>5032</v>
@@ -4124,7 +4126,7 @@
       <c r="V6" s="28"/>
       <c r="W6" s="28"/>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="16">
         <v>4817</v>
@@ -4171,7 +4173,7 @@
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="16">
         <v>5899</v>
@@ -4216,18 +4218,18 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B9" s="115">
-        <v>3701</v>
+        <v>6141</v>
       </c>
       <c r="C9" s="115" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E9" s="115" t="s">
         <v>34</v>
@@ -4236,55 +4238,53 @@
         <v>13</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>37</v>
+        <v>92</v>
+      </c>
+      <c r="I9" s="115"/>
+      <c r="J9" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="K9" s="115">
         <v>0</v>
       </c>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115" t="s">
-        <v>153</v>
-      </c>
+      <c r="L9" s="19">
+        <v>42874</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="115"/>
       <c r="O9" s="17"/>
       <c r="P9" s="91">
-        <v>42934</v>
+        <v>42900</v>
       </c>
       <c r="Q9" s="93">
-        <v>42935</v>
+        <v>42916</v>
       </c>
       <c r="R9" s="95">
-        <v>42937</v>
+        <v>42922</v>
       </c>
       <c r="S9" s="96">
-        <v>42944</v>
+        <v>42930</v>
       </c>
       <c r="T9" s="115">
-        <v>1846</v>
+        <v>1032</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="V9" s="115">
-        <v>5142</v>
+        <v>177</v>
+      </c>
+      <c r="V9" s="115" t="s">
+        <v>165</v>
       </c>
       <c r="W9" s="17"/>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="115">
-        <v>3702</v>
+        <v>4388</v>
       </c>
       <c r="C10" s="115" t="s">
         <v>10</v>
@@ -4293,39 +4293,34 @@
         <v>11</v>
       </c>
       <c r="E10" s="115" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>21</v>
+      <c r="G10" s="54" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="115" t="s">
-        <v>156</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I10" s="115"/>
       <c r="J10" s="17" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="K10" s="115">
+        <f>SUBTOTAL(9,K1:K9)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="19">
-        <v>42818</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="O10" s="17"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="91">
-        <v>42934</v>
+        <v>42916</v>
       </c>
       <c r="Q10" s="93">
-        <v>42935</v>
+        <v>42930</v>
       </c>
       <c r="R10" s="95">
         <v>42937</v>
@@ -4333,79 +4328,73 @@
       <c r="S10" s="96">
         <v>42944</v>
       </c>
-      <c r="T10" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="U10" s="17"/>
-      <c r="V10" s="115">
-        <v>6044</v>
-      </c>
-      <c r="W10" s="17"/>
-    </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="T10" s="115">
+        <v>1110</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="W10" s="26"/>
+    </row>
+    <row r="11" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="21">
-        <v>3789</v>
+      <c r="B11" s="48">
+        <v>6279</v>
       </c>
       <c r="C11" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H11" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="115" t="s">
-        <v>360</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I11" s="115"/>
       <c r="J11" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="91">
-        <v>42906</v>
-      </c>
-      <c r="Q11" s="93">
-        <v>42935</v>
+        <v>356</v>
+      </c>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="94" t="s">
+        <v>213</v>
       </c>
       <c r="R11" s="95">
-        <v>42937</v>
+        <v>42914</v>
       </c>
       <c r="S11" s="96">
         <v>42944</v>
       </c>
-      <c r="T11" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="U11" s="17"/>
-      <c r="V11" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="115">
+        <v>1362</v>
+      </c>
+      <c r="U11" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="V11" s="115"/>
+      <c r="W11" s="26"/>
+    </row>
+    <row r="12" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <v>6203</v>
@@ -4450,7 +4439,7 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="115"/>
       <c r="B13" s="115">
         <v>3968</v>
@@ -4507,12 +4496,12 @@
       </c>
       <c r="W13" s="17"/>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="55">
-        <v>4171</v>
+        <v>3675</v>
       </c>
       <c r="C14" s="115" t="s">
         <v>10</v>
@@ -4533,22 +4522,24 @@
         <v>92</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="K14" s="115">
-        <v>40</v>
+        <v>360</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>150</v>
       </c>
       <c r="M14" s="19"/>
-      <c r="N14" s="115"/>
+      <c r="N14" s="115" t="s">
+        <v>153</v>
+      </c>
       <c r="O14" s="17"/>
       <c r="P14" s="91">
-        <v>42902</v>
+        <v>42906</v>
       </c>
       <c r="Q14" s="93">
         <v>42935</v>
@@ -4560,17 +4551,17 @@
         <v>42944</v>
       </c>
       <c r="T14" s="115">
-        <v>47</v>
+        <v>1051</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="V14" s="115">
-        <v>6183</v>
+        <v>173</v>
+      </c>
+      <c r="V14" s="115" t="s">
+        <v>213</v>
       </c>
       <c r="W14" s="17"/>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <v>3701</v>
@@ -4619,7 +4610,7 @@
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="115" t="s">
         <v>153</v>
       </c>
@@ -4680,7 +4671,7 @@
       </c>
       <c r="W16" s="17"/>
     </row>
-    <row r="17" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="115">
         <v>3727</v>
@@ -4731,7 +4722,7 @@
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
     </row>
-    <row r="18" spans="1:23" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="115">
         <v>5017</v>
@@ -4784,7 +4775,7 @@
       <c r="V18" s="115"/>
       <c r="W18" s="17"/>
     </row>
-    <row r="19" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="16">
         <v>5529</v>
@@ -4829,7 +4820,7 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" s="3" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="3" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="16">
         <v>5530</v>
@@ -4874,7 +4865,7 @@
       <c r="V20" s="17"/>
       <c r="W20" s="17"/>
     </row>
-    <row r="21" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="16">
         <v>5842</v>
@@ -4919,7 +4910,7 @@
       <c r="V21" s="17"/>
       <c r="W21" s="17"/>
     </row>
-    <row r="22" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="16">
         <v>5844</v>
@@ -4964,7 +4955,7 @@
       <c r="V22" s="17"/>
       <c r="W22" s="17"/>
     </row>
-    <row r="23" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="16">
         <v>6032</v>
@@ -5009,7 +5000,7 @@
       <c r="V23" s="17"/>
       <c r="W23" s="17"/>
     </row>
-    <row r="24" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="16">
         <v>6039</v>
@@ -5054,18 +5045,18 @@
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
     </row>
-    <row r="25" spans="1:23" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="3" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="115">
-        <v>4386</v>
+      <c r="B25" s="55">
+        <v>4171</v>
       </c>
       <c r="C25" s="115" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25" s="115" t="s">
         <v>12</v>
@@ -5074,25 +5065,31 @@
         <v>13</v>
       </c>
       <c r="G25" s="115" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H25" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="115"/>
-      <c r="J25" s="20" t="s">
-        <v>154</v>
+        <v>92</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>294</v>
       </c>
       <c r="K25" s="115">
-        <v>0</v>
-      </c>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
+        <v>40</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="19"/>
       <c r="N25" s="115"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="92"/>
+      <c r="P25" s="91">
+        <v>42902</v>
+      </c>
       <c r="Q25" s="93">
-        <v>42930</v>
+        <v>42935</v>
       </c>
       <c r="R25" s="95">
         <v>42937</v>
@@ -5100,76 +5097,75 @@
       <c r="S25" s="96">
         <v>42944</v>
       </c>
-      <c r="T25" s="115" t="s">
-        <v>169</v>
-      </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="115" t="s">
-        <v>165</v>
+      <c r="T25" s="115">
+        <v>47</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="V25" s="115">
+        <v>6183</v>
       </c>
       <c r="W25" s="17"/>
     </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="115">
-        <v>4388</v>
+    <row r="26" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="115"/>
+      <c r="B26" s="27">
+        <v>6137</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="47" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="115"/>
+        <v>328</v>
+      </c>
+      <c r="I26" s="115" t="s">
+        <v>365</v>
+      </c>
       <c r="J26" s="17" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="K26" s="115">
-        <f>SUBTOTAL(9,K1:K25)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="L26" s="115"/>
       <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="91">
-        <v>42916</v>
-      </c>
-      <c r="Q26" s="93">
-        <v>42930</v>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q26" s="93" t="s">
+        <v>363</v>
       </c>
       <c r="R26" s="95">
-        <v>42937</v>
+        <v>42914</v>
       </c>
       <c r="S26" s="96">
-        <v>42944</v>
+        <v>42923</v>
       </c>
       <c r="T26" s="115">
-        <v>1110</v>
-      </c>
-      <c r="U26" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="W26" s="26"/>
-    </row>
-    <row r="27" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="U26" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+    </row>
+    <row r="27" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="16">
         <v>6046</v>
@@ -5214,7 +5210,7 @@
       <c r="V27" s="17"/>
       <c r="W27" s="17"/>
     </row>
-    <row r="28" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="115" t="s">
         <v>153</v>
       </c>
@@ -5269,7 +5265,7 @@
       </c>
       <c r="W28" s="17"/>
     </row>
-    <row r="29" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="115" t="s">
         <v>153</v>
       </c>
@@ -5332,7 +5328,7 @@
       </c>
       <c r="W29" s="26"/>
     </row>
-    <row r="30" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="115">
         <v>2962</v>
@@ -5385,7 +5381,7 @@
       </c>
       <c r="W30" s="17"/>
     </row>
-    <row r="31" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="16">
         <v>3762</v>
@@ -5430,7 +5426,7 @@
       <c r="V31" s="17"/>
       <c r="W31" s="17"/>
     </row>
-    <row r="32" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="16">
         <v>3974</v>
@@ -5475,7 +5471,7 @@
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
     </row>
-    <row r="33" spans="1:23" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="16">
         <v>5610</v>
@@ -5520,7 +5516,7 @@
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
     </row>
-    <row r="34" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="16">
         <v>5838</v>
@@ -5565,7 +5561,7 @@
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
     </row>
-    <row r="35" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="16">
         <v>5964</v>
@@ -5610,7 +5606,7 @@
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
     </row>
-    <row r="36" spans="1:23" s="30" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="27">
         <v>5907</v>
@@ -5661,7 +5657,7 @@
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
     </row>
-    <row r="37" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="115"/>
       <c r="B37" s="55">
         <v>4836</v>
@@ -5720,7 +5716,7 @@
       </c>
       <c r="W37" s="115"/>
     </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="115" t="s">
         <v>153</v>
       </c>
@@ -5783,7 +5779,7 @@
       </c>
       <c r="W38" s="17"/>
     </row>
-    <row r="39" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="27">
         <v>5212</v>
@@ -5832,7 +5828,7 @@
       <c r="V39" s="28"/>
       <c r="W39" s="28"/>
     </row>
-    <row r="40" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="27">
         <v>5908</v>
@@ -5879,7 +5875,7 @@
       <c r="V40" s="28"/>
       <c r="W40" s="28"/>
     </row>
-    <row r="41" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
       <c r="B41" s="27">
         <v>5909</v>
@@ -5926,7 +5922,7 @@
       <c r="V41" s="28"/>
       <c r="W41" s="28"/>
     </row>
-    <row r="42" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="115">
         <v>5910</v>
@@ -5973,7 +5969,7 @@
       <c r="V42" s="17"/>
       <c r="W42" s="17"/>
     </row>
-    <row r="43" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="16">
         <v>6043</v>
@@ -6018,18 +6014,18 @@
       <c r="V43" s="17"/>
       <c r="W43" s="17"/>
     </row>
-    <row r="44" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="115">
-        <v>5006</v>
+      <c r="B44" s="48">
+        <v>5915</v>
       </c>
       <c r="C44" s="115" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E44" s="115" t="s">
         <v>12</v>
@@ -6037,61 +6033,63 @@
       <c r="F44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="115" t="s">
-        <v>21</v>
+      <c r="G44" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="H44" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="27" t="s">
         <v>361</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K44" s="115">
         <v>8</v>
       </c>
       <c r="L44" s="19">
-        <v>42874</v>
+        <v>42894</v>
       </c>
       <c r="M44" s="19"/>
       <c r="N44" s="115"/>
       <c r="O44" s="17"/>
       <c r="P44" s="91">
+        <v>42906</v>
+      </c>
+      <c r="Q44" s="93">
         <v>42913</v>
       </c>
-      <c r="Q44" s="117">
-        <v>42913</v>
-      </c>
       <c r="R44" s="95">
-        <v>42937</v>
+        <v>42922</v>
       </c>
       <c r="S44" s="96">
         <v>42944</v>
       </c>
       <c r="T44" s="115">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="V44" s="115" t="s">
-        <v>234</v>
+        <v>172</v>
+      </c>
+      <c r="V44" s="115">
+        <v>6183</v>
       </c>
       <c r="W44" s="17"/>
     </row>
-    <row r="45" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B45" s="48">
-        <v>5142</v>
+        <v>6200</v>
       </c>
       <c r="C45" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="E45" s="115" t="s">
         <v>12</v>
       </c>
@@ -6099,46 +6097,50 @@
         <v>13</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H45" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="115" t="s">
-        <v>361</v>
+        <v>92</v>
+      </c>
+      <c r="I45" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
+        <v>101</v>
+      </c>
+      <c r="K45" s="115">
+        <v>4</v>
+      </c>
+      <c r="L45" s="19">
+        <v>42894</v>
+      </c>
+      <c r="M45" s="19"/>
       <c r="N45" s="115"/>
       <c r="O45" s="115"/>
       <c r="P45" s="91">
-        <v>42934</v>
+        <v>42906</v>
       </c>
       <c r="Q45" s="93">
-        <v>42935</v>
+        <v>42907</v>
       </c>
       <c r="R45" s="95">
-        <v>42937</v>
+        <v>42922</v>
       </c>
       <c r="S45" s="96">
-        <v>42944</v>
+        <v>42930</v>
       </c>
       <c r="T45" s="115">
-        <v>1846</v>
-      </c>
-      <c r="U45" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="V45" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="W45" s="26"/>
-    </row>
-    <row r="46" spans="1:23" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="U45" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="V45" s="115">
+        <v>6183</v>
+      </c>
+      <c r="W45" s="17"/>
+    </row>
+    <row r="46" spans="1:23" s="30" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="112" t="s">
         <v>153</v>
       </c>
@@ -6203,18 +6205,18 @@
       </c>
       <c r="W46" s="17"/>
     </row>
-    <row r="47" spans="1:23" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="3" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="115">
-        <v>5402</v>
+      <c r="B47" s="48">
+        <v>6202</v>
       </c>
       <c r="C47" s="115" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E47" s="115" t="s">
         <v>12</v>
@@ -6223,27 +6225,31 @@
         <v>13</v>
       </c>
       <c r="G47" s="47" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H47" s="115" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I47" s="115" t="s">
-        <v>362</v>
+        <v>156</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
+        <v>89</v>
+      </c>
+      <c r="K47" s="115">
+        <v>4</v>
+      </c>
+      <c r="L47" s="19">
+        <v>42881</v>
+      </c>
+      <c r="M47" s="19"/>
       <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
+      <c r="O47" s="17"/>
       <c r="P47" s="91">
-        <v>42934</v>
+        <v>42913</v>
       </c>
       <c r="Q47" s="93">
-        <v>42935</v>
+        <v>42928</v>
       </c>
       <c r="R47" s="95">
         <v>42937</v>
@@ -6251,16 +6257,18 @@
       <c r="S47" s="96">
         <v>42944</v>
       </c>
-      <c r="T47" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="U47" s="26"/>
-      <c r="V47" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="W47" s="26"/>
-    </row>
-    <row r="48" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="T47" s="115">
+        <v>1051</v>
+      </c>
+      <c r="U47" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="V47" s="115">
+        <v>6201</v>
+      </c>
+      <c r="W47" s="17"/>
+    </row>
+    <row r="48" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="115" t="s">
         <v>153</v>
       </c>
@@ -6323,7 +6331,7 @@
       </c>
       <c r="W48" s="22"/>
     </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="123"/>
       <c r="B49" s="98">
         <v>5496</v>
@@ -6382,7 +6390,7 @@
       </c>
       <c r="W49" s="17"/>
     </row>
-    <row r="50" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="115">
         <v>5144</v>
@@ -6433,7 +6441,7 @@
       <c r="V50" s="115"/>
       <c r="W50" s="17"/>
     </row>
-    <row r="51" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" s="3" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="112" t="s">
         <v>153</v>
       </c>
@@ -6498,7 +6506,7 @@
       </c>
       <c r="W51" s="17"/>
     </row>
-    <row r="52" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="115" t="s">
         <v>153</v>
       </c>
@@ -6561,7 +6569,7 @@
       </c>
       <c r="W52" s="17"/>
     </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="16">
         <v>4800</v>
@@ -6606,7 +6614,7 @@
       <c r="V53" s="17"/>
       <c r="W53" s="17"/>
     </row>
-    <row r="54" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="16">
         <v>6186</v>
@@ -6651,26 +6659,26 @@
       <c r="V54" s="17"/>
       <c r="W54" s="17"/>
     </row>
-    <row r="55" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="48">
-        <v>5915</v>
+      <c r="B55" s="55">
+        <v>6231</v>
       </c>
       <c r="C55" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>44</v>
+      <c r="D55" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="E55" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="47" t="s">
+      <c r="G55" s="54" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="115" t="s">
@@ -6680,41 +6688,41 @@
         <v>361</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="K55" s="115">
-        <v>8</v>
-      </c>
-      <c r="L55" s="19">
-        <v>42894</v>
-      </c>
-      <c r="M55" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="L55" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="M55" s="127"/>
       <c r="N55" s="115"/>
-      <c r="O55" s="17"/>
+      <c r="O55" s="127"/>
       <c r="P55" s="91">
-        <v>42906</v>
+        <v>42908</v>
       </c>
       <c r="Q55" s="93">
-        <v>42913</v>
+        <v>42935</v>
       </c>
       <c r="R55" s="95">
-        <v>42922</v>
+        <v>42937</v>
       </c>
       <c r="S55" s="96">
         <v>42944</v>
       </c>
       <c r="T55" s="115">
-        <v>47</v>
-      </c>
-      <c r="U55" s="17" t="s">
-        <v>172</v>
+        <v>1051</v>
+      </c>
+      <c r="U55" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="V55" s="115">
-        <v>6183</v>
-      </c>
-      <c r="W55" s="17"/>
-    </row>
-    <row r="56" spans="1:23" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6201</v>
+      </c>
+      <c r="W55" s="26"/>
+    </row>
+    <row r="56" spans="1:23" s="3" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="124" t="s">
         <v>153</v>
       </c>
@@ -6779,7 +6787,7 @@
       </c>
       <c r="W56" s="17"/>
     </row>
-    <row r="57" spans="1:23" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" s="3" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="115" t="s">
         <v>153</v>
       </c>
@@ -6842,12 +6850,12 @@
       </c>
       <c r="W57" s="17"/>
     </row>
-    <row r="58" spans="1:23" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" s="3" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="48">
-        <v>6041</v>
+      <c r="B58" s="55">
+        <v>6232</v>
       </c>
       <c r="C58" s="115" t="s">
         <v>10</v>
@@ -6861,111 +6869,107 @@
       <c r="F58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="115" t="s">
-        <v>21</v>
+      <c r="G58" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="H58" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="I58" s="115"/>
-      <c r="J58" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K58" s="115">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K58" s="115"/>
       <c r="L58" s="115"/>
       <c r="M58" s="115"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="92"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="91">
+        <v>42908</v>
+      </c>
       <c r="Q58" s="93">
-        <v>42916</v>
+        <v>42935</v>
       </c>
       <c r="R58" s="95">
-        <v>42922</v>
+        <v>42937</v>
       </c>
       <c r="S58" s="96">
-        <v>42930</v>
+        <v>42944</v>
       </c>
       <c r="T58" s="115">
-        <v>101</v>
-      </c>
-      <c r="U58" s="28" t="s">
-        <v>178</v>
+        <v>1051</v>
+      </c>
+      <c r="U58" s="56" t="s">
+        <v>173</v>
       </c>
       <c r="V58" s="115">
-        <v>6041</v>
-      </c>
-      <c r="W58" s="17"/>
-    </row>
-    <row r="59" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="115" t="s">
+        <v>6201</v>
+      </c>
+      <c r="W58" s="26"/>
+    </row>
+    <row r="59" spans="1:23" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="105" t="s">
         <v>153</v>
       </c>
       <c r="B59" s="98">
-        <v>6042</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="28" t="s">
+        <v>6049</v>
+      </c>
+      <c r="C59" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="28" t="s">
+      <c r="E59" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="57" t="s">
+      <c r="G59" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="H59" s="98" t="s">
+      <c r="H59" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="I59" s="27"/>
-      <c r="J59" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="K59" s="27">
-        <v>12</v>
-      </c>
-      <c r="L59" s="29">
-        <v>42860</v>
-      </c>
-      <c r="M59" s="29"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="91">
-        <v>42906</v>
-      </c>
-      <c r="Q59" s="93">
-        <v>42916</v>
-      </c>
-      <c r="R59" s="95">
-        <v>42922</v>
-      </c>
-      <c r="S59" s="96">
-        <v>42930</v>
-      </c>
-      <c r="T59" s="27">
-        <v>101</v>
-      </c>
-      <c r="U59" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="V59" s="27">
-        <v>6041</v>
-      </c>
-      <c r="W59" s="28"/>
-    </row>
-    <row r="60" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I59" s="105"/>
+      <c r="J59" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59" s="127">
+        <v>0</v>
+      </c>
+      <c r="L59" s="127"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="108">
+        <v>42900</v>
+      </c>
+      <c r="Q59" s="109">
+        <v>42907</v>
+      </c>
+      <c r="R59" s="110">
+        <v>42914</v>
+      </c>
+      <c r="S59" s="111">
+        <v>42923</v>
+      </c>
+      <c r="T59" s="105">
+        <v>46</v>
+      </c>
+      <c r="U59" s="107"/>
+      <c r="V59" s="107"/>
+      <c r="W59" s="107"/>
+    </row>
+    <row r="60" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="48">
-        <v>6044</v>
+      <c r="B60" s="21">
+        <v>6236</v>
       </c>
       <c r="C60" s="115" t="s">
         <v>10</v>
@@ -6979,100 +6983,100 @@
       <c r="F60" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="115" t="s">
-        <v>21</v>
+      <c r="G60" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="H60" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="I60" s="115"/>
-      <c r="J60" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="115">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K60" s="115"/>
       <c r="L60" s="115"/>
       <c r="M60" s="115"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="92"/>
+      <c r="N60" s="127"/>
+      <c r="O60" s="127"/>
+      <c r="P60" s="91">
+        <v>42906</v>
+      </c>
       <c r="Q60" s="93">
-        <v>42930</v>
+        <v>42916</v>
       </c>
       <c r="R60" s="95">
-        <v>42937</v>
+        <v>42922</v>
       </c>
       <c r="S60" s="96">
         <v>42944</v>
       </c>
-      <c r="T60" s="115">
-        <v>113</v>
-      </c>
-      <c r="U60" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="V60" s="115">
-        <v>6044</v>
-      </c>
-      <c r="W60" s="17"/>
-    </row>
-    <row r="61" spans="1:23" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="T60" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="U60" s="26"/>
+      <c r="V60" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="W60" s="26"/>
+    </row>
+    <row r="61" spans="1:23" s="25" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="48">
-        <v>6045</v>
+      <c r="B61" s="55">
+        <v>6278</v>
       </c>
       <c r="C61" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="D61" s="26"/>
       <c r="E61" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="115" t="s">
-        <v>21</v>
+      <c r="F61" s="26"/>
+      <c r="G61" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="H61" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="115"/>
-      <c r="J61" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="115">
-        <v>0</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="I61" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="J61" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="K61" s="115"/>
       <c r="L61" s="115"/>
       <c r="M61" s="115"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="92"/>
-      <c r="Q61" s="94"/>
+      <c r="N61" s="127"/>
+      <c r="O61" s="127"/>
+      <c r="P61" s="91">
+        <v>42906</v>
+      </c>
+      <c r="Q61" s="93">
+        <v>42935</v>
+      </c>
       <c r="R61" s="95">
-        <v>42914</v>
+        <v>42922</v>
       </c>
       <c r="S61" s="96">
         <v>42944</v>
       </c>
       <c r="T61" s="115">
-        <v>1362</v>
-      </c>
-      <c r="U61" s="17" t="s">
-        <v>180</v>
+        <v>47</v>
+      </c>
+      <c r="U61" s="127" t="s">
+        <v>172</v>
       </c>
       <c r="V61" s="115">
-        <v>6045</v>
-      </c>
-      <c r="W61" s="17"/>
-    </row>
-    <row r="62" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>6183</v>
+      </c>
+      <c r="W61" s="26"/>
+    </row>
+    <row r="62" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="112" t="s">
         <v>153</v>
       </c>
@@ -7137,7 +7141,7 @@
       </c>
       <c r="W62" s="17"/>
     </row>
-    <row r="63" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="115" t="s">
         <v>153</v>
       </c>
@@ -7194,62 +7198,56 @@
       <c r="V63" s="17"/>
       <c r="W63" s="17"/>
     </row>
-    <row r="64" spans="1:23" s="104" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="105" t="s">
+    <row r="64" spans="1:23" s="104" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="98">
-        <v>6049</v>
-      </c>
-      <c r="C64" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="107" t="s">
+      <c r="B64" s="48">
+        <v>6299</v>
+      </c>
+      <c r="C64" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="105" t="s">
+      <c r="E64" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="107" t="s">
+      <c r="F64" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="I64" s="105"/>
-      <c r="J64" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="K64" s="115">
-        <v>0</v>
-      </c>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="108">
-        <v>42900</v>
-      </c>
-      <c r="Q64" s="109">
-        <v>42907</v>
-      </c>
-      <c r="R64" s="110">
-        <v>42914</v>
-      </c>
-      <c r="S64" s="111">
-        <v>42923</v>
-      </c>
-      <c r="T64" s="105">
-        <v>46</v>
-      </c>
-      <c r="U64" s="107"/>
-      <c r="V64" s="107"/>
-      <c r="W64" s="107"/>
-    </row>
-    <row r="65" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G64" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="127" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="127"/>
+      <c r="J64" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="K64" s="127"/>
+      <c r="L64" s="127"/>
+      <c r="M64" s="127"/>
+      <c r="N64" s="127"/>
+      <c r="O64" s="127"/>
+      <c r="P64" s="92"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="95"/>
+      <c r="S64" s="96">
+        <v>42944</v>
+      </c>
+      <c r="T64" s="127">
+        <v>1051</v>
+      </c>
+      <c r="U64" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="V64" s="127"/>
+      <c r="W64" s="26"/>
+    </row>
+    <row r="65" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="115" t="s">
         <v>153</v>
       </c>
@@ -7312,7 +7310,7 @@
       </c>
       <c r="W65" s="17"/>
     </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="16">
         <v>5008</v>
@@ -7357,7 +7355,7 @@
       <c r="V66" s="17"/>
       <c r="W66" s="17"/>
     </row>
-    <row r="67" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="16">
         <v>5029</v>
@@ -7402,7 +7400,7 @@
       <c r="V67" s="17"/>
       <c r="W67" s="17"/>
     </row>
-    <row r="68" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="16">
         <v>5503</v>
@@ -7447,7 +7445,7 @@
       <c r="V68" s="17"/>
       <c r="W68" s="17"/>
     </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="16">
         <v>5817</v>
@@ -7492,7 +7490,7 @@
       <c r="V69" s="17"/>
       <c r="W69" s="17"/>
     </row>
-    <row r="70" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="16">
         <v>5946</v>
@@ -7539,7 +7537,7 @@
       <c r="V70" s="17"/>
       <c r="W70" s="17"/>
     </row>
-    <row r="71" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="16">
         <v>5967</v>
@@ -7584,7 +7582,7 @@
       <c r="V71" s="17"/>
       <c r="W71" s="17"/>
     </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
       <c r="B72" s="16">
         <v>5968</v>
@@ -7629,7 +7627,7 @@
       <c r="V72" s="17"/>
       <c r="W72" s="17"/>
     </row>
-    <row r="73" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="16">
         <v>6040</v>
@@ -7674,68 +7672,62 @@
       <c r="V73" s="17"/>
       <c r="W73" s="17"/>
     </row>
-    <row r="74" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="115">
-        <v>6141</v>
+        <v>4386</v>
       </c>
       <c r="C74" s="115" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E74" s="115" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="47" t="s">
-        <v>25</v>
+      <c r="G74" s="127" t="s">
+        <v>20</v>
       </c>
       <c r="H74" s="115" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="I74" s="115"/>
-      <c r="J74" s="17" t="s">
-        <v>82</v>
+      <c r="J74" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="K74" s="115">
         <v>0</v>
       </c>
-      <c r="L74" s="19">
-        <v>42874</v>
-      </c>
-      <c r="M74" s="19"/>
+      <c r="L74" s="127"/>
+      <c r="M74" s="127"/>
       <c r="N74" s="115"/>
       <c r="O74" s="17"/>
-      <c r="P74" s="91">
-        <v>42900</v>
-      </c>
+      <c r="P74" s="92"/>
       <c r="Q74" s="93">
-        <v>42916</v>
+        <v>42930</v>
       </c>
       <c r="R74" s="95">
-        <v>42922</v>
+        <v>42937</v>
       </c>
       <c r="S74" s="96">
-        <v>42930</v>
-      </c>
-      <c r="T74" s="115">
-        <v>1032</v>
-      </c>
-      <c r="U74" s="17" t="s">
-        <v>177</v>
-      </c>
+        <v>42944</v>
+      </c>
+      <c r="T74" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="U74" s="17"/>
       <c r="V74" s="115" t="s">
         <v>165</v>
       </c>
       <c r="W74" s="17"/>
     </row>
-    <row r="75" spans="1:23" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="16">
         <v>6050</v>
@@ -7780,64 +7772,64 @@
       <c r="V75" s="17"/>
       <c r="W75" s="17"/>
     </row>
-    <row r="76" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="115"/>
-      <c r="B76" s="27">
-        <v>6137</v>
+    <row r="76" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="48">
+        <v>6183</v>
       </c>
       <c r="C76" s="115" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="127" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G76" s="47" t="s">
-        <v>25</v>
+      <c r="G76" s="127" t="s">
+        <v>20</v>
       </c>
       <c r="H76" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I76" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="J76" s="17" t="s">
-        <v>115</v>
+        <v>36</v>
+      </c>
+      <c r="I76" s="115"/>
+      <c r="J76" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="K76" s="115">
         <v>0</v>
       </c>
       <c r="L76" s="115"/>
       <c r="M76" s="115"/>
-      <c r="N76" s="17"/>
+      <c r="N76" s="127"/>
       <c r="O76" s="17"/>
-      <c r="P76" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q76" s="93" t="s">
-        <v>363</v>
+      <c r="P76" s="92"/>
+      <c r="Q76" s="93">
+        <v>42913</v>
       </c>
       <c r="R76" s="95">
-        <v>42914</v>
+        <v>42922</v>
       </c>
       <c r="S76" s="96">
-        <v>42923</v>
+        <v>42930</v>
       </c>
       <c r="T76" s="115">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U76" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="V76" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="V76" s="127">
+        <v>6183</v>
+      </c>
       <c r="W76" s="17"/>
     </row>
-    <row r="77" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="16">
         <v>5901</v>
@@ -7882,12 +7874,12 @@
       <c r="V77" s="17"/>
       <c r="W77" s="17"/>
     </row>
-    <row r="78" spans="1:23" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="48">
-        <v>6183</v>
+        <v>6201</v>
       </c>
       <c r="C78" s="115" t="s">
         <v>10</v>
@@ -7905,104 +7897,104 @@
         <v>20</v>
       </c>
       <c r="H78" s="115" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I78" s="115"/>
       <c r="J78" s="50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K78" s="115">
         <v>0</v>
       </c>
       <c r="L78" s="115"/>
       <c r="M78" s="115"/>
-      <c r="N78" s="115"/>
+      <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="P78" s="92"/>
       <c r="Q78" s="93">
-        <v>42913</v>
+        <v>42928</v>
       </c>
       <c r="R78" s="95">
-        <v>42922</v>
+        <v>42937</v>
       </c>
       <c r="S78" s="96">
-        <v>42930</v>
+        <v>42944</v>
       </c>
       <c r="T78" s="115">
-        <v>47</v>
+        <v>1051</v>
       </c>
       <c r="U78" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V78" s="115">
-        <v>6183</v>
+        <v>6201</v>
       </c>
       <c r="W78" s="17"/>
     </row>
-    <row r="79" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="48">
-        <v>6200</v>
+      <c r="B79" s="127">
+        <v>3701</v>
       </c>
       <c r="C79" s="115" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E79" s="115" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H79" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="I79" s="127" t="s">
+        <v>361</v>
+      </c>
+      <c r="J79" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="K79" s="115">
-        <v>4</v>
-      </c>
-      <c r="L79" s="19">
-        <v>42894</v>
-      </c>
-      <c r="M79" s="19"/>
-      <c r="N79" s="115"/>
-      <c r="O79" s="115"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="127"/>
+      <c r="M79" s="127"/>
+      <c r="N79" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="O79" s="17"/>
       <c r="P79" s="91">
-        <v>42906</v>
+        <v>42934</v>
       </c>
       <c r="Q79" s="93">
-        <v>42907</v>
+        <v>42935</v>
       </c>
       <c r="R79" s="95">
-        <v>42922</v>
+        <v>42937</v>
       </c>
       <c r="S79" s="96">
-        <v>42930</v>
+        <v>42944</v>
       </c>
       <c r="T79" s="115">
-        <v>47</v>
+        <v>1846</v>
       </c>
       <c r="U79" s="17" t="s">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="V79" s="115">
-        <v>6183</v>
+        <v>5142</v>
       </c>
       <c r="W79" s="17"/>
     </row>
-    <row r="80" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="26"/>
       <c r="B80" s="115">
         <v>4781</v>
@@ -8045,12 +8037,12 @@
       <c r="V80" s="26"/>
       <c r="W80" s="26"/>
     </row>
-    <row r="81" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="48">
-        <v>6201</v>
+      <c r="B81" s="127">
+        <v>3702</v>
       </c>
       <c r="C81" s="115" t="s">
         <v>10</v>
@@ -8059,31 +8051,39 @@
         <v>11</v>
       </c>
       <c r="E81" s="115" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G81" s="115" t="s">
-        <v>20</v>
+      <c r="G81" s="47" t="s">
+        <v>21</v>
       </c>
       <c r="H81" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" s="115"/>
-      <c r="J81" s="50" t="s">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="I81" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="K81" s="115">
         <v>0</v>
       </c>
-      <c r="L81" s="115"/>
-      <c r="M81" s="115"/>
-      <c r="N81" s="17"/>
+      <c r="L81" s="19">
+        <v>42818</v>
+      </c>
+      <c r="M81" s="19"/>
+      <c r="N81" s="127" t="s">
+        <v>153</v>
+      </c>
       <c r="O81" s="17"/>
-      <c r="P81" s="92"/>
+      <c r="P81" s="91">
+        <v>42934</v>
+      </c>
       <c r="Q81" s="93">
-        <v>42928</v>
+        <v>42935</v>
       </c>
       <c r="R81" s="95">
         <v>42937</v>
@@ -8091,29 +8091,27 @@
       <c r="S81" s="96">
         <v>42944</v>
       </c>
-      <c r="T81" s="115">
-        <v>1051</v>
-      </c>
-      <c r="U81" s="17" t="s">
-        <v>173</v>
-      </c>
+      <c r="T81" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="U81" s="17"/>
       <c r="V81" s="115">
-        <v>6201</v>
+        <v>6044</v>
       </c>
       <c r="W81" s="17"/>
     </row>
-    <row r="82" spans="1:23" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" s="4" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B82" s="48">
-        <v>6202</v>
+      <c r="B82" s="21">
+        <v>3789</v>
       </c>
       <c r="C82" s="115" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E82" s="115" t="s">
         <v>12</v>
@@ -8122,31 +8120,33 @@
         <v>13</v>
       </c>
       <c r="G82" s="47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H82" s="115" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I82" s="115" t="s">
-        <v>156</v>
+        <v>360</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="K82" s="115">
-        <v>4</v>
-      </c>
-      <c r="L82" s="19">
-        <v>42881</v>
+        <v>73</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L82" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="M82" s="19"/>
-      <c r="N82" s="115"/>
+      <c r="N82" s="115" t="s">
+        <v>153</v>
+      </c>
       <c r="O82" s="17"/>
       <c r="P82" s="91">
-        <v>42913</v>
+        <v>42906</v>
       </c>
       <c r="Q82" s="93">
-        <v>42928</v>
+        <v>42935</v>
       </c>
       <c r="R82" s="95">
         <v>42937</v>
@@ -8154,18 +8154,16 @@
       <c r="S82" s="96">
         <v>42944</v>
       </c>
-      <c r="T82" s="115">
-        <v>1051</v>
-      </c>
-      <c r="U82" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="V82" s="115">
-        <v>6201</v>
+      <c r="T82" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="U82" s="17"/>
+      <c r="V82" s="115" t="s">
+        <v>165</v>
       </c>
       <c r="W82" s="17"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="115"/>
       <c r="B83" s="115">
         <v>6208</v>
@@ -8224,7 +8222,7 @@
       </c>
       <c r="W83" s="17"/>
     </row>
-    <row r="84" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="115" t="s">
         <v>153</v>
       </c>
@@ -8289,51 +8287,51 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B85" s="55">
-        <v>6231</v>
+      <c r="B85" s="127">
+        <v>5006</v>
       </c>
       <c r="C85" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="54" t="s">
-        <v>14</v>
+      <c r="G85" s="127" t="s">
+        <v>21</v>
       </c>
       <c r="H85" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I85" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="127" t="s">
         <v>361</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K85" s="115">
-        <v>16</v>
-      </c>
-      <c r="L85" s="115" t="s">
-        <v>150</v>
-      </c>
-      <c r="M85" s="115"/>
+        <v>8</v>
+      </c>
+      <c r="L85" s="19">
+        <v>42874</v>
+      </c>
+      <c r="M85" s="19"/>
       <c r="N85" s="115"/>
-      <c r="O85" s="115"/>
+      <c r="O85" s="17"/>
       <c r="P85" s="91">
-        <v>42908</v>
-      </c>
-      <c r="Q85" s="93">
-        <v>42935</v>
+        <v>42913</v>
+      </c>
+      <c r="Q85" s="117">
+        <v>42913</v>
       </c>
       <c r="R85" s="95">
         <v>42937</v>
@@ -8342,29 +8340,27 @@
         <v>42944</v>
       </c>
       <c r="T85" s="115">
-        <v>1051</v>
-      </c>
-      <c r="U85" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="V85" s="115">
-        <v>6201</v>
-      </c>
-      <c r="W85" s="26"/>
-    </row>
-    <row r="86" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="U85" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="V85" s="115" t="s">
+        <v>234</v>
+      </c>
+      <c r="W85" s="17"/>
+    </row>
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="55">
-        <v>6232</v>
+      <c r="B86" s="48">
+        <v>5142</v>
       </c>
       <c r="C86" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="D86" s="26"/>
       <c r="E86" s="115" t="s">
         <v>12</v>
       </c>
@@ -8372,16 +8368,16 @@
         <v>13</v>
       </c>
       <c r="G86" s="47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H86" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I86" s="27" t="s">
-        <v>360</v>
+        <v>80</v>
+      </c>
+      <c r="I86" s="127" t="s">
+        <v>361</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="K86" s="115"/>
       <c r="L86" s="115"/>
@@ -8389,7 +8385,7 @@
       <c r="N86" s="115"/>
       <c r="O86" s="115"/>
       <c r="P86" s="91">
-        <v>42908</v>
+        <v>42934</v>
       </c>
       <c r="Q86" s="93">
         <v>42935</v>
@@ -8401,17 +8397,17 @@
         <v>42944</v>
       </c>
       <c r="T86" s="115">
-        <v>1051</v>
-      </c>
-      <c r="U86" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="V86" s="115">
-        <v>6201</v>
+        <v>1846</v>
+      </c>
+      <c r="U86" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="V86" s="115" t="s">
+        <v>165</v>
       </c>
       <c r="W86" s="26"/>
     </row>
-    <row r="87" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="115"/>
       <c r="B87" s="21">
         <v>6235</v>
@@ -8464,12 +8460,12 @@
       </c>
       <c r="W87" s="26"/>
     </row>
-    <row r="88" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="21">
-        <v>6236</v>
+      <c r="B88" s="127">
+        <v>5402</v>
       </c>
       <c r="C88" s="115" t="s">
         <v>10</v>
@@ -8484,16 +8480,16 @@
         <v>13</v>
       </c>
       <c r="G88" s="47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H88" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I88" s="27" t="s">
-        <v>361</v>
+        <v>80</v>
+      </c>
+      <c r="I88" s="127" t="s">
+        <v>362</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K88" s="115"/>
       <c r="L88" s="115"/>
@@ -8501,19 +8497,19 @@
       <c r="N88" s="115"/>
       <c r="O88" s="115"/>
       <c r="P88" s="91">
-        <v>42906</v>
+        <v>42934</v>
       </c>
       <c r="Q88" s="93">
-        <v>42916</v>
+        <v>42935</v>
       </c>
       <c r="R88" s="95">
-        <v>42922</v>
+        <v>42937</v>
       </c>
       <c r="S88" s="96">
         <v>42944</v>
       </c>
       <c r="T88" s="115" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="U88" s="26"/>
       <c r="V88" s="115" t="s">
@@ -8521,17 +8517,19 @@
       </c>
       <c r="W88" s="26"/>
     </row>
-    <row r="89" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B89" s="48">
-        <v>6252</v>
+        <v>6041</v>
       </c>
       <c r="C89" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="26"/>
+      <c r="D89" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="E89" s="115" t="s">
         <v>12</v>
       </c>
@@ -8542,43 +8540,41 @@
         <v>21</v>
       </c>
       <c r="H89" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="I89" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="J89" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="K89" s="115"/>
+        <v>36</v>
+      </c>
+      <c r="I89" s="115"/>
+      <c r="J89" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K89" s="115">
+        <v>0</v>
+      </c>
       <c r="L89" s="115"/>
       <c r="M89" s="115"/>
-      <c r="N89" s="115"/>
-      <c r="O89" s="115"/>
-      <c r="P89" s="91">
-        <v>42913</v>
-      </c>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="92"/>
       <c r="Q89" s="93">
+        <v>42916</v>
+      </c>
+      <c r="R89" s="95">
+        <v>42922</v>
+      </c>
+      <c r="S89" s="96">
         <v>42930</v>
       </c>
-      <c r="R89" s="95">
-        <v>42937</v>
-      </c>
-      <c r="S89" s="96">
-        <v>42944</v>
-      </c>
       <c r="T89" s="115">
-        <v>1311</v>
-      </c>
-      <c r="U89" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="V89" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="W89" s="26"/>
-    </row>
-    <row r="90" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="U89" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="V89" s="115">
+        <v>6041</v>
+      </c>
+      <c r="W89" s="17"/>
+    </row>
+    <row r="90" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="115" t="s">
         <v>153</v>
       </c>
@@ -8637,12 +8633,12 @@
       </c>
       <c r="W90" s="17"/>
     </row>
-    <row r="91" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B91" s="48">
-        <v>6274</v>
+        <v>6044</v>
       </c>
       <c r="C91" s="115" t="s">
         <v>10</v>
@@ -8656,102 +8652,100 @@
       <c r="F91" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="47" t="s">
+      <c r="G91" s="127" t="s">
         <v>21</v>
       </c>
       <c r="H91" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="I91" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="J91" s="56" t="s">
-        <v>310</v>
-      </c>
-      <c r="K91" s="115"/>
+      <c r="I91" s="115"/>
+      <c r="J91" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="115">
+        <v>0</v>
+      </c>
       <c r="L91" s="115"/>
       <c r="M91" s="115"/>
-      <c r="N91" s="115"/>
-      <c r="O91" s="115"/>
-      <c r="P91" s="91">
-        <v>42906</v>
-      </c>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="92"/>
       <c r="Q91" s="93">
-        <v>42916</v>
+        <v>42930</v>
       </c>
       <c r="R91" s="95">
-        <v>42922</v>
+        <v>42937</v>
       </c>
       <c r="S91" s="96">
-        <v>42930</v>
+        <v>42944</v>
       </c>
       <c r="T91" s="115">
-        <v>520</v>
+        <v>113</v>
       </c>
       <c r="U91" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="V91" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="W91" s="26"/>
-    </row>
-    <row r="92" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="115" t="s">
+        <v>235</v>
+      </c>
+      <c r="V91" s="115">
+        <v>6044</v>
+      </c>
+      <c r="W91" s="17"/>
+    </row>
+    <row r="92" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="55">
-        <v>6278</v>
+      <c r="B92" s="48">
+        <v>6045</v>
       </c>
       <c r="C92" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="26"/>
+      <c r="D92" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="E92" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="26"/>
-      <c r="G92" s="47" t="s">
-        <v>14</v>
+      <c r="F92" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="127" t="s">
+        <v>21</v>
       </c>
       <c r="H92" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I92" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="J92" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="K92" s="115"/>
+        <v>15</v>
+      </c>
+      <c r="I92" s="127"/>
+      <c r="J92" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K92" s="115">
+        <v>0</v>
+      </c>
       <c r="L92" s="115"/>
       <c r="M92" s="115"/>
-      <c r="N92" s="115"/>
-      <c r="O92" s="115"/>
-      <c r="P92" s="91">
-        <v>42906</v>
-      </c>
-      <c r="Q92" s="93">
-        <v>42935</v>
-      </c>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="92"/>
+      <c r="Q92" s="94"/>
       <c r="R92" s="95">
-        <v>42922</v>
+        <v>42914</v>
       </c>
       <c r="S92" s="96">
         <v>42944</v>
       </c>
       <c r="T92" s="115">
-        <v>47</v>
-      </c>
-      <c r="U92" s="115" t="s">
-        <v>172</v>
+        <v>1362</v>
+      </c>
+      <c r="U92" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="V92" s="115">
-        <v>6183</v>
-      </c>
-      <c r="W92" s="26"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+        <v>6045</v>
+      </c>
+      <c r="W92" s="17"/>
+    </row>
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="115"/>
       <c r="B93" s="55">
         <v>6284</v>
@@ -8806,7 +8800,7 @@
       <c r="V93" s="115"/>
       <c r="W93" s="26"/>
     </row>
-    <row r="94" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="115"/>
       <c r="B94" s="55">
         <v>6285</v>
@@ -8861,78 +8855,80 @@
       <c r="V94" s="115"/>
       <c r="W94" s="26"/>
     </row>
-    <row r="95" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B95" s="48">
-        <v>6279</v>
+        <v>6252</v>
       </c>
       <c r="C95" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="26" t="s">
-        <v>11</v>
-      </c>
+      <c r="D95" s="26"/>
       <c r="E95" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="26" t="s">
+      <c r="F95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="47" t="s">
-        <v>25</v>
+      <c r="G95" s="127" t="s">
+        <v>21</v>
       </c>
       <c r="H95" s="115" t="s">
-        <v>92</v>
-      </c>
-      <c r="I95" s="115"/>
+        <v>80</v>
+      </c>
+      <c r="I95" s="115" t="s">
+        <v>361</v>
+      </c>
       <c r="J95" s="17" t="s">
-        <v>356</v>
+        <v>237</v>
       </c>
       <c r="K95" s="115"/>
       <c r="L95" s="115"/>
       <c r="M95" s="115"/>
       <c r="N95" s="115"/>
       <c r="O95" s="115"/>
-      <c r="P95" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q95" s="94" t="s">
-        <v>213</v>
+      <c r="P95" s="91">
+        <v>42913</v>
+      </c>
+      <c r="Q95" s="93">
+        <v>42930</v>
       </c>
       <c r="R95" s="95">
-        <v>42914</v>
+        <v>42937</v>
       </c>
       <c r="S95" s="96">
         <v>42944</v>
       </c>
       <c r="T95" s="115">
-        <v>1362</v>
+        <v>1311</v>
       </c>
       <c r="U95" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="V95" s="115"/>
+        <v>238</v>
+      </c>
+      <c r="V95" s="115" t="s">
+        <v>165</v>
+      </c>
       <c r="W95" s="26"/>
     </row>
-    <row r="96" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="115" t="s">
         <v>153</v>
       </c>
       <c r="B96" s="48">
-        <v>6295</v>
+        <v>6274</v>
       </c>
       <c r="C96" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="26" t="s">
+      <c r="F96" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G96" s="47" t="s">
@@ -8944,36 +8940,38 @@
       <c r="I96" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="J96" s="17" t="s">
-        <v>357</v>
+      <c r="J96" s="56" t="s">
+        <v>310</v>
       </c>
       <c r="K96" s="115"/>
       <c r="L96" s="115"/>
       <c r="M96" s="115"/>
       <c r="N96" s="115"/>
       <c r="O96" s="115"/>
-      <c r="P96" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q96" s="94" t="s">
-        <v>213</v>
+      <c r="P96" s="91">
+        <v>42906</v>
+      </c>
+      <c r="Q96" s="93">
+        <v>42916</v>
       </c>
       <c r="R96" s="95">
-        <v>42914</v>
+        <v>42922</v>
       </c>
       <c r="S96" s="96">
-        <v>42944</v>
+        <v>42930</v>
       </c>
       <c r="T96" s="115">
-        <v>1362</v>
+        <v>520</v>
       </c>
       <c r="U96" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="V96" s="115"/>
+        <v>238</v>
+      </c>
+      <c r="V96" s="115" t="s">
+        <v>165</v>
+      </c>
       <c r="W96" s="26"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="115"/>
       <c r="B97" s="48">
         <v>6046</v>
@@ -9022,14 +9020,14 @@
       <c r="V97" s="115"/>
       <c r="W97" s="26"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="118" t="s">
         <v>153</v>
       </c>
       <c r="B98" s="48">
-        <v>6299</v>
-      </c>
-      <c r="C98" s="153" t="s">
+        <v>6295</v>
+      </c>
+      <c r="C98" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="26" t="s">
@@ -9042,36 +9040,44 @@
         <v>13</v>
       </c>
       <c r="G98" s="47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H98" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="I98" s="118"/>
+        <v>80</v>
+      </c>
+      <c r="I98" s="118" t="s">
+        <v>361</v>
+      </c>
       <c r="J98" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="K98" s="153"/>
+        <v>357</v>
+      </c>
+      <c r="K98" s="128"/>
       <c r="L98" s="115"/>
       <c r="M98" s="115"/>
       <c r="N98" s="115"/>
       <c r="O98" s="115"/>
-      <c r="P98" s="92"/>
-      <c r="Q98" s="94"/>
-      <c r="R98" s="95"/>
+      <c r="P98" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q98" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="R98" s="95">
+        <v>42914</v>
+      </c>
       <c r="S98" s="96">
         <v>42944</v>
       </c>
       <c r="T98" s="118">
-        <v>1051</v>
-      </c>
-      <c r="U98" s="26" t="s">
-        <v>274</v>
+        <v>1362</v>
+      </c>
+      <c r="U98" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="V98" s="118"/>
       <c r="W98" s="26"/>
     </row>
-    <row r="99" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="118"/>
       <c r="B99" s="48">
         <v>6298</v>
@@ -9117,6 +9123,14 @@
         <filter val="P2"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="19">
+      <filters>
+        <filter val="46"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A4:W98">
+      <sortCondition ref="G1:G99"/>
+    </sortState>
   </autoFilter>
   <sortState ref="A2:W99">
     <sortCondition ref="B2:B99"/>
@@ -9124,41 +9138,41 @@
   <hyperlinks>
     <hyperlink ref="G49" r:id="rId1"/>
     <hyperlink ref="G84" r:id="rId2"/>
-    <hyperlink ref="G86" r:id="rId3"/>
-    <hyperlink ref="G88" r:id="rId4"/>
+    <hyperlink ref="G58" r:id="rId3"/>
+    <hyperlink ref="G60" r:id="rId4"/>
     <hyperlink ref="G87" r:id="rId5"/>
-    <hyperlink ref="G47" r:id="rId6"/>
+    <hyperlink ref="G88" r:id="rId6"/>
     <hyperlink ref="G37" r:id="rId7"/>
     <hyperlink ref="G29" r:id="rId8"/>
     <hyperlink ref="G80" r:id="rId9"/>
-    <hyperlink ref="G26" r:id="rId10"/>
-    <hyperlink ref="G85" r:id="rId11"/>
+    <hyperlink ref="G10" r:id="rId10"/>
+    <hyperlink ref="G55" r:id="rId11"/>
     <hyperlink ref="G16" r:id="rId12"/>
     <hyperlink ref="G2" r:id="rId13"/>
     <hyperlink ref="G90" r:id="rId14"/>
-    <hyperlink ref="G10" r:id="rId15"/>
-    <hyperlink ref="G55" r:id="rId16"/>
-    <hyperlink ref="G59" r:id="rId17"/>
-    <hyperlink ref="G82" r:id="rId18"/>
+    <hyperlink ref="G81" r:id="rId15"/>
+    <hyperlink ref="G44" r:id="rId16"/>
+    <hyperlink ref="G4" r:id="rId17"/>
+    <hyperlink ref="G47" r:id="rId18"/>
     <hyperlink ref="G13" r:id="rId19"/>
-    <hyperlink ref="G92" r:id="rId20"/>
-    <hyperlink ref="G9" r:id="rId21"/>
-    <hyperlink ref="G11" r:id="rId22"/>
-    <hyperlink ref="G45" r:id="rId23"/>
-    <hyperlink ref="G91" r:id="rId24"/>
+    <hyperlink ref="G61" r:id="rId20"/>
+    <hyperlink ref="G79" r:id="rId21"/>
+    <hyperlink ref="G82" r:id="rId22"/>
+    <hyperlink ref="G86" r:id="rId23"/>
+    <hyperlink ref="G96" r:id="rId24"/>
     <hyperlink ref="G93" r:id="rId25"/>
     <hyperlink ref="G94" r:id="rId26"/>
     <hyperlink ref="G62" r:id="rId27"/>
-    <hyperlink ref="G74" r:id="rId28"/>
-    <hyperlink ref="G64" r:id="rId29"/>
+    <hyperlink ref="G9" r:id="rId28"/>
+    <hyperlink ref="G59" r:id="rId29"/>
     <hyperlink ref="G63" r:id="rId30"/>
     <hyperlink ref="G57" r:id="rId31"/>
-    <hyperlink ref="G79" r:id="rId32"/>
-    <hyperlink ref="G95" r:id="rId33"/>
-    <hyperlink ref="G96" r:id="rId34"/>
-    <hyperlink ref="G76" r:id="rId35"/>
+    <hyperlink ref="G45" r:id="rId32"/>
+    <hyperlink ref="G11" r:id="rId33"/>
+    <hyperlink ref="G98" r:id="rId34"/>
+    <hyperlink ref="G26" r:id="rId35"/>
     <hyperlink ref="G97" r:id="rId36"/>
-    <hyperlink ref="G98" r:id="rId37"/>
+    <hyperlink ref="G64" r:id="rId37"/>
     <hyperlink ref="G99" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9175,19 +9189,19 @@
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="45.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="15.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="71.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="45.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="15.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="52"/>
@@ -9196,7 +9210,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>230</v>
       </c>
@@ -9215,7 +9229,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>165</v>
       </c>
@@ -9234,7 +9248,7 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>165</v>
       </c>
@@ -9253,7 +9267,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>165</v>
       </c>
@@ -9272,8 +9286,8 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="127">
+    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="132">
         <v>5553</v>
       </c>
       <c r="B6" s="129" t="s">
@@ -9293,8 +9307,8 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="132"/>
       <c r="B7" s="130"/>
       <c r="C7" s="78" t="s">
         <v>339</v>
@@ -9312,7 +9326,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="76"/>
       <c r="B8" s="130"/>
       <c r="C8" s="78" t="s">
@@ -9329,7 +9343,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="76"/>
       <c r="B9" s="131"/>
       <c r="C9" s="78" t="s">
@@ -9346,7 +9360,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="129" t="s">
         <v>165</v>
       </c>
@@ -9367,7 +9381,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="131"/>
       <c r="B11" s="131"/>
       <c r="C11" s="78" t="s">
@@ -9386,11 +9400,11 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="132">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="133">
         <v>6183</v>
       </c>
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="132" t="s">
         <v>232</v>
       </c>
       <c r="C12" s="52" t="s">
@@ -9405,9 +9419,9 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="127"/>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="134"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="52" t="s">
         <v>239</v>
       </c>
@@ -9422,9 +9436,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="134"/>
-      <c r="B14" s="127"/>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="135"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="52" t="s">
         <v>240</v>
       </c>
@@ -9439,7 +9453,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="129">
         <v>6041</v>
       </c>
@@ -9458,7 +9472,7 @@
       </c>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="131"/>
       <c r="B16" s="131"/>
       <c r="C16" s="52" t="s">
@@ -9475,7 +9489,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="129">
         <v>6044</v>
       </c>
@@ -9494,7 +9508,7 @@
       </c>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="131"/>
       <c r="B18" s="131"/>
       <c r="C18" s="52" t="s">
@@ -9511,7 +9525,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="129" t="s">
         <v>165</v>
       </c>
@@ -9532,7 +9546,7 @@
       </c>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="131"/>
       <c r="B20" s="131"/>
       <c r="C20" s="52" t="s">
@@ -9549,7 +9563,7 @@
       </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="129" t="s">
         <v>165</v>
       </c>
@@ -9568,7 +9582,7 @@
       </c>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="130"/>
       <c r="B22" s="130"/>
       <c r="C22" s="52" t="s">
@@ -9583,7 +9597,7 @@
       </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="131"/>
       <c r="B23" s="131"/>
       <c r="C23" s="52" t="s">
@@ -9598,8 +9612,8 @@
       </c>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="127" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="132" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="129">
@@ -9619,8 +9633,8 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="132"/>
       <c r="B25" s="130"/>
       <c r="C25" s="52" t="s">
         <v>205</v>
@@ -9636,8 +9650,8 @@
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="132"/>
       <c r="B26" s="131"/>
       <c r="C26" s="52" t="s">
         <v>207</v>
@@ -9653,11 +9667,11 @@
       </c>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="129">
         <v>5142</v>
       </c>
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="132" t="s">
         <v>329</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -9672,9 +9686,9 @@
       </c>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="130"/>
-      <c r="B28" s="127"/>
+      <c r="B28" s="132"/>
       <c r="C28" s="16" t="s">
         <v>263</v>
       </c>
@@ -9687,9 +9701,9 @@
       </c>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="131"/>
-      <c r="B29" s="127"/>
+      <c r="B29" s="132"/>
       <c r="C29" s="16" t="s">
         <v>264</v>
       </c>
@@ -9702,7 +9716,7 @@
       </c>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="52" t="s">
         <v>165</v>
       </c>
@@ -9721,11 +9735,11 @@
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="127" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="127">
+      <c r="B31" s="132">
         <v>6274</v>
       </c>
       <c r="C31" s="75" t="s">
@@ -9740,9 +9754,9 @@
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
-      <c r="B32" s="127"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="132"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="75" t="s">
         <v>315</v>
       </c>
@@ -9755,11 +9769,11 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="127" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="127">
+      <c r="B33" s="132">
         <v>6141</v>
       </c>
       <c r="C33" s="75" t="s">
@@ -9774,9 +9788,9 @@
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
-      <c r="B34" s="127"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="132"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="75" t="s">
         <v>317</v>
       </c>
@@ -9789,9 +9803,9 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="127"/>
-      <c r="B35" s="127"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="75" t="s">
         <v>318</v>
       </c>
@@ -9804,11 +9818,11 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="127">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="132">
         <v>6201</v>
       </c>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="132" t="s">
         <v>300</v>
       </c>
       <c r="C36" s="75" t="s">
@@ -9823,9 +9837,9 @@
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="132"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="75" t="s">
         <v>320</v>
       </c>
@@ -9838,9 +9852,9 @@
       </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="127"/>
-      <c r="B38" s="127"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="132"/>
+      <c r="B38" s="132"/>
       <c r="C38" s="75" t="s">
         <v>321</v>
       </c>
@@ -9853,11 +9867,11 @@
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="127" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="127">
+      <c r="B39" s="132">
         <v>4388</v>
       </c>
       <c r="C39" s="75" t="s">
@@ -9872,9 +9886,9 @@
       </c>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="127"/>
-      <c r="B40" s="127"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="132"/>
+      <c r="B40" s="132"/>
       <c r="C40" s="75" t="s">
         <v>323</v>
       </c>
@@ -9887,9 +9901,9 @@
       </c>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="127"/>
-      <c r="B41" s="127"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="132"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="75" t="s">
         <v>324</v>
       </c>
@@ -9902,11 +9916,11 @@
       </c>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="127">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="132">
         <v>6044</v>
       </c>
-      <c r="B42" s="127">
+      <c r="B42" s="132">
         <v>3701</v>
       </c>
       <c r="C42" s="75" t="s">
@@ -9921,9 +9935,9 @@
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="127"/>
-      <c r="B43" s="127"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="132"/>
+      <c r="B43" s="132"/>
       <c r="C43" s="75" t="s">
         <v>326</v>
       </c>
@@ -9936,9 +9950,9 @@
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="127"/>
-      <c r="B44" s="127"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="132"/>
+      <c r="B44" s="132"/>
       <c r="C44" s="75" t="s">
         <v>327</v>
       </c>
@@ -9951,15 +9965,28 @@
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
+    <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.3">
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G45"/>
   <mergeCells count="29">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A24:A26"/>
@@ -9976,19 +10003,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10001,33 +10015,33 @@
   <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0.42578125" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="0.5703125" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.44140625" customWidth="1"/>
+    <col min="7" max="7" width="0.109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="0.5546875" style="10" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="10" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="10" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="10" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="0.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="86" customWidth="1"/>
-    <col min="15" max="15" width="0.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="18" width="15.28515625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="0.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" style="86" customWidth="1"/>
+    <col min="15" max="15" width="0.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" customWidth="1"/>
+    <col min="17" max="18" width="15.33203125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="32"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -10043,7 +10057,7 @@
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
     </row>
-    <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.3">
       <c r="C2" s="102" t="s">
         <v>354</v>
       </c>
@@ -10052,7 +10066,7 @@
       <c r="F2" s="37"/>
       <c r="P2" s="37"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C3" s="101" t="s">
         <v>268</v>
       </c>
@@ -10063,7 +10077,7 @@
       <c r="F3" s="37"/>
       <c r="P3" s="37"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C4" s="101" t="s">
         <v>269</v>
       </c>
@@ -10074,32 +10088,32 @@
       <c r="F4" s="37"/>
       <c r="P4" s="37"/>
     </row>
-    <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="135" t="s">
+    <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="137" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
       <c r="E7" s="89"/>
       <c r="F7" s="34"/>
       <c r="G7" s="41"/>
       <c r="H7" s="84"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="139" t="s">
         <v>350</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="140" t="s">
+      <c r="M7" s="142" t="s">
         <v>351</v>
       </c>
-      <c r="N7" s="140"/>
+      <c r="N7" s="142"/>
       <c r="O7" s="43"/>
-      <c r="P7" s="141" t="s">
+      <c r="P7" s="143" t="s">
         <v>344</v>
       </c>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="143"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="145"/>
       <c r="S7" s="44" t="s">
         <v>216</v>
       </c>
@@ -10107,7 +10121,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="2:20" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" s="32" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="90" t="s">
         <v>353</v>
       </c>
@@ -10149,18 +10163,18 @@
       <c r="R8" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="S8" s="136">
+      <c r="S8" s="138">
         <v>42951</v>
       </c>
-      <c r="T8" s="136">
+      <c r="T8" s="138">
         <v>42968</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="155">
         <v>41</v>
       </c>
       <c r="D9" s="11">
@@ -10198,14 +10212,14 @@
       <c r="R9" s="88">
         <v>42937</v>
       </c>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
-    </row>
-    <row r="10" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+    </row>
+    <row r="10" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="155">
         <v>43</v>
       </c>
       <c r="D10" s="11">
@@ -10243,10 +10257,10 @@
       <c r="R10" s="88">
         <v>42937</v>
       </c>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
-    </row>
-    <row r="11" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>1</v>
       </c>
@@ -10286,10 +10300,10 @@
       <c r="R11" s="88">
         <v>42937</v>
       </c>
-      <c r="S11" s="136"/>
-      <c r="T11" s="136"/>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+    </row>
+    <row r="12" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <v>2</v>
       </c>
@@ -10331,12 +10345,12 @@
       <c r="R12" s="88">
         <v>42944</v>
       </c>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-    </row>
-    <row r="13" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="99" t="s">
         <v>349</v>
@@ -10372,10 +10386,10 @@
       <c r="R13" s="88">
         <v>42951</v>
       </c>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-    </row>
-    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+    </row>
+    <row r="14" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
         <v>2</v>
       </c>
@@ -10415,10 +10429,10 @@
       <c r="R14" s="88">
         <v>42944</v>
       </c>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-    </row>
-    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11">
         <v>2</v>
       </c>
@@ -10458,14 +10472,14 @@
       <c r="R15" s="88">
         <v>42951</v>
       </c>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136"/>
-    </row>
-    <row r="16" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+    </row>
+    <row r="16" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="155">
         <v>506</v>
       </c>
       <c r="D16" s="11">
@@ -10503,10 +10517,10 @@
       <c r="R16" s="88">
         <v>42937</v>
       </c>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+    </row>
+    <row r="17" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>2</v>
       </c>
@@ -10546,10 +10560,10 @@
       <c r="R17" s="88">
         <v>42944</v>
       </c>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S17" s="138"/>
+      <c r="T17" s="138"/>
+    </row>
+    <row r="18" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>2</v>
       </c>
@@ -10589,12 +10603,12 @@
       <c r="R18" s="88">
         <v>42944</v>
       </c>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="99">
         <v>1051</v>
@@ -10632,10 +10646,10 @@
       <c r="R19" s="88">
         <v>42951</v>
       </c>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-    </row>
-    <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+    </row>
+    <row r="20" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>2</v>
       </c>
@@ -10675,10 +10689,10 @@
       <c r="R20" s="88">
         <v>42951</v>
       </c>
-      <c r="S20" s="136"/>
-      <c r="T20" s="136"/>
-    </row>
-    <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+    </row>
+    <row r="21" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>2</v>
       </c>
@@ -10718,12 +10732,12 @@
       <c r="R21" s="88">
         <v>42951</v>
       </c>
-      <c r="S21" s="136"/>
-      <c r="T21" s="136"/>
-    </row>
-    <row r="22" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+    </row>
+    <row r="22" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="99">
         <v>1362</v>
@@ -10763,12 +10777,12 @@
       <c r="R22" s="88">
         <v>42937</v>
       </c>
-      <c r="S22" s="136"/>
-      <c r="T22" s="136"/>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="59">
         <v>1846</v>
@@ -10806,12 +10820,12 @@
       <c r="R23" s="88">
         <v>42951</v>
       </c>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
-    </row>
-    <row r="24" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="58" t="s">
         <v>184</v>
@@ -10849,12 +10863,12 @@
       <c r="R24" s="88">
         <v>42951</v>
       </c>
-      <c r="S24" s="136"/>
-      <c r="T24" s="136"/>
-    </row>
-    <row r="25" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="58" t="s">
         <v>174</v>
@@ -10892,12 +10906,12 @@
       <c r="R25" s="88">
         <v>42951</v>
       </c>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
-    </row>
-    <row r="26" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+    </row>
+    <row r="26" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="58" t="s">
         <v>170</v>
@@ -10935,10 +10949,10 @@
       <c r="R26" s="88">
         <v>42951</v>
       </c>
-      <c r="S26" s="136"/>
-      <c r="T26" s="136"/>
-    </row>
-    <row r="27" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C27" s="103" t="s">
         <v>355</v>
       </c>
@@ -10962,7 +10976,7 @@
   <autoFilter ref="B8:U27">
     <filterColumn colId="0">
       <filters>
-        <filter val="2"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10990,76 +11004,76 @@
       <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N2" s="63"/>
-      <c r="P2" s="147" t="s">
+      <c r="P2" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="149"/>
-    </row>
-    <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="150"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="151"/>
+    </row>
+    <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64"/>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="140" t="s">
+      <c r="C4" s="147"/>
+      <c r="D4" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="146" t="s">
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="140" t="s">
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="146" t="s">
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146" t="s">
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148" t="s">
         <v>276</v>
       </c>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="146"/>
-      <c r="Z4" s="150" t="s">
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="152" t="s">
         <v>277</v>
       </c>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="152"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
+      <c r="AC4" s="154"/>
       <c r="AD4" s="7"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="8" t="s">
         <v>128</v>
@@ -11147,7 +11161,7 @@
       </c>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>120</v>
       </c>
@@ -11240,7 +11254,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="64" t="s">
         <v>122</v>
       </c>
@@ -11333,7 +11347,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="64" t="s">
         <v>146</v>
       </c>
@@ -11426,7 +11440,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>145</v>
       </c>
@@ -11519,7 +11533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="64" t="s">
         <v>118</v>
       </c>
@@ -11588,7 +11602,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="64" t="s">
         <v>119</v>
       </c>
@@ -11655,7 +11669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
         <v>123</v>
       </c>
@@ -11724,7 +11738,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35">
@@ -11815,7 +11829,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <f>SUM(B6:B13)</f>
         <v>8</v>
@@ -11865,7 +11879,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -11882,7 +11896,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="68"/>
       <c r="B16" s="62"/>
       <c r="C16" s="10"/>
@@ -11899,7 +11913,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="72"/>
       <c r="B17" s="74"/>
       <c r="C17" s="60"/>
@@ -11917,7 +11931,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="69"/>
       <c r="B18" s="60"/>
       <c r="C18" s="63"/>
@@ -11935,7 +11949,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="69"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
@@ -11953,7 +11967,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="62"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
@@ -11971,7 +11985,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -11988,7 +12002,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -12005,7 +12019,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -12022,7 +12036,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -12039,7 +12053,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -12056,7 +12070,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -12073,7 +12087,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -12090,7 +12104,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -12107,7 +12121,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -12124,7 +12138,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -12141,7 +12155,7 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -12158,7 +12172,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -12175,19 +12189,19 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -12204,7 +12218,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -12221,7 +12235,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -12234,7 +12248,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>144</v>
       </c>
@@ -12250,7 +12264,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>120</v>
       </c>
@@ -12270,7 +12284,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>122</v>
       </c>
@@ -12290,7 +12304,7 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>146</v>
       </c>
@@ -12310,7 +12324,7 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>145</v>
       </c>
@@ -12330,7 +12344,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>118</v>
       </c>
@@ -12339,7 +12353,7 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>119</v>
       </c>
@@ -12377,7 +12391,7 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>121</v>
       </c>
@@ -12385,46 +12399,46 @@
       <c r="C45" s="7"/>
       <c r="D45" s="6">
         <f>'Remaining SOW'!K79</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" s="13">
         <f>(D45)-('Remaining SOW'!$K$79/9)</f>
-        <v>3.5555555555555554</v>
+        <v>0</v>
       </c>
       <c r="F45" s="13">
         <f>(E45)-('Remaining SOW'!$K$79/9)</f>
-        <v>3.1111111111111107</v>
+        <v>0</v>
       </c>
       <c r="G45" s="13">
         <f>(F45)-('Remaining SOW'!$K$79/9)</f>
-        <v>2.6666666666666661</v>
+        <v>0</v>
       </c>
       <c r="H45" s="13">
         <f>(G45)-('Remaining SOW'!$K$79/9)</f>
-        <v>2.2222222222222214</v>
+        <v>0</v>
       </c>
       <c r="I45" s="13">
         <f>(H45)-('Remaining SOW'!$K$79/9)</f>
-        <v>1.777777777777777</v>
+        <v>0</v>
       </c>
       <c r="J45" s="13">
         <f>(I45)-('Remaining SOW'!$K$79/9)</f>
-        <v>1.3333333333333326</v>
+        <v>0</v>
       </c>
       <c r="K45" s="13">
         <f>(J45)-('Remaining SOW'!$K$79/9)</f>
-        <v>0.88888888888888817</v>
+        <v>0</v>
       </c>
       <c r="L45" s="13">
         <f>(K45)-('Remaining SOW'!$K$79/9)</f>
-        <v>0.44444444444444375</v>
+        <v>0</v>
       </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>123</v>
       </c>
@@ -12432,7 +12446,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="6">
         <f>'Remaining SOW'!K79</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -12447,13 +12461,13 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="M48" s="12">
         <v>42888</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>148</v>
       </c>
@@ -12462,7 +12476,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>149</v>
       </c>

--- a/config_management/change_requests/Revised SOW.xlsx
+++ b/config_management/change_requests/Revised SOW.xlsx
@@ -1183,7 +1183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1416,13 +1416,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1970,7 +1963,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2264,9 +2257,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2339,30 +2329,36 @@
     <xf numFmtId="0" fontId="25" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2416,12 +2412,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2731,11 +2721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="203231160"/>
-        <c:axId val="202499784"/>
+        <c:axId val="301234424"/>
+        <c:axId val="183946776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203231160"/>
+        <c:axId val="301234424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202499784"/>
+        <c:crossAx val="183946776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2786,7 +2776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202499784"/>
+        <c:axId val="183946776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +2827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203231160"/>
+        <c:crossAx val="301234424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3767,7 +3757,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:B94"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3795,93 +3785,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="115"/>
-      <c r="B1" s="115" t="s">
+      <c r="A1" s="114"/>
+      <c r="B1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="115" t="s">
+      <c r="L1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115" t="s">
+      <c r="M1" s="114"/>
+      <c r="N1" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="115" t="s">
+      <c r="O1" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="118" t="s">
+      <c r="P1" s="117" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="118" t="s">
         <v>273</v>
       </c>
-      <c r="R1" s="120" t="s">
+      <c r="R1" s="119" t="s">
         <v>345</v>
       </c>
-      <c r="S1" s="121" t="s">
+      <c r="S1" s="120" t="s">
         <v>346</v>
       </c>
-      <c r="T1" s="115" t="s">
+      <c r="T1" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="U1" s="115" t="s">
+      <c r="U1" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="V1" s="115" t="s">
+      <c r="V1" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="W1" s="115" t="s">
+      <c r="W1" s="114" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="127">
+      <c r="B2" s="126">
         <v>2962</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="113" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="113" t="s">
         <v>56</v>
       </c>
       <c r="I2" s="17" t="s">
@@ -3890,42 +3880,42 @@
       <c r="J2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="114">
+      <c r="K2" s="113">
         <v>4</v>
       </c>
       <c r="L2" s="19">
         <v>42887</v>
       </c>
       <c r="M2" s="19"/>
-      <c r="N2" s="114"/>
+      <c r="N2" s="113"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
-      <c r="T2" s="114">
+      <c r="T2" s="113">
         <v>1003</v>
       </c>
       <c r="U2" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="V2" s="114" t="s">
+      <c r="V2" s="113" t="s">
         <v>165</v>
       </c>
       <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="127"/>
+      <c r="A3" s="126"/>
       <c r="B3" s="48">
         <v>3551</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="126" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -3934,16 +3924,16 @@
       <c r="G3" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="127" t="s">
+      <c r="I3" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="127">
+      <c r="K3" s="126">
         <v>4</v>
       </c>
       <c r="L3" s="19">
@@ -3952,7 +3942,7 @@
       <c r="M3" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N3" s="127"/>
+      <c r="N3" s="126"/>
       <c r="O3" s="17"/>
       <c r="P3" s="90">
         <v>42908</v>
@@ -3966,40 +3956,40 @@
       <c r="S3" s="95">
         <v>42944</v>
       </c>
-      <c r="T3" s="127">
+      <c r="T3" s="126">
         <v>1051</v>
       </c>
       <c r="U3" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="V3" s="127" t="s">
+      <c r="V3" s="126" t="s">
         <v>213</v>
       </c>
       <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B4" s="54">
         <v>3675</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="126" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="126" t="s">
         <v>92</v>
       </c>
       <c r="I4" s="27" t="s">
@@ -4015,7 +4005,7 @@
         <v>150</v>
       </c>
       <c r="M4" s="19"/>
-      <c r="N4" s="127" t="s">
+      <c r="N4" s="126" t="s">
         <v>153</v>
       </c>
       <c r="O4" s="17"/>
@@ -4031,31 +4021,31 @@
       <c r="S4" s="95">
         <v>42944</v>
       </c>
-      <c r="T4" s="127">
+      <c r="T4" s="126">
         <v>1051</v>
       </c>
       <c r="U4" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="V4" s="127" t="s">
+      <c r="V4" s="126" t="s">
         <v>213</v>
       </c>
       <c r="W4" s="17"/>
     </row>
     <row r="5" spans="1:23" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="127">
+      <c r="B5" s="126">
         <v>3701</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="126" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -4064,21 +4054,21 @@
       <c r="G5" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="127" t="s">
+      <c r="I5" s="126" t="s">
         <v>361</v>
       </c>
       <c r="J5" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="127">
+      <c r="K5" s="126">
         <v>0</v>
       </c>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="114" t="s">
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="113" t="s">
         <v>153</v>
       </c>
       <c r="O5" s="17"/>
@@ -4094,13 +4084,13 @@
       <c r="S5" s="95">
         <v>42944</v>
       </c>
-      <c r="T5" s="127">
+      <c r="T5" s="126">
         <v>1846</v>
       </c>
       <c r="U5" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="V5" s="127">
+      <c r="V5" s="126">
         <v>5142</v>
       </c>
       <c r="W5" s="17"/>
@@ -4110,22 +4100,22 @@
       <c r="B6" s="16">
         <v>3701</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="126" t="s">
         <v>147</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="E6" s="126" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="126" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="17" t="s">
@@ -4134,14 +4124,14 @@
       <c r="J6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="127">
+      <c r="K6" s="126">
         <v>0</v>
       </c>
       <c r="L6" s="19">
         <v>42825</v>
       </c>
       <c r="M6" s="19"/>
-      <c r="N6" s="114" t="s">
+      <c r="N6" s="113" t="s">
         <v>153</v>
       </c>
       <c r="O6" s="17"/>
@@ -4155,19 +4145,19 @@
       <c r="W6" s="17"/>
     </row>
     <row r="7" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="127">
+      <c r="B7" s="126">
         <v>3702</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="113" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -4176,23 +4166,23 @@
       <c r="G7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="127" t="s">
+      <c r="I7" s="126" t="s">
         <v>156</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="114">
+      <c r="K7" s="113">
         <v>0</v>
       </c>
       <c r="L7" s="19">
         <v>42818</v>
       </c>
       <c r="M7" s="19"/>
-      <c r="N7" s="127" t="s">
+      <c r="N7" s="126" t="s">
         <v>153</v>
       </c>
       <c r="O7" s="17"/>
@@ -4208,36 +4198,36 @@
       <c r="S7" s="95">
         <v>42944</v>
       </c>
-      <c r="T7" s="127" t="s">
+      <c r="T7" s="126" t="s">
         <v>174</v>
       </c>
       <c r="U7" s="17"/>
-      <c r="V7" s="127">
+      <c r="V7" s="126">
         <v>6044</v>
       </c>
       <c r="W7" s="17"/>
     </row>
     <row r="8" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
-      <c r="B8" s="127">
+      <c r="B8" s="126">
         <v>3727</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="113" t="s">
         <v>147</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="113" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="17" t="s">
@@ -4246,20 +4236,20 @@
       <c r="J8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="114">
+      <c r="K8" s="113">
         <v>8</v>
       </c>
       <c r="L8" s="19">
         <v>42860</v>
       </c>
       <c r="M8" s="19"/>
-      <c r="N8" s="127"/>
+      <c r="N8" s="126"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="127">
+      <c r="T8" s="126">
         <v>506</v>
       </c>
       <c r="U8" s="17" t="s">
@@ -4273,22 +4263,22 @@
       <c r="B9" s="16">
         <v>3762</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="113" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="127" t="s">
+      <c r="G9" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="113" t="s">
         <v>56</v>
       </c>
       <c r="I9" s="17" t="s">
@@ -4297,11 +4287,11 @@
       <c r="J9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="114">
+      <c r="K9" s="113">
         <v>0</v>
       </c>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -4314,19 +4304,19 @@
       <c r="W9" s="17"/>
     </row>
     <row r="10" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="114" t="s">
+      <c r="A10" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B10" s="21">
         <v>3789</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="17" t="s">
@@ -4335,10 +4325,10 @@
       <c r="G10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="114" t="s">
+      <c r="H10" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="114" t="s">
+      <c r="I10" s="113" t="s">
         <v>360</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -4351,7 +4341,7 @@
         <v>150</v>
       </c>
       <c r="M10" s="19"/>
-      <c r="N10" s="114" t="s">
+      <c r="N10" s="113" t="s">
         <v>153</v>
       </c>
       <c r="O10" s="17"/>
@@ -4367,11 +4357,11 @@
       <c r="S10" s="95">
         <v>42944</v>
       </c>
-      <c r="T10" s="114" t="s">
+      <c r="T10" s="113" t="s">
         <v>174</v>
       </c>
       <c r="U10" s="17"/>
-      <c r="V10" s="127" t="s">
+      <c r="V10" s="126" t="s">
         <v>165</v>
       </c>
       <c r="W10" s="17"/>
@@ -4412,7 +4402,7 @@
         <v>42855</v>
       </c>
       <c r="M11" s="29"/>
-      <c r="N11" s="114" t="s">
+      <c r="N11" s="113" t="s">
         <v>152</v>
       </c>
       <c r="O11" s="28"/>
@@ -4426,17 +4416,17 @@
       <c r="W11" s="28"/>
     </row>
     <row r="12" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127">
+      <c r="A12" s="126"/>
+      <c r="B12" s="126">
         <v>3968</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="17" t="s">
@@ -4445,23 +4435,23 @@
       <c r="G12" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="114" t="s">
+      <c r="H12" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="127" t="s">
+      <c r="I12" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="114">
+      <c r="K12" s="113">
         <v>4</v>
       </c>
       <c r="L12" s="19">
         <v>42825</v>
       </c>
       <c r="M12" s="19"/>
-      <c r="N12" s="127"/>
+      <c r="N12" s="126"/>
       <c r="O12" s="17"/>
       <c r="P12" s="91"/>
       <c r="Q12" s="92" t="s">
@@ -4473,11 +4463,11 @@
       <c r="S12" s="95">
         <v>42944</v>
       </c>
-      <c r="T12" s="127" t="s">
+      <c r="T12" s="126" t="s">
         <v>174</v>
       </c>
       <c r="U12" s="17"/>
-      <c r="V12" s="127" t="s">
+      <c r="V12" s="126" t="s">
         <v>165</v>
       </c>
       <c r="W12" s="17"/>
@@ -4487,22 +4477,22 @@
       <c r="B13" s="16">
         <v>3974</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="113" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="127" t="s">
+      <c r="G13" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="113" t="s">
         <v>56</v>
       </c>
       <c r="I13" s="17" t="s">
@@ -4511,11 +4501,11 @@
       <c r="J13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="114">
+      <c r="K13" s="113">
         <v>0</v>
       </c>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
@@ -4528,28 +4518,28 @@
       <c r="W13" s="17"/>
     </row>
     <row r="14" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="54">
         <v>4171</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="114" t="s">
+      <c r="H14" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I14" s="27" t="s">
@@ -4558,14 +4548,14 @@
       <c r="J14" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="K14" s="127">
+      <c r="K14" s="126">
         <v>40</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>150</v>
       </c>
       <c r="M14" s="19"/>
-      <c r="N14" s="114"/>
+      <c r="N14" s="113"/>
       <c r="O14" s="17"/>
       <c r="P14" s="90">
         <v>42902</v>
@@ -4579,31 +4569,31 @@
       <c r="S14" s="95">
         <v>42944</v>
       </c>
-      <c r="T14" s="114">
+      <c r="T14" s="113">
         <v>47</v>
       </c>
       <c r="U14" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="V14" s="114">
+      <c r="V14" s="113">
         <v>6183</v>
       </c>
       <c r="W14" s="17"/>
     </row>
     <row r="15" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="127">
+      <c r="B15" s="126">
         <v>4251</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -4612,26 +4602,26 @@
       <c r="G15" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H15" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I15" s="127"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="114">
+      <c r="K15" s="113">
         <v>4</v>
       </c>
       <c r="L15" s="19">
         <v>42821</v>
       </c>
       <c r="M15" s="19"/>
-      <c r="N15" s="114"/>
+      <c r="N15" s="113"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="112">
+      <c r="P15" s="111">
         <v>42906</v>
       </c>
-      <c r="Q15" s="113">
+      <c r="Q15" s="112">
         <v>42907</v>
       </c>
       <c r="R15" s="94">
@@ -4640,52 +4630,52 @@
       <c r="S15" s="95">
         <v>42944</v>
       </c>
-      <c r="T15" s="127">
+      <c r="T15" s="126">
         <v>1362</v>
       </c>
       <c r="U15" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="V15" s="127">
+      <c r="V15" s="126">
         <v>6045</v>
       </c>
       <c r="W15" s="17"/>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="114">
+      <c r="B16" s="113">
         <v>4386</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="114" t="s">
+      <c r="H16" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="114"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="114">
+      <c r="K16" s="113">
         <v>0</v>
       </c>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="114"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="113"/>
       <c r="O16" s="17"/>
       <c r="P16" s="91"/>
       <c r="Q16" s="92">
@@ -4697,29 +4687,29 @@
       <c r="S16" s="95">
         <v>42944</v>
       </c>
-      <c r="T16" s="114" t="s">
+      <c r="T16" s="113" t="s">
         <v>169</v>
       </c>
       <c r="U16" s="17"/>
-      <c r="V16" s="114" t="s">
+      <c r="V16" s="113" t="s">
         <v>165</v>
       </c>
       <c r="W16" s="17"/>
     </row>
     <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="114">
+      <c r="B17" s="113">
         <v>4388</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="17" t="s">
@@ -4728,21 +4718,21 @@
       <c r="G17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="114" t="s">
+      <c r="H17" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="127"/>
+      <c r="I17" s="126"/>
       <c r="J17" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="K17" s="114">
+      <c r="K17" s="113">
         <f>SUBTOTAL(9,K8:K16)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="127"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="126"/>
       <c r="P17" s="90">
         <v>42916</v>
       </c>
@@ -4755,7 +4745,7 @@
       <c r="S17" s="95">
         <v>42944</v>
       </c>
-      <c r="T17" s="114">
+      <c r="T17" s="113">
         <v>1110</v>
       </c>
       <c r="U17" s="26" t="s">
@@ -4818,49 +4808,49 @@
       <c r="W18" s="22"/>
     </row>
     <row r="19" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B19" s="97">
         <v>4658</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="114" t="s">
+      <c r="H19" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I19" s="127" t="s">
+      <c r="I19" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="114">
+      <c r="K19" s="113">
         <v>16</v>
       </c>
       <c r="L19" s="19">
         <v>42894</v>
       </c>
       <c r="M19" s="19"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
+      <c r="N19" s="126"/>
+      <c r="O19" s="126"/>
       <c r="P19" s="90">
         <v>42893</v>
       </c>
-      <c r="Q19" s="113" t="s">
+      <c r="Q19" s="112" t="s">
         <v>348</v>
       </c>
       <c r="R19" s="94">
@@ -4869,29 +4859,29 @@
       <c r="S19" s="95">
         <v>42923</v>
       </c>
-      <c r="T19" s="127">
+      <c r="T19" s="126">
         <v>41</v>
       </c>
       <c r="U19" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V19" s="127">
+      <c r="V19" s="126">
         <v>5553</v>
       </c>
       <c r="W19" s="17"/>
     </row>
     <row r="20" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
-      <c r="B20" s="127">
+      <c r="B20" s="126">
         <v>4781</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="113" t="s">
         <v>147</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="17" t="s">
@@ -4900,7 +4890,7 @@
       <c r="G20" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="114" t="s">
+      <c r="H20" s="113" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="17" t="s">
@@ -4909,15 +4899,15 @@
       <c r="J20" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="126"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="126"/>
+      <c r="S20" s="126"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="26"/>
@@ -4928,22 +4918,22 @@
       <c r="B21" s="16">
         <v>4800</v>
       </c>
-      <c r="C21" s="114" t="s">
+      <c r="C21" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="114" t="s">
+      <c r="E21" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="127" t="s">
+      <c r="G21" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="114" t="s">
+      <c r="H21" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="17" t="s">
@@ -4952,11 +4942,11 @@
       <c r="J21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="114">
+      <c r="K21" s="113">
         <v>0</v>
       </c>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
@@ -4973,22 +4963,22 @@
       <c r="B22" s="16">
         <v>4817</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="114" t="s">
+      <c r="E22" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="114" t="s">
+      <c r="H22" s="113" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="17" t="s">
@@ -4997,7 +4987,7 @@
       <c r="J22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="114">
+      <c r="K22" s="113">
         <v>2</v>
       </c>
       <c r="L22" s="19">
@@ -5016,19 +5006,19 @@
       <c r="W22" s="17"/>
     </row>
     <row r="23" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="127" t="s">
+      <c r="A23" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B23" s="48">
         <v>4835</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="114" t="s">
+      <c r="E23" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="17" t="s">
@@ -5037,7 +5027,7 @@
       <c r="G23" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="114" t="s">
+      <c r="H23" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="27" t="s">
@@ -5046,15 +5036,15 @@
       <c r="J23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="114">
+      <c r="K23" s="113">
         <v>16</v>
       </c>
       <c r="L23" s="19">
         <v>42874</v>
       </c>
       <c r="M23" s="19"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="126"/>
       <c r="P23" s="90">
         <v>42902</v>
       </c>
@@ -5067,55 +5057,55 @@
       <c r="S23" s="95">
         <v>42944</v>
       </c>
-      <c r="T23" s="127">
+      <c r="T23" s="126">
         <v>47</v>
       </c>
       <c r="U23" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="V23" s="127">
+      <c r="V23" s="126">
         <v>6183</v>
       </c>
       <c r="W23" s="26"/>
     </row>
     <row r="24" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="54">
         <v>4836</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="114" t="s">
+      <c r="E24" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="127" t="s">
+      <c r="F24" s="126" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="H24" s="114" t="s">
+      <c r="H24" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="127" t="s">
+      <c r="I24" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J24" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="114">
+      <c r="K24" s="113">
         <v>8</v>
       </c>
-      <c r="L24" s="114" t="s">
+      <c r="L24" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="M24" s="114"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
       <c r="P24" s="90"/>
       <c r="Q24" s="92" t="s">
         <v>348</v>
@@ -5126,55 +5116,55 @@
       <c r="S24" s="95">
         <v>42944</v>
       </c>
-      <c r="T24" s="127">
+      <c r="T24" s="126">
         <v>47</v>
       </c>
-      <c r="U24" s="127" t="s">
+      <c r="U24" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="V24" s="127">
+      <c r="V24" s="126">
         <v>6183</v>
       </c>
-      <c r="W24" s="127"/>
+      <c r="W24" s="126"/>
     </row>
     <row r="25" spans="1:23" s="3" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B25" s="48">
         <v>4969</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="114" t="s">
+      <c r="E25" s="113" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="127" t="s">
+      <c r="G25" s="126" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="I25" s="127"/>
+      <c r="I25" s="126"/>
       <c r="J25" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="114">
+      <c r="K25" s="113">
         <v>30</v>
       </c>
       <c r="L25" s="19">
         <v>42894</v>
       </c>
       <c r="M25" s="19"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="127">
+      <c r="N25" s="113"/>
+      <c r="O25" s="126">
         <v>3</v>
       </c>
       <c r="P25" s="90">
@@ -5189,61 +5179,61 @@
       <c r="S25" s="95">
         <v>42930</v>
       </c>
-      <c r="T25" s="114">
+      <c r="T25" s="113">
         <v>47</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="V25" s="114">
+      <c r="V25" s="113">
         <v>6183</v>
       </c>
       <c r="W25" s="17"/>
     </row>
     <row r="26" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="127">
+      <c r="B26" s="126">
         <v>5006</v>
       </c>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="127" t="s">
+      <c r="E26" s="126" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="127" t="s">
+      <c r="G26" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="114" t="s">
+      <c r="H26" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="114" t="s">
+      <c r="I26" s="113" t="s">
         <v>361</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="K26" s="114">
+      <c r="K26" s="113">
         <v>8</v>
       </c>
       <c r="L26" s="19">
         <v>42874</v>
       </c>
       <c r="M26" s="19"/>
-      <c r="N26" s="127"/>
+      <c r="N26" s="126"/>
       <c r="O26" s="17"/>
       <c r="P26" s="90">
         <v>42913</v>
       </c>
-      <c r="Q26" s="116">
+      <c r="Q26" s="115">
         <v>42913</v>
       </c>
       <c r="R26" s="94">
@@ -5252,13 +5242,13 @@
       <c r="S26" s="95">
         <v>42944</v>
       </c>
-      <c r="T26" s="114">
+      <c r="T26" s="113">
         <v>113</v>
       </c>
       <c r="U26" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="V26" s="127" t="s">
+      <c r="V26" s="126" t="s">
         <v>234</v>
       </c>
       <c r="W26" s="17"/>
@@ -5268,22 +5258,22 @@
       <c r="B27" s="16">
         <v>5008</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="114" t="s">
+      <c r="E27" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="127" t="s">
+      <c r="G27" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="114" t="s">
+      <c r="H27" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I27" s="17" t="s">
@@ -5292,11 +5282,11 @@
       <c r="J27" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="K27" s="114">
+      <c r="K27" s="113">
         <v>0</v>
       </c>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="113"/>
       <c r="N27" s="17"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -5310,25 +5300,25 @@
     </row>
     <row r="28" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="127">
+      <c r="B28" s="126">
         <v>5017</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="113" t="s">
         <v>147</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="114" t="s">
+      <c r="E28" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="127" t="s">
+      <c r="G28" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="114" t="s">
+      <c r="H28" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I28" s="17" t="s">
@@ -5337,14 +5327,14 @@
       <c r="J28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="114">
+      <c r="K28" s="113">
         <v>0</v>
       </c>
       <c r="L28" s="19">
         <v>42818</v>
       </c>
       <c r="M28" s="19"/>
-      <c r="N28" s="127" t="s">
+      <c r="N28" s="126" t="s">
         <v>153</v>
       </c>
       <c r="O28" s="17"/>
@@ -5352,13 +5342,13 @@
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="114">
+      <c r="T28" s="113">
         <v>47</v>
       </c>
       <c r="U28" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="V28" s="114"/>
+      <c r="V28" s="113"/>
       <c r="W28" s="17"/>
     </row>
     <row r="29" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -5366,22 +5356,22 @@
       <c r="B29" s="16">
         <v>5029</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="114" t="s">
+      <c r="E29" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="127" t="s">
+      <c r="G29" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="114" t="s">
+      <c r="H29" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I29" s="17" t="s">
@@ -5390,11 +5380,11 @@
       <c r="J29" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="114">
+      <c r="K29" s="113">
         <v>0</v>
       </c>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
@@ -5442,7 +5432,7 @@
         <v>42839</v>
       </c>
       <c r="M30" s="29"/>
-      <c r="N30" s="114"/>
+      <c r="N30" s="113"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
@@ -5454,17 +5444,17 @@
       <c r="W30" s="28"/>
     </row>
     <row r="31" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B31" s="48">
         <v>5142</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="26"/>
-      <c r="E31" s="114" t="s">
+      <c r="E31" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -5473,20 +5463,20 @@
       <c r="G31" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="114" t="s">
+      <c r="H31" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="127" t="s">
+      <c r="I31" s="126" t="s">
         <v>361</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
       <c r="P31" s="90">
         <v>42934</v>
       </c>
@@ -5499,38 +5489,38 @@
       <c r="S31" s="95">
         <v>42944</v>
       </c>
-      <c r="T31" s="127">
+      <c r="T31" s="126">
         <v>1846</v>
       </c>
       <c r="U31" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="V31" s="127" t="s">
+      <c r="V31" s="126" t="s">
         <v>165</v>
       </c>
       <c r="W31" s="26"/>
     </row>
     <row r="32" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="127">
+      <c r="B32" s="126">
         <v>5144</v>
       </c>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="113" t="s">
         <v>147</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="114" t="s">
+      <c r="E32" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="127" t="s">
+      <c r="G32" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="114" t="s">
+      <c r="H32" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I32" s="17" t="s">
@@ -5539,26 +5529,26 @@
       <c r="J32" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="K32" s="114">
+      <c r="K32" s="113">
         <v>12</v>
       </c>
       <c r="L32" s="19">
         <v>42874</v>
       </c>
       <c r="M32" s="19"/>
-      <c r="N32" s="127"/>
+      <c r="N32" s="126"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="127">
+      <c r="T32" s="126">
         <v>1649</v>
       </c>
       <c r="U32" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="V32" s="127"/>
+      <c r="V32" s="126"/>
       <c r="W32" s="17"/>
     </row>
     <row r="33" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -5597,7 +5587,7 @@
         <v>42853</v>
       </c>
       <c r="M33" s="29"/>
-      <c r="N33" s="127" t="s">
+      <c r="N33" s="126" t="s">
         <v>153</v>
       </c>
       <c r="O33" s="28"/>
@@ -5611,51 +5601,51 @@
       <c r="W33" s="28"/>
     </row>
     <row r="34" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="123" t="s">
+      <c r="A34" s="122" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="97">
         <v>5401</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="114" t="s">
+      <c r="E34" s="113" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="127" t="s">
+      <c r="G34" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="114" t="s">
+      <c r="H34" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I34" s="127" t="s">
+      <c r="I34" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="K34" s="114">
+      <c r="K34" s="113">
         <v>8</v>
       </c>
       <c r="L34" s="19">
         <v>42894</v>
       </c>
       <c r="M34" s="19"/>
-      <c r="N34" s="127"/>
-      <c r="O34" s="127">
+      <c r="N34" s="126"/>
+      <c r="O34" s="126">
         <v>5</v>
       </c>
       <c r="P34" s="90">
         <v>42893</v>
       </c>
-      <c r="Q34" s="113" t="s">
+      <c r="Q34" s="112" t="s">
         <v>348</v>
       </c>
       <c r="R34" s="94">
@@ -5664,31 +5654,31 @@
       <c r="S34" s="95">
         <v>42923</v>
       </c>
-      <c r="T34" s="127">
+      <c r="T34" s="126">
         <v>41</v>
       </c>
       <c r="U34" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V34" s="127">
+      <c r="V34" s="126">
         <v>5553</v>
       </c>
       <c r="W34" s="17"/>
     </row>
     <row r="35" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="127">
+      <c r="B35" s="126">
         <v>5402</v>
       </c>
-      <c r="C35" s="114" t="s">
+      <c r="C35" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="114" t="s">
+      <c r="E35" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="17" t="s">
@@ -5697,20 +5687,20 @@
       <c r="G35" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="114" t="s">
+      <c r="H35" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="127" t="s">
+      <c r="I35" s="126" t="s">
         <v>362</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="126"/>
+      <c r="O35" s="126"/>
       <c r="P35" s="90">
         <v>42934</v>
       </c>
@@ -5723,27 +5713,27 @@
       <c r="S35" s="95">
         <v>42944</v>
       </c>
-      <c r="T35" s="127" t="s">
+      <c r="T35" s="126" t="s">
         <v>184</v>
       </c>
       <c r="U35" s="26"/>
-      <c r="V35" s="127" t="s">
+      <c r="V35" s="126" t="s">
         <v>165</v>
       </c>
       <c r="W35" s="26"/>
     </row>
     <row r="36" spans="1:23" s="30" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="122"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="97">
         <v>5496</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="127" t="s">
+      <c r="E36" s="126" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="17" t="s">
@@ -5752,21 +5742,21 @@
       <c r="G36" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="127" t="s">
+      <c r="H36" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="127" t="s">
+      <c r="I36" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K36" s="127">
+      <c r="K36" s="126">
         <v>0</v>
       </c>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
       <c r="O36" s="17"/>
       <c r="P36" s="90">
         <v>42893</v>
@@ -5780,13 +5770,13 @@
       <c r="S36" s="95">
         <v>42923</v>
       </c>
-      <c r="T36" s="127">
+      <c r="T36" s="126">
         <v>41</v>
       </c>
       <c r="U36" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V36" s="127">
+      <c r="V36" s="126">
         <v>5553</v>
       </c>
       <c r="W36" s="17"/>
@@ -5796,22 +5786,22 @@
       <c r="B37" s="16">
         <v>5503</v>
       </c>
-      <c r="C37" s="114" t="s">
+      <c r="C37" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="114" t="s">
+      <c r="E37" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="127" t="s">
+      <c r="G37" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="114" t="s">
+      <c r="H37" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I37" s="17" t="s">
@@ -5820,11 +5810,11 @@
       <c r="J37" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="K37" s="114">
+      <c r="K37" s="113">
         <v>0</v>
       </c>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -5841,22 +5831,22 @@
       <c r="B38" s="16">
         <v>5529</v>
       </c>
-      <c r="C38" s="114" t="s">
+      <c r="C38" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="114" t="s">
+      <c r="E38" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="127" t="s">
+      <c r="G38" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="127" t="s">
+      <c r="H38" s="126" t="s">
         <v>36</v>
       </c>
       <c r="I38" s="17" t="s">
@@ -5865,11 +5855,11 @@
       <c r="J38" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K38" s="114">
+      <c r="K38" s="113">
         <v>0</v>
       </c>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
@@ -5886,22 +5876,22 @@
       <c r="B39" s="16">
         <v>5530</v>
       </c>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="126" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="127" t="s">
+      <c r="E39" s="126" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="127" t="s">
+      <c r="G39" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="127" t="s">
+      <c r="H39" s="126" t="s">
         <v>36</v>
       </c>
       <c r="I39" s="17" t="s">
@@ -5910,11 +5900,11 @@
       <c r="J39" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K39" s="127">
+      <c r="K39" s="126">
         <v>0</v>
       </c>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="126"/>
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
@@ -5927,39 +5917,39 @@
       <c r="W39" s="17"/>
     </row>
     <row r="40" spans="1:23" s="30" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B40" s="48">
         <v>5553</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="127" t="s">
+      <c r="E40" s="126" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="127" t="s">
+      <c r="G40" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="127" t="s">
+      <c r="H40" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="127"/>
+      <c r="I40" s="126"/>
       <c r="J40" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="K40" s="127">
+      <c r="K40" s="126">
         <v>0</v>
       </c>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="126"/>
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
       <c r="P40" s="91"/>
@@ -5970,13 +5960,13 @@
       <c r="S40" s="95">
         <v>42923</v>
       </c>
-      <c r="T40" s="127">
+      <c r="T40" s="126">
         <v>41</v>
       </c>
       <c r="U40" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V40" s="127">
+      <c r="V40" s="126">
         <v>5553</v>
       </c>
       <c r="W40" s="17"/>
@@ -5986,22 +5976,22 @@
       <c r="B41" s="16">
         <v>5610</v>
       </c>
-      <c r="C41" s="127" t="s">
+      <c r="C41" s="126" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="127" t="s">
+      <c r="E41" s="126" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="127" t="s">
+      <c r="G41" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="127" t="s">
+      <c r="H41" s="126" t="s">
         <v>56</v>
       </c>
       <c r="I41" s="17" t="s">
@@ -6010,11 +6000,11 @@
       <c r="J41" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="127">
+      <c r="K41" s="126">
         <v>0</v>
       </c>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="126"/>
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
@@ -6027,51 +6017,51 @@
       <c r="W41" s="17"/>
     </row>
     <row r="42" spans="1:23" s="3" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="110" t="s">
         <v>153</v>
       </c>
       <c r="B42" s="97">
         <v>5685</v>
       </c>
-      <c r="C42" s="114" t="s">
+      <c r="C42" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="114" t="s">
+      <c r="E42" s="113" t="s">
         <v>34</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="127" t="s">
+      <c r="G42" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="114" t="s">
+      <c r="H42" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="127" t="s">
+      <c r="I42" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J42" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K42" s="114">
+      <c r="K42" s="113">
         <v>2</v>
       </c>
       <c r="L42" s="19">
         <v>42894</v>
       </c>
       <c r="M42" s="19"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="127" t="s">
+      <c r="N42" s="113"/>
+      <c r="O42" s="126" t="s">
         <v>156</v>
       </c>
       <c r="P42" s="90">
         <v>42893</v>
       </c>
-      <c r="Q42" s="113" t="s">
+      <c r="Q42" s="112" t="s">
         <v>348</v>
       </c>
       <c r="R42" s="94">
@@ -6080,13 +6070,13 @@
       <c r="S42" s="95">
         <v>42923</v>
       </c>
-      <c r="T42" s="127">
+      <c r="T42" s="126">
         <v>41</v>
       </c>
       <c r="U42" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V42" s="127">
+      <c r="V42" s="126">
         <v>5553</v>
       </c>
       <c r="W42" s="17"/>
@@ -6096,22 +6086,22 @@
       <c r="B43" s="16">
         <v>5817</v>
       </c>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="114" t="s">
+      <c r="E43" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="127" t="s">
+      <c r="G43" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="114" t="s">
+      <c r="H43" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I43" s="17" t="s">
@@ -6120,11 +6110,11 @@
       <c r="J43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="K43" s="114">
+      <c r="K43" s="113">
         <v>0</v>
       </c>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
       <c r="N43" s="17"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
@@ -6141,22 +6131,22 @@
       <c r="B44" s="16">
         <v>5838</v>
       </c>
-      <c r="C44" s="114" t="s">
+      <c r="C44" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="114" t="s">
+      <c r="E44" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="127" t="s">
+      <c r="G44" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="114" t="s">
+      <c r="H44" s="113" t="s">
         <v>56</v>
       </c>
       <c r="I44" s="17" t="s">
@@ -6165,11 +6155,11 @@
       <c r="J44" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="K44" s="114">
+      <c r="K44" s="113">
         <v>0</v>
       </c>
-      <c r="L44" s="127"/>
-      <c r="M44" s="127"/>
+      <c r="L44" s="126"/>
+      <c r="M44" s="126"/>
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
@@ -6186,22 +6176,22 @@
       <c r="B45" s="16">
         <v>5842</v>
       </c>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="114" t="s">
+      <c r="E45" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="127" t="s">
+      <c r="G45" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="114" t="s">
+      <c r="H45" s="113" t="s">
         <v>36</v>
       </c>
       <c r="I45" s="17" t="s">
@@ -6210,11 +6200,11 @@
       <c r="J45" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K45" s="114">
+      <c r="K45" s="113">
         <v>0</v>
       </c>
-      <c r="L45" s="127"/>
-      <c r="M45" s="127"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="126"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
@@ -6231,22 +6221,22 @@
       <c r="B46" s="16">
         <v>5844</v>
       </c>
-      <c r="C46" s="114" t="s">
+      <c r="C46" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="114" t="s">
+      <c r="E46" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="127" t="s">
+      <c r="G46" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="114" t="s">
+      <c r="H46" s="113" t="s">
         <v>36</v>
       </c>
       <c r="I46" s="17" t="s">
@@ -6255,11 +6245,11 @@
       <c r="J46" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K46" s="114">
+      <c r="K46" s="113">
         <v>0</v>
       </c>
-      <c r="L46" s="127"/>
-      <c r="M46" s="127"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="126"/>
       <c r="N46" s="17"/>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
@@ -6276,22 +6266,22 @@
       <c r="B47" s="16">
         <v>5899</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="114" t="s">
+      <c r="E47" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="127" t="s">
+      <c r="G47" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="114" t="s">
+      <c r="H47" s="113" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="17" t="s">
@@ -6300,11 +6290,11 @@
       <c r="J47" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="114">
+      <c r="K47" s="113">
         <v>0</v>
       </c>
-      <c r="L47" s="127"/>
-      <c r="M47" s="127"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="126"/>
       <c r="N47" s="17"/>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
@@ -6321,22 +6311,22 @@
       <c r="B48" s="16">
         <v>5901</v>
       </c>
-      <c r="C48" s="127" t="s">
+      <c r="C48" s="126" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="127" t="s">
+      <c r="E48" s="126" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="127" t="s">
+      <c r="G48" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="127" t="s">
+      <c r="H48" s="126" t="s">
         <v>92</v>
       </c>
       <c r="I48" s="17" t="s">
@@ -6345,11 +6335,11 @@
       <c r="J48" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="K48" s="127">
+      <c r="K48" s="126">
         <v>0</v>
       </c>
-      <c r="L48" s="127"/>
-      <c r="M48" s="127"/>
+      <c r="L48" s="126"/>
+      <c r="M48" s="126"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
@@ -6362,19 +6352,19 @@
       <c r="W48" s="17"/>
     </row>
     <row r="49" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B49" s="97">
         <v>5902</v>
       </c>
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="114" t="s">
+      <c r="E49" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F49" s="17" t="s">
@@ -6383,23 +6373,23 @@
       <c r="G49" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="114" t="s">
+      <c r="H49" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I49" s="114" t="s">
+      <c r="I49" s="113" t="s">
         <v>365</v>
       </c>
       <c r="J49" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K49" s="114">
+      <c r="K49" s="113">
         <v>0</v>
       </c>
       <c r="L49" s="19">
         <v>42860</v>
       </c>
       <c r="M49" s="19"/>
-      <c r="N49" s="127"/>
+      <c r="N49" s="126"/>
       <c r="O49" s="17"/>
       <c r="P49" s="90">
         <v>42901</v>
@@ -6413,13 +6403,13 @@
       <c r="S49" s="95">
         <v>42923</v>
       </c>
-      <c r="T49" s="114">
+      <c r="T49" s="113">
         <v>41</v>
       </c>
       <c r="U49" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V49" s="114">
+      <c r="V49" s="113">
         <v>5553</v>
       </c>
       <c r="W49" s="17"/>
@@ -6511,7 +6501,7 @@
         <v>42832</v>
       </c>
       <c r="M51" s="29"/>
-      <c r="N51" s="114"/>
+      <c r="N51" s="113"/>
       <c r="O51" s="28"/>
       <c r="P51" s="28"/>
       <c r="Q51" s="28"/>
@@ -6558,7 +6548,7 @@
         <v>42832</v>
       </c>
       <c r="M52" s="29"/>
-      <c r="N52" s="114"/>
+      <c r="N52" s="113"/>
       <c r="O52" s="28"/>
       <c r="P52" s="28"/>
       <c r="Q52" s="28"/>
@@ -6571,25 +6561,25 @@
     </row>
     <row r="53" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
-      <c r="B53" s="127">
+      <c r="B53" s="126">
         <v>5910</v>
       </c>
-      <c r="C53" s="114" t="s">
+      <c r="C53" s="113" t="s">
         <v>147</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="114" t="s">
+      <c r="E53" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="127" t="s">
+      <c r="G53" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H53" s="114" t="s">
+      <c r="H53" s="113" t="s">
         <v>70</v>
       </c>
       <c r="I53" s="17" t="s">
@@ -6598,14 +6588,14 @@
       <c r="J53" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K53" s="114">
+      <c r="K53" s="113">
         <v>0</v>
       </c>
       <c r="L53" s="19">
         <v>42832</v>
       </c>
       <c r="M53" s="19"/>
-      <c r="N53" s="127"/>
+      <c r="N53" s="126"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
@@ -6617,19 +6607,19 @@
       <c r="W53" s="17"/>
     </row>
     <row r="54" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="127" t="s">
+      <c r="A54" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B54" s="48">
         <v>5915</v>
       </c>
-      <c r="C54" s="114" t="s">
+      <c r="C54" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="114" t="s">
+      <c r="E54" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="17" t="s">
@@ -6638,7 +6628,7 @@
       <c r="G54" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="114" t="s">
+      <c r="H54" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I54" s="27" t="s">
@@ -6647,14 +6637,14 @@
       <c r="J54" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K54" s="114">
+      <c r="K54" s="113">
         <v>8</v>
       </c>
       <c r="L54" s="19">
         <v>42894</v>
       </c>
       <c r="M54" s="19"/>
-      <c r="N54" s="127"/>
+      <c r="N54" s="126"/>
       <c r="O54" s="17"/>
       <c r="P54" s="90">
         <v>42906</v>
@@ -6668,57 +6658,57 @@
       <c r="S54" s="95">
         <v>42944</v>
       </c>
-      <c r="T54" s="127">
+      <c r="T54" s="126">
         <v>47</v>
       </c>
       <c r="U54" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="V54" s="127">
+      <c r="V54" s="126">
         <v>6183</v>
       </c>
       <c r="W54" s="17"/>
     </row>
     <row r="55" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="111" t="s">
+      <c r="A55" s="110" t="s">
         <v>153</v>
       </c>
       <c r="B55" s="48">
         <v>5929</v>
       </c>
-      <c r="C55" s="114" t="s">
+      <c r="C55" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="114" t="s">
+      <c r="E55" s="113" t="s">
         <v>34</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="127" t="s">
+      <c r="G55" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="114" t="s">
+      <c r="H55" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I55" s="127" t="s">
+      <c r="I55" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J55" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K55" s="114">
+      <c r="K55" s="113">
         <v>12</v>
       </c>
       <c r="L55" s="19">
         <v>42894</v>
       </c>
       <c r="M55" s="19"/>
-      <c r="N55" s="114"/>
-      <c r="O55" s="127">
+      <c r="N55" s="113"/>
+      <c r="O55" s="126">
         <v>4</v>
       </c>
       <c r="P55" s="90">
@@ -6733,13 +6723,13 @@
       <c r="S55" s="95">
         <v>42923</v>
       </c>
-      <c r="T55" s="114">
+      <c r="T55" s="113">
         <v>41</v>
       </c>
       <c r="U55" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V55" s="114">
+      <c r="V55" s="113">
         <v>5553</v>
       </c>
       <c r="W55" s="17"/>
@@ -6749,22 +6739,22 @@
       <c r="B56" s="16">
         <v>5946</v>
       </c>
-      <c r="C56" s="114" t="s">
+      <c r="C56" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="114" t="s">
+      <c r="E56" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="127" t="s">
+      <c r="G56" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H56" s="114" t="s">
+      <c r="H56" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I56" s="17" t="s">
@@ -6773,7 +6763,7 @@
       <c r="J56" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="K56" s="114">
+      <c r="K56" s="113">
         <v>0</v>
       </c>
       <c r="L56" s="19">
@@ -6796,22 +6786,22 @@
       <c r="B57" s="16">
         <v>5964</v>
       </c>
-      <c r="C57" s="127" t="s">
+      <c r="C57" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="127" t="s">
+      <c r="E57" s="126" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="127" t="s">
+      <c r="G57" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="H57" s="127" t="s">
+      <c r="H57" s="126" t="s">
         <v>56</v>
       </c>
       <c r="I57" s="17" t="s">
@@ -6820,11 +6810,11 @@
       <c r="J57" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K57" s="127">
+      <c r="K57" s="126">
         <v>0</v>
       </c>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
+      <c r="L57" s="126"/>
+      <c r="M57" s="126"/>
       <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
@@ -6841,22 +6831,22 @@
       <c r="B58" s="16">
         <v>5967</v>
       </c>
-      <c r="C58" s="114" t="s">
+      <c r="C58" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="114" t="s">
+      <c r="E58" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="127" t="s">
+      <c r="G58" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="114" t="s">
+      <c r="H58" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I58" s="17" t="s">
@@ -6865,11 +6855,11 @@
       <c r="J58" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="K58" s="114">
+      <c r="K58" s="113">
         <v>0</v>
       </c>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
       <c r="N58" s="17"/>
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
@@ -6886,22 +6876,22 @@
       <c r="B59" s="16">
         <v>5968</v>
       </c>
-      <c r="C59" s="127" t="s">
+      <c r="C59" s="126" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="127" t="s">
+      <c r="E59" s="126" t="s">
         <v>24</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="127" t="s">
+      <c r="G59" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="127" t="s">
+      <c r="H59" s="126" t="s">
         <v>92</v>
       </c>
       <c r="I59" s="17" t="s">
@@ -6910,11 +6900,11 @@
       <c r="J59" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="K59" s="127">
+      <c r="K59" s="126">
         <v>0</v>
       </c>
-      <c r="L59" s="127"/>
-      <c r="M59" s="127"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="126"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
@@ -6927,7 +6917,7 @@
       <c r="W59" s="17"/>
     </row>
     <row r="60" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="114" t="s">
+      <c r="A60" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B60" s="97">
@@ -6984,7 +6974,7 @@
       <c r="U60" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V60" s="114">
+      <c r="V60" s="113">
         <v>5553</v>
       </c>
       <c r="W60" s="22"/>
@@ -6994,22 +6984,22 @@
       <c r="B61" s="16">
         <v>6032</v>
       </c>
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="114" t="s">
+      <c r="E61" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="127" t="s">
+      <c r="G61" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="114" t="s">
+      <c r="H61" s="113" t="s">
         <v>36</v>
       </c>
       <c r="I61" s="17" t="s">
@@ -7018,11 +7008,11 @@
       <c r="J61" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K61" s="114">
+      <c r="K61" s="113">
         <v>0</v>
       </c>
-      <c r="L61" s="114"/>
-      <c r="M61" s="114"/>
+      <c r="L61" s="113"/>
+      <c r="M61" s="113"/>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
@@ -7039,22 +7029,22 @@
       <c r="B62" s="16">
         <v>6039</v>
       </c>
-      <c r="C62" s="114" t="s">
+      <c r="C62" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="114" t="s">
+      <c r="E62" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="127" t="s">
+      <c r="G62" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="114" t="s">
+      <c r="H62" s="113" t="s">
         <v>36</v>
       </c>
       <c r="I62" s="17" t="s">
@@ -7063,11 +7053,11 @@
       <c r="J62" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K62" s="114">
+      <c r="K62" s="113">
         <v>0</v>
       </c>
-      <c r="L62" s="127"/>
-      <c r="M62" s="127"/>
+      <c r="L62" s="126"/>
+      <c r="M62" s="126"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
@@ -7084,22 +7074,22 @@
       <c r="B63" s="16">
         <v>6040</v>
       </c>
-      <c r="C63" s="114" t="s">
+      <c r="C63" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="114" t="s">
+      <c r="E63" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="127" t="s">
+      <c r="G63" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="114" t="s">
+      <c r="H63" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I63" s="17" t="s">
@@ -7108,11 +7098,11 @@
       <c r="J63" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="K63" s="114">
+      <c r="K63" s="113">
         <v>0</v>
       </c>
-      <c r="L63" s="127"/>
-      <c r="M63" s="127"/>
+      <c r="L63" s="126"/>
+      <c r="M63" s="126"/>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
@@ -7125,39 +7115,39 @@
       <c r="W63" s="17"/>
     </row>
     <row r="64" spans="1:23" s="103" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="125" t="s">
+      <c r="A64" s="124" t="s">
         <v>153</v>
       </c>
       <c r="B64" s="48">
         <v>6041</v>
       </c>
-      <c r="C64" s="125" t="s">
+      <c r="C64" s="124" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="125" t="s">
+      <c r="E64" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="127" t="s">
+      <c r="G64" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="125" t="s">
+      <c r="H64" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="I64" s="125"/>
+      <c r="I64" s="124"/>
       <c r="J64" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="K64" s="125">
+      <c r="K64" s="124">
         <v>0</v>
       </c>
-      <c r="L64" s="125"/>
-      <c r="M64" s="125"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="124"/>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
       <c r="P64" s="91"/>
@@ -7170,19 +7160,19 @@
       <c r="S64" s="95">
         <v>42930</v>
       </c>
-      <c r="T64" s="125">
+      <c r="T64" s="124">
         <v>101</v>
       </c>
       <c r="U64" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="V64" s="127">
+      <c r="V64" s="126">
         <v>6041</v>
       </c>
       <c r="W64" s="17"/>
     </row>
     <row r="65" spans="1:23" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="127" t="s">
+      <c r="A65" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B65" s="97">
@@ -7247,22 +7237,22 @@
       <c r="B66" s="16">
         <v>6043</v>
       </c>
-      <c r="C66" s="114" t="s">
+      <c r="C66" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="114" t="s">
+      <c r="E66" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="127" t="s">
+      <c r="G66" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H66" s="114" t="s">
+      <c r="H66" s="113" t="s">
         <v>78</v>
       </c>
       <c r="I66" s="17" t="s">
@@ -7271,11 +7261,11 @@
       <c r="J66" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K66" s="114">
+      <c r="K66" s="113">
         <v>0</v>
       </c>
-      <c r="L66" s="114"/>
-      <c r="M66" s="114"/>
+      <c r="L66" s="113"/>
+      <c r="M66" s="113"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
@@ -7288,39 +7278,39 @@
       <c r="W66" s="17"/>
     </row>
     <row r="67" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="127" t="s">
+      <c r="A67" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B67" s="48">
         <v>6044</v>
       </c>
-      <c r="C67" s="114" t="s">
+      <c r="C67" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="114" t="s">
+      <c r="E67" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="127" t="s">
+      <c r="G67" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="114" t="s">
+      <c r="H67" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I67" s="127"/>
+      <c r="I67" s="126"/>
       <c r="J67" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K67" s="114">
+      <c r="K67" s="113">
         <v>0</v>
       </c>
-      <c r="L67" s="114"/>
-      <c r="M67" s="114"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="P67" s="91"/>
@@ -7333,13 +7323,13 @@
       <c r="S67" s="95">
         <v>42944</v>
       </c>
-      <c r="T67" s="127">
+      <c r="T67" s="126">
         <v>113</v>
       </c>
       <c r="U67" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="V67" s="127">
+      <c r="V67" s="126">
         <v>6044</v>
       </c>
       <c r="W67" s="17"/>
@@ -7351,33 +7341,33 @@
       <c r="B68" s="48">
         <v>6045</v>
       </c>
-      <c r="C68" s="114" t="s">
+      <c r="C68" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="114" t="s">
+      <c r="E68" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="127" t="s">
+      <c r="G68" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H68" s="114" t="s">
+      <c r="H68" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="I68" s="127"/>
+      <c r="I68" s="126"/>
       <c r="J68" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K68" s="114">
+      <c r="K68" s="113">
         <v>0</v>
       </c>
-      <c r="L68" s="114"/>
-      <c r="M68" s="114"/>
+      <c r="L68" s="113"/>
+      <c r="M68" s="113"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
       <c r="P68" s="91"/>
@@ -7388,13 +7378,13 @@
       <c r="S68" s="95">
         <v>42944</v>
       </c>
-      <c r="T68" s="127">
+      <c r="T68" s="126">
         <v>1362</v>
       </c>
       <c r="U68" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="V68" s="127">
+      <c r="V68" s="126">
         <v>6045</v>
       </c>
       <c r="W68" s="17"/>
@@ -7404,22 +7394,22 @@
       <c r="B69" s="16">
         <v>6046</v>
       </c>
-      <c r="C69" s="114" t="s">
+      <c r="C69" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="114" t="s">
+      <c r="E69" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="127" t="s">
+      <c r="G69" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="114" t="s">
+      <c r="H69" s="113" t="s">
         <v>36</v>
       </c>
       <c r="I69" s="17" t="s">
@@ -7428,11 +7418,11 @@
       <c r="J69" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K69" s="114">
+      <c r="K69" s="113">
         <v>0</v>
       </c>
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
@@ -7445,17 +7435,17 @@
       <c r="W69" s="17"/>
     </row>
     <row r="70" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="127"/>
+      <c r="A70" s="126"/>
       <c r="B70" s="48">
         <v>6046</v>
       </c>
-      <c r="C70" s="114" t="s">
+      <c r="C70" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="114" t="s">
+      <c r="E70" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="26" t="s">
@@ -7464,20 +7454,20 @@
       <c r="G70" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H70" s="114" t="s">
+      <c r="H70" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I70" s="127" t="s">
+      <c r="I70" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J70" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K70" s="114"/>
-      <c r="L70" s="127"/>
-      <c r="M70" s="127"/>
-      <c r="N70" s="127"/>
-      <c r="O70" s="127"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="126"/>
       <c r="P70" s="91"/>
       <c r="Q70" s="93"/>
       <c r="R70" s="94">
@@ -7486,27 +7476,27 @@
       <c r="S70" s="95">
         <v>42923</v>
       </c>
-      <c r="T70" s="127">
+      <c r="T70" s="126">
         <v>43</v>
       </c>
       <c r="U70" s="26"/>
-      <c r="V70" s="127"/>
+      <c r="V70" s="126"/>
       <c r="W70" s="26"/>
     </row>
     <row r="71" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="110" t="s">
         <v>153</v>
       </c>
       <c r="B71" s="48">
         <v>6047</v>
       </c>
-      <c r="C71" s="114" t="s">
+      <c r="C71" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="114" t="s">
+      <c r="E71" s="113" t="s">
         <v>34</v>
       </c>
       <c r="F71" s="17" t="s">
@@ -7515,24 +7505,24 @@
       <c r="G71" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H71" s="114" t="s">
+      <c r="H71" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I71" s="127" t="s">
+      <c r="I71" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J71" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="K71" s="114">
+      <c r="K71" s="113">
         <v>8</v>
       </c>
       <c r="L71" s="19">
         <v>42825</v>
       </c>
       <c r="M71" s="19"/>
-      <c r="N71" s="127"/>
-      <c r="O71" s="127" t="s">
+      <c r="N71" s="126"/>
+      <c r="O71" s="126" t="s">
         <v>156</v>
       </c>
       <c r="P71" s="90">
@@ -7547,31 +7537,31 @@
       <c r="S71" s="95">
         <v>42923</v>
       </c>
-      <c r="T71" s="127">
+      <c r="T71" s="126">
         <v>43</v>
       </c>
       <c r="U71" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="V71" s="127">
+      <c r="V71" s="126">
         <v>5553</v>
       </c>
       <c r="W71" s="17"/>
     </row>
     <row r="72" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="127" t="s">
+      <c r="A72" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B72" s="97">
         <v>6048</v>
       </c>
-      <c r="C72" s="114" t="s">
+      <c r="C72" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="114" t="s">
+      <c r="E72" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="17" t="s">
@@ -7580,20 +7570,20 @@
       <c r="G72" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H72" s="114" t="s">
+      <c r="H72" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I72" s="127" t="s">
+      <c r="I72" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J72" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="K72" s="114">
+      <c r="K72" s="113">
         <v>0</v>
       </c>
-      <c r="L72" s="114"/>
-      <c r="M72" s="114"/>
+      <c r="L72" s="113"/>
+      <c r="M72" s="113"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="P72" s="90">
@@ -7608,7 +7598,7 @@
       <c r="S72" s="95">
         <v>42923</v>
       </c>
-      <c r="T72" s="127">
+      <c r="T72" s="126">
         <v>43</v>
       </c>
       <c r="U72" s="17"/>
@@ -7625,72 +7615,72 @@
       <c r="C73" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="106" t="s">
+      <c r="D73" s="105" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="106" t="s">
+      <c r="F73" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="G73" s="105" t="s">
-        <v>25</v>
+      <c r="G73" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="H73" s="104" t="s">
         <v>92</v>
       </c>
       <c r="I73" s="104"/>
-      <c r="J73" s="106" t="s">
+      <c r="J73" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="K73" s="114">
+      <c r="K73" s="113">
         <v>0</v>
       </c>
-      <c r="L73" s="114"/>
-      <c r="M73" s="114"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="107">
+      <c r="P73" s="106">
         <v>42900</v>
       </c>
-      <c r="Q73" s="108">
+      <c r="Q73" s="107">
         <v>42907</v>
       </c>
-      <c r="R73" s="109">
+      <c r="R73" s="108">
         <v>42914</v>
       </c>
-      <c r="S73" s="110">
+      <c r="S73" s="109">
         <v>42923</v>
       </c>
       <c r="T73" s="104">
         <v>46</v>
       </c>
-      <c r="U73" s="106"/>
-      <c r="V73" s="106"/>
-      <c r="W73" s="106"/>
+      <c r="U73" s="105"/>
+      <c r="V73" s="105"/>
+      <c r="W73" s="105"/>
     </row>
     <row r="74" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="16">
         <v>6050</v>
       </c>
-      <c r="C74" s="114" t="s">
+      <c r="C74" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="127" t="s">
+      <c r="G74" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="H74" s="114" t="s">
+      <c r="H74" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I74" s="17" t="s">
@@ -7699,11 +7689,11 @@
       <c r="J74" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="K74" s="114">
+      <c r="K74" s="113">
         <v>0</v>
       </c>
-      <c r="L74" s="127"/>
-      <c r="M74" s="127"/>
+      <c r="L74" s="126"/>
+      <c r="M74" s="126"/>
       <c r="N74" s="17"/>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
@@ -7716,45 +7706,45 @@
       <c r="W74" s="17"/>
     </row>
     <row r="75" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="127" t="s">
+      <c r="A75" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B75" s="97">
         <v>6054</v>
       </c>
-      <c r="C75" s="114" t="s">
+      <c r="C75" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="114" t="s">
+      <c r="E75" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="127" t="s">
+      <c r="G75" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="H75" s="114" t="s">
+      <c r="H75" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="I75" s="127" t="s">
+      <c r="I75" s="126" t="s">
         <v>365</v>
       </c>
       <c r="J75" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="K75" s="114">
+      <c r="K75" s="113">
         <v>8</v>
       </c>
       <c r="L75" s="19">
         <v>42894</v>
       </c>
       <c r="M75" s="19"/>
-      <c r="N75" s="127"/>
-      <c r="O75" s="127"/>
+      <c r="N75" s="126"/>
+      <c r="O75" s="126"/>
       <c r="P75" s="90">
         <v>42893</v>
       </c>
@@ -7767,29 +7757,29 @@
       <c r="S75" s="95">
         <v>42923</v>
       </c>
-      <c r="T75" s="127">
+      <c r="T75" s="126">
         <v>41</v>
       </c>
       <c r="U75" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V75" s="127">
+      <c r="V75" s="126">
         <v>5553</v>
       </c>
       <c r="W75" s="17"/>
     </row>
     <row r="76" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="114"/>
+      <c r="A76" s="113"/>
       <c r="B76" s="27">
         <v>6137</v>
       </c>
-      <c r="C76" s="114" t="s">
+      <c r="C76" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E76" s="111" t="s">
+      <c r="E76" s="110" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="17" t="s">
@@ -7798,20 +7788,20 @@
       <c r="G76" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="114" t="s">
+      <c r="H76" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I76" s="114" t="s">
+      <c r="I76" s="113" t="s">
         <v>365</v>
       </c>
       <c r="J76" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="K76" s="114">
+      <c r="K76" s="113">
         <v>0</v>
       </c>
-      <c r="L76" s="114"/>
-      <c r="M76" s="114"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="113"/>
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="P76" s="90" t="s">
@@ -7826,7 +7816,7 @@
       <c r="S76" s="95">
         <v>42923</v>
       </c>
-      <c r="T76" s="114">
+      <c r="T76" s="113">
         <v>43</v>
       </c>
       <c r="U76" s="17" t="s">
@@ -7836,19 +7826,19 @@
       <c r="W76" s="17"/>
     </row>
     <row r="77" spans="1:23" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="127" t="s">
+      <c r="A77" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="127">
+      <c r="B77" s="126">
         <v>6141</v>
       </c>
-      <c r="C77" s="114" t="s">
+      <c r="C77" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="114" t="s">
+      <c r="E77" s="113" t="s">
         <v>34</v>
       </c>
       <c r="F77" s="17" t="s">
@@ -7857,21 +7847,21 @@
       <c r="G77" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H77" s="114" t="s">
+      <c r="H77" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="127"/>
+      <c r="I77" s="126"/>
       <c r="J77" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="K77" s="114">
+      <c r="K77" s="113">
         <v>0</v>
       </c>
       <c r="L77" s="19">
         <v>42874</v>
       </c>
       <c r="M77" s="19"/>
-      <c r="N77" s="127"/>
+      <c r="N77" s="126"/>
       <c r="O77" s="17"/>
       <c r="P77" s="90">
         <v>42900</v>
@@ -7885,52 +7875,52 @@
       <c r="S77" s="95">
         <v>42930</v>
       </c>
-      <c r="T77" s="127">
+      <c r="T77" s="126">
         <v>1032</v>
       </c>
       <c r="U77" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="V77" s="127" t="s">
+      <c r="V77" s="126" t="s">
         <v>165</v>
       </c>
       <c r="W77" s="17"/>
     </row>
     <row r="78" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="114" t="s">
+      <c r="A78" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="48">
         <v>6183</v>
       </c>
-      <c r="C78" s="114" t="s">
+      <c r="C78" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="114" t="s">
+      <c r="E78" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="127" t="s">
+      <c r="G78" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="114" t="s">
+      <c r="H78" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="I78" s="114"/>
+      <c r="I78" s="113"/>
       <c r="J78" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K78" s="114">
+      <c r="K78" s="113">
         <v>0</v>
       </c>
-      <c r="L78" s="127"/>
-      <c r="M78" s="127"/>
-      <c r="N78" s="127"/>
+      <c r="L78" s="126"/>
+      <c r="M78" s="126"/>
+      <c r="N78" s="126"/>
       <c r="O78" s="17"/>
       <c r="P78" s="91"/>
       <c r="Q78" s="92">
@@ -7942,13 +7932,13 @@
       <c r="S78" s="95">
         <v>42930</v>
       </c>
-      <c r="T78" s="114">
+      <c r="T78" s="113">
         <v>47</v>
       </c>
       <c r="U78" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="V78" s="114">
+      <c r="V78" s="113">
         <v>6183</v>
       </c>
       <c r="W78" s="17"/>
@@ -7958,22 +7948,22 @@
       <c r="B79" s="16">
         <v>6186</v>
       </c>
-      <c r="C79" s="114" t="s">
+      <c r="C79" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="114" t="s">
+      <c r="E79" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="127" t="s">
+      <c r="G79" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H79" s="114" t="s">
+      <c r="H79" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I79" s="17" t="s">
@@ -7982,11 +7972,11 @@
       <c r="J79" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K79" s="114">
+      <c r="K79" s="113">
         <v>0</v>
       </c>
-      <c r="L79" s="125"/>
-      <c r="M79" s="125"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="124"/>
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
@@ -7999,19 +7989,19 @@
       <c r="W79" s="17"/>
     </row>
     <row r="80" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="127" t="s">
+      <c r="A80" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B80" s="48">
         <v>6200</v>
       </c>
-      <c r="C80" s="114" t="s">
+      <c r="C80" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="114" t="s">
+      <c r="E80" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="17" t="s">
@@ -8020,7 +8010,7 @@
       <c r="G80" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="114" t="s">
+      <c r="H80" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I80" s="27" t="s">
@@ -8029,15 +8019,15 @@
       <c r="J80" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="K80" s="114">
+      <c r="K80" s="113">
         <v>4</v>
       </c>
       <c r="L80" s="19">
         <v>42894</v>
       </c>
       <c r="M80" s="19"/>
-      <c r="N80" s="114"/>
-      <c r="O80" s="114"/>
+      <c r="N80" s="113"/>
+      <c r="O80" s="113"/>
       <c r="P80" s="90">
         <v>42906</v>
       </c>
@@ -8050,51 +8040,51 @@
       <c r="S80" s="95">
         <v>42930</v>
       </c>
-      <c r="T80" s="127">
+      <c r="T80" s="126">
         <v>47</v>
       </c>
       <c r="U80" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="V80" s="127">
+      <c r="V80" s="126">
         <v>6183</v>
       </c>
       <c r="W80" s="17"/>
     </row>
     <row r="81" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="114" t="s">
+      <c r="A81" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B81" s="48">
         <v>6201</v>
       </c>
-      <c r="C81" s="114" t="s">
+      <c r="C81" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="114" t="s">
+      <c r="E81" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G81" s="127" t="s">
+      <c r="G81" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="114" t="s">
+      <c r="H81" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="127"/>
+      <c r="I81" s="126"/>
       <c r="J81" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K81" s="114">
+      <c r="K81" s="113">
         <v>0</v>
       </c>
-      <c r="L81" s="127"/>
-      <c r="M81" s="127"/>
+      <c r="L81" s="126"/>
+      <c r="M81" s="126"/>
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="P81" s="91"/>
@@ -8107,31 +8097,31 @@
       <c r="S81" s="95">
         <v>42944</v>
       </c>
-      <c r="T81" s="114">
+      <c r="T81" s="113">
         <v>1051</v>
       </c>
       <c r="U81" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="V81" s="114">
+      <c r="V81" s="113">
         <v>6201</v>
       </c>
       <c r="W81" s="17"/>
     </row>
     <row r="82" spans="1:23" s="4" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="114" t="s">
+      <c r="A82" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B82" s="48">
         <v>6202</v>
       </c>
-      <c r="C82" s="114" t="s">
+      <c r="C82" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E82" s="114" t="s">
+      <c r="E82" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F82" s="17" t="s">
@@ -8140,23 +8130,23 @@
       <c r="G82" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H82" s="114" t="s">
+      <c r="H82" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="I82" s="114" t="s">
+      <c r="I82" s="113" t="s">
         <v>156</v>
       </c>
       <c r="J82" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K82" s="127">
+      <c r="K82" s="126">
         <v>4</v>
       </c>
       <c r="L82" s="19">
         <v>42881</v>
       </c>
       <c r="M82" s="19"/>
-      <c r="N82" s="127"/>
+      <c r="N82" s="126"/>
       <c r="O82" s="17"/>
       <c r="P82" s="90">
         <v>42913</v>
@@ -8170,13 +8160,13 @@
       <c r="S82" s="95">
         <v>42944</v>
       </c>
-      <c r="T82" s="114">
+      <c r="T82" s="113">
         <v>1051</v>
       </c>
       <c r="U82" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="V82" s="114">
+      <c r="V82" s="113">
         <v>6201</v>
       </c>
       <c r="W82" s="17"/>
@@ -8186,22 +8176,22 @@
       <c r="B83" s="16">
         <v>6203</v>
       </c>
-      <c r="C83" s="114" t="s">
+      <c r="C83" s="113" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="114" t="s">
+      <c r="E83" s="113" t="s">
         <v>24</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="127" t="s">
+      <c r="G83" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H83" s="114" t="s">
+      <c r="H83" s="113" t="s">
         <v>15</v>
       </c>
       <c r="I83" s="17" t="s">
@@ -8210,11 +8200,11 @@
       <c r="J83" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K83" s="114">
+      <c r="K83" s="113">
         <v>0</v>
       </c>
-      <c r="L83" s="127"/>
-      <c r="M83" s="127"/>
+      <c r="L83" s="126"/>
+      <c r="M83" s="126"/>
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
@@ -8227,42 +8217,42 @@
       <c r="W83" s="17"/>
     </row>
     <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="114"/>
-      <c r="B84" s="127">
+      <c r="A84" s="113"/>
+      <c r="B84" s="126">
         <v>6208</v>
       </c>
-      <c r="C84" s="114" t="s">
+      <c r="C84" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="114" t="s">
+      <c r="E84" s="113" t="s">
         <v>34</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="127" t="s">
+      <c r="G84" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="H84" s="114" t="s">
+      <c r="H84" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I84" s="114" t="s">
+      <c r="I84" s="113" t="s">
         <v>365</v>
       </c>
-      <c r="J84" s="124" t="s">
+      <c r="J84" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="K84" s="114">
+      <c r="K84" s="113">
         <v>40</v>
       </c>
       <c r="L84" s="19">
         <v>42853</v>
       </c>
       <c r="M84" s="19"/>
-      <c r="N84" s="114"/>
+      <c r="N84" s="113"/>
       <c r="O84" s="17"/>
       <c r="P84" s="91"/>
       <c r="Q84" s="92" t="s">
@@ -8274,31 +8264,31 @@
       <c r="S84" s="95">
         <v>42944</v>
       </c>
-      <c r="T84" s="114">
+      <c r="T84" s="113">
         <v>1846</v>
       </c>
       <c r="U84" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="V84" s="114" t="s">
+      <c r="V84" s="113" t="s">
         <v>165</v>
       </c>
       <c r="W84" s="17"/>
     </row>
     <row r="85" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="114" t="s">
+      <c r="A85" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B85" s="27">
         <v>6220</v>
       </c>
-      <c r="C85" s="114" t="s">
+      <c r="C85" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E85" s="114" t="s">
+      <c r="E85" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F85" s="17" t="s">
@@ -8307,28 +8297,28 @@
       <c r="G85" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H85" s="114" t="s">
+      <c r="H85" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="I85" s="125" t="s">
+      <c r="I85" s="124" t="s">
         <v>365</v>
       </c>
       <c r="J85" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="K85" s="114">
+      <c r="K85" s="113">
         <v>2</v>
       </c>
       <c r="L85" s="19">
         <v>42886</v>
       </c>
       <c r="M85" s="19"/>
-      <c r="N85" s="114"/>
-      <c r="O85" s="127"/>
+      <c r="N85" s="113"/>
+      <c r="O85" s="126"/>
       <c r="P85" s="90">
         <v>42906</v>
       </c>
-      <c r="Q85" s="113" t="s">
+      <c r="Q85" s="112" t="s">
         <v>348</v>
       </c>
       <c r="R85" s="94">
@@ -8337,33 +8327,33 @@
       <c r="S85" s="95">
         <v>42923</v>
       </c>
-      <c r="T85" s="114">
+      <c r="T85" s="113">
         <v>506</v>
       </c>
       <c r="U85" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="V85" s="114" t="s">
+      <c r="V85" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="W85" s="127">
+      <c r="W85" s="126">
         <v>4251</v>
       </c>
     </row>
     <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B86" s="54">
         <v>6231</v>
       </c>
-      <c r="C86" s="114" t="s">
+      <c r="C86" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="114" t="s">
+      <c r="E86" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="26" t="s">
@@ -8372,7 +8362,7 @@
       <c r="G86" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="114" t="s">
+      <c r="H86" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I86" s="27" t="s">
@@ -8381,15 +8371,15 @@
       <c r="J86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K86" s="114">
+      <c r="K86" s="113">
         <v>16</v>
       </c>
-      <c r="L86" s="114" t="s">
+      <c r="L86" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="M86" s="114"/>
-      <c r="N86" s="114"/>
-      <c r="O86" s="114"/>
+      <c r="M86" s="113"/>
+      <c r="N86" s="113"/>
+      <c r="O86" s="113"/>
       <c r="P86" s="90">
         <v>42908</v>
       </c>
@@ -8402,31 +8392,31 @@
       <c r="S86" s="95">
         <v>42944</v>
       </c>
-      <c r="T86" s="114">
+      <c r="T86" s="113">
         <v>1051</v>
       </c>
       <c r="U86" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="V86" s="114">
+      <c r="V86" s="113">
         <v>6201</v>
       </c>
       <c r="W86" s="26"/>
     </row>
     <row r="87" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="114" t="s">
+      <c r="A87" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B87" s="54">
         <v>6232</v>
       </c>
-      <c r="C87" s="114" t="s">
+      <c r="C87" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="114" t="s">
+      <c r="E87" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="17" t="s">
@@ -8435,7 +8425,7 @@
       <c r="G87" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="114" t="s">
+      <c r="H87" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I87" s="27" t="s">
@@ -8444,11 +8434,11 @@
       <c r="J87" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="K87" s="114"/>
-      <c r="L87" s="114"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="114"/>
-      <c r="O87" s="114"/>
+      <c r="K87" s="113"/>
+      <c r="L87" s="113"/>
+      <c r="M87" s="113"/>
+      <c r="N87" s="113"/>
+      <c r="O87" s="113"/>
       <c r="P87" s="90">
         <v>42908</v>
       </c>
@@ -8461,29 +8451,29 @@
       <c r="S87" s="95">
         <v>42944</v>
       </c>
-      <c r="T87" s="114">
+      <c r="T87" s="113">
         <v>1051</v>
       </c>
       <c r="U87" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="V87" s="114">
+      <c r="V87" s="113">
         <v>6201</v>
       </c>
       <c r="W87" s="26"/>
     </row>
     <row r="88" spans="1:23" s="3" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="114"/>
+      <c r="A88" s="113"/>
       <c r="B88" s="21">
         <v>6235</v>
       </c>
-      <c r="C88" s="114" t="s">
+      <c r="C88" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="114" t="s">
+      <c r="E88" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="17" t="s">
@@ -8492,20 +8482,20 @@
       <c r="G88" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="H88" s="114" t="s">
+      <c r="H88" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I88" s="125" t="s">
+      <c r="I88" s="124" t="s">
         <v>365</v>
       </c>
       <c r="J88" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="K88" s="114"/>
-      <c r="L88" s="114"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="114"/>
-      <c r="O88" s="114"/>
+      <c r="K88" s="113"/>
+      <c r="L88" s="113"/>
+      <c r="M88" s="113"/>
+      <c r="N88" s="113"/>
+      <c r="O88" s="113"/>
       <c r="P88" s="91"/>
       <c r="Q88" s="92" t="s">
         <v>348</v>
@@ -8516,29 +8506,29 @@
       <c r="S88" s="95">
         <v>42944</v>
       </c>
-      <c r="T88" s="114" t="s">
+      <c r="T88" s="113" t="s">
         <v>170</v>
       </c>
       <c r="U88" s="26"/>
-      <c r="V88" s="114" t="s">
+      <c r="V88" s="113" t="s">
         <v>165</v>
       </c>
       <c r="W88" s="26"/>
     </row>
     <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="114" t="s">
+      <c r="A89" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B89" s="21">
         <v>6236</v>
       </c>
-      <c r="C89" s="114" t="s">
+      <c r="C89" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="114" t="s">
+      <c r="E89" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="17" t="s">
@@ -8547,7 +8537,7 @@
       <c r="G89" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="114" t="s">
+      <c r="H89" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I89" s="27" t="s">
@@ -8556,11 +8546,11 @@
       <c r="J89" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="K89" s="114"/>
-      <c r="L89" s="114"/>
-      <c r="M89" s="114"/>
-      <c r="N89" s="127"/>
-      <c r="O89" s="127"/>
+      <c r="K89" s="113"/>
+      <c r="L89" s="113"/>
+      <c r="M89" s="113"/>
+      <c r="N89" s="126"/>
+      <c r="O89" s="126"/>
       <c r="P89" s="90">
         <v>42906</v>
       </c>
@@ -8573,27 +8563,27 @@
       <c r="S89" s="95">
         <v>42944</v>
       </c>
-      <c r="T89" s="114" t="s">
+      <c r="T89" s="113" t="s">
         <v>170</v>
       </c>
       <c r="U89" s="26"/>
-      <c r="V89" s="114" t="s">
+      <c r="V89" s="113" t="s">
         <v>165</v>
       </c>
       <c r="W89" s="26"/>
     </row>
     <row r="90" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="114" t="s">
+      <c r="A90" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B90" s="48">
         <v>6252</v>
       </c>
-      <c r="C90" s="114" t="s">
+      <c r="C90" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D90" s="26"/>
-      <c r="E90" s="114" t="s">
+      <c r="E90" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F90" s="17" t="s">
@@ -8602,20 +8592,20 @@
       <c r="G90" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H90" s="114" t="s">
+      <c r="H90" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="I90" s="127" t="s">
+      <c r="I90" s="126" t="s">
         <v>361</v>
       </c>
       <c r="J90" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="K90" s="114"/>
-      <c r="L90" s="127"/>
-      <c r="M90" s="114"/>
-      <c r="N90" s="114"/>
-      <c r="O90" s="114"/>
+      <c r="K90" s="113"/>
+      <c r="L90" s="126"/>
+      <c r="M90" s="113"/>
+      <c r="N90" s="113"/>
+      <c r="O90" s="113"/>
       <c r="P90" s="90">
         <v>42913</v>
       </c>
@@ -8628,31 +8618,31 @@
       <c r="S90" s="95">
         <v>42944</v>
       </c>
-      <c r="T90" s="114">
+      <c r="T90" s="113">
         <v>1311</v>
       </c>
       <c r="U90" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="V90" s="114" t="s">
+      <c r="V90" s="113" t="s">
         <v>165</v>
       </c>
       <c r="W90" s="26"/>
     </row>
     <row r="91" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="114" t="s">
+      <c r="A91" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B91" s="96">
         <v>6257</v>
       </c>
-      <c r="C91" s="114" t="s">
+      <c r="C91" s="113" t="s">
         <v>147</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="114" t="s">
+      <c r="E91" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F91" s="17" t="s">
@@ -8661,20 +8651,20 @@
       <c r="G91" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="114" t="s">
+      <c r="H91" s="113" t="s">
         <v>80</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="K91" s="114"/>
+      <c r="K91" s="113"/>
       <c r="L91" s="19">
         <v>42894</v>
       </c>
-      <c r="M91" s="114"/>
-      <c r="N91" s="127"/>
-      <c r="O91" s="127"/>
+      <c r="M91" s="113"/>
+      <c r="N91" s="126"/>
+      <c r="O91" s="126"/>
       <c r="P91" s="90">
         <v>42893</v>
       </c>
@@ -8687,31 +8677,31 @@
       <c r="S91" s="95">
         <v>42923</v>
       </c>
-      <c r="T91" s="114">
+      <c r="T91" s="113">
         <v>41</v>
       </c>
       <c r="U91" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V91" s="114">
+      <c r="V91" s="113">
         <v>5553</v>
       </c>
       <c r="W91" s="17"/>
     </row>
     <row r="92" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="127" t="s">
+      <c r="A92" s="126" t="s">
         <v>153</v>
       </c>
       <c r="B92" s="48">
         <v>6274</v>
       </c>
-      <c r="C92" s="114" t="s">
+      <c r="C92" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="114" t="s">
+      <c r="E92" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F92" s="17" t="s">
@@ -8720,20 +8710,20 @@
       <c r="G92" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="114" t="s">
+      <c r="H92" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I92" s="125" t="s">
+      <c r="I92" s="124" t="s">
         <v>361</v>
       </c>
       <c r="J92" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="K92" s="114"/>
-      <c r="L92" s="114"/>
-      <c r="M92" s="114"/>
-      <c r="N92" s="127"/>
-      <c r="O92" s="127"/>
+      <c r="K92" s="113"/>
+      <c r="L92" s="113"/>
+      <c r="M92" s="113"/>
+      <c r="N92" s="126"/>
+      <c r="O92" s="126"/>
       <c r="P92" s="90">
         <v>42906</v>
       </c>
@@ -8746,36 +8736,36 @@
       <c r="S92" s="95">
         <v>42930</v>
       </c>
-      <c r="T92" s="114">
+      <c r="T92" s="113">
         <v>520</v>
       </c>
       <c r="U92" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="V92" s="114" t="s">
+      <c r="V92" s="113" t="s">
         <v>165</v>
       </c>
       <c r="W92" s="26"/>
     </row>
     <row r="93" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B93" s="54">
         <v>6278</v>
       </c>
-      <c r="C93" s="114" t="s">
+      <c r="C93" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="26"/>
-      <c r="E93" s="114" t="s">
+      <c r="E93" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F93" s="26"/>
       <c r="G93" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H93" s="114" t="s">
+      <c r="H93" s="113" t="s">
         <v>92</v>
       </c>
       <c r="I93" s="27" t="s">
@@ -8784,11 +8774,11 @@
       <c r="J93" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="K93" s="114"/>
-      <c r="L93" s="114"/>
-      <c r="M93" s="114"/>
-      <c r="N93" s="114"/>
-      <c r="O93" s="114"/>
+      <c r="K93" s="113"/>
+      <c r="L93" s="113"/>
+      <c r="M93" s="113"/>
+      <c r="N93" s="113"/>
+      <c r="O93" s="113"/>
       <c r="P93" s="90">
         <v>42906</v>
       </c>
@@ -8801,31 +8791,31 @@
       <c r="S93" s="95">
         <v>42944</v>
       </c>
-      <c r="T93" s="114">
+      <c r="T93" s="113">
         <v>47</v>
       </c>
-      <c r="U93" s="127" t="s">
+      <c r="U93" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="V93" s="114">
+      <c r="V93" s="113">
         <v>6183</v>
       </c>
       <c r="W93" s="26"/>
     </row>
     <row r="94" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="114" t="s">
+      <c r="A94" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B94" s="48">
         <v>6279</v>
       </c>
-      <c r="C94" s="114" t="s">
+      <c r="C94" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="114" t="s">
+      <c r="E94" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F94" s="26" t="s">
@@ -8834,18 +8824,18 @@
       <c r="G94" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H94" s="114" t="s">
+      <c r="H94" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="I94" s="114"/>
+      <c r="I94" s="113"/>
       <c r="J94" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="K94" s="114"/>
-      <c r="L94" s="114"/>
-      <c r="M94" s="114"/>
-      <c r="N94" s="114"/>
-      <c r="O94" s="114"/>
+      <c r="K94" s="113"/>
+      <c r="L94" s="113"/>
+      <c r="M94" s="113"/>
+      <c r="N94" s="113"/>
+      <c r="O94" s="113"/>
       <c r="P94" s="91" t="s">
         <v>213</v>
       </c>
@@ -8858,27 +8848,27 @@
       <c r="S94" s="95">
         <v>42944</v>
       </c>
-      <c r="T94" s="114">
+      <c r="T94" s="113">
         <v>1362</v>
       </c>
       <c r="U94" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="V94" s="114"/>
+      <c r="V94" s="113"/>
       <c r="W94" s="26"/>
     </row>
     <row r="95" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="114"/>
+      <c r="A95" s="113"/>
       <c r="B95" s="54">
         <v>6284</v>
       </c>
-      <c r="C95" s="114" t="s">
+      <c r="C95" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="114" t="s">
+      <c r="E95" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F95" s="17" t="s">
@@ -8887,20 +8877,20 @@
       <c r="G95" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H95" s="114" t="s">
+      <c r="H95" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I95" s="114" t="s">
+      <c r="I95" s="113" t="s">
         <v>365</v>
       </c>
       <c r="J95" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="K95" s="114"/>
-      <c r="L95" s="114"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="114"/>
-      <c r="O95" s="114"/>
+      <c r="K95" s="113"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="113"/>
+      <c r="N95" s="113"/>
+      <c r="O95" s="113"/>
       <c r="P95" s="90">
         <v>42906</v>
       </c>
@@ -8913,27 +8903,27 @@
       <c r="S95" s="95">
         <v>42944</v>
       </c>
-      <c r="T95" s="114">
+      <c r="T95" s="113">
         <v>1051</v>
       </c>
       <c r="U95" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="V95" s="114"/>
+      <c r="V95" s="113"/>
       <c r="W95" s="26"/>
     </row>
     <row r="96" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="114"/>
+      <c r="A96" s="113"/>
       <c r="B96" s="54">
         <v>6285</v>
       </c>
-      <c r="C96" s="114" t="s">
+      <c r="C96" s="113" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="114" t="s">
+      <c r="E96" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="17" t="s">
@@ -8942,20 +8932,20 @@
       <c r="G96" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H96" s="114" t="s">
+      <c r="H96" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="I96" s="114" t="s">
+      <c r="I96" s="113" t="s">
         <v>365</v>
       </c>
       <c r="J96" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="K96" s="114"/>
-      <c r="L96" s="114"/>
-      <c r="M96" s="114"/>
-      <c r="N96" s="114"/>
-      <c r="O96" s="114"/>
+      <c r="K96" s="113"/>
+      <c r="L96" s="113"/>
+      <c r="M96" s="113"/>
+      <c r="N96" s="113"/>
+      <c r="O96" s="113"/>
       <c r="P96" s="90">
         <v>42906</v>
       </c>
@@ -8968,29 +8958,29 @@
       <c r="S96" s="95">
         <v>42944</v>
       </c>
-      <c r="T96" s="114">
+      <c r="T96" s="113">
         <v>47</v>
       </c>
       <c r="U96" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="V96" s="114"/>
+      <c r="V96" s="113"/>
       <c r="W96" s="26"/>
     </row>
     <row r="97" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="114" t="s">
+      <c r="A97" s="113" t="s">
         <v>153</v>
       </c>
       <c r="B97" s="48">
         <v>6295</v>
       </c>
-      <c r="C97" s="127" t="s">
+      <c r="C97" s="126" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="114" t="s">
+      <c r="E97" s="113" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="26" t="s">
@@ -8999,20 +8989,20 @@
       <c r="G97" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H97" s="114" t="s">
+      <c r="H97" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="I97" s="114" t="s">
+      <c r="I97" s="113" t="s">
         <v>361</v>
       </c>
       <c r="J97" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="K97" s="127"/>
-      <c r="L97" s="114"/>
-      <c r="M97" s="114"/>
-      <c r="N97" s="114"/>
-      <c r="O97" s="114"/>
+      <c r="K97" s="126"/>
+      <c r="L97" s="113"/>
+      <c r="M97" s="113"/>
+      <c r="N97" s="113"/>
+      <c r="O97" s="113"/>
       <c r="P97" s="91" t="s">
         <v>213</v>
       </c>
@@ -9025,41 +9015,41 @@
       <c r="S97" s="95">
         <v>42944</v>
       </c>
-      <c r="T97" s="114">
+      <c r="T97" s="113">
         <v>1362</v>
       </c>
       <c r="U97" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="V97" s="114"/>
+      <c r="V97" s="113"/>
       <c r="W97" s="26"/>
     </row>
     <row r="98" spans="1:23" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="117"/>
+      <c r="A98" s="116"/>
       <c r="B98" s="48">
         <v>6298</v>
       </c>
-      <c r="C98" s="126"/>
+      <c r="C98" s="125"/>
       <c r="D98" s="26"/>
-      <c r="E98" s="127"/>
+      <c r="E98" s="126"/>
       <c r="F98" s="26"/>
       <c r="G98" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H98" s="117" t="s">
+      <c r="H98" s="116" t="s">
         <v>366</v>
       </c>
-      <c r="I98" s="117" t="s">
+      <c r="I98" s="116" t="s">
         <v>365</v>
       </c>
       <c r="J98" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="K98" s="126"/>
-      <c r="L98" s="127"/>
-      <c r="M98" s="127"/>
-      <c r="N98" s="127"/>
-      <c r="O98" s="127"/>
+      <c r="K98" s="125"/>
+      <c r="L98" s="126"/>
+      <c r="M98" s="126"/>
+      <c r="N98" s="126"/>
+      <c r="O98" s="126"/>
       <c r="P98" s="91"/>
       <c r="Q98" s="93" t="s">
         <v>348</v>
@@ -9072,56 +9062,56 @@
         <v>1051</v>
       </c>
       <c r="U98" s="26"/>
-      <c r="V98" s="117"/>
+      <c r="V98" s="116"/>
       <c r="W98" s="26"/>
     </row>
     <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="117" t="s">
+      <c r="A99" s="116" t="s">
         <v>153</v>
       </c>
       <c r="B99" s="48">
         <v>6299</v>
       </c>
-      <c r="C99" s="156" t="s">
+      <c r="C99" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="157" t="s">
+      <c r="D99" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E99" s="156" t="s">
+      <c r="E99" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="157" t="s">
+      <c r="F99" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G99" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="117" t="s">
+      <c r="H99" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="I99" s="117"/>
+      <c r="I99" s="116"/>
       <c r="J99" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="K99" s="156"/>
-      <c r="L99" s="156"/>
-      <c r="M99" s="156"/>
-      <c r="N99" s="156"/>
-      <c r="O99" s="156"/>
+      <c r="K99" s="129"/>
+      <c r="L99" s="129"/>
+      <c r="M99" s="129"/>
+      <c r="N99" s="129"/>
+      <c r="O99" s="129"/>
       <c r="P99" s="91"/>
       <c r="Q99" s="93"/>
       <c r="R99" s="94"/>
       <c r="S99" s="95">
         <v>42944</v>
       </c>
-      <c r="T99" s="127">
+      <c r="T99" s="126">
         <v>1051</v>
       </c>
       <c r="U99" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="V99" s="117"/>
+      <c r="V99" s="116"/>
       <c r="W99" s="26"/>
     </row>
   </sheetData>
@@ -9310,10 +9300,10 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="130">
+      <c r="A6" s="134">
         <v>5553</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="52" t="s">
@@ -9331,8 +9321,8 @@
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="130"/>
-      <c r="B7" s="133"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="77" t="s">
         <v>339</v>
       </c>
@@ -9351,7 +9341,7 @@
     </row>
     <row r="8" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="75"/>
-      <c r="B8" s="133"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="77" t="s">
         <v>340</v>
       </c>
@@ -9368,7 +9358,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="75"/>
-      <c r="B9" s="134"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="77" t="s">
         <v>341</v>
       </c>
@@ -9384,10 +9374,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="132">
+      <c r="B10" s="131">
         <v>6047</v>
       </c>
       <c r="C10" s="52" t="s">
@@ -9405,8 +9395,8 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="77" t="s">
         <v>342</v>
       </c>
@@ -9427,7 +9417,7 @@
       <c r="A12" s="135">
         <v>6183</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="134" t="s">
         <v>232</v>
       </c>
       <c r="C12" s="52" t="s">
@@ -9444,7 +9434,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="136"/>
-      <c r="B13" s="130"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="52" t="s">
         <v>239</v>
       </c>
@@ -9461,7 +9451,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="137"/>
-      <c r="B14" s="130"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="52" t="s">
         <v>240</v>
       </c>
@@ -9477,10 +9467,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="132">
+      <c r="A15" s="131">
         <v>6041</v>
       </c>
-      <c r="B15" s="132">
+      <c r="B15" s="131">
         <v>6042</v>
       </c>
       <c r="C15" s="52" t="s">
@@ -9496,8 +9486,8 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="134"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="52" t="s">
         <v>251</v>
       </c>
@@ -9513,10 +9503,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="132">
+      <c r="A17" s="131">
         <v>6044</v>
       </c>
-      <c r="B17" s="132">
+      <c r="B17" s="131">
         <v>5006</v>
       </c>
       <c r="C17" s="52" t="s">
@@ -9532,8 +9522,8 @@
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="134"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="52" t="s">
         <v>258</v>
       </c>
@@ -9549,10 +9539,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="B19" s="132">
+      <c r="B19" s="131">
         <v>6220</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -9570,8 +9560,8 @@
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="134"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="52" t="s">
         <v>211</v>
       </c>
@@ -9587,10 +9577,10 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="132">
+      <c r="B21" s="131">
         <v>6252</v>
       </c>
       <c r="C21" s="52" t="s">
@@ -9606,8 +9596,8 @@
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
-      <c r="B22" s="133"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="52" t="s">
         <v>245</v>
       </c>
@@ -9621,8 +9611,8 @@
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="134"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="52" t="s">
         <v>246</v>
       </c>
@@ -9636,10 +9626,10 @@
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="132">
+      <c r="B24" s="131">
         <v>4251</v>
       </c>
       <c r="C24" s="52" t="s">
@@ -9657,8 +9647,8 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="130"/>
-      <c r="B25" s="133"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="52" t="s">
         <v>205</v>
       </c>
@@ -9674,8 +9664,8 @@
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="130"/>
-      <c r="B26" s="134"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="52" t="s">
         <v>207</v>
       </c>
@@ -9691,10 +9681,10 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="132">
+      <c r="A27" s="131">
         <v>5142</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="134" t="s">
         <v>329</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -9710,8 +9700,8 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="133"/>
-      <c r="B28" s="130"/>
+      <c r="A28" s="132"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="16" t="s">
         <v>263</v>
       </c>
@@ -9725,8 +9715,8 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="134"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="16" t="s">
         <v>264</v>
       </c>
@@ -9759,10 +9749,10 @@
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="130" t="s">
+      <c r="A31" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="B31" s="130">
+      <c r="B31" s="134">
         <v>6274</v>
       </c>
       <c r="C31" s="74" t="s">
@@ -9778,8 +9768,8 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="130"/>
-      <c r="B32" s="130"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="74" t="s">
         <v>315</v>
       </c>
@@ -9793,10 +9783,10 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="130" t="s">
+      <c r="A33" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="130">
+      <c r="B33" s="134">
         <v>6141</v>
       </c>
       <c r="C33" s="74" t="s">
@@ -9812,8 +9802,8 @@
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="130"/>
-      <c r="B34" s="130"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="74" t="s">
         <v>317</v>
       </c>
@@ -9827,8 +9817,8 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="130"/>
-      <c r="B35" s="130"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="74" t="s">
         <v>318</v>
       </c>
@@ -9842,10 +9832,10 @@
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="130">
+      <c r="A36" s="134">
         <v>6201</v>
       </c>
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="134" t="s">
         <v>300</v>
       </c>
       <c r="C36" s="74" t="s">
@@ -9861,8 +9851,8 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="130"/>
-      <c r="B37" s="130"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="74" t="s">
         <v>320</v>
       </c>
@@ -9876,8 +9866,8 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="130"/>
-      <c r="B38" s="130"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="74" t="s">
         <v>321</v>
       </c>
@@ -9891,10 +9881,10 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="130" t="s">
+      <c r="A39" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="130">
+      <c r="B39" s="134">
         <v>4388</v>
       </c>
       <c r="C39" s="74" t="s">
@@ -9910,8 +9900,8 @@
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="130"/>
-      <c r="B40" s="130"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="74" t="s">
         <v>323</v>
       </c>
@@ -9925,8 +9915,8 @@
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="130"/>
-      <c r="B41" s="130"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="74" t="s">
         <v>324</v>
       </c>
@@ -9940,10 +9930,10 @@
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="130">
+      <c r="A42" s="134">
         <v>6044</v>
       </c>
-      <c r="B42" s="130">
+      <c r="B42" s="134">
         <v>3701</v>
       </c>
       <c r="C42" s="74" t="s">
@@ -9959,8 +9949,8 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="130"/>
-      <c r="B43" s="130"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="74" t="s">
         <v>326</v>
       </c>
@@ -9974,8 +9964,8 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="130"/>
-      <c r="B44" s="130"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="74" t="s">
         <v>327</v>
       </c>
@@ -9989,14 +9979,27 @@
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G45"/>
   <mergeCells count="29">
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A24:A26"/>
@@ -10013,19 +10016,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10112,31 +10102,31 @@
       <c r="P4" s="37"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="139" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="88"/>
       <c r="F7" s="34"/>
       <c r="G7" s="41"/>
       <c r="H7" s="83"/>
-      <c r="I7" s="140" t="s">
+      <c r="I7" s="141" t="s">
         <v>350</v>
       </c>
-      <c r="J7" s="141"/>
-      <c r="K7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="143"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="143" t="s">
+      <c r="M7" s="144" t="s">
         <v>351</v>
       </c>
-      <c r="N7" s="143"/>
+      <c r="N7" s="144"/>
       <c r="O7" s="43"/>
-      <c r="P7" s="144" t="s">
+      <c r="P7" s="145" t="s">
         <v>344</v>
       </c>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="147"/>
       <c r="S7" s="44" t="s">
         <v>216</v>
       </c>
@@ -10186,10 +10176,10 @@
       <c r="R8" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="S8" s="139">
+      <c r="S8" s="140">
         <v>42951</v>
       </c>
-      <c r="T8" s="139">
+      <c r="T8" s="140">
         <v>42968</v>
       </c>
     </row>
@@ -10197,7 +10187,7 @@
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="129">
+      <c r="C9" s="128">
         <v>41</v>
       </c>
       <c r="D9" s="11">
@@ -10235,14 +10225,14 @@
       <c r="R9" s="87">
         <v>42937</v>
       </c>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
     </row>
     <row r="10" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>1</v>
       </c>
-      <c r="C10" s="129">
+      <c r="C10" s="128">
         <v>43</v>
       </c>
       <c r="D10" s="11">
@@ -10280,8 +10270,8 @@
       <c r="R10" s="87">
         <v>42937</v>
       </c>
-      <c r="S10" s="139"/>
-      <c r="T10" s="139"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
     </row>
     <row r="11" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
@@ -10323,8 +10313,8 @@
       <c r="R11" s="87">
         <v>42937</v>
       </c>
-      <c r="S11" s="139"/>
-      <c r="T11" s="139"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
     </row>
     <row r="12" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
@@ -10368,8 +10358,8 @@
       <c r="R12" s="87">
         <v>42944</v>
       </c>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
     </row>
     <row r="13" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
@@ -10409,8 +10399,8 @@
       <c r="R13" s="87">
         <v>42951</v>
       </c>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
     </row>
     <row r="14" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
@@ -10452,8 +10442,8 @@
       <c r="R14" s="87">
         <v>42944</v>
       </c>
-      <c r="S14" s="139"/>
-      <c r="T14" s="139"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
     </row>
     <row r="15" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="11">
@@ -10495,14 +10485,14 @@
       <c r="R15" s="87">
         <v>42951</v>
       </c>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="140"/>
     </row>
     <row r="16" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="129">
+      <c r="C16" s="128">
         <v>506</v>
       </c>
       <c r="D16" s="11">
@@ -10540,8 +10530,8 @@
       <c r="R16" s="87">
         <v>42937</v>
       </c>
-      <c r="S16" s="139"/>
-      <c r="T16" s="139"/>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
     </row>
     <row r="17" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
@@ -10583,8 +10573,8 @@
       <c r="R17" s="87">
         <v>42944</v>
       </c>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
+      <c r="S17" s="140"/>
+      <c r="T17" s="140"/>
     </row>
     <row r="18" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
@@ -10626,8 +10616,8 @@
       <c r="R18" s="87">
         <v>42944</v>
       </c>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
     </row>
     <row r="19" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
@@ -10669,8 +10659,8 @@
       <c r="R19" s="87">
         <v>42951</v>
       </c>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
     </row>
     <row r="20" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
@@ -10712,8 +10702,8 @@
       <c r="R20" s="87">
         <v>42951</v>
       </c>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
     </row>
     <row r="21" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
@@ -10755,8 +10745,8 @@
       <c r="R21" s="87">
         <v>42951</v>
       </c>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="140"/>
     </row>
     <row r="22" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
@@ -10800,8 +10790,8 @@
       <c r="R22" s="87">
         <v>42937</v>
       </c>
-      <c r="S22" s="139"/>
-      <c r="T22" s="139"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="140"/>
     </row>
     <row r="23" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
@@ -10843,8 +10833,8 @@
       <c r="R23" s="87">
         <v>42951</v>
       </c>
-      <c r="S23" s="139"/>
-      <c r="T23" s="139"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="140"/>
     </row>
     <row r="24" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
@@ -10886,8 +10876,8 @@
       <c r="R24" s="87">
         <v>42951</v>
       </c>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="140"/>
     </row>
     <row r="25" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="11">
@@ -10929,8 +10919,8 @@
       <c r="R25" s="87">
         <v>42951</v>
       </c>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
+      <c r="S25" s="140"/>
+      <c r="T25" s="140"/>
     </row>
     <row r="26" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
@@ -10972,8 +10962,8 @@
       <c r="R26" s="87">
         <v>42951</v>
       </c>
-      <c r="S26" s="139"/>
-      <c r="T26" s="139"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
     </row>
     <row r="27" spans="2:20" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C27" s="102" t="s">
@@ -11035,65 +11025,65 @@
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N2" s="62"/>
-      <c r="P2" s="150" t="s">
+      <c r="P2" s="151" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="153"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="143" t="s">
+      <c r="C4" s="149"/>
+      <c r="D4" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="149" t="s">
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="143" t="s">
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="149" t="s">
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="150" t="s">
         <v>275</v>
       </c>
-      <c r="R4" s="149"/>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149" t="s">
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150" t="s">
         <v>276</v>
       </c>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="149"/>
-      <c r="Y4" s="149"/>
-      <c r="Z4" s="153" t="s">
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="154" t="s">
         <v>277</v>
       </c>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="155"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
+      <c r="AC4" s="156"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">

--- a/config_management/change_requests/Revised SOW.xlsx
+++ b/config_management/change_requests/Revised SOW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708"/>
   </bookViews>
   <sheets>
     <sheet name="Remaining SOW" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Availability" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$A$1:$Y$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$A$1:$Y$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$B$8:$U$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WG_#'!$A$2:$G$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WG_#'!$A$2:$G$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Remaining SOW'!$C$1:$D$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Remaining SOW'!$1:$1</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="385">
   <si>
     <t>bug_id</t>
   </si>
@@ -1082,11 +1082,6 @@
     <t>Tom / Claudia</t>
   </si>
   <si>
-    <t>Grammar Review:  
-1. 7/7 - 7/20
-2. 7/21 - 8/4</t>
-  </si>
-  <si>
     <t>Internal Review CL</t>
   </si>
   <si>
@@ -1130,13 +1125,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Ready for team review </t>
-  </si>
-  <si>
     <t xml:space="preserve">In-work </t>
-  </si>
-  <si>
-    <t>Not started</t>
   </si>
   <si>
     <t>done</t>
@@ -1171,9 +1160,6 @@
   </si>
   <si>
     <t>IR CR build output sys directory includes html files for schemas that are not specified in the publication index.</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>10303-1315 ed3  Mechanical design presentation representation with draughting Document</t>
@@ -1261,6 +1247,32 @@
   </si>
   <si>
     <t>N9714</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>10303-41 ed5 measure_schema</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Value with unit</t>
+  </si>
+  <si>
+    <t>AM 1054 "collector bug" :: add positive_plane_angle_measure</t>
+  </si>
+  <si>
+    <t>AM 1753 "collector bug" :: add Positive_angle_data_element Positive_length_data_element</t>
+  </si>
+  <si>
+    <t>Add length_tolerance_value and plane_angle_tolerance_value to shape_tolerance_schema</t>
+  </si>
+  <si>
+    <t>English Quality Review:  
+1. 7/7 - 7/20
+2. 7/21 - 8/4</t>
   </si>
 </sst>
 </file>
@@ -1498,13 +1510,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -1528,6 +1533,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2071,7 +2082,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2368,9 +2379,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2440,15 +2448,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2479,33 +2487,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2515,6 +2527,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2569,8 +2590,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2880,11 +2901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202938320"/>
-        <c:axId val="202941064"/>
+        <c:axId val="190243520"/>
+        <c:axId val="190243904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202938320"/>
+        <c:axId val="190243520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202941064"/>
+        <c:crossAx val="190243904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2935,7 +2956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202941064"/>
+        <c:axId val="190243904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +3007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202938320"/>
+        <c:crossAx val="190243520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3910,13 +3931,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K103" sqref="K103"/>
+      <selection pane="bottomRight" activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,7 +3948,7 @@
     <col min="5" max="5" width="14.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="51.140625" style="3" customWidth="1"/>
@@ -3945,86 +3966,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="116" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="116" t="s">
-        <v>354</v>
-      </c>
-      <c r="K1" s="116" t="s">
+      <c r="J1" s="115" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="116" t="s">
+      <c r="L1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="116" t="s">
+      <c r="M1" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116" t="s">
+      <c r="N1" s="115"/>
+      <c r="O1" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="116" t="s">
+      <c r="P1" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="118" t="s">
-        <v>343</v>
-      </c>
-      <c r="R1" s="119" t="s">
+      <c r="Q1" s="117" t="s">
+        <v>342</v>
+      </c>
+      <c r="R1" s="118" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="120" t="s">
+      <c r="S1" s="119" t="s">
+        <v>340</v>
+      </c>
+      <c r="T1" s="120" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="121" t="s">
-        <v>342</v>
-      </c>
-      <c r="U1" s="116" t="s">
+      <c r="U1" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="V1" s="116" t="s">
+      <c r="V1" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="116" t="s">
+      <c r="W1" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="X1" s="116" t="s">
+      <c r="X1" s="115" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="126"/>
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="114"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="48">
         <v>3551</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -4033,16 +4054,16 @@
       <c r="H2" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="115" t="s">
-        <v>360</v>
+      <c r="J2" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="115">
+      <c r="L2" s="114">
         <v>4</v>
       </c>
       <c r="M2" s="19">
@@ -4051,13 +4072,13 @@
       <c r="N2" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="115"/>
+      <c r="O2" s="114"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="91">
         <v>42908</v>
       </c>
       <c r="R2" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S2" s="95">
         <v>42937</v>
@@ -4065,13 +4086,13 @@
       <c r="T2" s="96">
         <v>42944</v>
       </c>
-      <c r="U2" s="115">
+      <c r="U2" s="114">
         <v>1051</v>
       </c>
       <c r="V2" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="W2" s="115" t="s">
+      <c r="W2" s="114" t="s">
         <v>210</v>
       </c>
       <c r="X2" s="17"/>
@@ -4129,35 +4150,35 @@
       <c r="X3" s="22"/>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B4" s="126" t="s">
+      <c r="A4" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C4" s="55">
         <v>3675</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="115" t="s">
+      <c r="H4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="115" t="s">
-        <v>92</v>
+      <c r="I4" s="114" t="s">
+        <v>377</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>72</v>
@@ -4169,15 +4190,15 @@
         <v>150</v>
       </c>
       <c r="N4" s="19"/>
-      <c r="O4" s="115" t="s">
+      <c r="O4" s="114" t="s">
         <v>153</v>
       </c>
       <c r="P4" s="17"/>
       <c r="Q4" s="91">
         <v>42906</v>
       </c>
-      <c r="R4" s="93">
-        <v>42935</v>
+      <c r="R4" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S4" s="95">
         <v>42937</v>
@@ -4185,13 +4206,13 @@
       <c r="T4" s="96">
         <v>42944</v>
       </c>
-      <c r="U4" s="115">
+      <c r="U4" s="114">
         <v>1051</v>
       </c>
       <c r="V4" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="W4" s="115" t="s">
+      <c r="W4" s="114" t="s">
         <v>210</v>
       </c>
       <c r="X4" s="17"/>
@@ -4233,7 +4254,7 @@
         <v>42855</v>
       </c>
       <c r="N5" s="29"/>
-      <c r="O5" s="115" t="s">
+      <c r="O5" s="114" t="s">
         <v>152</v>
       </c>
       <c r="P5" s="28"/>
@@ -4283,7 +4304,7 @@
         <v>42839</v>
       </c>
       <c r="N6" s="29"/>
-      <c r="O6" s="115"/>
+      <c r="O6" s="114"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
@@ -4300,13 +4321,13 @@
       <c r="C7" s="16">
         <v>4817</v>
       </c>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="115" t="s">
+      <c r="F7" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="17" t="s">
@@ -4315,7 +4336,7 @@
       <c r="H7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="114" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -4324,7 +4345,7 @@
       <c r="K7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="115">
+      <c r="L7" s="114">
         <v>2</v>
       </c>
       <c r="M7" s="19">
@@ -4348,13 +4369,13 @@
       <c r="C8" s="16">
         <v>5899</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -4363,7 +4384,7 @@
       <c r="H8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="114" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -4372,11 +4393,11 @@
       <c r="K8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="115">
+      <c r="L8" s="114">
         <v>0</v>
       </c>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
@@ -4388,23 +4409,21 @@
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115">
-        <v>4</v>
-      </c>
-      <c r="B9" s="126" t="s">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="114"/>
+      <c r="B9" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="114">
         <v>3701</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="17" t="s">
@@ -4413,21 +4432,21 @@
       <c r="H9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="115" t="s">
-        <v>356</v>
+      <c r="J9" s="114" t="s">
+        <v>354</v>
       </c>
       <c r="K9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="115">
+      <c r="L9" s="114">
         <v>0</v>
       </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115" t="s">
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114" t="s">
         <v>153</v>
       </c>
       <c r="P9" s="17"/>
@@ -4435,7 +4454,7 @@
         <v>42934</v>
       </c>
       <c r="R9" s="93">
-        <v>42941</v>
+        <v>42942</v>
       </c>
       <c r="S9" s="95">
         <v>42937</v>
@@ -4443,34 +4462,32 @@
       <c r="T9" s="96">
         <v>42944</v>
       </c>
-      <c r="U9" s="115">
+      <c r="U9" s="114">
         <v>1846</v>
       </c>
       <c r="V9" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="W9" s="115">
+      <c r="W9" s="114">
         <v>5142</v>
       </c>
       <c r="X9" s="17"/>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="115">
-        <v>4</v>
-      </c>
-      <c r="B10" s="126" t="s">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114"/>
+      <c r="B10" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="115">
+      <c r="C10" s="114">
         <v>3702</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="115" t="s">
+      <c r="F10" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="17" t="s">
@@ -4479,23 +4496,23 @@
       <c r="H10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="114" t="s">
         <v>156</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="115">
+      <c r="L10" s="114">
         <v>0</v>
       </c>
       <c r="M10" s="19">
         <v>42818</v>
       </c>
       <c r="N10" s="19"/>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="114" t="s">
         <v>153</v>
       </c>
       <c r="P10" s="17"/>
@@ -4503,7 +4520,7 @@
         <v>42934</v>
       </c>
       <c r="R10" s="93">
-        <v>42937</v>
+        <v>42942</v>
       </c>
       <c r="S10" s="95">
         <v>42937</v>
@@ -4511,32 +4528,32 @@
       <c r="T10" s="96">
         <v>42944</v>
       </c>
-      <c r="U10" s="115" t="s">
+      <c r="U10" s="114" t="s">
         <v>174</v>
       </c>
       <c r="V10" s="17"/>
-      <c r="W10" s="115">
+      <c r="W10" s="114">
         <v>6044</v>
       </c>
       <c r="X10" s="17"/>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" s="126" t="s">
+    <row r="11" spans="1:24" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C11" s="21">
         <v>3789</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -4545,11 +4562,11 @@
       <c r="H11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J11" s="115" t="s">
-        <v>355</v>
+      <c r="J11" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>73</v>
@@ -4561,15 +4578,15 @@
         <v>150</v>
       </c>
       <c r="N11" s="19"/>
-      <c r="O11" s="115" t="s">
+      <c r="O11" s="114" t="s">
         <v>153</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="91">
         <v>42906</v>
       </c>
-      <c r="R11" s="93">
-        <v>42935</v>
+      <c r="R11" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S11" s="95">
         <v>42937</v>
@@ -4577,11 +4594,11 @@
       <c r="T11" s="96">
         <v>42944</v>
       </c>
-      <c r="U11" s="115" t="s">
+      <c r="U11" s="114" t="s">
         <v>174</v>
       </c>
       <c r="V11" s="17"/>
-      <c r="W11" s="115" t="s">
+      <c r="W11" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X11" s="17"/>
@@ -4592,13 +4609,13 @@
       <c r="C12" s="16">
         <v>6203</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="115" t="s">
+      <c r="F12" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -4607,7 +4624,7 @@
       <c r="H12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="114" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -4616,11 +4633,11 @@
       <c r="K12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="115">
+      <c r="L12" s="114">
         <v>0</v>
       </c>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -4632,19 +4649,19 @@
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
     </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="115">
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="114"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="114">
         <v>3968</v>
       </c>
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="115" t="s">
+      <c r="F13" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="17" t="s">
@@ -4653,27 +4670,27 @@
       <c r="H13" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="115" t="s">
-        <v>360</v>
+      <c r="J13" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="115">
+      <c r="L13" s="114">
         <v>4</v>
       </c>
       <c r="M13" s="19">
         <v>42825</v>
       </c>
       <c r="N13" s="19"/>
-      <c r="O13" s="115"/>
+      <c r="O13" s="114"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="92"/>
       <c r="R13" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S13" s="95">
         <v>42937</v>
@@ -4681,63 +4698,63 @@
       <c r="T13" s="96">
         <v>42944</v>
       </c>
-      <c r="U13" s="115" t="s">
+      <c r="U13" s="114" t="s">
         <v>174</v>
       </c>
       <c r="V13" s="17"/>
-      <c r="W13" s="115" t="s">
+      <c r="W13" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X13" s="17"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" s="126" t="s">
+      <c r="A14" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C14" s="55">
         <v>4171</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="115" t="s">
-        <v>80</v>
+      <c r="I14" s="114" t="s">
+        <v>377</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>156</v>
+        <v>357</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="L14" s="115">
+      <c r="L14" s="114">
         <v>40</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>150</v>
       </c>
       <c r="N14" s="19"/>
-      <c r="O14" s="115"/>
+      <c r="O14" s="114"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="91">
         <v>42902</v>
       </c>
-      <c r="R14" s="93">
-        <v>42935</v>
+      <c r="R14" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S14" s="95">
         <v>42937</v>
@@ -4745,13 +4762,13 @@
       <c r="T14" s="96">
         <v>42944</v>
       </c>
-      <c r="U14" s="115">
+      <c r="U14" s="114">
         <v>47</v>
       </c>
       <c r="V14" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W14" s="115">
+      <c r="W14" s="114">
         <v>6183</v>
       </c>
       <c r="X14" s="17"/>
@@ -4762,13 +4779,13 @@
       <c r="C15" s="16">
         <v>3701</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="114" t="s">
         <v>147</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="17" t="s">
@@ -4777,7 +4794,7 @@
       <c r="H15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="17" t="s">
@@ -4786,14 +4803,14 @@
       <c r="K15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="115">
+      <c r="L15" s="114">
         <v>0</v>
       </c>
       <c r="M15" s="19">
         <v>42825</v>
       </c>
       <c r="N15" s="19"/>
-      <c r="O15" s="115" t="s">
+      <c r="O15" s="114" t="s">
         <v>153</v>
       </c>
       <c r="P15" s="17"/>
@@ -4806,23 +4823,21 @@
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="114"/>
+      <c r="B16" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="115">
+      <c r="C16" s="114">
         <v>4251</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="17" t="s">
@@ -4831,27 +4846,27 @@
       <c r="H16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="115" t="s">
+      <c r="I16" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J16" s="141"/>
+      <c r="J16" s="140"/>
       <c r="K16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="115">
+      <c r="L16" s="114">
         <v>4</v>
       </c>
       <c r="M16" s="19">
         <v>42821</v>
       </c>
       <c r="N16" s="19"/>
-      <c r="O16" s="115"/>
+      <c r="O16" s="114"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="113">
+      <c r="Q16" s="112">
         <v>42906</v>
       </c>
-      <c r="R16" s="114">
-        <v>42940</v>
+      <c r="R16" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="S16" s="95">
         <v>42937</v>
@@ -4859,13 +4874,13 @@
       <c r="T16" s="96">
         <v>42944</v>
       </c>
-      <c r="U16" s="115">
+      <c r="U16" s="114">
         <v>1362</v>
       </c>
       <c r="V16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="W16" s="115">
+      <c r="W16" s="114">
         <v>6045</v>
       </c>
       <c r="X16" s="17"/>
@@ -4873,16 +4888,16 @@
     <row r="17" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="115">
+      <c r="C17" s="114">
         <v>3727</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="114" t="s">
         <v>147</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="17" t="s">
@@ -4891,7 +4906,7 @@
       <c r="H17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="115" t="s">
+      <c r="I17" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="17" t="s">
@@ -4900,20 +4915,20 @@
       <c r="K17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="115">
+      <c r="L17" s="114">
         <v>8</v>
       </c>
       <c r="M17" s="19">
         <v>42860</v>
       </c>
       <c r="N17" s="19"/>
-      <c r="O17" s="115"/>
+      <c r="O17" s="114"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
-      <c r="U17" s="115">
+      <c r="U17" s="114">
         <v>506</v>
       </c>
       <c r="V17" s="17" t="s">
@@ -4925,16 +4940,16 @@
     <row r="18" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="115">
+      <c r="C18" s="114">
         <v>5017</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="114" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="115" t="s">
+      <c r="F18" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="17" t="s">
@@ -4943,7 +4958,7 @@
       <c r="H18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="115" t="s">
+      <c r="I18" s="114" t="s">
         <v>80</v>
       </c>
       <c r="J18" s="17" t="s">
@@ -4952,14 +4967,14 @@
       <c r="K18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="115">
+      <c r="L18" s="114">
         <v>0</v>
       </c>
       <c r="M18" s="19">
         <v>42818</v>
       </c>
       <c r="N18" s="19"/>
-      <c r="O18" s="115" t="s">
+      <c r="O18" s="114" t="s">
         <v>153</v>
       </c>
       <c r="P18" s="17"/>
@@ -4967,13 +4982,13 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="115">
+      <c r="U18" s="114">
         <v>47</v>
       </c>
       <c r="V18" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W18" s="115"/>
+      <c r="W18" s="114"/>
       <c r="X18" s="17"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4982,13 +4997,13 @@
       <c r="C19" s="16">
         <v>5529</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -4997,7 +5012,7 @@
       <c r="H19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="115" t="s">
+      <c r="I19" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J19" s="17" t="s">
@@ -5006,11 +5021,11 @@
       <c r="K19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="115">
+      <c r="L19" s="114">
         <v>0</v>
       </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -5028,13 +5043,13 @@
       <c r="C20" s="16">
         <v>5530</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -5043,7 +5058,7 @@
       <c r="H20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="115" t="s">
+      <c r="I20" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="17" t="s">
@@ -5052,11 +5067,11 @@
       <c r="K20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="115">
+      <c r="L20" s="114">
         <v>0</v>
       </c>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
@@ -5074,13 +5089,13 @@
       <c r="C21" s="16">
         <v>5842</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="115" t="s">
+      <c r="F21" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="17" t="s">
@@ -5089,7 +5104,7 @@
       <c r="H21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="115" t="s">
+      <c r="I21" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="17" t="s">
@@ -5098,11 +5113,11 @@
       <c r="K21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="115">
+      <c r="L21" s="114">
         <v>0</v>
       </c>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
@@ -5120,13 +5135,13 @@
       <c r="C22" s="16">
         <v>5844</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="115" t="s">
+      <c r="F22" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="17" t="s">
@@ -5135,7 +5150,7 @@
       <c r="H22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="115" t="s">
+      <c r="I22" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="17" t="s">
@@ -5144,11 +5159,11 @@
       <c r="K22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="115">
+      <c r="L22" s="114">
         <v>0</v>
       </c>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -5166,13 +5181,13 @@
       <c r="C23" s="16">
         <v>6032</v>
       </c>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="115" t="s">
+      <c r="F23" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="17" t="s">
@@ -5181,7 +5196,7 @@
       <c r="H23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="115" t="s">
+      <c r="I23" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J23" s="17" t="s">
@@ -5190,11 +5205,11 @@
       <c r="K23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="115">
+      <c r="L23" s="114">
         <v>0</v>
       </c>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -5212,13 +5227,13 @@
       <c r="C24" s="16">
         <v>6039</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="115" t="s">
+      <c r="F24" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="17" t="s">
@@ -5227,7 +5242,7 @@
       <c r="H24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="115" t="s">
+      <c r="I24" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J24" s="17" t="s">
@@ -5236,11 +5251,11 @@
       <c r="K24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="115">
+      <c r="L24" s="114">
         <v>0</v>
       </c>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -5252,48 +5267,48 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="115" t="s">
+    <row r="25" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="114"/>
+      <c r="B25" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="115">
+      <c r="C25" s="114">
         <v>4386</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="115" t="s">
+      <c r="H25" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="115" t="s">
+      <c r="I25" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="115"/>
+      <c r="J25" s="114" t="s">
+        <v>357</v>
+      </c>
       <c r="K25" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="L25" s="115">
+      <c r="L25" s="114">
         <v>0</v>
       </c>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="114"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="92"/>
-      <c r="R25" s="93">
-        <v>42941</v>
+      <c r="R25" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S25" s="95">
         <v>42937</v>
@@ -5301,60 +5316,60 @@
       <c r="T25" s="96">
         <v>42944</v>
       </c>
-      <c r="U25" s="115" t="s">
+      <c r="U25" s="114" t="s">
         <v>169</v>
       </c>
       <c r="V25" s="17"/>
-      <c r="W25" s="115" t="s">
+      <c r="W25" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X25" s="17"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="115" t="s">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="114"/>
+      <c r="B26" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="115">
+      <c r="C26" s="114">
         <v>4388</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="115" t="s">
+      <c r="F26" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J26" s="115"/>
+      <c r="J26" s="114" t="s">
+        <v>342</v>
+      </c>
       <c r="K26" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="L26" s="115">
+      <c r="L26" s="114">
         <f>SUBTOTAL(9,L1:L25)</f>
-        <v>40</v>
-      </c>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
+        <v>52</v>
+      </c>
+      <c r="M26" s="114"/>
+      <c r="N26" s="114"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="114"/>
       <c r="Q26" s="91">
         <v>42916</v>
       </c>
-      <c r="R26" s="114">
-        <v>42940</v>
+      <c r="R26" s="113">
+        <v>42942</v>
       </c>
       <c r="S26" s="95">
         <v>42937</v>
@@ -5362,7 +5377,7 @@
       <c r="T26" s="96">
         <v>42944</v>
       </c>
-      <c r="U26" s="115">
+      <c r="U26" s="114">
         <v>1110</v>
       </c>
       <c r="V26" s="26" t="s">
@@ -5379,13 +5394,13 @@
       <c r="C27" s="16">
         <v>6046</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D27" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="115" t="s">
+      <c r="F27" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="17" t="s">
@@ -5394,7 +5409,7 @@
       <c r="H27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="115" t="s">
+      <c r="I27" s="114" t="s">
         <v>36</v>
       </c>
       <c r="J27" s="17" t="s">
@@ -5403,11 +5418,11 @@
       <c r="K27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="115">
+      <c r="L27" s="114">
         <v>0</v>
       </c>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
@@ -5419,54 +5434,52 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
     </row>
-    <row r="28" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="126" t="s">
+    <row r="28" spans="1:24" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="114"/>
+      <c r="B28" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C28" s="98">
         <v>4658</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="115" t="s">
+      <c r="H28" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="115" t="s">
+      <c r="I28" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J28" s="115" t="s">
-        <v>360</v>
+      <c r="J28" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="115">
+      <c r="L28" s="114">
         <v>16</v>
       </c>
       <c r="M28" s="19">
         <v>42894</v>
       </c>
       <c r="N28" s="19"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="126"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
       <c r="Q28" s="91">
         <v>42893</v>
       </c>
-      <c r="R28" s="114" t="s">
-        <v>344</v>
+      <c r="R28" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S28" s="95">
         <v>42914</v>
@@ -5474,32 +5487,32 @@
       <c r="T28" s="96">
         <v>42923</v>
       </c>
-      <c r="U28" s="115">
+      <c r="U28" s="114">
         <v>41</v>
       </c>
       <c r="V28" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W28" s="115">
+      <c r="W28" s="114">
         <v>5553</v>
       </c>
       <c r="X28" s="17"/>
     </row>
-    <row r="29" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="126" t="s">
+    <row r="29" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="114"/>
+      <c r="B29" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C29" s="48">
         <v>4835</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="115" t="s">
+      <c r="F29" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="17" t="s">
@@ -5508,29 +5521,29 @@
       <c r="H29" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="115" t="s">
+      <c r="I29" s="114" t="s">
         <v>80</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="115">
+      <c r="L29" s="114">
         <v>16</v>
       </c>
       <c r="M29" s="19">
         <v>42874</v>
       </c>
       <c r="N29" s="19"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
       <c r="Q29" s="91">
         <v>42902</v>
       </c>
       <c r="R29" s="93">
-        <v>42937</v>
+        <v>42944</v>
       </c>
       <c r="S29" s="95">
         <v>42937</v>
@@ -5538,13 +5551,13 @@
       <c r="T29" s="96">
         <v>42944</v>
       </c>
-      <c r="U29" s="115">
+      <c r="U29" s="114">
         <v>47</v>
       </c>
       <c r="V29" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W29" s="115">
+      <c r="W29" s="114">
         <v>6183</v>
       </c>
       <c r="X29" s="26"/>
@@ -5552,16 +5565,16 @@
     <row r="30" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="115">
+      <c r="C30" s="114">
         <v>2962</v>
       </c>
-      <c r="D30" s="115" t="s">
+      <c r="D30" s="114" t="s">
         <v>147</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="115" t="s">
+      <c r="F30" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="17" t="s">
@@ -5570,7 +5583,7 @@
       <c r="H30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="115" t="s">
+      <c r="I30" s="114" t="s">
         <v>56</v>
       </c>
       <c r="J30" s="17" t="s">
@@ -5579,26 +5592,26 @@
       <c r="K30" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="115">
+      <c r="L30" s="114">
         <v>4</v>
       </c>
       <c r="M30" s="19">
         <v>42887</v>
       </c>
       <c r="N30" s="19"/>
-      <c r="O30" s="115"/>
+      <c r="O30" s="114"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="115">
+      <c r="U30" s="114">
         <v>1003</v>
       </c>
       <c r="V30" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="W30" s="115" t="s">
+      <c r="W30" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X30" s="17"/>
@@ -5609,13 +5622,13 @@
       <c r="C31" s="16">
         <v>3762</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="115" t="s">
+      <c r="F31" s="114" t="s">
         <v>61</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -5624,7 +5637,7 @@
       <c r="H31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="115" t="s">
+      <c r="I31" s="114" t="s">
         <v>56</v>
       </c>
       <c r="J31" s="17" t="s">
@@ -5633,11 +5646,11 @@
       <c r="K31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="115">
+      <c r="L31" s="114">
         <v>0</v>
       </c>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -5655,13 +5668,13 @@
       <c r="C32" s="16">
         <v>3974</v>
       </c>
-      <c r="D32" s="115" t="s">
+      <c r="D32" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="115" t="s">
+      <c r="F32" s="114" t="s">
         <v>61</v>
       </c>
       <c r="G32" s="17" t="s">
@@ -5670,7 +5683,7 @@
       <c r="H32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="115" t="s">
+      <c r="I32" s="114" t="s">
         <v>56</v>
       </c>
       <c r="J32" s="17" t="s">
@@ -5679,11 +5692,11 @@
       <c r="K32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="115">
+      <c r="L32" s="114">
         <v>0</v>
       </c>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -5701,13 +5714,13 @@
       <c r="C33" s="16">
         <v>5610</v>
       </c>
-      <c r="D33" s="115" t="s">
+      <c r="D33" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="115" t="s">
+      <c r="F33" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="17" t="s">
@@ -5716,7 +5729,7 @@
       <c r="H33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="115" t="s">
+      <c r="I33" s="114" t="s">
         <v>56</v>
       </c>
       <c r="J33" s="17" t="s">
@@ -5725,11 +5738,11 @@
       <c r="K33" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="115">
+      <c r="L33" s="114">
         <v>0</v>
       </c>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="114"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
@@ -5747,13 +5760,13 @@
       <c r="C34" s="16">
         <v>5838</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D34" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="17" t="s">
@@ -5762,7 +5775,7 @@
       <c r="H34" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="115" t="s">
+      <c r="I34" s="114" t="s">
         <v>56</v>
       </c>
       <c r="J34" s="17" t="s">
@@ -5771,11 +5784,11 @@
       <c r="K34" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="115">
+      <c r="L34" s="114">
         <v>0</v>
       </c>
-      <c r="M34" s="115"/>
-      <c r="N34" s="115"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
@@ -5793,13 +5806,13 @@
       <c r="C35" s="16">
         <v>5964</v>
       </c>
-      <c r="D35" s="115" t="s">
+      <c r="D35" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="115" t="s">
+      <c r="F35" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="17" t="s">
@@ -5808,7 +5821,7 @@
       <c r="H35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="115" t="s">
+      <c r="I35" s="114" t="s">
         <v>56</v>
       </c>
       <c r="J35" s="17" t="s">
@@ -5817,11 +5830,11 @@
       <c r="K35" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="115">
+      <c r="L35" s="114">
         <v>0</v>
       </c>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
@@ -5886,49 +5899,49 @@
       <c r="X36" s="28"/>
     </row>
     <row r="37" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" s="126"/>
+      <c r="A37" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" s="125"/>
       <c r="C37" s="55">
         <v>4836</v>
       </c>
-      <c r="D37" s="115" t="s">
+      <c r="D37" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="115" t="s">
+      <c r="E37" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="115" t="s">
+      <c r="G37" s="114" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I37" s="115" t="s">
+      <c r="I37" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="115" t="s">
-        <v>360</v>
+      <c r="J37" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K37" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="L37" s="115">
+      <c r="L37" s="114">
         <v>8</v>
       </c>
-      <c r="M37" s="115" t="s">
+      <c r="M37" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
-      <c r="P37" s="115"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
       <c r="Q37" s="91"/>
-      <c r="R37" s="93">
-        <v>42935</v>
+      <c r="R37" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S37" s="95">
         <v>42922</v>
@@ -5936,67 +5949,65 @@
       <c r="T37" s="96">
         <v>42944</v>
       </c>
-      <c r="U37" s="115">
+      <c r="U37" s="114">
         <v>47</v>
       </c>
-      <c r="V37" s="115" t="s">
+      <c r="V37" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="W37" s="115">
+      <c r="W37" s="114">
         <v>6183</v>
       </c>
-      <c r="X37" s="115"/>
-    </row>
-    <row r="38" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="126" t="s">
+      <c r="X37" s="114"/>
+    </row>
+    <row r="38" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="114"/>
+      <c r="B38" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C38" s="48">
         <v>4969</v>
       </c>
-      <c r="D38" s="115" t="s">
+      <c r="D38" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="115" t="s">
+      <c r="F38" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="115" t="s">
+      <c r="H38" s="146" t="s">
         <v>25</v>
       </c>
       <c r="I38" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="J38" s="115" t="s">
-        <v>355</v>
+      <c r="J38" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K38" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="L38" s="115">
+      <c r="L38" s="114">
         <v>30</v>
       </c>
       <c r="M38" s="19">
         <v>42894</v>
       </c>
       <c r="N38" s="19"/>
-      <c r="O38" s="115"/>
-      <c r="P38" s="115">
+      <c r="O38" s="114"/>
+      <c r="P38" s="114">
         <v>3</v>
       </c>
       <c r="Q38" s="91">
         <v>42906</v>
       </c>
-      <c r="R38" s="93">
-        <v>42937</v>
+      <c r="R38" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S38" s="95">
         <v>42922</v>
@@ -6004,13 +6015,13 @@
       <c r="T38" s="96">
         <v>42944</v>
       </c>
-      <c r="U38" s="115">
+      <c r="U38" s="114">
         <v>47</v>
       </c>
       <c r="V38" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W38" s="115">
+      <c r="W38" s="114">
         <v>6183</v>
       </c>
       <c r="X38" s="17"/>
@@ -6052,7 +6063,7 @@
         <v>42853</v>
       </c>
       <c r="N39" s="29"/>
-      <c r="O39" s="115" t="s">
+      <c r="O39" s="114" t="s">
         <v>153</v>
       </c>
       <c r="P39" s="28"/>
@@ -6102,7 +6113,7 @@
         <v>42832</v>
       </c>
       <c r="N40" s="29"/>
-      <c r="O40" s="115"/>
+      <c r="O40" s="114"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28"/>
       <c r="R40" s="28"/>
@@ -6150,7 +6161,7 @@
         <v>42832</v>
       </c>
       <c r="N41" s="29"/>
-      <c r="O41" s="115"/>
+      <c r="O41" s="114"/>
       <c r="P41" s="28"/>
       <c r="Q41" s="28"/>
       <c r="R41" s="28"/>
@@ -6164,16 +6175,16 @@
     <row r="42" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="115">
+      <c r="C42" s="114">
         <v>5910</v>
       </c>
-      <c r="D42" s="115" t="s">
+      <c r="D42" s="114" t="s">
         <v>147</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="115" t="s">
+      <c r="F42" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="17" t="s">
@@ -6182,7 +6193,7 @@
       <c r="H42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="115" t="s">
+      <c r="I42" s="114" t="s">
         <v>70</v>
       </c>
       <c r="J42" s="17" t="s">
@@ -6191,14 +6202,14 @@
       <c r="K42" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L42" s="115">
+      <c r="L42" s="114">
         <v>0</v>
       </c>
       <c r="M42" s="19">
         <v>42832</v>
       </c>
       <c r="N42" s="19"/>
-      <c r="O42" s="115"/>
+      <c r="O42" s="114"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -6215,13 +6226,13 @@
       <c r="C43" s="16">
         <v>6043</v>
       </c>
-      <c r="D43" s="115" t="s">
+      <c r="D43" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="115" t="s">
+      <c r="F43" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="17" t="s">
@@ -6230,7 +6241,7 @@
       <c r="H43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="115" t="s">
+      <c r="I43" s="114" t="s">
         <v>78</v>
       </c>
       <c r="J43" s="17" t="s">
@@ -6239,11 +6250,11 @@
       <c r="K43" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="115">
+      <c r="L43" s="114">
         <v>0</v>
       </c>
-      <c r="M43" s="115"/>
-      <c r="N43" s="115"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
@@ -6255,23 +6266,21 @@
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
     </row>
-    <row r="44" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="115">
-        <v>1</v>
-      </c>
-      <c r="B44" s="126" t="s">
+    <row r="44" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="114"/>
+      <c r="B44" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="115">
+      <c r="C44" s="114">
         <v>5006</v>
       </c>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="115" t="s">
+      <c r="F44" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="17" t="s">
@@ -6280,27 +6289,27 @@
       <c r="H44" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="132" t="s">
+      <c r="I44" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="115"/>
+      <c r="J44" s="114"/>
       <c r="K44" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L44" s="115">
+      <c r="L44" s="114">
         <v>8</v>
       </c>
       <c r="M44" s="19">
         <v>42874</v>
       </c>
       <c r="N44" s="19"/>
-      <c r="O44" s="115"/>
+      <c r="O44" s="114"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="91">
         <v>42913</v>
       </c>
-      <c r="R44" s="114">
-        <v>42940</v>
+      <c r="R44" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="S44" s="95">
         <v>42937</v>
@@ -6308,32 +6317,30 @@
       <c r="T44" s="96">
         <v>42944</v>
       </c>
-      <c r="U44" s="115">
+      <c r="U44" s="114">
         <v>113</v>
       </c>
       <c r="V44" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="W44" s="115" t="s">
+      <c r="W44" s="114" t="s">
         <v>231</v>
       </c>
       <c r="X44" s="17"/>
     </row>
-    <row r="45" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="115">
-        <v>4</v>
-      </c>
-      <c r="B45" s="126" t="s">
+    <row r="45" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="114"/>
+      <c r="B45" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C45" s="48">
         <v>5142</v>
       </c>
-      <c r="D45" s="115" t="s">
+      <c r="D45" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="26"/>
-      <c r="F45" s="115" t="s">
+      <c r="F45" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="17" t="s">
@@ -6342,25 +6349,25 @@
       <c r="H45" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="115" t="s">
+      <c r="I45" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="J45" s="115" t="s">
-        <v>356</v>
+      <c r="J45" s="114" t="s">
+        <v>354</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="115"/>
-      <c r="O45" s="115"/>
-      <c r="P45" s="115"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
+      <c r="N45" s="114"/>
+      <c r="O45" s="114"/>
+      <c r="P45" s="114"/>
       <c r="Q45" s="91">
         <v>42934</v>
       </c>
       <c r="R45" s="93">
-        <v>42941</v>
+        <v>42944</v>
       </c>
       <c r="S45" s="95">
         <v>42937</v>
@@ -6368,67 +6375,65 @@
       <c r="T45" s="96">
         <v>42944</v>
       </c>
-      <c r="U45" s="115">
+      <c r="U45" s="114">
         <v>1846</v>
       </c>
       <c r="V45" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="W45" s="115" t="s">
+      <c r="W45" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X45" s="26"/>
     </row>
-    <row r="46" spans="1:25" s="30" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="98" t="s">
-        <v>153</v>
-      </c>
+    <row r="46" spans="1:25" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="98"/>
       <c r="B46" s="98" t="s">
         <v>153</v>
       </c>
       <c r="C46" s="98">
         <v>5401</v>
       </c>
-      <c r="D46" s="115" t="s">
+      <c r="D46" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="115" t="s">
+      <c r="F46" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="115" t="s">
+      <c r="H46" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="115" t="s">
+      <c r="I46" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J46" s="115" t="s">
-        <v>360</v>
+      <c r="J46" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="L46" s="115">
+      <c r="L46" s="114">
         <v>8</v>
       </c>
       <c r="M46" s="19">
         <v>42894</v>
       </c>
       <c r="N46" s="19"/>
-      <c r="O46" s="115"/>
-      <c r="P46" s="115">
+      <c r="O46" s="114"/>
+      <c r="P46" s="114">
         <v>5</v>
       </c>
       <c r="Q46" s="91">
         <v>42893</v>
       </c>
-      <c r="R46" s="114" t="s">
-        <v>344</v>
+      <c r="R46" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S46" s="95">
         <v>42914</v>
@@ -6436,62 +6441,60 @@
       <c r="T46" s="96">
         <v>42923</v>
       </c>
-      <c r="U46" s="115">
+      <c r="U46" s="114">
         <v>41</v>
       </c>
       <c r="V46" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W46" s="115">
+      <c r="W46" s="114">
         <v>5553</v>
       </c>
       <c r="X46" s="17"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:25" s="3" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="115">
-        <v>6</v>
-      </c>
-      <c r="B47" s="126" t="s">
+    <row r="47" spans="1:25" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="114"/>
+      <c r="B47" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="115">
+      <c r="C47" s="114">
         <v>5402</v>
       </c>
-      <c r="D47" s="115" t="s">
+      <c r="D47" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="115" t="s">
+      <c r="F47" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47" s="115" t="s">
-        <v>357</v>
+        <v>25</v>
+      </c>
+      <c r="I47" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47" s="114" t="s">
+        <v>342</v>
       </c>
       <c r="K47" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="115"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="114"/>
+      <c r="P47" s="114"/>
       <c r="Q47" s="91">
         <v>42934</v>
       </c>
       <c r="R47" s="93">
-        <v>42941</v>
+        <v>42940</v>
       </c>
       <c r="S47" s="95">
         <v>42937</v>
@@ -6499,28 +6502,28 @@
       <c r="T47" s="96">
         <v>42944</v>
       </c>
-      <c r="U47" s="115">
+      <c r="U47" s="114">
         <v>1315</v>
       </c>
       <c r="V47" s="26"/>
-      <c r="W47" s="115" t="s">
+      <c r="W47" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X47" s="26"/>
     </row>
-    <row r="48" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
-      <c r="B48" s="122"/>
+    <row r="48" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="121"/>
+      <c r="B48" s="121"/>
       <c r="C48" s="98">
         <v>5496</v>
       </c>
-      <c r="D48" s="126" t="s">
+      <c r="D48" s="125" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="126" t="s">
+      <c r="F48" s="125" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="17" t="s">
@@ -6529,27 +6532,27 @@
       <c r="H48" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="126" t="s">
+      <c r="I48" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="J48" s="126" t="s">
-        <v>360</v>
+      <c r="J48" s="125" t="s">
+        <v>357</v>
       </c>
       <c r="K48" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L48" s="126">
+      <c r="L48" s="125">
         <v>0</v>
       </c>
-      <c r="M48" s="126"/>
-      <c r="N48" s="126"/>
-      <c r="O48" s="126"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="125"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="91">
         <v>42893</v>
       </c>
       <c r="R48" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S48" s="95">
         <v>42914</v>
@@ -6557,71 +6560,73 @@
       <c r="T48" s="96">
         <v>42923</v>
       </c>
-      <c r="U48" s="126">
+      <c r="U48" s="125">
         <v>41</v>
       </c>
       <c r="V48" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W48" s="115">
+      <c r="W48" s="114">
         <v>5553</v>
       </c>
       <c r="X48" s="17"/>
     </row>
-    <row r="49" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="126" t="s">
+    <row r="49" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="125"/>
+      <c r="B49" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="48">
         <v>5553</v>
       </c>
-      <c r="D49" s="115" t="s">
+      <c r="D49" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="115" t="s">
+      <c r="F49" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="126" t="s">
+      <c r="H49" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="115" t="s">
+      <c r="I49" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="115"/>
+      <c r="J49" s="146" t="s">
+        <v>357</v>
+      </c>
       <c r="K49" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="115">
+      <c r="L49" s="114">
         <v>0</v>
       </c>
-      <c r="M49" s="115"/>
-      <c r="N49" s="115"/>
+      <c r="M49" s="114"/>
+      <c r="N49" s="114"/>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="92"/>
-      <c r="R49" s="94"/>
+      <c r="R49" s="93" t="s">
+        <v>343</v>
+      </c>
       <c r="S49" s="95">
         <v>42914</v>
       </c>
       <c r="T49" s="96">
         <v>42923</v>
       </c>
-      <c r="U49" s="115">
+      <c r="U49" s="114">
         <v>41</v>
       </c>
       <c r="V49" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W49" s="115">
+      <c r="W49" s="114">
         <v>5553</v>
       </c>
       <c r="X49" s="17"/>
@@ -6629,16 +6634,16 @@
     <row r="50" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="115">
+      <c r="C50" s="114">
         <v>5144</v>
       </c>
-      <c r="D50" s="115" t="s">
+      <c r="D50" s="114" t="s">
         <v>147</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="115" t="s">
+      <c r="F50" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="17" t="s">
@@ -6647,7 +6652,7 @@
       <c r="H50" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="115" t="s">
+      <c r="I50" s="114" t="s">
         <v>80</v>
       </c>
       <c r="J50" s="17" t="s">
@@ -6656,78 +6661,76 @@
       <c r="K50" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L50" s="115">
+      <c r="L50" s="114">
         <v>12</v>
       </c>
       <c r="M50" s="19">
         <v>42874</v>
       </c>
       <c r="N50" s="19"/>
-      <c r="O50" s="115"/>
+      <c r="O50" s="114"/>
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
       <c r="S50" s="17"/>
       <c r="T50" s="17"/>
-      <c r="U50" s="115">
+      <c r="U50" s="114">
         <v>1649</v>
       </c>
       <c r="V50" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="W50" s="115"/>
+      <c r="W50" s="114"/>
       <c r="X50" s="17"/>
     </row>
-    <row r="51" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
-        <v>153</v>
-      </c>
+    <row r="51" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
       <c r="B51" s="48" t="s">
         <v>153</v>
       </c>
       <c r="C51" s="98">
         <v>5685</v>
       </c>
-      <c r="D51" s="115" t="s">
+      <c r="D51" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="115" t="s">
+      <c r="F51" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="115" t="s">
+      <c r="H51" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="I51" s="115" t="s">
+      <c r="I51" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J51" s="115" t="s">
-        <v>360</v>
+      <c r="J51" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K51" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L51" s="115">
+      <c r="L51" s="114">
         <v>2</v>
       </c>
       <c r="M51" s="19">
         <v>42894</v>
       </c>
       <c r="N51" s="19"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="115" t="s">
+      <c r="O51" s="114"/>
+      <c r="P51" s="114" t="s">
         <v>156</v>
       </c>
       <c r="Q51" s="91">
         <v>42893</v>
       </c>
-      <c r="R51" s="114" t="s">
-        <v>344</v>
+      <c r="R51" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S51" s="95">
         <v>42914</v>
@@ -6735,34 +6738,32 @@
       <c r="T51" s="96">
         <v>42923</v>
       </c>
-      <c r="U51" s="115">
+      <c r="U51" s="114">
         <v>41</v>
       </c>
       <c r="V51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W51" s="115">
+      <c r="W51" s="114">
         <v>5553</v>
       </c>
       <c r="X51" s="17"/>
     </row>
-    <row r="52" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="126" t="s">
+    <row r="52" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="114"/>
+      <c r="B52" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C52" s="98">
         <v>5902</v>
       </c>
-      <c r="D52" s="115" t="s">
+      <c r="D52" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="115" t="s">
+      <c r="F52" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="17" t="s">
@@ -6771,29 +6772,29 @@
       <c r="H52" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="115" t="s">
+      <c r="I52" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J52" s="115" t="s">
-        <v>360</v>
+      <c r="J52" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K52" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L52" s="115">
+      <c r="L52" s="114">
         <v>0</v>
       </c>
       <c r="M52" s="19">
         <v>42860</v>
       </c>
       <c r="N52" s="19"/>
-      <c r="O52" s="115"/>
+      <c r="O52" s="114"/>
       <c r="P52" s="17"/>
       <c r="Q52" s="91">
         <v>42901</v>
       </c>
-      <c r="R52" s="93">
-        <v>42907</v>
+      <c r="R52" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S52" s="95">
         <v>42914</v>
@@ -6801,13 +6802,13 @@
       <c r="T52" s="96">
         <v>42923</v>
       </c>
-      <c r="U52" s="115">
+      <c r="U52" s="114">
         <v>41</v>
       </c>
       <c r="V52" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W52" s="115">
+      <c r="W52" s="114">
         <v>5553</v>
       </c>
       <c r="X52" s="17"/>
@@ -6818,13 +6819,13 @@
       <c r="C53" s="16">
         <v>4800</v>
       </c>
-      <c r="D53" s="115" t="s">
+      <c r="D53" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="115" t="s">
+      <c r="F53" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="17" t="s">
@@ -6833,7 +6834,7 @@
       <c r="H53" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="115" t="s">
+      <c r="I53" s="114" t="s">
         <v>80</v>
       </c>
       <c r="J53" s="17" t="s">
@@ -6842,11 +6843,11 @@
       <c r="K53" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L53" s="115">
+      <c r="L53" s="114">
         <v>0</v>
       </c>
-      <c r="M53" s="115"/>
-      <c r="N53" s="115"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
@@ -6864,13 +6865,13 @@
       <c r="C54" s="16">
         <v>6186</v>
       </c>
-      <c r="D54" s="115" t="s">
+      <c r="D54" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="115" t="s">
+      <c r="F54" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G54" s="17" t="s">
@@ -6879,7 +6880,7 @@
       <c r="H54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="115" t="s">
+      <c r="I54" s="114" t="s">
         <v>80</v>
       </c>
       <c r="J54" s="17" t="s">
@@ -6888,11 +6889,11 @@
       <c r="K54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L54" s="115">
+      <c r="L54" s="114">
         <v>0</v>
       </c>
-      <c r="M54" s="115"/>
-      <c r="N54" s="115"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
@@ -6904,23 +6905,21 @@
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
     </row>
-    <row r="55" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" s="126" t="s">
+    <row r="55" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="114"/>
+      <c r="B55" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C55" s="48">
         <v>5915</v>
       </c>
-      <c r="D55" s="115" t="s">
+      <c r="D55" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="115" t="s">
+      <c r="F55" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="17" t="s">
@@ -6929,29 +6928,29 @@
       <c r="H55" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="115" t="s">
+      <c r="I55" s="114" t="s">
         <v>324</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K55" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L55" s="115">
+      <c r="L55" s="114">
         <v>8</v>
       </c>
       <c r="M55" s="19">
         <v>42894</v>
       </c>
       <c r="N55" s="19"/>
-      <c r="O55" s="115"/>
+      <c r="O55" s="114"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="91">
         <v>42906</v>
       </c>
       <c r="R55" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S55" s="95">
         <v>42922</v>
@@ -6959,67 +6958,65 @@
       <c r="T55" s="96">
         <v>42944</v>
       </c>
-      <c r="U55" s="115">
+      <c r="U55" s="114">
         <v>47</v>
       </c>
       <c r="V55" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W55" s="115">
+      <c r="W55" s="114">
         <v>6183</v>
       </c>
       <c r="X55" s="17"/>
     </row>
-    <row r="56" spans="1:25" s="3" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
-        <v>153</v>
-      </c>
+    <row r="56" spans="1:25" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48"/>
       <c r="B56" s="48" t="s">
         <v>153</v>
       </c>
       <c r="C56" s="48">
         <v>5929</v>
       </c>
-      <c r="D56" s="115" t="s">
+      <c r="D56" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="115" t="s">
+      <c r="F56" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="115" t="s">
+      <c r="H56" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="115" t="s">
+      <c r="I56" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J56" s="115" t="s">
-        <v>360</v>
+      <c r="J56" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K56" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L56" s="115">
+      <c r="L56" s="114">
         <v>12</v>
       </c>
       <c r="M56" s="19">
         <v>42894</v>
       </c>
       <c r="N56" s="19"/>
-      <c r="O56" s="115"/>
-      <c r="P56" s="115">
+      <c r="O56" s="114"/>
+      <c r="P56" s="114">
         <v>4</v>
       </c>
       <c r="Q56" s="91">
         <v>42905</v>
       </c>
       <c r="R56" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S56" s="95">
         <v>42914</v>
@@ -7027,23 +7024,21 @@
       <c r="T56" s="96">
         <v>42923</v>
       </c>
-      <c r="U56" s="115">
+      <c r="U56" s="114">
         <v>41</v>
       </c>
       <c r="V56" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W56" s="115">
+      <c r="W56" s="114">
         <v>5553</v>
       </c>
       <c r="X56" s="17"/>
       <c r="Y56" s="30"/>
     </row>
-    <row r="57" spans="1:25" s="3" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="126" t="s">
+    <row r="57" spans="1:25" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="114"/>
+      <c r="B57" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C57" s="98">
@@ -7068,7 +7063,7 @@
         <v>324</v>
       </c>
       <c r="J57" s="23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K57" s="22" t="s">
         <v>99</v>
@@ -7086,7 +7081,7 @@
         <v>42893</v>
       </c>
       <c r="R57" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S57" s="95">
         <v>42914</v>
@@ -7100,53 +7095,53 @@
       <c r="V57" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W57" s="115">
+      <c r="W57" s="114">
         <v>5553</v>
       </c>
       <c r="X57" s="22"/>
     </row>
-    <row r="58" spans="1:25" s="3" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="126" t="s">
+    <row r="58" spans="1:25" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="114"/>
+      <c r="B58" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C58" s="48">
         <v>6041</v>
       </c>
-      <c r="D58" s="115" t="s">
+      <c r="D58" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="115" t="s">
+      <c r="F58" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="115" t="s">
+      <c r="H58" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="115" t="s">
+      <c r="I58" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="115"/>
+      <c r="J58" s="114" t="s">
+        <v>357</v>
+      </c>
       <c r="K58" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L58" s="115">
+      <c r="L58" s="114">
         <v>0</v>
       </c>
-      <c r="M58" s="115"/>
-      <c r="N58" s="115"/>
+      <c r="M58" s="114"/>
+      <c r="N58" s="114"/>
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="92"/>
-      <c r="R58" s="114">
-        <v>42940</v>
+      <c r="R58" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S58" s="95">
         <v>42922</v>
@@ -7154,22 +7149,20 @@
       <c r="T58" s="96">
         <v>42944</v>
       </c>
-      <c r="U58" s="115">
+      <c r="U58" s="114">
         <v>101</v>
       </c>
       <c r="V58" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="W58" s="115">
+      <c r="W58" s="114">
         <v>6041</v>
       </c>
       <c r="X58" s="17"/>
     </row>
-    <row r="59" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="126" t="s">
+    <row r="59" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="114"/>
+      <c r="B59" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C59" s="98">
@@ -7193,7 +7186,9 @@
       <c r="I59" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="J59" s="27"/>
+      <c r="J59" s="27" t="s">
+        <v>342</v>
+      </c>
       <c r="K59" s="28" t="s">
         <v>83</v>
       </c>
@@ -7209,7 +7204,7 @@
       <c r="Q59" s="91">
         <v>42906</v>
       </c>
-      <c r="R59" s="114">
+      <c r="R59" s="113">
         <v>42940</v>
       </c>
       <c r="S59" s="95">
@@ -7229,23 +7224,21 @@
       </c>
       <c r="X59" s="28"/>
     </row>
-    <row r="60" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="115">
-        <v>5</v>
-      </c>
-      <c r="B60" s="126" t="s">
+    <row r="60" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="114"/>
+      <c r="B60" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C60" s="48">
         <v>6044</v>
       </c>
-      <c r="D60" s="115" t="s">
+      <c r="D60" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="115" t="s">
+      <c r="F60" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="17" t="s">
@@ -7254,23 +7247,25 @@
       <c r="H60" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="132" t="s">
+      <c r="I60" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="115"/>
+      <c r="J60" s="146" t="s">
+        <v>357</v>
+      </c>
       <c r="K60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L60" s="115">
+      <c r="L60" s="114">
         <v>0</v>
       </c>
-      <c r="M60" s="115"/>
-      <c r="N60" s="115"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="114"/>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="92"/>
-      <c r="R60" s="114">
-        <v>42940</v>
+      <c r="R60" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S60" s="95">
         <v>42937</v>
@@ -7278,59 +7273,59 @@
       <c r="T60" s="96">
         <v>42944</v>
       </c>
-      <c r="U60" s="115">
+      <c r="U60" s="114">
         <v>113</v>
       </c>
       <c r="V60" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="W60" s="115">
+      <c r="W60" s="114">
         <v>6044</v>
       </c>
       <c r="X60" s="17"/>
     </row>
-    <row r="61" spans="1:25" s="25" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>153</v>
-      </c>
+    <row r="61" spans="1:25" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
       <c r="B61" s="23" t="s">
         <v>153</v>
       </c>
       <c r="C61" s="48">
         <v>6045</v>
       </c>
-      <c r="D61" s="115" t="s">
+      <c r="D61" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="115" t="s">
+      <c r="F61" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="115" t="s">
+      <c r="H61" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="I61" s="115" t="s">
+      <c r="I61" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="115"/>
+      <c r="J61" s="114" t="s">
+        <v>357</v>
+      </c>
       <c r="K61" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L61" s="115">
+      <c r="L61" s="114">
         <v>0</v>
       </c>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
+      <c r="M61" s="114"/>
+      <c r="N61" s="114"/>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="92"/>
-      <c r="R61" s="114">
-        <v>42940</v>
+      <c r="R61" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S61" s="95">
         <v>42914</v>
@@ -7338,30 +7333,30 @@
       <c r="T61" s="96">
         <v>42944</v>
       </c>
-      <c r="U61" s="115">
+      <c r="U61" s="114">
         <v>1362</v>
       </c>
       <c r="V61" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="W61" s="115">
+      <c r="W61" s="114">
         <v>6045</v>
       </c>
       <c r="X61" s="17"/>
     </row>
     <row r="62" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="126"/>
-      <c r="B62" s="126"/>
-      <c r="C62" s="112">
+      <c r="A62" s="125"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="111">
         <v>6046</v>
       </c>
-      <c r="D62" s="115" t="s">
+      <c r="D62" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E62" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="115" t="s">
+      <c r="F62" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="26" t="s">
@@ -7370,20 +7365,20 @@
       <c r="H62" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I62" s="115" t="s">
+      <c r="I62" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="J62" s="115" t="s">
-        <v>360</v>
+      <c r="J62" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K62" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L62" s="115"/>
-      <c r="M62" s="126"/>
-      <c r="N62" s="126"/>
-      <c r="O62" s="115"/>
-      <c r="P62" s="115"/>
+      <c r="L62" s="114"/>
+      <c r="M62" s="125"/>
+      <c r="N62" s="125"/>
+      <c r="O62" s="114"/>
+      <c r="P62" s="114"/>
       <c r="Q62" s="92"/>
       <c r="R62" s="94"/>
       <c r="S62" s="95">
@@ -7392,31 +7387,29 @@
       <c r="T62" s="96">
         <v>42923</v>
       </c>
-      <c r="U62" s="115">
+      <c r="U62" s="114">
         <v>43</v>
       </c>
       <c r="V62" s="26"/>
-      <c r="W62" s="115"/>
+      <c r="W62" s="114"/>
       <c r="X62" s="26"/>
       <c r="Y62" s="1"/>
     </row>
-    <row r="63" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>153</v>
-      </c>
+    <row r="63" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
       <c r="B63" s="23" t="s">
         <v>153</v>
       </c>
       <c r="C63" s="48">
         <v>6047</v>
       </c>
-      <c r="D63" s="115" t="s">
+      <c r="D63" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="115" t="s">
+      <c r="F63" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G63" s="17" t="s">
@@ -7425,31 +7418,31 @@
       <c r="H63" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="115" t="s">
+      <c r="I63" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J63" s="115" t="s">
-        <v>360</v>
+      <c r="J63" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K63" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L63" s="115">
+      <c r="L63" s="114">
         <v>8</v>
       </c>
       <c r="M63" s="19">
         <v>42825</v>
       </c>
       <c r="N63" s="19"/>
-      <c r="O63" s="126"/>
-      <c r="P63" s="126" t="s">
+      <c r="O63" s="125"/>
+      <c r="P63" s="125" t="s">
         <v>156</v>
       </c>
       <c r="Q63" s="91">
         <v>42900</v>
       </c>
       <c r="R63" s="93" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S63" s="95">
         <v>42914</v>
@@ -7457,32 +7450,30 @@
       <c r="T63" s="96">
         <v>42923</v>
       </c>
-      <c r="U63" s="115">
+      <c r="U63" s="114">
         <v>43</v>
       </c>
       <c r="V63" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="W63" s="126">
+      <c r="W63" s="125">
         <v>5553</v>
       </c>
       <c r="X63" s="17"/>
     </row>
-    <row r="64" spans="1:25" s="104" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="B64" s="126"/>
+    <row r="64" spans="1:25" s="104" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="125"/>
+      <c r="B64" s="125"/>
       <c r="C64" s="98">
         <v>6048</v>
       </c>
-      <c r="D64" s="126" t="s">
+      <c r="D64" s="125" t="s">
         <v>27</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="126" t="s">
+      <c r="F64" s="125" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="17" t="s">
@@ -7491,27 +7482,27 @@
       <c r="H64" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="126" t="s">
+      <c r="I64" s="125" t="s">
         <v>324</v>
       </c>
-      <c r="J64" s="126" t="s">
-        <v>360</v>
+      <c r="J64" s="125" t="s">
+        <v>357</v>
       </c>
       <c r="K64" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L64" s="115">
+      <c r="L64" s="114">
         <v>0</v>
       </c>
-      <c r="M64" s="115"/>
-      <c r="N64" s="115"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="114"/>
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="91">
         <v>42900</v>
       </c>
       <c r="R64" s="93" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S64" s="95">
         <v>42914</v>
@@ -7519,7 +7510,7 @@
       <c r="T64" s="96">
         <v>42923</v>
       </c>
-      <c r="U64" s="126">
+      <c r="U64" s="125">
         <v>43</v>
       </c>
       <c r="V64" s="17"/>
@@ -7528,9 +7519,7 @@
       <c r="Y64" s="3"/>
     </row>
     <row r="65" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="105" t="s">
-        <v>153</v>
-      </c>
+      <c r="A65" s="105"/>
       <c r="B65" s="105" t="s">
         <v>153</v>
       </c>
@@ -7540,50 +7529,48 @@
       <c r="D65" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="107" t="s">
+      <c r="E65" s="106" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="H65" s="106" t="s">
-        <v>25</v>
+      <c r="H65" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="I65" s="105" t="s">
         <v>92</v>
       </c>
       <c r="J65" s="105"/>
-      <c r="K65" s="107" t="s">
+      <c r="K65" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="L65" s="115">
+      <c r="L65" s="114">
         <v>0</v>
       </c>
-      <c r="M65" s="126"/>
-      <c r="N65" s="126"/>
+      <c r="M65" s="125"/>
+      <c r="N65" s="125"/>
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
-      <c r="Q65" s="108">
+      <c r="Q65" s="107">
         <v>42900</v>
       </c>
-      <c r="R65" s="109">
-        <v>42907</v>
-      </c>
-      <c r="S65" s="110">
+      <c r="R65" s="108"/>
+      <c r="S65" s="109">
         <v>42914</v>
       </c>
-      <c r="T65" s="111">
+      <c r="T65" s="110">
         <v>42923</v>
       </c>
       <c r="U65" s="105">
         <v>46</v>
       </c>
-      <c r="V65" s="107"/>
-      <c r="W65" s="107"/>
-      <c r="X65" s="107"/>
+      <c r="V65" s="106"/>
+      <c r="W65" s="106"/>
+      <c r="X65" s="106"/>
       <c r="Y65" s="104"/>
     </row>
     <row r="66" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -7592,13 +7579,13 @@
       <c r="C66" s="16">
         <v>5008</v>
       </c>
-      <c r="D66" s="115" t="s">
+      <c r="D66" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="115" t="s">
+      <c r="F66" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="17" t="s">
@@ -7607,7 +7594,7 @@
       <c r="H66" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I66" s="115" t="s">
+      <c r="I66" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J66" s="17" t="s">
@@ -7616,11 +7603,11 @@
       <c r="K66" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="L66" s="115">
+      <c r="L66" s="114">
         <v>0</v>
       </c>
-      <c r="M66" s="115"/>
-      <c r="N66" s="115"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
@@ -7638,13 +7625,13 @@
       <c r="C67" s="16">
         <v>5029</v>
       </c>
-      <c r="D67" s="115" t="s">
+      <c r="D67" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="115" t="s">
+      <c r="F67" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G67" s="17" t="s">
@@ -7653,7 +7640,7 @@
       <c r="H67" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="115" t="s">
+      <c r="I67" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J67" s="17" t="s">
@@ -7662,11 +7649,11 @@
       <c r="K67" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="L67" s="115">
+      <c r="L67" s="114">
         <v>0</v>
       </c>
-      <c r="M67" s="115"/>
-      <c r="N67" s="115"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="114"/>
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
@@ -7684,13 +7671,13 @@
       <c r="C68" s="16">
         <v>5503</v>
       </c>
-      <c r="D68" s="115" t="s">
+      <c r="D68" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="115" t="s">
+      <c r="F68" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G68" s="17" t="s">
@@ -7699,7 +7686,7 @@
       <c r="H68" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I68" s="115" t="s">
+      <c r="I68" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J68" s="17" t="s">
@@ -7708,11 +7695,11 @@
       <c r="K68" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="L68" s="115">
+      <c r="L68" s="114">
         <v>0</v>
       </c>
-      <c r="M68" s="115"/>
-      <c r="N68" s="115"/>
+      <c r="M68" s="114"/>
+      <c r="N68" s="114"/>
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
@@ -7730,13 +7717,13 @@
       <c r="C69" s="16">
         <v>5817</v>
       </c>
-      <c r="D69" s="115" t="s">
+      <c r="D69" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="115" t="s">
+      <c r="F69" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G69" s="17" t="s">
@@ -7745,7 +7732,7 @@
       <c r="H69" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I69" s="115" t="s">
+      <c r="I69" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J69" s="17" t="s">
@@ -7754,11 +7741,11 @@
       <c r="K69" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L69" s="115">
+      <c r="L69" s="114">
         <v>0</v>
       </c>
-      <c r="M69" s="115"/>
-      <c r="N69" s="115"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="114"/>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
@@ -7776,13 +7763,13 @@
       <c r="C70" s="16">
         <v>5946</v>
       </c>
-      <c r="D70" s="115" t="s">
+      <c r="D70" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G70" s="17" t="s">
@@ -7791,7 +7778,7 @@
       <c r="H70" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I70" s="115" t="s">
+      <c r="I70" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J70" s="17" t="s">
@@ -7800,7 +7787,7 @@
       <c r="K70" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="L70" s="115">
+      <c r="L70" s="114">
         <v>0</v>
       </c>
       <c r="M70" s="19">
@@ -7824,13 +7811,13 @@
       <c r="C71" s="16">
         <v>5967</v>
       </c>
-      <c r="D71" s="115" t="s">
+      <c r="D71" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="115" t="s">
+      <c r="F71" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G71" s="17" t="s">
@@ -7839,7 +7826,7 @@
       <c r="H71" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="115" t="s">
+      <c r="I71" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J71" s="17" t="s">
@@ -7848,11 +7835,11 @@
       <c r="K71" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="L71" s="115">
+      <c r="L71" s="114">
         <v>0</v>
       </c>
-      <c r="M71" s="115"/>
-      <c r="N71" s="115"/>
+      <c r="M71" s="114"/>
+      <c r="N71" s="114"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
@@ -7870,13 +7857,13 @@
       <c r="C72" s="16">
         <v>5968</v>
       </c>
-      <c r="D72" s="115" t="s">
+      <c r="D72" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="115" t="s">
+      <c r="F72" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="17" t="s">
@@ -7885,7 +7872,7 @@
       <c r="H72" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="115" t="s">
+      <c r="I72" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J72" s="17" t="s">
@@ -7894,11 +7881,11 @@
       <c r="K72" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L72" s="115">
+      <c r="L72" s="114">
         <v>0</v>
       </c>
-      <c r="M72" s="115"/>
-      <c r="N72" s="115"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="114"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
@@ -7916,13 +7903,13 @@
       <c r="C73" s="16">
         <v>6040</v>
       </c>
-      <c r="D73" s="115" t="s">
+      <c r="D73" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="115" t="s">
+      <c r="F73" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G73" s="17" t="s">
@@ -7931,7 +7918,7 @@
       <c r="H73" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I73" s="115" t="s">
+      <c r="I73" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J73" s="17" t="s">
@@ -7940,11 +7927,11 @@
       <c r="K73" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="L73" s="115">
+      <c r="L73" s="114">
         <v>0</v>
       </c>
-      <c r="M73" s="115"/>
-      <c r="N73" s="115"/>
+      <c r="M73" s="114"/>
+      <c r="N73" s="114"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
@@ -7956,52 +7943,50 @@
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
     </row>
-    <row r="74" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="126"/>
+    <row r="74" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="114"/>
+      <c r="B74" s="125"/>
       <c r="C74" s="98">
         <v>6054</v>
       </c>
-      <c r="D74" s="115" t="s">
+      <c r="D74" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="115" t="s">
+      <c r="F74" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="126" t="s">
+      <c r="H74" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="J74" s="115" t="s">
-        <v>360</v>
+      <c r="I74" s="114" t="s">
+        <v>358</v>
+      </c>
+      <c r="J74" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K74" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="L74" s="115">
+      <c r="L74" s="114">
         <v>8</v>
       </c>
       <c r="M74" s="19">
         <v>42894</v>
       </c>
       <c r="N74" s="19"/>
-      <c r="O74" s="115"/>
-      <c r="P74" s="126"/>
+      <c r="O74" s="114"/>
+      <c r="P74" s="125"/>
       <c r="Q74" s="91">
         <v>42893</v>
       </c>
       <c r="R74" s="93" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S74" s="95">
         <v>42914</v>
@@ -8009,13 +7994,13 @@
       <c r="T74" s="96">
         <v>42923</v>
       </c>
-      <c r="U74" s="115">
+      <c r="U74" s="114">
         <v>41</v>
       </c>
       <c r="V74" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W74" s="115">
+      <c r="W74" s="114">
         <v>5553</v>
       </c>
       <c r="X74" s="17"/>
@@ -8026,13 +8011,13 @@
       <c r="C75" s="16">
         <v>6050</v>
       </c>
-      <c r="D75" s="115" t="s">
+      <c r="D75" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="115" t="s">
+      <c r="F75" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G75" s="17" t="s">
@@ -8041,7 +8026,7 @@
       <c r="H75" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="115" t="s">
+      <c r="I75" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J75" s="17" t="s">
@@ -8050,11 +8035,11 @@
       <c r="K75" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L75" s="115">
+      <c r="L75" s="114">
         <v>0</v>
       </c>
-      <c r="M75" s="115"/>
-      <c r="N75" s="115"/>
+      <c r="M75" s="114"/>
+      <c r="N75" s="114"/>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
@@ -8066,19 +8051,19 @@
       <c r="W75" s="17"/>
       <c r="X75" s="17"/>
     </row>
-    <row r="76" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="115"/>
-      <c r="B76" s="126"/>
+    <row r="76" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="114"/>
+      <c r="B76" s="125"/>
       <c r="C76" s="98">
         <v>6137</v>
       </c>
-      <c r="D76" s="115" t="s">
+      <c r="D76" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="112" t="s">
+      <c r="F76" s="111" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="17" t="s">
@@ -8087,27 +8072,27 @@
       <c r="H76" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="115" t="s">
+      <c r="I76" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="J76" s="115" t="s">
-        <v>360</v>
+      <c r="J76" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K76" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="L76" s="115">
+      <c r="L76" s="114">
         <v>0</v>
       </c>
-      <c r="M76" s="115"/>
-      <c r="N76" s="115"/>
+      <c r="M76" s="114"/>
+      <c r="N76" s="114"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
       <c r="Q76" s="91" t="s">
         <v>210</v>
       </c>
       <c r="R76" s="93" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="S76" s="95">
         <v>42914</v>
@@ -8115,11 +8100,11 @@
       <c r="T76" s="96">
         <v>42923</v>
       </c>
-      <c r="U76" s="115">
+      <c r="U76" s="114">
         <v>43</v>
       </c>
       <c r="V76" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W76" s="17"/>
       <c r="X76" s="17"/>
@@ -8130,13 +8115,13 @@
       <c r="C77" s="16">
         <v>5901</v>
       </c>
-      <c r="D77" s="115" t="s">
+      <c r="D77" s="114" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="114" t="s">
         <v>24</v>
       </c>
       <c r="G77" s="17" t="s">
@@ -8145,7 +8130,7 @@
       <c r="H77" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="115" t="s">
+      <c r="I77" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J77" s="17" t="s">
@@ -8154,11 +8139,11 @@
       <c r="K77" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="L77" s="115">
+      <c r="L77" s="114">
         <v>0</v>
       </c>
-      <c r="M77" s="115"/>
-      <c r="N77" s="115"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114"/>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
@@ -8170,23 +8155,21 @@
       <c r="W77" s="17"/>
       <c r="X77" s="17"/>
     </row>
-    <row r="78" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="115" t="s">
+    <row r="78" spans="1:25" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="114"/>
+      <c r="B78" s="125" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="126" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="126">
+      <c r="C78" s="125">
         <v>6141</v>
       </c>
-      <c r="D78" s="115" t="s">
+      <c r="D78" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="115" t="s">
+      <c r="F78" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G78" s="17" t="s">
@@ -8195,27 +8178,27 @@
       <c r="H78" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="115" t="s">
+      <c r="I78" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J78" s="115"/>
+      <c r="J78" s="114"/>
       <c r="K78" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L78" s="115">
+      <c r="L78" s="114">
         <v>0</v>
       </c>
       <c r="M78" s="19">
         <v>42874</v>
       </c>
       <c r="N78" s="19"/>
-      <c r="O78" s="115"/>
+      <c r="O78" s="114"/>
       <c r="P78" s="17"/>
       <c r="Q78" s="91">
         <v>42900</v>
       </c>
-      <c r="R78" s="114">
-        <v>42940</v>
+      <c r="R78" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="S78" s="95">
         <v>42922</v>
@@ -8223,61 +8206,59 @@
       <c r="T78" s="96">
         <v>42944</v>
       </c>
-      <c r="U78" s="115">
+      <c r="U78" s="114">
         <v>1032</v>
       </c>
       <c r="V78" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="W78" s="115" t="s">
+      <c r="W78" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X78" s="17"/>
     </row>
-    <row r="79" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" s="126" t="s">
+    <row r="79" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="114"/>
+      <c r="B79" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="48">
         <v>6183</v>
       </c>
-      <c r="D79" s="115" t="s">
+      <c r="D79" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="115" t="s">
+      <c r="F79" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="126" t="s">
+      <c r="H79" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="115" t="s">
+      <c r="I79" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="J79" s="126" t="s">
-        <v>355</v>
+      <c r="J79" s="146" t="s">
+        <v>357</v>
       </c>
       <c r="K79" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L79" s="115">
+      <c r="L79" s="114">
         <v>0</v>
       </c>
-      <c r="M79" s="126"/>
-      <c r="N79" s="126"/>
-      <c r="O79" s="115"/>
+      <c r="M79" s="125"/>
+      <c r="N79" s="125"/>
+      <c r="O79" s="114"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="92"/>
-      <c r="R79" s="93">
-        <v>42937</v>
+      <c r="R79" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S79" s="95">
         <v>42922</v>
@@ -8285,13 +8266,13 @@
       <c r="T79" s="96">
         <v>42944</v>
       </c>
-      <c r="U79" s="115">
+      <c r="U79" s="114">
         <v>47</v>
       </c>
       <c r="V79" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W79" s="115">
+      <c r="W79" s="114">
         <v>6183</v>
       </c>
       <c r="X79" s="17"/>
@@ -8300,25 +8281,25 @@
     <row r="80" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
-      <c r="C80" s="115">
+      <c r="C80" s="114">
         <v>4781</v>
       </c>
-      <c r="D80" s="115" t="s">
+      <c r="D80" s="114" t="s">
         <v>147</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="115" t="s">
+      <c r="F80" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="123" t="s">
+      <c r="H80" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="115" t="s">
+      <c r="I80" s="114" t="s">
         <v>15</v>
       </c>
       <c r="J80" s="17" t="s">
@@ -8327,37 +8308,35 @@
       <c r="K80" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="L80" s="115"/>
-      <c r="M80" s="115"/>
-      <c r="N80" s="115"/>
-      <c r="O80" s="115"/>
-      <c r="P80" s="115"/>
-      <c r="Q80" s="115"/>
-      <c r="R80" s="115"/>
-      <c r="S80" s="115"/>
-      <c r="T80" s="115"/>
+      <c r="L80" s="114"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="114"/>
+      <c r="O80" s="114"/>
+      <c r="P80" s="114"/>
+      <c r="Q80" s="114"/>
+      <c r="R80" s="114"/>
+      <c r="S80" s="114"/>
+      <c r="T80" s="114"/>
       <c r="U80" s="26"/>
       <c r="V80" s="26"/>
       <c r="W80" s="26"/>
       <c r="X80" s="26"/>
     </row>
-    <row r="81" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" s="126" t="s">
+    <row r="81" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="114"/>
+      <c r="B81" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C81" s="48">
         <v>6200</v>
       </c>
-      <c r="D81" s="115" t="s">
+      <c r="D81" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F81" s="115" t="s">
+      <c r="F81" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="17" t="s">
@@ -8366,29 +8345,29 @@
       <c r="H81" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="115" t="s">
+      <c r="I81" s="114" t="s">
         <v>324</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K81" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L81" s="115">
+      <c r="L81" s="114">
         <v>4</v>
       </c>
       <c r="M81" s="19">
         <v>42894</v>
       </c>
       <c r="N81" s="19"/>
-      <c r="O81" s="126"/>
-      <c r="P81" s="126"/>
+      <c r="O81" s="125"/>
+      <c r="P81" s="125"/>
       <c r="Q81" s="91">
         <v>42906</v>
       </c>
-      <c r="R81" s="93">
-        <v>42907</v>
+      <c r="R81" s="93" t="s">
+        <v>355</v>
       </c>
       <c r="S81" s="95">
         <v>42922</v>
@@ -8396,59 +8375,59 @@
       <c r="T81" s="96">
         <v>42944</v>
       </c>
-      <c r="U81" s="115">
+      <c r="U81" s="114">
         <v>47</v>
       </c>
       <c r="V81" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W81" s="115">
+      <c r="W81" s="114">
         <v>6183</v>
       </c>
       <c r="X81" s="17"/>
     </row>
-    <row r="82" spans="1:25" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" s="126" t="s">
+    <row r="82" spans="1:25" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="114"/>
+      <c r="B82" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C82" s="48">
         <v>6201</v>
       </c>
-      <c r="D82" s="115" t="s">
+      <c r="D82" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="115" t="s">
+      <c r="F82" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="126" t="s">
+      <c r="H82" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="I82" s="115" t="s">
+      <c r="I82" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="J82" s="115"/>
+      <c r="J82" s="146" t="s">
+        <v>357</v>
+      </c>
       <c r="K82" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="L82" s="115">
+      <c r="L82" s="114">
         <v>0</v>
       </c>
-      <c r="M82" s="126"/>
-      <c r="N82" s="126"/>
+      <c r="M82" s="125"/>
+      <c r="N82" s="125"/>
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
       <c r="Q82" s="92"/>
-      <c r="R82" s="93">
-        <v>42937</v>
+      <c r="R82" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S82" s="95">
         <v>42937</v>
@@ -8456,35 +8435,33 @@
       <c r="T82" s="96">
         <v>42944</v>
       </c>
-      <c r="U82" s="115">
+      <c r="U82" s="114">
         <v>1051</v>
       </c>
       <c r="V82" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="W82" s="115">
+      <c r="W82" s="114">
         <v>6201</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" s="126" t="s">
+    <row r="83" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="114"/>
+      <c r="B83" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C83" s="48">
         <v>6202</v>
       </c>
-      <c r="D83" s="115" t="s">
+      <c r="D83" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F83" s="115" t="s">
+      <c r="F83" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="17" t="s">
@@ -8493,29 +8470,29 @@
       <c r="H83" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="115" t="s">
+      <c r="I83" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J83" s="115" t="s">
-        <v>360</v>
+      <c r="J83" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K83" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L83" s="115">
+      <c r="L83" s="114">
         <v>4</v>
       </c>
       <c r="M83" s="19">
         <v>42881</v>
       </c>
       <c r="N83" s="19"/>
-      <c r="O83" s="115"/>
+      <c r="O83" s="114"/>
       <c r="P83" s="17"/>
       <c r="Q83" s="91">
         <v>42913</v>
       </c>
       <c r="R83" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S83" s="95">
         <v>42937</v>
@@ -8523,60 +8500,60 @@
       <c r="T83" s="96">
         <v>42944</v>
       </c>
-      <c r="U83" s="115">
+      <c r="U83" s="114">
         <v>1051</v>
       </c>
       <c r="V83" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="W83" s="115">
+      <c r="W83" s="114">
         <v>6201</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="4"/>
     </row>
-    <row r="84" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="115"/>
-      <c r="B84" s="126"/>
-      <c r="C84" s="126">
+    <row r="84" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="114"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125">
         <v>6208</v>
       </c>
-      <c r="D84" s="115" t="s">
+      <c r="D84" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="115" t="s">
+      <c r="F84" s="114" t="s">
         <v>34</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="126" t="s">
+      <c r="H84" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="115" t="s">
-        <v>361</v>
-      </c>
-      <c r="J84" s="115" t="s">
-        <v>360</v>
-      </c>
-      <c r="K84" s="124" t="s">
+      <c r="I84" s="114" t="s">
+        <v>358</v>
+      </c>
+      <c r="J84" s="114" t="s">
+        <v>357</v>
+      </c>
+      <c r="K84" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="L84" s="115">
+      <c r="L84" s="114">
         <v>40</v>
       </c>
       <c r="M84" s="19">
         <v>42853</v>
       </c>
       <c r="N84" s="19"/>
-      <c r="O84" s="115"/>
+      <c r="O84" s="114"/>
       <c r="P84" s="17"/>
       <c r="Q84" s="92"/>
       <c r="R84" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S84" s="95">
         <v>42937</v>
@@ -8584,34 +8561,32 @@
       <c r="T84" s="96">
         <v>42944</v>
       </c>
-      <c r="U84" s="115">
+      <c r="U84" s="114">
         <v>1846</v>
       </c>
       <c r="V84" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="W84" s="115" t="s">
+      <c r="W84" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X84" s="17"/>
     </row>
-    <row r="85" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="126" t="s">
+    <row r="85" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="114"/>
+      <c r="B85" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C85" s="27">
         <v>6220</v>
       </c>
-      <c r="D85" s="115" t="s">
+      <c r="D85" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="115" t="s">
+      <c r="F85" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G85" s="17" t="s">
@@ -8620,29 +8595,29 @@
       <c r="H85" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I85" s="115" t="s">
+      <c r="I85" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="J85" s="126" t="s">
-        <v>360</v>
+      <c r="J85" s="125" t="s">
+        <v>357</v>
       </c>
       <c r="K85" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L85" s="115">
+      <c r="L85" s="114">
         <v>2</v>
       </c>
       <c r="M85" s="19">
         <v>42886</v>
       </c>
       <c r="N85" s="19"/>
-      <c r="O85" s="115"/>
-      <c r="P85" s="115"/>
+      <c r="O85" s="114"/>
+      <c r="P85" s="114"/>
       <c r="Q85" s="91">
         <v>42906</v>
       </c>
-      <c r="R85" s="114" t="s">
-        <v>344</v>
+      <c r="R85" s="113" t="s">
+        <v>343</v>
       </c>
       <c r="S85" s="95">
         <v>42914</v>
@@ -8650,67 +8625,67 @@
       <c r="T85" s="96">
         <v>42923</v>
       </c>
-      <c r="U85" s="115">
+      <c r="U85" s="114">
         <v>506</v>
       </c>
       <c r="V85" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="W85" s="115" t="s">
+      <c r="W85" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="X85" s="126">
+      <c r="X85" s="125">
         <v>4251</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B86" s="126" t="s">
+      <c r="A86" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C86" s="55">
         <v>6231</v>
       </c>
-      <c r="D86" s="115" t="s">
+      <c r="D86" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="115" t="s">
+      <c r="F86" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H86" s="54" t="s">
+      <c r="H86" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="115" t="s">
-        <v>92</v>
+      <c r="I86" s="114" t="s">
+        <v>324</v>
       </c>
       <c r="J86" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L86" s="115">
+      <c r="L86" s="114">
         <v>16</v>
       </c>
-      <c r="M86" s="115" t="s">
+      <c r="M86" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="N86" s="115"/>
-      <c r="O86" s="115"/>
-      <c r="P86" s="115"/>
+      <c r="N86" s="114"/>
+      <c r="O86" s="114"/>
+      <c r="P86" s="114"/>
       <c r="Q86" s="91">
         <v>42908</v>
       </c>
-      <c r="R86" s="93">
-        <v>42935</v>
+      <c r="R86" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S86" s="95">
         <v>42937</v>
@@ -8718,34 +8693,34 @@
       <c r="T86" s="96">
         <v>42944</v>
       </c>
-      <c r="U86" s="115">
+      <c r="U86" s="114">
         <v>1051</v>
       </c>
       <c r="V86" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="W86" s="115">
+      <c r="W86" s="114">
         <v>6201</v>
       </c>
       <c r="X86" s="26"/>
     </row>
-    <row r="87" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B87" s="126" t="s">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A87" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C87" s="55">
         <v>6232</v>
       </c>
-      <c r="D87" s="115" t="s">
+      <c r="D87" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="115" t="s">
+      <c r="F87" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="17" t="s">
@@ -8754,25 +8729,25 @@
       <c r="H87" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="115" t="s">
+      <c r="I87" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K87" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="L87" s="115"/>
-      <c r="M87" s="115"/>
-      <c r="N87" s="115"/>
-      <c r="O87" s="115"/>
-      <c r="P87" s="115"/>
+      <c r="L87" s="114"/>
+      <c r="M87" s="114"/>
+      <c r="N87" s="114"/>
+      <c r="O87" s="114"/>
+      <c r="P87" s="114"/>
       <c r="Q87" s="91">
         <v>42908</v>
       </c>
-      <c r="R87" s="93">
-        <v>42935</v>
+      <c r="R87" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S87" s="95">
         <v>42937</v>
@@ -8780,32 +8755,32 @@
       <c r="T87" s="96">
         <v>42944</v>
       </c>
-      <c r="U87" s="115">
+      <c r="U87" s="114">
         <v>1051</v>
       </c>
       <c r="V87" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="W87" s="115">
+      <c r="W87" s="114">
         <v>6201</v>
       </c>
       <c r="X87" s="26"/>
     </row>
-    <row r="88" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B88" s="126"/>
+    <row r="88" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="125"/>
       <c r="C88" s="21">
         <v>6235</v>
       </c>
-      <c r="D88" s="115" t="s">
+      <c r="D88" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="115" t="s">
+      <c r="F88" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="17" t="s">
@@ -8814,23 +8789,23 @@
       <c r="H88" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I88" s="115" t="s">
+      <c r="I88" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="J88" s="126" t="s">
-        <v>360</v>
+      <c r="J88" s="125" t="s">
+        <v>357</v>
       </c>
       <c r="K88" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="L88" s="115"/>
-      <c r="M88" s="115"/>
-      <c r="N88" s="115"/>
-      <c r="O88" s="115"/>
-      <c r="P88" s="115"/>
+      <c r="L88" s="114"/>
+      <c r="M88" s="114"/>
+      <c r="N88" s="114"/>
+      <c r="O88" s="114"/>
+      <c r="P88" s="114"/>
       <c r="Q88" s="92"/>
       <c r="R88" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S88" s="95">
         <v>42922</v>
@@ -8838,33 +8813,33 @@
       <c r="T88" s="96">
         <v>42944</v>
       </c>
-      <c r="U88" s="115" t="s">
+      <c r="U88" s="114" t="s">
         <v>170</v>
       </c>
       <c r="V88" s="26"/>
-      <c r="W88" s="115" t="s">
+      <c r="W88" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X88" s="26"/>
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B89" s="126" t="s">
+      <c r="A89" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C89" s="21">
         <v>6236</v>
       </c>
-      <c r="D89" s="115" t="s">
+      <c r="D89" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="115" t="s">
+      <c r="F89" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="17" t="s">
@@ -8873,25 +8848,25 @@
       <c r="H89" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="126" t="s">
-        <v>92</v>
+      <c r="I89" s="125" t="s">
+        <v>324</v>
       </c>
       <c r="J89" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K89" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L89" s="115"/>
-      <c r="M89" s="115"/>
-      <c r="N89" s="115"/>
-      <c r="O89" s="115"/>
-      <c r="P89" s="115"/>
+      <c r="L89" s="114"/>
+      <c r="M89" s="114"/>
+      <c r="N89" s="114"/>
+      <c r="O89" s="114"/>
+      <c r="P89" s="114"/>
       <c r="Q89" s="91">
         <v>42906</v>
       </c>
-      <c r="R89" s="93">
-        <v>42935</v>
+      <c r="R89" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S89" s="95">
         <v>42937</v>
@@ -8899,31 +8874,31 @@
       <c r="T89" s="96">
         <v>42944</v>
       </c>
-      <c r="U89" s="115" t="s">
+      <c r="U89" s="114" t="s">
         <v>170</v>
       </c>
       <c r="V89" s="26"/>
-      <c r="W89" s="115" t="s">
+      <c r="W89" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X89" s="26"/>
       <c r="Y89" s="3"/>
     </row>
     <row r="90" spans="1:25" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="115" t="s">
+      <c r="A90" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="126"/>
+      <c r="B90" s="125"/>
       <c r="C90" s="97">
         <v>6257</v>
       </c>
-      <c r="D90" s="115" t="s">
+      <c r="D90" s="114" t="s">
         <v>147</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="115" t="s">
+      <c r="F90" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="17" t="s">
@@ -8932,20 +8907,20 @@
       <c r="H90" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="115" t="s">
+      <c r="I90" s="114" t="s">
         <v>80</v>
       </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="L90" s="115"/>
+      <c r="L90" s="114"/>
       <c r="M90" s="19">
         <v>42894</v>
       </c>
-      <c r="N90" s="115"/>
-      <c r="O90" s="115"/>
-      <c r="P90" s="115"/>
+      <c r="N90" s="114"/>
+      <c r="O90" s="114"/>
+      <c r="P90" s="114"/>
       <c r="Q90" s="91">
         <v>42893</v>
       </c>
@@ -8958,32 +8933,30 @@
       <c r="T90" s="96">
         <v>42923</v>
       </c>
-      <c r="U90" s="115">
+      <c r="U90" s="114">
         <v>41</v>
       </c>
       <c r="V90" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W90" s="115">
+      <c r="W90" s="114">
         <v>5553</v>
       </c>
       <c r="X90" s="17"/>
     </row>
-    <row r="91" spans="1:25" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="115">
-        <v>2</v>
-      </c>
-      <c r="B91" s="126" t="s">
+    <row r="91" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="114"/>
+      <c r="B91" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C91" s="48">
         <v>6252</v>
       </c>
-      <c r="D91" s="115" t="s">
+      <c r="D91" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="26"/>
-      <c r="F91" s="115" t="s">
+      <c r="F91" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="17" t="s">
@@ -8992,23 +8965,23 @@
       <c r="H91" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I91" s="132" t="s">
+      <c r="I91" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="J91" s="115"/>
+      <c r="J91" s="114"/>
       <c r="K91" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L91" s="115"/>
-      <c r="M91" s="115"/>
-      <c r="N91" s="115"/>
-      <c r="O91" s="115"/>
-      <c r="P91" s="115"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="114"/>
+      <c r="N91" s="114"/>
+      <c r="O91" s="114"/>
+      <c r="P91" s="114"/>
       <c r="Q91" s="91">
         <v>42913</v>
       </c>
-      <c r="R91" s="114">
-        <v>42940</v>
+      <c r="R91" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="S91" s="95">
         <v>42937</v>
@@ -9016,34 +8989,32 @@
       <c r="T91" s="96">
         <v>42944</v>
       </c>
-      <c r="U91" s="115">
+      <c r="U91" s="114">
         <v>1311</v>
       </c>
       <c r="V91" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="W91" s="115" t="s">
+      <c r="W91" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X91" s="26"/>
     </row>
-    <row r="92" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="115">
-        <v>2</v>
-      </c>
-      <c r="B92" s="126" t="s">
+    <row r="92" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="114"/>
+      <c r="B92" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C92" s="48">
         <v>6274</v>
       </c>
-      <c r="D92" s="115" t="s">
+      <c r="D92" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="115" t="s">
+      <c r="F92" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="17" t="s">
@@ -9052,22 +9023,24 @@
       <c r="H92" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I92" s="132" t="s">
+      <c r="I92" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="J92" s="126"/>
+      <c r="J92" s="27" t="s">
+        <v>342</v>
+      </c>
       <c r="K92" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="L92" s="115"/>
-      <c r="M92" s="115"/>
-      <c r="N92" s="115"/>
-      <c r="O92" s="115"/>
-      <c r="P92" s="115"/>
+      <c r="L92" s="114"/>
+      <c r="M92" s="114"/>
+      <c r="N92" s="114"/>
+      <c r="O92" s="114"/>
+      <c r="P92" s="114"/>
       <c r="Q92" s="91">
         <v>42906</v>
       </c>
-      <c r="R92" s="114">
+      <c r="R92" s="113">
         <v>42940</v>
       </c>
       <c r="S92" s="95">
@@ -9076,57 +9049,57 @@
       <c r="T92" s="96">
         <v>42944</v>
       </c>
-      <c r="U92" s="115">
+      <c r="U92" s="114">
         <v>520</v>
       </c>
       <c r="V92" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="W92" s="115" t="s">
+      <c r="W92" s="114" t="s">
         <v>165</v>
       </c>
       <c r="X92" s="26"/>
     </row>
     <row r="93" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B93" s="126" t="s">
+      <c r="A93" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C93" s="55">
         <v>6278</v>
       </c>
-      <c r="D93" s="115" t="s">
+      <c r="D93" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="26"/>
-      <c r="F93" s="115" t="s">
+      <c r="F93" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="26"/>
       <c r="H93" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I93" s="115" t="s">
+      <c r="I93" s="114" t="s">
         <v>92</v>
       </c>
       <c r="J93" s="27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K93" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="L93" s="115"/>
-      <c r="M93" s="115"/>
-      <c r="N93" s="115"/>
-      <c r="O93" s="115"/>
-      <c r="P93" s="115"/>
+      <c r="L93" s="114"/>
+      <c r="M93" s="114"/>
+      <c r="N93" s="114"/>
+      <c r="O93" s="114"/>
+      <c r="P93" s="114"/>
       <c r="Q93" s="91">
         <v>42906</v>
       </c>
-      <c r="R93" s="93">
-        <v>42935</v>
+      <c r="R93" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="S93" s="95">
         <v>42922</v>
@@ -9134,34 +9107,32 @@
       <c r="T93" s="96">
         <v>42944</v>
       </c>
-      <c r="U93" s="115">
+      <c r="U93" s="114">
         <v>47</v>
       </c>
-      <c r="V93" s="126" t="s">
+      <c r="V93" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="W93" s="115">
+      <c r="W93" s="114">
         <v>6183</v>
       </c>
       <c r="X93" s="26"/>
     </row>
-    <row r="94" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B94" s="126" t="s">
+    <row r="94" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="114"/>
+      <c r="B94" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C94" s="48">
         <v>6279</v>
       </c>
-      <c r="D94" s="115" t="s">
+      <c r="D94" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="115" t="s">
+      <c r="F94" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="26" t="s">
@@ -9170,23 +9141,23 @@
       <c r="H94" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I94" s="115" t="s">
+      <c r="I94" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="J94" s="115"/>
+      <c r="J94" s="114"/>
       <c r="K94" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="L94" s="115"/>
-      <c r="M94" s="115"/>
-      <c r="N94" s="115"/>
-      <c r="O94" s="115"/>
-      <c r="P94" s="115"/>
+        <v>350</v>
+      </c>
+      <c r="L94" s="114"/>
+      <c r="M94" s="114"/>
+      <c r="N94" s="114"/>
+      <c r="O94" s="114"/>
+      <c r="P94" s="114"/>
       <c r="Q94" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="R94" s="114">
-        <v>42940</v>
+      <c r="R94" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="S94" s="95">
         <v>42914</v>
@@ -9194,30 +9165,30 @@
       <c r="T94" s="96">
         <v>42944</v>
       </c>
-      <c r="U94" s="115">
+      <c r="U94" s="114">
         <v>1362</v>
       </c>
       <c r="V94" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="W94" s="115"/>
+      <c r="W94" s="114"/>
       <c r="X94" s="26"/>
     </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B95" s="126"/>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A95" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="125"/>
       <c r="C95" s="55">
         <v>6284</v>
       </c>
-      <c r="D95" s="115" t="s">
+      <c r="D95" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="115" t="s">
+      <c r="F95" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="17" t="s">
@@ -9226,25 +9197,25 @@
       <c r="H95" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I95" s="115" t="s">
+      <c r="I95" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="J95" s="115" t="s">
-        <v>360</v>
+      <c r="J95" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K95" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="L95" s="115"/>
-      <c r="M95" s="115"/>
-      <c r="N95" s="115"/>
-      <c r="O95" s="115"/>
-      <c r="P95" s="115"/>
+      <c r="L95" s="114"/>
+      <c r="M95" s="114"/>
+      <c r="N95" s="114"/>
+      <c r="O95" s="114"/>
+      <c r="P95" s="114"/>
       <c r="Q95" s="91">
         <v>42906</v>
       </c>
       <c r="R95" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S95" s="95">
         <v>42937</v>
@@ -9252,30 +9223,30 @@
       <c r="T95" s="96">
         <v>42944</v>
       </c>
-      <c r="U95" s="115">
+      <c r="U95" s="114">
         <v>1051</v>
       </c>
       <c r="V95" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="W95" s="115"/>
+      <c r="W95" s="114"/>
       <c r="X95" s="26"/>
     </row>
-    <row r="96" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="115" t="s">
-        <v>365</v>
-      </c>
-      <c r="B96" s="126"/>
+    <row r="96" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" s="125"/>
       <c r="C96" s="55">
         <v>6285</v>
       </c>
-      <c r="D96" s="115" t="s">
+      <c r="D96" s="114" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="115" t="s">
+      <c r="F96" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="17" t="s">
@@ -9284,25 +9255,25 @@
       <c r="H96" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="126" t="s">
+      <c r="I96" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="J96" s="115" t="s">
-        <v>360</v>
+      <c r="J96" s="114" t="s">
+        <v>357</v>
       </c>
       <c r="K96" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="L96" s="115"/>
-      <c r="M96" s="115"/>
-      <c r="N96" s="115"/>
-      <c r="O96" s="115"/>
-      <c r="P96" s="115"/>
+      <c r="L96" s="114"/>
+      <c r="M96" s="114"/>
+      <c r="N96" s="114"/>
+      <c r="O96" s="114"/>
+      <c r="P96" s="114"/>
       <c r="Q96" s="91">
         <v>42906</v>
       </c>
       <c r="R96" s="93" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S96" s="95">
         <v>42922</v>
@@ -9310,32 +9281,30 @@
       <c r="T96" s="96">
         <v>42944</v>
       </c>
-      <c r="U96" s="115">
+      <c r="U96" s="114">
         <v>47</v>
       </c>
       <c r="V96" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="W96" s="115"/>
+      <c r="W96" s="114"/>
       <c r="X96" s="26"/>
     </row>
-    <row r="97" spans="1:24" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="115">
-        <v>3</v>
-      </c>
-      <c r="B97" s="126" t="s">
+    <row r="97" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="114"/>
+      <c r="B97" s="125" t="s">
         <v>153</v>
       </c>
       <c r="C97" s="48">
         <v>6295</v>
       </c>
-      <c r="D97" s="115" t="s">
+      <c r="D97" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="115" t="s">
+      <c r="F97" s="114" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="26" t="s">
@@ -9344,23 +9313,23 @@
       <c r="H97" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I97" s="132" t="s">
+      <c r="I97" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="J97" s="115"/>
+      <c r="J97" s="114"/>
       <c r="K97" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="L97" s="115"/>
-      <c r="M97" s="115"/>
-      <c r="N97" s="115"/>
-      <c r="O97" s="115"/>
-      <c r="P97" s="115"/>
+        <v>351</v>
+      </c>
+      <c r="L97" s="114"/>
+      <c r="M97" s="114"/>
+      <c r="N97" s="114"/>
+      <c r="O97" s="114"/>
+      <c r="P97" s="114"/>
       <c r="Q97" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="R97" s="114">
-        <v>42940</v>
+      <c r="R97" s="113" t="s">
+        <v>150</v>
       </c>
       <c r="S97" s="95">
         <v>42914</v>
@@ -9368,45 +9337,47 @@
       <c r="T97" s="96">
         <v>42944</v>
       </c>
-      <c r="U97" s="115">
+      <c r="U97" s="114">
         <v>1362</v>
       </c>
       <c r="V97" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="W97" s="115"/>
+      <c r="W97" s="114"/>
       <c r="X97" s="26"/>
     </row>
-    <row r="98" spans="1:24" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="117"/>
-      <c r="B98" s="126"/>
+    <row r="98" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="116"/>
+      <c r="B98" s="125"/>
       <c r="C98" s="48">
         <v>6298</v>
       </c>
-      <c r="D98" s="125"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="126"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="125"/>
       <c r="G98" s="26"/>
       <c r="H98" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I98" s="117" t="s">
-        <v>361</v>
-      </c>
-      <c r="J98" s="117" t="s">
-        <v>360</v>
+      <c r="I98" s="116" t="s">
+        <v>358</v>
+      </c>
+      <c r="J98" s="116" t="s">
+        <v>357</v>
       </c>
       <c r="K98" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="L98" s="125"/>
-      <c r="M98" s="126"/>
-      <c r="N98" s="126"/>
-      <c r="O98" s="126"/>
-      <c r="P98" s="126"/>
+        <v>356</v>
+      </c>
+      <c r="L98" s="124"/>
+      <c r="M98" s="125"/>
+      <c r="N98" s="125"/>
+      <c r="O98" s="125"/>
+      <c r="P98" s="125"/>
       <c r="Q98" s="92"/>
       <c r="R98" s="94" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S98" s="95"/>
       <c r="T98" s="96">
@@ -9416,98 +9387,225 @@
         <v>1051</v>
       </c>
       <c r="V98" s="26"/>
-      <c r="W98" s="117"/>
+      <c r="W98" s="116"/>
       <c r="X98" s="26"/>
     </row>
-    <row r="99" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="128" t="s">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A99" s="127"/>
+      <c r="B99" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="B99" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" s="135">
+      <c r="C99" s="134">
         <v>6299</v>
       </c>
-      <c r="D99" s="133" t="s">
+      <c r="D99" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="134" t="s">
+      <c r="E99" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="133" t="s">
+      <c r="F99" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="134" t="s">
+      <c r="G99" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="136" t="s">
+      <c r="H99" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="128" t="s">
+      <c r="I99" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="J99" s="128" t="s">
+      <c r="J99" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="K99" s="137" t="s">
-        <v>359</v>
-      </c>
-      <c r="L99" s="133"/>
-      <c r="M99" s="133"/>
-      <c r="N99" s="133"/>
-      <c r="O99" s="133"/>
-      <c r="P99" s="133"/>
+      <c r="K99" s="136" t="s">
+        <v>356</v>
+      </c>
+      <c r="L99" s="132"/>
+      <c r="M99" s="132"/>
+      <c r="N99" s="132"/>
+      <c r="O99" s="132"/>
+      <c r="P99" s="132"/>
       <c r="Q99" s="92"/>
-      <c r="R99" s="114">
+      <c r="R99" s="113">
+        <v>42944</v>
+      </c>
+      <c r="S99" s="137">
         <v>42937</v>
       </c>
-      <c r="S99" s="138">
-        <v>42937</v>
-      </c>
-      <c r="T99" s="139">
+      <c r="T99" s="138">
         <v>42944</v>
       </c>
-      <c r="U99" s="128">
+      <c r="U99" s="127">
         <v>1051</v>
       </c>
-      <c r="V99" s="140" t="s">
+      <c r="V99" s="139" t="s">
         <v>270</v>
       </c>
-      <c r="W99" s="128"/>
-      <c r="X99" s="140"/>
-    </row>
-    <row r="100" spans="1:24" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="129"/>
-      <c r="B100" s="129" t="s">
+      <c r="W99" s="127"/>
+      <c r="X99" s="139"/>
+    </row>
+    <row r="100" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="128"/>
+      <c r="B100" s="128" t="s">
         <v>153</v>
       </c>
       <c r="C100" s="48">
         <v>6307</v>
       </c>
-      <c r="F100" s="129" t="s">
+      <c r="D100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="128" t="s">
         <v>34</v>
       </c>
       <c r="H100" s="47" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I100" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J100" s="129"/>
+      <c r="J100" s="128"/>
       <c r="K100" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="R100" s="129"/>
-      <c r="S100" s="129"/>
-      <c r="T100" s="129"/>
-      <c r="U100" s="129"/>
+        <v>361</v>
+      </c>
+      <c r="R100" s="128"/>
+      <c r="S100" s="128"/>
+      <c r="T100" s="128"/>
+      <c r="U100" s="128"/>
       <c r="V100" s="26"/>
-      <c r="W100" s="129"/>
+      <c r="W100" s="128"/>
       <c r="X100" s="26"/>
     </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A101" s="146"/>
+      <c r="B101" s="146"/>
+      <c r="C101" s="48">
+        <v>6316</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="J101" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="K101" s="177" t="s">
+        <v>381</v>
+      </c>
+      <c r="R101" s="93">
+        <v>42942</v>
+      </c>
+      <c r="S101" s="146"/>
+      <c r="T101" s="146"/>
+      <c r="U101" s="146">
+        <v>1054</v>
+      </c>
+      <c r="V101" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="W101" s="146"/>
+      <c r="X101" s="26"/>
+    </row>
+    <row r="102" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="146"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="48">
+        <v>6317</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="J102" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="K102" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="R102" s="93">
+        <v>42942</v>
+      </c>
+      <c r="S102" s="146"/>
+      <c r="T102" s="146"/>
+      <c r="U102" s="146">
+        <v>1753</v>
+      </c>
+      <c r="V102" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="W102" s="146"/>
+      <c r="X102" s="26"/>
+    </row>
+    <row r="103" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="146"/>
+      <c r="B103" s="146"/>
+      <c r="C103" s="48">
+        <v>6318</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="J103" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="K103" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="R103" s="93">
+        <v>42942</v>
+      </c>
+      <c r="S103" s="146"/>
+      <c r="T103" s="146"/>
+      <c r="U103" s="146">
+        <v>47</v>
+      </c>
+      <c r="V103" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="W103" s="146"/>
+      <c r="X103" s="26"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Y100">
+  <autoFilter ref="A1:Y103">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="CR_Geometry_2"/>
@@ -9518,11 +9616,6 @@
       <filters blank="1">
         <filter val="P1"/>
         <filter val="P2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="17">
-      <filters>
-        <dateGroupItem year="2017" month="7" day="19" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:Y99">
@@ -9560,33 +9653,36 @@
     <hyperlink ref="H96" r:id="rId25"/>
     <hyperlink ref="H63" r:id="rId26"/>
     <hyperlink ref="H78" r:id="rId27"/>
-    <hyperlink ref="H65" r:id="rId28"/>
-    <hyperlink ref="H64" r:id="rId29"/>
-    <hyperlink ref="H52" r:id="rId30"/>
-    <hyperlink ref="H81" r:id="rId31"/>
-    <hyperlink ref="H94" r:id="rId32"/>
-    <hyperlink ref="H76" r:id="rId33"/>
-    <hyperlink ref="H62" r:id="rId34"/>
-    <hyperlink ref="H99" r:id="rId35"/>
-    <hyperlink ref="H98" r:id="rId36"/>
-    <hyperlink ref="H44" r:id="rId37"/>
-    <hyperlink ref="H60" r:id="rId38"/>
-    <hyperlink ref="H91" r:id="rId39"/>
-    <hyperlink ref="H92" r:id="rId40"/>
-    <hyperlink ref="H97" r:id="rId41"/>
+    <hyperlink ref="H64" r:id="rId28"/>
+    <hyperlink ref="H52" r:id="rId29"/>
+    <hyperlink ref="H81" r:id="rId30"/>
+    <hyperlink ref="H94" r:id="rId31"/>
+    <hyperlink ref="H76" r:id="rId32"/>
+    <hyperlink ref="H62" r:id="rId33"/>
+    <hyperlink ref="H99" r:id="rId34"/>
+    <hyperlink ref="H98" r:id="rId35"/>
+    <hyperlink ref="H44" r:id="rId36"/>
+    <hyperlink ref="H60" r:id="rId37"/>
+    <hyperlink ref="H91" r:id="rId38"/>
+    <hyperlink ref="H92" r:id="rId39"/>
+    <hyperlink ref="H97" r:id="rId40"/>
+    <hyperlink ref="H101" r:id="rId41"/>
+    <hyperlink ref="H102" r:id="rId42"/>
+    <hyperlink ref="H103" r:id="rId43"/>
+    <hyperlink ref="H65" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:B14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9633,7 +9729,7 @@
       <c r="A3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="149" t="s">
         <v>165</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -9643,7 +9739,7 @@
         <v>146</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F3" s="45">
         <v>42835</v>
@@ -9654,7 +9750,7 @@
       <c r="A4" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="52" t="s">
         <v>194</v>
       </c>
@@ -9662,7 +9758,7 @@
         <v>146</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F4" s="45">
         <v>42835</v>
@@ -9673,7 +9769,7 @@
       <c r="A5" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="148"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="52" t="s">
         <v>195</v>
       </c>
@@ -9681,7 +9777,7 @@
         <v>146</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F5" s="45">
         <v>42835</v>
@@ -9689,16 +9785,16 @@
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="141" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="130" t="s">
-        <v>378</v>
+      <c r="B6" s="150"/>
+      <c r="C6" s="129" t="s">
+        <v>374</v>
       </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="131" t="s">
-        <v>372</v>
+      <c r="E6" s="130" t="s">
+        <v>368</v>
       </c>
       <c r="F6" s="45">
         <v>42934</v>
@@ -9706,16 +9802,16 @@
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="142" t="s">
+      <c r="A7" s="141" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="130" t="s">
-        <v>379</v>
+      <c r="B7" s="150"/>
+      <c r="C7" s="129" t="s">
+        <v>375</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="173" t="s">
-        <v>373</v>
+      <c r="E7" s="144" t="s">
+        <v>369</v>
       </c>
       <c r="F7" s="81">
         <v>42934</v>
@@ -9723,16 +9819,16 @@
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="141" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="130" t="s">
-        <v>380</v>
+      <c r="B8" s="151"/>
+      <c r="C8" s="129" t="s">
+        <v>376</v>
       </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="131" t="s">
-        <v>374</v>
+      <c r="E8" s="130" t="s">
+        <v>370</v>
       </c>
       <c r="F8" s="81">
         <v>42934</v>
@@ -9740,10 +9836,10 @@
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147">
+      <c r="A9" s="152">
         <v>5553</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="149" t="s">
         <v>225</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -9761,8 +9857,8 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
-      <c r="B10" s="148"/>
+      <c r="A10" s="152"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="78" t="s">
         <v>335</v>
       </c>
@@ -9781,7 +9877,7 @@
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
-      <c r="B11" s="148"/>
+      <c r="B11" s="150"/>
       <c r="C11" s="78" t="s">
         <v>336</v>
       </c>
@@ -9798,7 +9894,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
-      <c r="B12" s="146"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="78" t="s">
         <v>337</v>
       </c>
@@ -9814,202 +9910,200 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="145"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="129" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="148" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="19">
+        <v>42936</v>
+      </c>
+      <c r="G13" s="79"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="145">
+      <c r="B14" s="149">
         <v>6047</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C14" s="52" t="s">
         <v>196</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="F13" s="82">
-        <v>42845</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="78" t="s">
-        <v>338</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>146</v>
       </c>
       <c r="E14" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="82">
+        <v>42845</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="151"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="77" t="s">
         <v>333</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F15" s="19">
         <v>42894</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="152">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="153">
         <v>6183</v>
       </c>
-      <c r="B15" s="147" t="s">
+      <c r="B16" s="152" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C16" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="77" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="77" t="s">
         <v>244</v>
-      </c>
-      <c r="F15" s="45">
-        <v>42880</v>
-      </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="77" t="s">
-        <v>250</v>
       </c>
       <c r="F16" s="45">
         <v>42880</v>
       </c>
-      <c r="G16" s="46" t="s">
-        <v>220</v>
-      </c>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="154"/>
-      <c r="B17" s="147"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F17" s="45">
         <v>42880</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="145">
-        <v>6041</v>
-      </c>
-      <c r="B18" s="145">
-        <v>6042</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="155"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="52" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="26" t="s">
-        <v>246</v>
+      <c r="E18" s="77" t="s">
+        <v>251</v>
       </c>
       <c r="F18" s="45">
         <v>42880</v>
       </c>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="146"/>
-      <c r="B19" s="146"/>
+      <c r="G18" s="46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="149">
+        <v>6041</v>
+      </c>
+      <c r="B19" s="149">
+        <v>6042</v>
+      </c>
       <c r="C19" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F19" s="45">
         <v>42880</v>
       </c>
-      <c r="G19" s="46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="145">
-        <v>6044</v>
-      </c>
-      <c r="B20" s="145">
-        <v>5006</v>
-      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="151"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="52" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F20" s="45">
         <v>42880</v>
       </c>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="146"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="27" t="s">
-        <v>255</v>
+      <c r="G20" s="46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="149">
+        <v>6044</v>
+      </c>
+      <c r="B21" s="149">
+        <v>5006</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>254</v>
       </c>
       <c r="D21" s="26"/>
-      <c r="E21" s="77" t="s">
-        <v>253</v>
+      <c r="E21" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="F21" s="45">
         <v>42880</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="151"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" s="45">
+        <v>42880</v>
+      </c>
+      <c r="G22" s="46" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="145" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="145">
+      <c r="B23" s="149">
         <v>6220</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C23" s="52" t="s">
         <v>206</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="45">
-        <v>42845</v>
-      </c>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="146"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="52" t="s">
-        <v>208</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>146</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F23" s="45">
         <v>42845</v>
@@ -10017,33 +10111,35 @@
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="151"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" s="45">
+        <v>42845</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="145">
+      <c r="B25" s="149">
         <v>6252</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C25" s="52" t="s">
         <v>241</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="F24" s="45">
-        <v>42880</v>
-      </c>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="52" t="s">
-        <v>242</v>
       </c>
       <c r="D25" s="52"/>
       <c r="E25" s="77" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="45">
         <v>42880</v>
@@ -10051,14 +10147,14 @@
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
-      <c r="B26" s="146"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="150"/>
       <c r="C26" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="45">
         <v>42880</v>
@@ -10066,37 +10162,35 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="151"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="52"/>
+      <c r="E27" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="45">
+        <v>42880</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="145">
+      <c r="B28" s="149">
         <v>4251</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C28" s="52" t="s">
         <v>200</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="45">
-        <v>42845</v>
-      </c>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="147"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="52" t="s">
-        <v>202</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>146</v>
       </c>
       <c r="E28" s="77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F28" s="45">
         <v>42845</v>
@@ -10104,16 +10198,16 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>146</v>
       </c>
       <c r="E29" s="77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F29" s="45">
         <v>42845</v>
@@ -10121,33 +10215,35 @@
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="145">
+      <c r="A30" s="152"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="45">
+        <v>42845</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="149">
         <v>5142</v>
       </c>
-      <c r="B30" s="147" t="s">
+      <c r="B31" s="152" t="s">
         <v>325</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="F30" s="45">
-        <v>42880</v>
-      </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="148"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="16" t="s">
-        <v>260</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F31" s="45">
         <v>42880</v>
@@ -10155,14 +10251,14 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="146"/>
-      <c r="B32" s="147"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F32" s="45">
         <v>42880</v>
@@ -10170,52 +10266,52 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>263</v>
+      <c r="A33" s="151"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="77" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F33" s="45">
-        <v>42871</v>
+        <v>42880</v>
       </c>
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="147">
-        <v>6274</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>310</v>
+      <c r="B34" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>263</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="77" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="F34" s="45">
-        <v>42888</v>
+        <v>42871</v>
       </c>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="147"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="27" t="s">
-        <v>311</v>
+      <c r="A35" s="152" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="152">
+        <v>6274</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>310</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F35" s="45">
         <v>42888</v>
@@ -10223,18 +10319,14 @@
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="147">
-        <v>6141</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>312</v>
+      <c r="A36" s="152"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="D36" s="26"/>
-      <c r="E36" s="26" t="s">
-        <v>293</v>
+      <c r="E36" s="77" t="s">
+        <v>292</v>
       </c>
       <c r="F36" s="45">
         <v>42888</v>
@@ -10242,14 +10334,18 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="147"/>
-      <c r="B37" s="147"/>
+      <c r="A37" s="152" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="152">
+        <v>6141</v>
+      </c>
       <c r="C37" s="75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F37" s="45">
         <v>42888</v>
@@ -10257,14 +10353,14 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="147"/>
-      <c r="B38" s="147"/>
+      <c r="A38" s="152"/>
+      <c r="B38" s="152"/>
       <c r="C38" s="75" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F38" s="45">
         <v>42888</v>
@@ -10272,18 +10368,14 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="147">
-        <v>6201</v>
-      </c>
-      <c r="B39" s="147" t="s">
-        <v>296</v>
-      </c>
+      <c r="A39" s="152"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F39" s="45">
         <v>42888</v>
@@ -10291,14 +10383,18 @@
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="147"/>
-      <c r="B40" s="147"/>
+      <c r="A40" s="152">
+        <v>6201</v>
+      </c>
+      <c r="B40" s="152" t="s">
+        <v>296</v>
+      </c>
       <c r="C40" s="75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F40" s="45">
         <v>42888</v>
@@ -10306,14 +10402,14 @@
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="147"/>
-      <c r="B41" s="147"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F41" s="45">
         <v>42888</v>
@@ -10321,18 +10417,14 @@
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="B42" s="147">
-        <v>4388</v>
-      </c>
+      <c r="A42" s="152"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="75" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F42" s="45">
         <v>42888</v>
@@ -10340,14 +10432,18 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="147"/>
-      <c r="B43" s="147"/>
+      <c r="A43" s="152" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="152">
+        <v>4388</v>
+      </c>
       <c r="C43" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F43" s="45">
         <v>42888</v>
@@ -10355,97 +10451,97 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="147"/>
-      <c r="B44" s="147"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F44" s="45">
         <v>42888</v>
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="145" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="152"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" s="45">
+        <v>42888</v>
+      </c>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="149" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="149">
+      <c r="B46" s="156">
         <v>5402</v>
       </c>
-      <c r="C45" s="142" t="s">
-        <v>375</v>
-      </c>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143" t="s">
-        <v>366</v>
-      </c>
-      <c r="F45" s="144">
+      <c r="C46" s="141" t="s">
+        <v>371</v>
+      </c>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142" t="s">
+        <v>362</v>
+      </c>
+      <c r="F46" s="143">
         <v>42934</v>
       </c>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="148"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="142" t="s">
-        <v>376</v>
-      </c>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143" t="s">
-        <v>367</v>
-      </c>
-      <c r="F46" s="144">
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="150"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="141" t="s">
+        <v>372</v>
+      </c>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142" t="s">
+        <v>363</v>
+      </c>
+      <c r="F47" s="143">
         <v>42934</v>
       </c>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="146"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="142" t="s">
-        <v>377</v>
-      </c>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143" t="s">
-        <v>368</v>
-      </c>
-      <c r="F47" s="144">
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="151"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="141" t="s">
+        <v>373</v>
+      </c>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142" t="s">
+        <v>364</v>
+      </c>
+      <c r="F48" s="143">
         <v>42934</v>
       </c>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="147">
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="152">
         <v>6044</v>
       </c>
-      <c r="B48" s="147">
+      <c r="B49" s="152">
         <v>3701</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C49" s="75" t="s">
         <v>321</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="F48" s="45">
-        <v>42888</v>
-      </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="147"/>
-      <c r="B49" s="147"/>
-      <c r="C49" s="75" t="s">
-        <v>322</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F49" s="45">
         <v>42888</v>
@@ -10453,14 +10549,14 @@
       <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="147"/>
-      <c r="B50" s="147"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="152"/>
       <c r="C50" s="75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F50" s="45">
         <v>42888</v>
@@ -10468,53 +10564,68 @@
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="147">
+      <c r="A51" s="152"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51" s="45">
+        <v>42888</v>
+      </c>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="152">
         <v>6049</v>
       </c>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="147"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="147"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="152"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G51"/>
+  <autoFilter ref="A2:G52"/>
   <mergeCells count="32">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B9:B13"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B52:B54"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10523,11 +10634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10571,7 +10681,7 @@
     </row>
     <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
@@ -10601,31 +10711,31 @@
       <c r="P4" s="37"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="155" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
+      <c r="B7" s="159" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="89"/>
       <c r="F7" s="34"/>
       <c r="G7" s="41"/>
       <c r="H7" s="84"/>
-      <c r="I7" s="157" t="s">
+      <c r="I7" s="161" t="s">
+        <v>344</v>
+      </c>
+      <c r="J7" s="162"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="164" t="s">
         <v>345</v>
       </c>
-      <c r="J7" s="158"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="160" t="s">
-        <v>346</v>
-      </c>
-      <c r="N7" s="160"/>
+      <c r="N7" s="164"/>
       <c r="O7" s="43"/>
-      <c r="P7" s="161" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="163"/>
+      <c r="P7" s="165" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="167"/>
       <c r="S7" s="44" t="s">
         <v>213</v>
       </c>
@@ -10635,10 +10745,10 @@
     </row>
     <row r="8" spans="2:20" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>189</v>
@@ -10675,14 +10785,14 @@
       <c r="R8" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="S8" s="156">
+      <c r="S8" s="160">
         <v>42951</v>
       </c>
-      <c r="T8" s="156">
+      <c r="T8" s="160">
         <v>42968</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>1</v>
       </c>
@@ -10724,8 +10834,8 @@
       <c r="R9" s="88">
         <v>42937</v>
       </c>
-      <c r="S9" s="156"/>
-      <c r="T9" s="156"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -10769,8 +10879,8 @@
       <c r="R10" s="88">
         <v>42944</v>
       </c>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
@@ -10812,8 +10922,8 @@
       <c r="R11" s="88">
         <v>42944</v>
       </c>
-      <c r="S11" s="156"/>
-      <c r="T11" s="156"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -10855,10 +10965,10 @@
       <c r="R12" s="88">
         <v>42951</v>
       </c>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-    </row>
-    <row r="13" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="160"/>
+      <c r="T12" s="160"/>
+    </row>
+    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>1</v>
       </c>
@@ -10900,8 +11010,8 @@
       <c r="R13" s="88">
         <v>42937</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -10943,8 +11053,8 @@
       <c r="R14" s="88">
         <v>42944</v>
       </c>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -10986,8 +11096,8 @@
       <c r="R15" s="88">
         <v>42944</v>
       </c>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="160"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -11029,8 +11139,8 @@
       <c r="R16" s="88">
         <v>42951</v>
       </c>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -11072,8 +11182,8 @@
       <c r="R17" s="88">
         <v>42951</v>
       </c>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
+      <c r="S17" s="160"/>
+      <c r="T17" s="160"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -11115,8 +11225,8 @@
       <c r="R18" s="88">
         <v>42951</v>
       </c>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="160"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -11156,8 +11266,8 @@
       <c r="R19" s="88">
         <v>42951</v>
       </c>
-      <c r="S19" s="156"/>
-      <c r="T19" s="156"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -11201,8 +11311,8 @@
       <c r="R20" s="88">
         <v>42937</v>
       </c>
-      <c r="S20" s="156"/>
-      <c r="T20" s="156"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -11244,8 +11354,8 @@
       <c r="R21" s="88">
         <v>42951</v>
       </c>
-      <c r="S21" s="156"/>
-      <c r="T21" s="156"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="160"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -11287,8 +11397,8 @@
       <c r="R22" s="88">
         <v>42951</v>
       </c>
-      <c r="S22" s="156"/>
-      <c r="T22" s="156"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -11330,8 +11440,8 @@
       <c r="R23" s="88">
         <v>42951</v>
       </c>
-      <c r="S23" s="156"/>
-      <c r="T23" s="156"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -11373,12 +11483,12 @@
       <c r="R24" s="88">
         <v>42951</v>
       </c>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-    </row>
-    <row r="25" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="160"/>
+      <c r="T24" s="160"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D25" s="10">
         <f>SUM(D9:D24)</f>
@@ -11397,13 +11507,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:U25">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B8:U25"/>
   <mergeCells count="6">
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="S8:S24"/>
@@ -11436,65 +11540,65 @@
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N2" s="63"/>
-      <c r="P2" s="167" t="s">
+      <c r="P2" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="169"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="173"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="160" t="s">
+      <c r="C4" s="169"/>
+      <c r="D4" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="166" t="s">
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="160" t="s">
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="166" t="s">
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="170" t="s">
         <v>271</v>
       </c>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="166"/>
-      <c r="U4" s="166" t="s">
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="170" t="s">
         <v>272</v>
       </c>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="170" t="s">
+      <c r="V4" s="170"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="174" t="s">
         <v>273</v>
       </c>
-      <c r="AA4" s="171"/>
-      <c r="AB4" s="171"/>
-      <c r="AC4" s="172"/>
+      <c r="AA4" s="175"/>
+      <c r="AB4" s="175"/>
+      <c r="AC4" s="176"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/config_management/change_requests/Revised SOW.xlsx
+++ b/config_management/change_requests/Revised SOW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\Desktop\AP242\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\workspace\stepmod\config_management\change_requests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1252,12 +1252,6 @@
     <t>Resolved</t>
   </si>
   <si>
-    <t>10303-41 ed5 measure_schema</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Value with unit</t>
   </si>
   <si>
@@ -1273,13 +1267,19 @@
     <t>English Quality Review:  
 1. 7/7 - 7/20
 2. 7/21 - 8/4</t>
+  </si>
+  <si>
+    <t>10303-41 ed5 measure_schema EXPRESS</t>
+  </si>
+  <si>
+    <t>N9715</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1538,6 +1538,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2082,7 +2088,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2487,58 +2493,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2590,8 +2577,41 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2901,11 +2921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190243520"/>
-        <c:axId val="190243904"/>
+        <c:axId val="195191320"/>
+        <c:axId val="195191712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190243520"/>
+        <c:axId val="195191320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190243904"/>
+        <c:crossAx val="195191712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2956,7 +2976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190243904"/>
+        <c:axId val="195191712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,7 +3027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190243520"/>
+        <c:crossAx val="195191320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3983,7 +4003,7 @@
       <c r="G1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="147" t="s">
+      <c r="H1" s="142" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="115" t="s">
@@ -5980,7 +6000,7 @@
       <c r="G38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="146" t="s">
+      <c r="H38" s="141" t="s">
         <v>25</v>
       </c>
       <c r="I38" s="48" t="s">
@@ -6597,7 +6617,7 @@
       <c r="I49" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="146" t="s">
+      <c r="J49" s="141" t="s">
         <v>357</v>
       </c>
       <c r="K49" s="50" t="s">
@@ -7250,7 +7270,7 @@
       <c r="I60" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="146" t="s">
+      <c r="J60" s="141" t="s">
         <v>357</v>
       </c>
       <c r="K60" s="20" t="s">
@@ -8237,13 +8257,13 @@
       <c r="G79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="146" t="s">
+      <c r="H79" s="141" t="s">
         <v>20</v>
       </c>
       <c r="I79" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="J79" s="146" t="s">
+      <c r="J79" s="141" t="s">
         <v>357</v>
       </c>
       <c r="K79" s="50" t="s">
@@ -8406,13 +8426,13 @@
       <c r="G82" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="146" t="s">
+      <c r="H82" s="141" t="s">
         <v>20</v>
       </c>
       <c r="I82" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="J82" s="146" t="s">
+      <c r="J82" s="141" t="s">
         <v>357</v>
       </c>
       <c r="K82" s="50" t="s">
@@ -9482,8 +9502,8 @@
       <c r="X100" s="26"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A101" s="146"/>
-      <c r="B101" s="146"/>
+      <c r="A101" s="141"/>
+      <c r="B101" s="141"/>
       <c r="C101" s="48">
         <v>6316</v>
       </c>
@@ -9493,38 +9513,38 @@
       <c r="E101" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="146" t="s">
+      <c r="F101" s="141" t="s">
         <v>34</v>
       </c>
       <c r="H101" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I101" s="146" t="s">
+      <c r="I101" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="J101" s="146" t="s">
+      <c r="J101" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="K101" s="177" t="s">
-        <v>381</v>
+      <c r="K101" s="144" t="s">
+        <v>379</v>
       </c>
       <c r="R101" s="93">
         <v>42942</v>
       </c>
-      <c r="S101" s="146"/>
-      <c r="T101" s="146"/>
-      <c r="U101" s="146">
+      <c r="S101" s="141"/>
+      <c r="T101" s="141"/>
+      <c r="U101" s="141">
         <v>1054</v>
       </c>
       <c r="V101" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="W101" s="146"/>
+        <v>378</v>
+      </c>
+      <c r="W101" s="141"/>
       <c r="X101" s="26"/>
     </row>
     <row r="102" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="146"/>
-      <c r="B102" s="146"/>
+      <c r="A102" s="141"/>
+      <c r="B102" s="141"/>
       <c r="C102" s="48">
         <v>6317</v>
       </c>
@@ -9534,38 +9554,38 @@
       <c r="E102" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="146" t="s">
+      <c r="F102" s="141" t="s">
         <v>34</v>
       </c>
       <c r="H102" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I102" s="146" t="s">
+      <c r="I102" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="J102" s="146" t="s">
+      <c r="J102" s="141" t="s">
         <v>156</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="R102" s="93">
         <v>42942</v>
       </c>
-      <c r="S102" s="146"/>
-      <c r="T102" s="146"/>
-      <c r="U102" s="146">
+      <c r="S102" s="141"/>
+      <c r="T102" s="141"/>
+      <c r="U102" s="141">
         <v>1753</v>
       </c>
       <c r="V102" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="W102" s="146"/>
+      <c r="W102" s="141"/>
       <c r="X102" s="26"/>
     </row>
     <row r="103" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="146"/>
-      <c r="B103" s="146"/>
+      <c r="A103" s="141"/>
+      <c r="B103" s="141"/>
       <c r="C103" s="48">
         <v>6318</v>
       </c>
@@ -9575,33 +9595,33 @@
       <c r="E103" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="146" t="s">
+      <c r="F103" s="141" t="s">
         <v>34</v>
       </c>
       <c r="H103" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I103" s="146" t="s">
+      <c r="I103" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="J103" s="146" t="s">
+      <c r="J103" s="141" t="s">
         <v>156</v>
       </c>
       <c r="K103" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="R103" s="93">
         <v>42942</v>
       </c>
-      <c r="S103" s="146"/>
-      <c r="T103" s="146"/>
-      <c r="U103" s="146">
+      <c r="S103" s="141"/>
+      <c r="T103" s="141"/>
+      <c r="U103" s="141">
         <v>47</v>
       </c>
       <c r="V103" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W103" s="146"/>
+      <c r="W103" s="141"/>
       <c r="X103" s="26"/>
     </row>
   </sheetData>
@@ -9681,8 +9701,8 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50:E51"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="A46:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9729,7 +9749,7 @@
       <c r="A3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="145" t="s">
         <v>165</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -9750,7 +9770,7 @@
       <c r="A4" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="52" t="s">
         <v>194</v>
       </c>
@@ -9769,7 +9789,7 @@
       <c r="A5" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="150"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="52" t="s">
         <v>195</v>
       </c>
@@ -9784,62 +9804,62 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="141" t="s">
+    <row r="6" spans="1:7" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="129" t="s">
+      <c r="B6" s="148"/>
+      <c r="C6" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="130" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="174" t="s">
         <v>368</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="175">
         <v>42934</v>
       </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" s="176" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="129" t="s">
+      <c r="B7" s="148"/>
+      <c r="C7" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="144" t="s">
+      <c r="D7" s="174"/>
+      <c r="E7" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="177">
         <v>42934</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="141" t="s">
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:7" s="176" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="129" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="130" t="s">
+      <c r="D8" s="174"/>
+      <c r="E8" s="174" t="s">
         <v>370</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="177">
         <v>42934</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="152">
+      <c r="A9" s="147">
         <v>5553</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="145" t="s">
         <v>225</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -9857,8 +9877,8 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="152"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="78" t="s">
         <v>335</v>
       </c>
@@ -9877,7 +9897,7 @@
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
-      <c r="B11" s="150"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="78" t="s">
         <v>336</v>
       </c>
@@ -9894,7 +9914,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
-      <c r="B12" s="150"/>
+      <c r="B12" s="148"/>
       <c r="C12" s="78" t="s">
         <v>337</v>
       </c>
@@ -9909,26 +9929,26 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
-      <c r="B13" s="151"/>
+    <row r="13" spans="1:7" s="173" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="143"/>
+      <c r="B13" s="148"/>
       <c r="C13" s="129" t="s">
-        <v>379</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="148" t="s">
-        <v>378</v>
-      </c>
-      <c r="F13" s="19">
-        <v>42936</v>
-      </c>
-      <c r="G13" s="79"/>
+        <v>384</v>
+      </c>
+      <c r="D13" s="130"/>
+      <c r="E13" s="170" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="171">
+        <v>42937</v>
+      </c>
+      <c r="G13" s="172"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="149" t="s">
+      <c r="A14" s="145" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="149">
+      <c r="B14" s="145">
         <v>6047</v>
       </c>
       <c r="C14" s="52" t="s">
@@ -9946,8 +9966,8 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="151"/>
-      <c r="B15" s="151"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="78" t="s">
         <v>338</v>
       </c>
@@ -9965,10 +9985,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="153">
+      <c r="A16" s="149">
         <v>6183</v>
       </c>
-      <c r="B16" s="152" t="s">
+      <c r="B16" s="147" t="s">
         <v>229</v>
       </c>
       <c r="C16" s="52" t="s">
@@ -9984,8 +10004,8 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="154"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="52" t="s">
         <v>236</v>
       </c>
@@ -10001,8 +10021,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="155"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="52" t="s">
         <v>237</v>
       </c>
@@ -10018,10 +10038,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="149">
+      <c r="A19" s="145">
         <v>6041</v>
       </c>
-      <c r="B19" s="149">
+      <c r="B19" s="145">
         <v>6042</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -10037,8 +10057,8 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
-      <c r="B20" s="151"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="52" t="s">
         <v>248</v>
       </c>
@@ -10054,10 +10074,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="149">
+      <c r="A21" s="145">
         <v>6044</v>
       </c>
-      <c r="B21" s="149">
+      <c r="B21" s="145">
         <v>5006</v>
       </c>
       <c r="C21" s="52" t="s">
@@ -10073,8 +10093,8 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
-      <c r="B22" s="151"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="27" t="s">
         <v>255</v>
       </c>
@@ -10090,10 +10110,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="145" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="149">
+      <c r="B23" s="145">
         <v>6220</v>
       </c>
       <c r="C23" s="52" t="s">
@@ -10111,8 +10131,8 @@
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="151"/>
-      <c r="B24" s="151"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="52" t="s">
         <v>208</v>
       </c>
@@ -10128,10 +10148,10 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="145" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="149">
+      <c r="B25" s="145">
         <v>6252</v>
       </c>
       <c r="C25" s="52" t="s">
@@ -10147,8 +10167,8 @@
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="150"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="52" t="s">
         <v>242</v>
       </c>
@@ -10162,8 +10182,8 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
-      <c r="B27" s="151"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="52" t="s">
         <v>243</v>
       </c>
@@ -10177,10 +10197,10 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="152" t="s">
+      <c r="A28" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="149">
+      <c r="B28" s="145">
         <v>4251</v>
       </c>
       <c r="C28" s="52" t="s">
@@ -10198,8 +10218,8 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="152"/>
-      <c r="B29" s="150"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="52" t="s">
         <v>202</v>
       </c>
@@ -10215,8 +10235,8 @@
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="152"/>
-      <c r="B30" s="151"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="52" t="s">
         <v>204</v>
       </c>
@@ -10232,10 +10252,10 @@
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="149">
+      <c r="A31" s="145">
         <v>5142</v>
       </c>
-      <c r="B31" s="152" t="s">
+      <c r="B31" s="147" t="s">
         <v>325</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -10251,8 +10271,8 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="152"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="16" t="s">
         <v>260</v>
       </c>
@@ -10266,8 +10286,8 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="151"/>
-      <c r="B33" s="152"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="16" t="s">
         <v>261</v>
       </c>
@@ -10300,10 +10320,10 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="152">
+      <c r="B35" s="147">
         <v>6274</v>
       </c>
       <c r="C35" s="75" t="s">
@@ -10319,8 +10339,8 @@
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="152"/>
-      <c r="B36" s="152"/>
+      <c r="A36" s="147"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="27" t="s">
         <v>311</v>
       </c>
@@ -10334,10 +10354,10 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="152">
+      <c r="B37" s="147">
         <v>6141</v>
       </c>
       <c r="C37" s="75" t="s">
@@ -10353,8 +10373,8 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="152"/>
-      <c r="B38" s="152"/>
+      <c r="A38" s="147"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="75" t="s">
         <v>313</v>
       </c>
@@ -10368,8 +10388,8 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="152"/>
-      <c r="B39" s="152"/>
+      <c r="A39" s="147"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="75" t="s">
         <v>314</v>
       </c>
@@ -10383,10 +10403,10 @@
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="152">
+      <c r="A40" s="147">
         <v>6201</v>
       </c>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="147" t="s">
         <v>296</v>
       </c>
       <c r="C40" s="75" t="s">
@@ -10402,8 +10422,8 @@
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="152"/>
-      <c r="B41" s="152"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="75" t="s">
         <v>316</v>
       </c>
@@ -10417,8 +10437,8 @@
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="152"/>
-      <c r="B42" s="152"/>
+      <c r="A42" s="147"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="75" t="s">
         <v>317</v>
       </c>
@@ -10432,10 +10452,10 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="152" t="s">
+      <c r="A43" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="152">
+      <c r="B43" s="147">
         <v>4388</v>
       </c>
       <c r="C43" s="75" t="s">
@@ -10451,8 +10471,8 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="152"/>
-      <c r="B44" s="152"/>
+      <c r="A44" s="147"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="75" t="s">
         <v>319</v>
       </c>
@@ -10466,8 +10486,8 @@
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="152"/>
-      <c r="B45" s="152"/>
+      <c r="A45" s="147"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="75" t="s">
         <v>320</v>
       </c>
@@ -10480,60 +10500,60 @@
       </c>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="149" t="s">
+    <row r="46" spans="1:7" s="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="178" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="156">
+      <c r="B46" s="178">
         <v>5402</v>
       </c>
-      <c r="C46" s="141" t="s">
+      <c r="C46" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142" t="s">
+      <c r="D46" s="179"/>
+      <c r="E46" s="179" t="s">
         <v>362</v>
       </c>
-      <c r="F46" s="143">
+      <c r="F46" s="175">
         <v>42934</v>
       </c>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="150"/>
-      <c r="B47" s="157"/>
-      <c r="C47" s="141" t="s">
+      <c r="G46" s="51"/>
+    </row>
+    <row r="47" spans="1:7" s="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="180"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142" t="s">
+      <c r="D47" s="179"/>
+      <c r="E47" s="179" t="s">
         <v>363</v>
       </c>
-      <c r="F47" s="143">
+      <c r="F47" s="175">
         <v>42934</v>
       </c>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="151"/>
-      <c r="B48" s="158"/>
-      <c r="C48" s="141" t="s">
+      <c r="G47" s="51"/>
+    </row>
+    <row r="48" spans="1:7" s="176" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="181"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142" t="s">
+      <c r="D48" s="179"/>
+      <c r="E48" s="179" t="s">
         <v>364</v>
       </c>
-      <c r="F48" s="143">
+      <c r="F48" s="175">
         <v>42934</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="51"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="152">
+      <c r="A49" s="147">
         <v>6044</v>
       </c>
-      <c r="B49" s="152">
+      <c r="B49" s="147">
         <v>3701</v>
       </c>
       <c r="C49" s="75" t="s">
@@ -10549,8 +10569,8 @@
       <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="152"/>
-      <c r="B50" s="152"/>
+      <c r="A50" s="147"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="75" t="s">
         <v>322</v>
       </c>
@@ -10564,8 +10584,8 @@
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="152"/>
-      <c r="B51" s="152"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="75" t="s">
         <v>323</v>
       </c>
@@ -10579,21 +10599,37 @@
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="152">
+      <c r="B52" s="147">
         <v>6049</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="152"/>
+      <c r="B53" s="147"/>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="152"/>
+      <c r="B54" s="147"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G52"/>
   <mergeCells count="32">
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="B49:B51"/>
@@ -10610,22 +10646,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10711,31 +10731,31 @@
       <c r="P4" s="37"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="152" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="89"/>
       <c r="F7" s="34"/>
       <c r="G7" s="41"/>
       <c r="H7" s="84"/>
-      <c r="I7" s="161" t="s">
+      <c r="I7" s="154" t="s">
         <v>344</v>
       </c>
-      <c r="J7" s="162"/>
-      <c r="K7" s="163"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="164" t="s">
+      <c r="M7" s="157" t="s">
         <v>345</v>
       </c>
-      <c r="N7" s="164"/>
+      <c r="N7" s="157"/>
       <c r="O7" s="43"/>
-      <c r="P7" s="165" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="167"/>
+      <c r="P7" s="158" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="160"/>
       <c r="S7" s="44" t="s">
         <v>213</v>
       </c>
@@ -10785,10 +10805,10 @@
       <c r="R8" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="S8" s="160">
+      <c r="S8" s="153">
         <v>42951</v>
       </c>
-      <c r="T8" s="160">
+      <c r="T8" s="153">
         <v>42968</v>
       </c>
     </row>
@@ -10834,8 +10854,8 @@
       <c r="R9" s="88">
         <v>42937</v>
       </c>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -10879,8 +10899,8 @@
       <c r="R10" s="88">
         <v>42944</v>
       </c>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
@@ -10922,8 +10942,8 @@
       <c r="R11" s="88">
         <v>42944</v>
       </c>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -10965,8 +10985,8 @@
       <c r="R12" s="88">
         <v>42951</v>
       </c>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
@@ -11010,8 +11030,8 @@
       <c r="R13" s="88">
         <v>42937</v>
       </c>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -11053,8 +11073,8 @@
       <c r="R14" s="88">
         <v>42944</v>
       </c>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -11096,8 +11116,8 @@
       <c r="R15" s="88">
         <v>42944</v>
       </c>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -11139,8 +11159,8 @@
       <c r="R16" s="88">
         <v>42951</v>
       </c>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
@@ -11182,8 +11202,8 @@
       <c r="R17" s="88">
         <v>42951</v>
       </c>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -11225,8 +11245,8 @@
       <c r="R18" s="88">
         <v>42951</v>
       </c>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
@@ -11266,8 +11286,8 @@
       <c r="R19" s="88">
         <v>42951</v>
       </c>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -11311,8 +11331,8 @@
       <c r="R20" s="88">
         <v>42937</v>
       </c>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -11354,8 +11374,8 @@
       <c r="R21" s="88">
         <v>42951</v>
       </c>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -11397,8 +11417,8 @@
       <c r="R22" s="88">
         <v>42951</v>
       </c>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -11440,8 +11460,8 @@
       <c r="R23" s="88">
         <v>42951</v>
       </c>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
@@ -11483,8 +11503,8 @@
       <c r="R24" s="88">
         <v>42951</v>
       </c>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
     </row>
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="103" t="s">
@@ -11540,65 +11560,65 @@
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N2" s="63"/>
-      <c r="P2" s="171" t="s">
+      <c r="P2" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="173"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="166"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="169"/>
-      <c r="D4" s="164" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="170" t="s">
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="164" t="s">
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="170" t="s">
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170" t="s">
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163" t="s">
         <v>272</v>
       </c>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="174" t="s">
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="167" t="s">
         <v>273</v>
       </c>
-      <c r="AA4" s="175"/>
-      <c r="AB4" s="175"/>
-      <c r="AC4" s="176"/>
+      <c r="AA4" s="168"/>
+      <c r="AB4" s="168"/>
+      <c r="AC4" s="169"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/config_management/change_requests/Revised SOW.xlsx
+++ b/config_management/change_requests/Revised SOW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\workspace\stepmod\config_management\change_requests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\Desktop\AP242\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,18 +18,18 @@
     <sheet name="Availability" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$A$1:$Y$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$B$8:$U$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WG_#'!$A$2:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$A$1:$Y$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$B$8:$U$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WG_#'!$A$2:$G$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Remaining SOW'!$C$1:$D$88</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Remaining SOW'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="402">
   <si>
     <t>bug_id</t>
   </si>
@@ -1273,6 +1273,57 @@
   </si>
   <si>
     <t>N9715</t>
+  </si>
+  <si>
+    <t>add postive_length_measure_with_unit and positive_plane_angle_measure_with_unit to measure schema</t>
+  </si>
+  <si>
+    <t>Collector bug for AM 1050 dimension_tolerance and add subtypes of Plus_minus_bound</t>
+  </si>
+  <si>
+    <t>Dimension_Tolerance</t>
+  </si>
+  <si>
+    <t>countersink/counterbore/hole implementation in AM 1846</t>
+  </si>
+  <si>
+    <t>Add USE FROM AM Mechanical_design to AM 0442</t>
+  </si>
+  <si>
+    <t>AP242 managed model based 3D engineering</t>
+  </si>
+  <si>
+    <t>White paper for counterbore, etc.</t>
+  </si>
+  <si>
+    <t>White paper for all over</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>10303-1763 ed? Value with unit extention Document</t>
+  </si>
+  <si>
+    <t>10303-1763 ed? Value with unit extention ARM EXPRESS</t>
+  </si>
+  <si>
+    <t>10303-1763 ed? Value with unit MIM EXPRESS</t>
+  </si>
+  <si>
+    <t>10303-442 ed? AP242 managed model based 3D engineering Document</t>
+  </si>
+  <si>
+    <t>10303-1054 ed4 Value with unit Document</t>
+  </si>
+  <si>
+    <t>10303-1054 ed4 Value with unit ARM Express</t>
+  </si>
+  <si>
+    <t>10303-1054 ed4 Value with unit MIM Express</t>
+  </si>
+  <si>
+    <t>CR_PDM_1 made changes to module on July 15</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2139,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2295,322 +2346,355 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="30" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="30" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="30" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="30" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="39" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="30" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="30" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="30" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="30" fillId="39" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="39" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2921,11 +3005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195191320"/>
-        <c:axId val="195191712"/>
+        <c:axId val="293324576"/>
+        <c:axId val="293324184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195191320"/>
+        <c:axId val="293324576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +3052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195191712"/>
+        <c:crossAx val="293324184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2976,7 +3060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195191712"/>
+        <c:axId val="293324184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3027,7 +3111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195191320"/>
+        <c:crossAx val="293324576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3951,13 +4035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y103"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="R105" sqref="R105"/>
+      <selection pane="bottomRight" activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,7 +4062,8 @@
     <col min="15" max="15" width="9.140625" style="4" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="7.42578125" style="4" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" style="4" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="12.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="4" customWidth="1"/>
+    <col min="19" max="20" width="12.140625" style="4" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="10.85546875" style="4" customWidth="1"/>
     <col min="22" max="22" width="22.42578125" style="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" style="4" customWidth="1"/>
@@ -3986,86 +4071,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="115"/>
-      <c r="B1" s="126"/>
-      <c r="C1" s="115" t="s">
+      <c r="A1" s="114" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="114" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="115" t="s">
+      <c r="L1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="115" t="s">
+      <c r="M1" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115" t="s">
+      <c r="N1" s="114"/>
+      <c r="O1" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="115" t="s">
+      <c r="P1" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="117" t="s">
+      <c r="Q1" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="R1" s="118" t="s">
+      <c r="R1" s="117" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="119" t="s">
+      <c r="S1" s="118" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="120" t="s">
+      <c r="T1" s="119" t="s">
         <v>341</v>
       </c>
-      <c r="U1" s="115" t="s">
+      <c r="U1" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="V1" s="115" t="s">
+      <c r="V1" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="W1" s="115" t="s">
+      <c r="W1" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="X1" s="115" t="s">
+      <c r="X1" s="114" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="125"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="48">
         <v>3551</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -4074,16 +4163,16 @@
       <c r="H2" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="114">
+      <c r="L2" s="113">
         <v>4</v>
       </c>
       <c r="M2" s="19">
@@ -4092,27 +4181,27 @@
       <c r="N2" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="114"/>
+      <c r="O2" s="113"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="91">
+      <c r="Q2" s="90">
         <v>42908</v>
       </c>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S2" s="95">
+      <c r="S2" s="94">
         <v>42937</v>
       </c>
-      <c r="T2" s="96">
+      <c r="T2" s="95">
         <v>42944</v>
       </c>
-      <c r="U2" s="114">
+      <c r="U2" s="113">
         <v>1051</v>
       </c>
       <c r="V2" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="W2" s="114" t="s">
+      <c r="W2" s="113" t="s">
         <v>210</v>
       </c>
       <c r="X2" s="17"/>
@@ -4170,31 +4259,29 @@
       <c r="X3" s="22"/>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="B4" s="124"/>
       <c r="C4" s="55">
         <v>3675</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="114" t="s">
+      <c r="I4" s="113" t="s">
         <v>377</v>
       </c>
       <c r="J4" s="27" t="s">
@@ -4210,29 +4297,29 @@
         <v>150</v>
       </c>
       <c r="N4" s="19"/>
-      <c r="O4" s="114" t="s">
+      <c r="O4" s="113" t="s">
         <v>153</v>
       </c>
       <c r="P4" s="17"/>
-      <c r="Q4" s="91">
+      <c r="Q4" s="90">
         <v>42906</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S4" s="95">
+      <c r="S4" s="94">
         <v>42937</v>
       </c>
-      <c r="T4" s="96">
+      <c r="T4" s="95">
         <v>42944</v>
       </c>
-      <c r="U4" s="114">
+      <c r="U4" s="113">
         <v>1051</v>
       </c>
       <c r="V4" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="W4" s="114" t="s">
+      <c r="W4" s="113" t="s">
         <v>210</v>
       </c>
       <c r="X4" s="17"/>
@@ -4274,7 +4361,7 @@
         <v>42855</v>
       </c>
       <c r="N5" s="29"/>
-      <c r="O5" s="114" t="s">
+      <c r="O5" s="113" t="s">
         <v>152</v>
       </c>
       <c r="P5" s="28"/>
@@ -4324,7 +4411,7 @@
         <v>42839</v>
       </c>
       <c r="N6" s="29"/>
-      <c r="O6" s="114"/>
+      <c r="O6" s="113"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="28"/>
@@ -4341,13 +4428,13 @@
       <c r="C7" s="16">
         <v>4817</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="17" t="s">
@@ -4356,7 +4443,7 @@
       <c r="H7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="114" t="s">
+      <c r="I7" s="113" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -4365,7 +4452,7 @@
       <c r="K7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L7" s="113">
         <v>2</v>
       </c>
       <c r="M7" s="19">
@@ -4389,13 +4476,13 @@
       <c r="C8" s="16">
         <v>5899</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -4404,7 +4491,7 @@
       <c r="H8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="114" t="s">
+      <c r="I8" s="113" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -4413,11 +4500,11 @@
       <c r="K8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="114">
+      <c r="L8" s="113">
         <v>0</v>
       </c>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
@@ -4430,150 +4517,148 @@
       <c r="X8" s="17"/>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="125" t="s">
+      <c r="A9" s="113"/>
+      <c r="B9" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="114">
+      <c r="C9" s="113">
         <v>3701</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="113" t="s">
         <v>354</v>
       </c>
       <c r="K9" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="114">
+      <c r="L9" s="113">
         <v>0</v>
       </c>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114" t="s">
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113" t="s">
         <v>153</v>
       </c>
       <c r="P9" s="17"/>
-      <c r="Q9" s="91">
+      <c r="Q9" s="90">
         <v>42934</v>
       </c>
-      <c r="R9" s="93">
-        <v>42942</v>
-      </c>
-      <c r="S9" s="95">
+      <c r="R9" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="S9" s="94">
         <v>42937</v>
       </c>
-      <c r="T9" s="96">
+      <c r="T9" s="95">
         <v>42944</v>
       </c>
-      <c r="U9" s="114">
+      <c r="U9" s="113">
         <v>1846</v>
       </c>
       <c r="V9" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="W9" s="114">
+      <c r="W9" s="113">
         <v>5142</v>
       </c>
       <c r="X9" s="17"/>
     </row>
     <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="125" t="s">
+      <c r="A10" s="113"/>
+      <c r="B10" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="114">
+      <c r="C10" s="113">
         <v>3702</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="114" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="113" t="s">
         <v>156</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="114">
+      <c r="L10" s="113">
         <v>0</v>
       </c>
       <c r="M10" s="19">
         <v>42818</v>
       </c>
       <c r="N10" s="19"/>
-      <c r="O10" s="114" t="s">
+      <c r="O10" s="113" t="s">
         <v>153</v>
       </c>
       <c r="P10" s="17"/>
-      <c r="Q10" s="91">
+      <c r="Q10" s="90">
         <v>42934</v>
       </c>
-      <c r="R10" s="93">
-        <v>42942</v>
-      </c>
-      <c r="S10" s="95">
+      <c r="R10" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="S10" s="94">
         <v>42937</v>
       </c>
-      <c r="T10" s="96">
+      <c r="T10" s="95">
         <v>42944</v>
       </c>
-      <c r="U10" s="114" t="s">
+      <c r="U10" s="113" t="s">
         <v>174</v>
       </c>
       <c r="V10" s="17"/>
-      <c r="W10" s="114">
+      <c r="W10" s="113">
         <v>6044</v>
       </c>
       <c r="X10" s="17"/>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="B11" s="124"/>
       <c r="C11" s="21">
         <v>3789</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -4582,10 +4667,10 @@
       <c r="H11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="114" t="s">
+      <c r="I11" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J11" s="114" t="s">
+      <c r="J11" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K11" s="17" t="s">
@@ -4598,27 +4683,27 @@
         <v>150</v>
       </c>
       <c r="N11" s="19"/>
-      <c r="O11" s="114" t="s">
+      <c r="O11" s="113" t="s">
         <v>153</v>
       </c>
       <c r="P11" s="17"/>
-      <c r="Q11" s="91">
+      <c r="Q11" s="90">
         <v>42906</v>
       </c>
-      <c r="R11" s="93" t="s">
+      <c r="R11" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S11" s="95">
+      <c r="S11" s="94">
         <v>42937</v>
       </c>
-      <c r="T11" s="96">
+      <c r="T11" s="95">
         <v>42944</v>
       </c>
-      <c r="U11" s="114" t="s">
+      <c r="U11" s="113" t="s">
         <v>174</v>
       </c>
       <c r="V11" s="17"/>
-      <c r="W11" s="114" t="s">
+      <c r="W11" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X11" s="17"/>
@@ -4629,13 +4714,13 @@
       <c r="C12" s="16">
         <v>6203</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -4644,7 +4729,7 @@
       <c r="H12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="114" t="s">
+      <c r="I12" s="113" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -4653,11 +4738,11 @@
       <c r="K12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="114">
+      <c r="L12" s="113">
         <v>0</v>
       </c>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -4670,18 +4755,18 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="114">
+      <c r="A13" s="113"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="113">
         <v>3968</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="17" t="s">
@@ -4690,69 +4775,67 @@
       <c r="H13" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I13" s="114" t="s">
+      <c r="I13" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="114" t="s">
+      <c r="J13" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="114">
+      <c r="L13" s="113">
         <v>4</v>
       </c>
       <c r="M13" s="19">
         <v>42825</v>
       </c>
       <c r="N13" s="19"/>
-      <c r="O13" s="114"/>
+      <c r="O13" s="113"/>
       <c r="P13" s="17"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93" t="s">
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S13" s="95">
+      <c r="S13" s="94">
         <v>42937</v>
       </c>
-      <c r="T13" s="96">
+      <c r="T13" s="95">
         <v>42944</v>
       </c>
-      <c r="U13" s="114" t="s">
+      <c r="U13" s="113" t="s">
         <v>174</v>
       </c>
       <c r="V13" s="17"/>
-      <c r="W13" s="114" t="s">
+      <c r="W13" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X13" s="17"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="B14" s="124"/>
       <c r="C14" s="55">
         <v>4171</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="114" t="s">
+      <c r="H14" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="114" t="s">
+      <c r="I14" s="113" t="s">
         <v>377</v>
       </c>
       <c r="J14" s="27" t="s">
@@ -4761,34 +4844,34 @@
       <c r="K14" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="L14" s="114">
+      <c r="L14" s="113">
         <v>40</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>150</v>
       </c>
       <c r="N14" s="19"/>
-      <c r="O14" s="114"/>
+      <c r="O14" s="113"/>
       <c r="P14" s="17"/>
-      <c r="Q14" s="91">
+      <c r="Q14" s="90">
         <v>42902</v>
       </c>
-      <c r="R14" s="93" t="s">
+      <c r="R14" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S14" s="95">
+      <c r="S14" s="94">
         <v>42937</v>
       </c>
-      <c r="T14" s="96">
+      <c r="T14" s="95">
         <v>42944</v>
       </c>
-      <c r="U14" s="114">
+      <c r="U14" s="113">
         <v>47</v>
       </c>
       <c r="V14" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W14" s="114">
+      <c r="W14" s="113">
         <v>6183</v>
       </c>
       <c r="X14" s="17"/>
@@ -4799,13 +4882,13 @@
       <c r="C15" s="16">
         <v>3701</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="113" t="s">
         <v>147</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="17" t="s">
@@ -4814,7 +4897,7 @@
       <c r="H15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="114" t="s">
+      <c r="I15" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="17" t="s">
@@ -4823,14 +4906,14 @@
       <c r="K15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="114">
+      <c r="L15" s="113">
         <v>0</v>
       </c>
       <c r="M15" s="19">
         <v>42825</v>
       </c>
       <c r="N15" s="19"/>
-      <c r="O15" s="114" t="s">
+      <c r="O15" s="113" t="s">
         <v>153</v>
       </c>
       <c r="P15" s="17"/>
@@ -4844,20 +4927,18 @@
       <c r="X15" s="17"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="114">
+      <c r="A16" s="113"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="113">
         <v>4251</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="17" t="s">
@@ -4866,41 +4947,41 @@
       <c r="H16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="114" t="s">
+      <c r="I16" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J16" s="140"/>
+      <c r="J16" s="139"/>
       <c r="K16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L16" s="114">
+      <c r="L16" s="113">
         <v>4</v>
       </c>
       <c r="M16" s="19">
         <v>42821</v>
       </c>
       <c r="N16" s="19"/>
-      <c r="O16" s="114"/>
+      <c r="O16" s="113"/>
       <c r="P16" s="17"/>
-      <c r="Q16" s="112">
+      <c r="Q16" s="111">
         <v>42906</v>
       </c>
-      <c r="R16" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="S16" s="95">
+      <c r="R16" s="112">
+        <v>42941</v>
+      </c>
+      <c r="S16" s="94">
         <v>42937</v>
       </c>
-      <c r="T16" s="96">
+      <c r="T16" s="95">
         <v>42944</v>
       </c>
-      <c r="U16" s="114">
+      <c r="U16" s="113">
         <v>1362</v>
       </c>
       <c r="V16" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="W16" s="114">
+      <c r="W16" s="113">
         <v>6045</v>
       </c>
       <c r="X16" s="17"/>
@@ -4908,16 +4989,16 @@
     <row r="17" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="114">
+      <c r="C17" s="113">
         <v>3727</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="113" t="s">
         <v>147</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="17" t="s">
@@ -4926,7 +5007,7 @@
       <c r="H17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="114" t="s">
+      <c r="I17" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J17" s="17" t="s">
@@ -4935,20 +5016,20 @@
       <c r="K17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="114">
+      <c r="L17" s="113">
         <v>8</v>
       </c>
       <c r="M17" s="19">
         <v>42860</v>
       </c>
       <c r="N17" s="19"/>
-      <c r="O17" s="114"/>
+      <c r="O17" s="113"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
-      <c r="U17" s="114">
+      <c r="U17" s="113">
         <v>506</v>
       </c>
       <c r="V17" s="17" t="s">
@@ -4960,16 +5041,16 @@
     <row r="18" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="114">
+      <c r="C18" s="113">
         <v>5017</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="113" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="17" t="s">
@@ -4978,7 +5059,7 @@
       <c r="H18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="114" t="s">
+      <c r="I18" s="113" t="s">
         <v>80</v>
       </c>
       <c r="J18" s="17" t="s">
@@ -4987,14 +5068,14 @@
       <c r="K18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="114">
+      <c r="L18" s="113">
         <v>0</v>
       </c>
       <c r="M18" s="19">
         <v>42818</v>
       </c>
       <c r="N18" s="19"/>
-      <c r="O18" s="114" t="s">
+      <c r="O18" s="113" t="s">
         <v>153</v>
       </c>
       <c r="P18" s="17"/>
@@ -5002,13 +5083,13 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="114">
+      <c r="U18" s="113">
         <v>47</v>
       </c>
       <c r="V18" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W18" s="114"/>
+      <c r="W18" s="113"/>
       <c r="X18" s="17"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -5017,13 +5098,13 @@
       <c r="C19" s="16">
         <v>5529</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -5032,7 +5113,7 @@
       <c r="H19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="114" t="s">
+      <c r="I19" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J19" s="17" t="s">
@@ -5041,11 +5122,11 @@
       <c r="K19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="114">
+      <c r="L19" s="113">
         <v>0</v>
       </c>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -5063,13 +5144,13 @@
       <c r="C20" s="16">
         <v>5530</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -5078,7 +5159,7 @@
       <c r="H20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="114" t="s">
+      <c r="I20" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J20" s="17" t="s">
@@ -5087,11 +5168,11 @@
       <c r="K20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="114">
+      <c r="L20" s="113">
         <v>0</v>
       </c>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
@@ -5109,13 +5190,13 @@
       <c r="C21" s="16">
         <v>5842</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="17" t="s">
@@ -5124,7 +5205,7 @@
       <c r="H21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="114" t="s">
+      <c r="I21" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J21" s="17" t="s">
@@ -5133,11 +5214,11 @@
       <c r="K21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="114">
+      <c r="L21" s="113">
         <v>0</v>
       </c>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
@@ -5155,13 +5236,13 @@
       <c r="C22" s="16">
         <v>5844</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="17" t="s">
@@ -5170,7 +5251,7 @@
       <c r="H22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="114" t="s">
+      <c r="I22" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="17" t="s">
@@ -5179,11 +5260,11 @@
       <c r="K22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="114">
+      <c r="L22" s="113">
         <v>0</v>
       </c>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -5201,13 +5282,13 @@
       <c r="C23" s="16">
         <v>6032</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="17" t="s">
@@ -5216,7 +5297,7 @@
       <c r="H23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="114" t="s">
+      <c r="I23" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J23" s="17" t="s">
@@ -5225,11 +5306,11 @@
       <c r="K23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="114">
+      <c r="L23" s="113">
         <v>0</v>
       </c>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -5247,13 +5328,13 @@
       <c r="C24" s="16">
         <v>6039</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="114" t="s">
+      <c r="F24" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="17" t="s">
@@ -5262,7 +5343,7 @@
       <c r="H24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="114" t="s">
+      <c r="I24" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J24" s="17" t="s">
@@ -5271,11 +5352,11 @@
       <c r="K24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="114">
+      <c r="L24" s="113">
         <v>0</v>
       </c>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -5288,78 +5369,74 @@
       <c r="X24" s="17"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="114">
+      <c r="A25" s="113"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="113">
         <v>4386</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="114" t="s">
+      <c r="H25" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="114" t="s">
+      <c r="I25" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="114" t="s">
+      <c r="J25" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="L25" s="114">
+      <c r="L25" s="113">
         <v>0</v>
       </c>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="93" t="s">
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S25" s="95">
+      <c r="S25" s="94">
         <v>42937</v>
       </c>
-      <c r="T25" s="96">
+      <c r="T25" s="95">
         <v>42944</v>
       </c>
-      <c r="U25" s="114" t="s">
+      <c r="U25" s="113" t="s">
         <v>169</v>
       </c>
       <c r="V25" s="17"/>
-      <c r="W25" s="114" t="s">
+      <c r="W25" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X25" s="17"/>
     </row>
     <row r="26" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="114">
+      <c r="A26" s="113"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="113">
         <v>4388</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="17" t="s">
@@ -5368,36 +5445,36 @@
       <c r="H26" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="114" t="s">
+      <c r="I26" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J26" s="114" t="s">
+      <c r="J26" s="113" t="s">
         <v>342</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="L26" s="114">
+      <c r="L26" s="113">
         <f>SUBTOTAL(9,L1:L25)</f>
         <v>52</v>
       </c>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="91">
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="90">
         <v>42916</v>
       </c>
-      <c r="R26" s="113">
+      <c r="R26" s="112">
         <v>42942</v>
       </c>
-      <c r="S26" s="95">
+      <c r="S26" s="94">
         <v>42937</v>
       </c>
-      <c r="T26" s="96">
+      <c r="T26" s="95">
         <v>42944</v>
       </c>
-      <c r="U26" s="114">
+      <c r="U26" s="113">
         <v>1110</v>
       </c>
       <c r="V26" s="26" t="s">
@@ -5414,13 +5491,13 @@
       <c r="C27" s="16">
         <v>6046</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="114" t="s">
+      <c r="F27" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="17" t="s">
@@ -5429,7 +5506,7 @@
       <c r="H27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="114" t="s">
+      <c r="I27" s="113" t="s">
         <v>36</v>
       </c>
       <c r="J27" s="17" t="s">
@@ -5438,11 +5515,11 @@
       <c r="K27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="114">
+      <c r="L27" s="113">
         <v>0</v>
       </c>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
+      <c r="M27" s="113"/>
+      <c r="N27" s="113"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
@@ -5455,84 +5532,80 @@
       <c r="X27" s="17"/>
     </row>
     <row r="28" spans="1:24" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="98">
+      <c r="A28" s="113"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="97">
         <v>4658</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="114" t="s">
+      <c r="H28" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="114" t="s">
+      <c r="I28" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J28" s="114" t="s">
+      <c r="J28" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="114">
+      <c r="L28" s="113">
         <v>16</v>
       </c>
       <c r="M28" s="19">
         <v>42894</v>
       </c>
       <c r="N28" s="19"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="125"/>
-      <c r="Q28" s="91">
+      <c r="O28" s="124"/>
+      <c r="P28" s="124"/>
+      <c r="Q28" s="90">
         <v>42893</v>
       </c>
-      <c r="R28" s="93" t="s">
+      <c r="R28" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S28" s="95">
+      <c r="S28" s="94">
         <v>42914</v>
       </c>
-      <c r="T28" s="96">
+      <c r="T28" s="95">
         <v>42923</v>
       </c>
-      <c r="U28" s="114">
+      <c r="U28" s="113">
         <v>41</v>
       </c>
       <c r="V28" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W28" s="114">
+      <c r="W28" s="113">
         <v>5553</v>
       </c>
       <c r="X28" s="17"/>
     </row>
     <row r="29" spans="1:24" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A29" s="113"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="48">
         <v>4835</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="114" t="s">
+      <c r="F29" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="17" t="s">
@@ -5541,7 +5614,7 @@
       <c r="H29" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="114" t="s">
+      <c r="I29" s="113" t="s">
         <v>80</v>
       </c>
       <c r="J29" s="27" t="s">
@@ -5550,34 +5623,34 @@
       <c r="K29" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="114">
+      <c r="L29" s="113">
         <v>16</v>
       </c>
       <c r="M29" s="19">
         <v>42874</v>
       </c>
       <c r="N29" s="19"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="91">
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="90">
         <v>42902</v>
       </c>
-      <c r="R29" s="93">
+      <c r="R29" s="92">
         <v>42944</v>
       </c>
-      <c r="S29" s="95">
+      <c r="S29" s="94">
         <v>42937</v>
       </c>
-      <c r="T29" s="96">
+      <c r="T29" s="95">
         <v>42944</v>
       </c>
-      <c r="U29" s="114">
+      <c r="U29" s="113">
         <v>47</v>
       </c>
       <c r="V29" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W29" s="114">
+      <c r="W29" s="113">
         <v>6183</v>
       </c>
       <c r="X29" s="26"/>
@@ -5585,16 +5658,16 @@
     <row r="30" spans="1:24" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="114">
+      <c r="C30" s="113">
         <v>2962</v>
       </c>
-      <c r="D30" s="114" t="s">
+      <c r="D30" s="113" t="s">
         <v>147</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="114" t="s">
+      <c r="F30" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="17" t="s">
@@ -5603,7 +5676,7 @@
       <c r="H30" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="114" t="s">
+      <c r="I30" s="113" t="s">
         <v>56</v>
       </c>
       <c r="J30" s="17" t="s">
@@ -5612,26 +5685,26 @@
       <c r="K30" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="114">
+      <c r="L30" s="113">
         <v>4</v>
       </c>
       <c r="M30" s="19">
         <v>42887</v>
       </c>
       <c r="N30" s="19"/>
-      <c r="O30" s="114"/>
+      <c r="O30" s="113"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
-      <c r="U30" s="114">
+      <c r="U30" s="113">
         <v>1003</v>
       </c>
       <c r="V30" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="W30" s="114" t="s">
+      <c r="W30" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X30" s="17"/>
@@ -5642,13 +5715,13 @@
       <c r="C31" s="16">
         <v>3762</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="114" t="s">
+      <c r="F31" s="113" t="s">
         <v>61</v>
       </c>
       <c r="G31" s="17" t="s">
@@ -5657,7 +5730,7 @@
       <c r="H31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I31" s="114" t="s">
+      <c r="I31" s="113" t="s">
         <v>56</v>
       </c>
       <c r="J31" s="17" t="s">
@@ -5666,11 +5739,11 @@
       <c r="K31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L31" s="114">
+      <c r="L31" s="113">
         <v>0</v>
       </c>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -5688,13 +5761,13 @@
       <c r="C32" s="16">
         <v>3974</v>
       </c>
-      <c r="D32" s="114" t="s">
+      <c r="D32" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="114" t="s">
+      <c r="F32" s="113" t="s">
         <v>61</v>
       </c>
       <c r="G32" s="17" t="s">
@@ -5703,7 +5776,7 @@
       <c r="H32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="114" t="s">
+      <c r="I32" s="113" t="s">
         <v>56</v>
       </c>
       <c r="J32" s="17" t="s">
@@ -5712,11 +5785,11 @@
       <c r="K32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="114">
+      <c r="L32" s="113">
         <v>0</v>
       </c>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -5734,13 +5807,13 @@
       <c r="C33" s="16">
         <v>5610</v>
       </c>
-      <c r="D33" s="114" t="s">
+      <c r="D33" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="114" t="s">
+      <c r="F33" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G33" s="17" t="s">
@@ -5749,7 +5822,7 @@
       <c r="H33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I33" s="114" t="s">
+      <c r="I33" s="113" t="s">
         <v>56</v>
       </c>
       <c r="J33" s="17" t="s">
@@ -5758,11 +5831,11 @@
       <c r="K33" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="114">
+      <c r="L33" s="113">
         <v>0</v>
       </c>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
+      <c r="M33" s="113"/>
+      <c r="N33" s="113"/>
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
@@ -5780,13 +5853,13 @@
       <c r="C34" s="16">
         <v>5838</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="114" t="s">
+      <c r="F34" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="17" t="s">
@@ -5795,7 +5868,7 @@
       <c r="H34" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I34" s="114" t="s">
+      <c r="I34" s="113" t="s">
         <v>56</v>
       </c>
       <c r="J34" s="17" t="s">
@@ -5804,11 +5877,11 @@
       <c r="K34" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="114">
+      <c r="L34" s="113">
         <v>0</v>
       </c>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
@@ -5826,13 +5899,13 @@
       <c r="C35" s="16">
         <v>5964</v>
       </c>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="114" t="s">
+      <c r="F35" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="17" t="s">
@@ -5841,7 +5914,7 @@
       <c r="H35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="114" t="s">
+      <c r="I35" s="113" t="s">
         <v>56</v>
       </c>
       <c r="J35" s="17" t="s">
@@ -5850,11 +5923,11 @@
       <c r="K35" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="114">
+      <c r="L35" s="113">
         <v>0</v>
       </c>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
@@ -5919,129 +5992,125 @@
       <c r="X36" s="28"/>
     </row>
     <row r="37" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="114" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="125"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="124"/>
       <c r="C37" s="55">
         <v>4836</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="114" t="s">
+      <c r="E37" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="114" t="s">
+      <c r="F37" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="114" t="s">
+      <c r="G37" s="113" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I37" s="114" t="s">
+      <c r="I37" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="J37" s="114" t="s">
+      <c r="J37" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K37" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="L37" s="114">
+      <c r="L37" s="113">
         <v>8</v>
       </c>
-      <c r="M37" s="114" t="s">
+      <c r="M37" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="93" t="s">
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S37" s="95">
+      <c r="S37" s="94">
         <v>42922</v>
       </c>
-      <c r="T37" s="96">
+      <c r="T37" s="95">
         <v>42944</v>
       </c>
-      <c r="U37" s="114">
+      <c r="U37" s="113">
         <v>47</v>
       </c>
-      <c r="V37" s="114" t="s">
+      <c r="V37" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="W37" s="114">
+      <c r="W37" s="113">
         <v>6183</v>
       </c>
-      <c r="X37" s="114"/>
+      <c r="X37" s="113"/>
     </row>
     <row r="38" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A38" s="113"/>
+      <c r="B38" s="124"/>
       <c r="C38" s="48">
         <v>4969</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H38" s="141" t="s">
+      <c r="H38" s="140" t="s">
         <v>25</v>
       </c>
       <c r="I38" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="J38" s="114" t="s">
+      <c r="J38" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K38" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="L38" s="114">
+      <c r="L38" s="113">
         <v>30</v>
       </c>
       <c r="M38" s="19">
         <v>42894</v>
       </c>
       <c r="N38" s="19"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="114">
+      <c r="O38" s="113"/>
+      <c r="P38" s="113">
         <v>3</v>
       </c>
-      <c r="Q38" s="91">
+      <c r="Q38" s="90">
         <v>42906</v>
       </c>
-      <c r="R38" s="93" t="s">
+      <c r="R38" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S38" s="95">
+      <c r="S38" s="94">
         <v>42922</v>
       </c>
-      <c r="T38" s="96">
+      <c r="T38" s="95">
         <v>42944</v>
       </c>
-      <c r="U38" s="114">
+      <c r="U38" s="113">
         <v>47</v>
       </c>
       <c r="V38" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W38" s="114">
+      <c r="W38" s="113">
         <v>6183</v>
       </c>
       <c r="X38" s="17"/>
@@ -6083,7 +6152,7 @@
         <v>42853</v>
       </c>
       <c r="N39" s="29"/>
-      <c r="O39" s="114" t="s">
+      <c r="O39" s="113" t="s">
         <v>153</v>
       </c>
       <c r="P39" s="28"/>
@@ -6133,7 +6202,7 @@
         <v>42832</v>
       </c>
       <c r="N40" s="29"/>
-      <c r="O40" s="114"/>
+      <c r="O40" s="113"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28"/>
       <c r="R40" s="28"/>
@@ -6181,7 +6250,7 @@
         <v>42832</v>
       </c>
       <c r="N41" s="29"/>
-      <c r="O41" s="114"/>
+      <c r="O41" s="113"/>
       <c r="P41" s="28"/>
       <c r="Q41" s="28"/>
       <c r="R41" s="28"/>
@@ -6195,16 +6264,16 @@
     <row r="42" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="114">
+      <c r="C42" s="113">
         <v>5910</v>
       </c>
-      <c r="D42" s="114" t="s">
+      <c r="D42" s="113" t="s">
         <v>147</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="114" t="s">
+      <c r="F42" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="17" t="s">
@@ -6213,7 +6282,7 @@
       <c r="H42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="114" t="s">
+      <c r="I42" s="113" t="s">
         <v>70</v>
       </c>
       <c r="J42" s="17" t="s">
@@ -6222,14 +6291,14 @@
       <c r="K42" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L42" s="114">
+      <c r="L42" s="113">
         <v>0</v>
       </c>
       <c r="M42" s="19">
         <v>42832</v>
       </c>
       <c r="N42" s="19"/>
-      <c r="O42" s="114"/>
+      <c r="O42" s="113"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
@@ -6246,13 +6315,13 @@
       <c r="C43" s="16">
         <v>6043</v>
       </c>
-      <c r="D43" s="114" t="s">
+      <c r="D43" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="114" t="s">
+      <c r="F43" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="17" t="s">
@@ -6261,7 +6330,7 @@
       <c r="H43" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="114" t="s">
+      <c r="I43" s="113" t="s">
         <v>78</v>
       </c>
       <c r="J43" s="17" t="s">
@@ -6270,11 +6339,11 @@
       <c r="K43" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="L43" s="114">
+      <c r="L43" s="113">
         <v>0</v>
       </c>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
@@ -6287,20 +6356,18 @@
       <c r="X43" s="17"/>
     </row>
     <row r="44" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="114">
+      <c r="A44" s="113"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="113">
         <v>5006</v>
       </c>
-      <c r="D44" s="114" t="s">
+      <c r="D44" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="17" t="s">
@@ -6309,58 +6376,56 @@
       <c r="H44" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="131" t="s">
+      <c r="I44" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="114"/>
+      <c r="J44" s="113"/>
       <c r="K44" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L44" s="114">
+      <c r="L44" s="113">
         <v>8</v>
       </c>
       <c r="M44" s="19">
         <v>42874</v>
       </c>
       <c r="N44" s="19"/>
-      <c r="O44" s="114"/>
+      <c r="O44" s="113"/>
       <c r="P44" s="17"/>
-      <c r="Q44" s="91">
+      <c r="Q44" s="90">
         <v>42913</v>
       </c>
-      <c r="R44" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="S44" s="95">
+      <c r="R44" s="112">
+        <v>42944</v>
+      </c>
+      <c r="S44" s="94">
         <v>42937</v>
       </c>
-      <c r="T44" s="96">
+      <c r="T44" s="95">
         <v>42944</v>
       </c>
-      <c r="U44" s="114">
+      <c r="U44" s="113">
         <v>113</v>
       </c>
       <c r="V44" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="W44" s="114" t="s">
+      <c r="W44" s="113" t="s">
         <v>231</v>
       </c>
       <c r="X44" s="17"/>
     </row>
     <row r="45" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A45" s="113"/>
+      <c r="B45" s="124"/>
       <c r="C45" s="48">
         <v>5142</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="26"/>
-      <c r="F45" s="114" t="s">
+      <c r="F45" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="17" t="s">
@@ -6369,125 +6434,121 @@
       <c r="H45" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="114" t="s">
+      <c r="I45" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="J45" s="114" t="s">
+      <c r="J45" s="113" t="s">
         <v>354</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114"/>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="91">
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="113"/>
+      <c r="Q45" s="90">
         <v>42934</v>
       </c>
-      <c r="R45" s="93">
+      <c r="R45" s="92">
         <v>42944</v>
       </c>
-      <c r="S45" s="95">
+      <c r="S45" s="94">
         <v>42937</v>
       </c>
-      <c r="T45" s="96">
+      <c r="T45" s="95">
         <v>42944</v>
       </c>
-      <c r="U45" s="114">
+      <c r="U45" s="113">
         <v>1846</v>
       </c>
       <c r="V45" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="W45" s="114" t="s">
+      <c r="W45" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X45" s="26"/>
     </row>
     <row r="46" spans="1:25" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="98">
+      <c r="A46" s="97"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97">
         <v>5401</v>
       </c>
-      <c r="D46" s="114" t="s">
+      <c r="D46" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="114" t="s">
+      <c r="F46" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="114" t="s">
+      <c r="H46" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="114" t="s">
+      <c r="I46" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J46" s="114" t="s">
+      <c r="J46" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="L46" s="114">
+      <c r="L46" s="113">
         <v>8</v>
       </c>
       <c r="M46" s="19">
         <v>42894</v>
       </c>
       <c r="N46" s="19"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114">
+      <c r="O46" s="113"/>
+      <c r="P46" s="113">
         <v>5</v>
       </c>
-      <c r="Q46" s="91">
+      <c r="Q46" s="90">
         <v>42893</v>
       </c>
-      <c r="R46" s="93" t="s">
+      <c r="R46" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S46" s="95">
+      <c r="S46" s="94">
         <v>42914</v>
       </c>
-      <c r="T46" s="96">
+      <c r="T46" s="95">
         <v>42923</v>
       </c>
-      <c r="U46" s="114">
+      <c r="U46" s="113">
         <v>41</v>
       </c>
       <c r="V46" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W46" s="114">
+      <c r="W46" s="113">
         <v>5553</v>
       </c>
       <c r="X46" s="17"/>
       <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
-      <c r="B47" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="114">
+      <c r="A47" s="113"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="113">
         <v>5402</v>
       </c>
-      <c r="D47" s="114" t="s">
+      <c r="D47" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="114" t="s">
+      <c r="F47" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="17" t="s">
@@ -6496,54 +6557,54 @@
       <c r="H47" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="114" t="s">
+      <c r="I47" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="114" t="s">
+      <c r="J47" s="113" t="s">
         <v>342</v>
       </c>
       <c r="K47" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="91">
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="90">
         <v>42934</v>
       </c>
-      <c r="R47" s="93">
-        <v>42940</v>
-      </c>
-      <c r="S47" s="95">
+      <c r="R47" s="92">
+        <v>42942</v>
+      </c>
+      <c r="S47" s="94">
         <v>42937</v>
       </c>
-      <c r="T47" s="96">
+      <c r="T47" s="95">
         <v>42944</v>
       </c>
-      <c r="U47" s="114">
+      <c r="U47" s="113">
         <v>1315</v>
       </c>
       <c r="V47" s="26"/>
-      <c r="W47" s="114" t="s">
+      <c r="W47" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X47" s="26"/>
     </row>
     <row r="48" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="98">
+      <c r="A48" s="120"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="97">
         <v>5496</v>
       </c>
-      <c r="D48" s="125" t="s">
+      <c r="D48" s="124" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="125" t="s">
+      <c r="F48" s="124" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="17" t="s">
@@ -6552,101 +6613,99 @@
       <c r="H48" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="125" t="s">
+      <c r="I48" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="J48" s="125" t="s">
+      <c r="J48" s="124" t="s">
         <v>357</v>
       </c>
       <c r="K48" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L48" s="125">
+      <c r="L48" s="124">
         <v>0</v>
       </c>
-      <c r="M48" s="125"/>
-      <c r="N48" s="125"/>
-      <c r="O48" s="125"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="124"/>
       <c r="P48" s="17"/>
-      <c r="Q48" s="91">
+      <c r="Q48" s="90">
         <v>42893</v>
       </c>
-      <c r="R48" s="93" t="s">
+      <c r="R48" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S48" s="95">
+      <c r="S48" s="94">
         <v>42914</v>
       </c>
-      <c r="T48" s="96">
+      <c r="T48" s="95">
         <v>42923</v>
       </c>
-      <c r="U48" s="125">
+      <c r="U48" s="124">
         <v>41</v>
       </c>
       <c r="V48" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W48" s="114">
+      <c r="W48" s="113">
         <v>5553</v>
       </c>
       <c r="X48" s="17"/>
     </row>
     <row r="49" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="125"/>
-      <c r="B49" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A49" s="124"/>
+      <c r="B49" s="124"/>
       <c r="C49" s="48">
         <v>5553</v>
       </c>
-      <c r="D49" s="114" t="s">
+      <c r="D49" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="114" t="s">
+      <c r="F49" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="114" t="s">
+      <c r="I49" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="141" t="s">
+      <c r="J49" s="140" t="s">
         <v>357</v>
       </c>
       <c r="K49" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="L49" s="114">
+      <c r="L49" s="113">
         <v>0</v>
       </c>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
-      <c r="Q49" s="92"/>
-      <c r="R49" s="93" t="s">
+      <c r="Q49" s="91"/>
+      <c r="R49" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S49" s="95">
+      <c r="S49" s="94">
         <v>42914</v>
       </c>
-      <c r="T49" s="96">
+      <c r="T49" s="95">
         <v>42923</v>
       </c>
-      <c r="U49" s="114">
+      <c r="U49" s="113">
         <v>41</v>
       </c>
       <c r="V49" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W49" s="114">
+      <c r="W49" s="113">
         <v>5553</v>
       </c>
       <c r="X49" s="17"/>
@@ -6654,16 +6713,16 @@
     <row r="50" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
-      <c r="C50" s="114">
+      <c r="C50" s="113">
         <v>5144</v>
       </c>
-      <c r="D50" s="114" t="s">
+      <c r="D50" s="113" t="s">
         <v>147</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F50" s="114" t="s">
+      <c r="F50" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="17" t="s">
@@ -6672,7 +6731,7 @@
       <c r="H50" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="114" t="s">
+      <c r="I50" s="113" t="s">
         <v>80</v>
       </c>
       <c r="J50" s="17" t="s">
@@ -6681,109 +6740,105 @@
       <c r="K50" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L50" s="114">
+      <c r="L50" s="113">
         <v>12</v>
       </c>
       <c r="M50" s="19">
         <v>42874</v>
       </c>
       <c r="N50" s="19"/>
-      <c r="O50" s="114"/>
+      <c r="O50" s="113"/>
       <c r="P50" s="17"/>
       <c r="Q50" s="17"/>
       <c r="R50" s="17"/>
       <c r="S50" s="17"/>
       <c r="T50" s="17"/>
-      <c r="U50" s="114">
+      <c r="U50" s="113">
         <v>1649</v>
       </c>
       <c r="V50" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="W50" s="114"/>
+      <c r="W50" s="113"/>
       <c r="X50" s="17"/>
     </row>
     <row r="51" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
-      <c r="B51" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="98">
+      <c r="B51" s="48"/>
+      <c r="C51" s="97">
         <v>5685</v>
       </c>
-      <c r="D51" s="114" t="s">
+      <c r="D51" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="114" t="s">
+      <c r="F51" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="114" t="s">
+      <c r="H51" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="I51" s="114" t="s">
+      <c r="I51" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J51" s="114" t="s">
+      <c r="J51" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K51" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L51" s="114">
+      <c r="L51" s="113">
         <v>2</v>
       </c>
       <c r="M51" s="19">
         <v>42894</v>
       </c>
       <c r="N51" s="19"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114" t="s">
+      <c r="O51" s="113"/>
+      <c r="P51" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="Q51" s="91">
+      <c r="Q51" s="90">
         <v>42893</v>
       </c>
-      <c r="R51" s="93" t="s">
+      <c r="R51" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S51" s="95">
+      <c r="S51" s="94">
         <v>42914</v>
       </c>
-      <c r="T51" s="96">
+      <c r="T51" s="95">
         <v>42923</v>
       </c>
-      <c r="U51" s="114">
+      <c r="U51" s="113">
         <v>41</v>
       </c>
       <c r="V51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W51" s="114">
+      <c r="W51" s="113">
         <v>5553</v>
       </c>
       <c r="X51" s="17"/>
     </row>
     <row r="52" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
-      <c r="B52" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="98">
+      <c r="A52" s="113"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="97">
         <v>5902</v>
       </c>
-      <c r="D52" s="114" t="s">
+      <c r="D52" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="114" t="s">
+      <c r="F52" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="17" t="s">
@@ -6792,43 +6847,43 @@
       <c r="H52" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="114" t="s">
+      <c r="I52" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J52" s="114" t="s">
+      <c r="J52" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K52" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L52" s="114">
+      <c r="L52" s="113">
         <v>0</v>
       </c>
       <c r="M52" s="19">
         <v>42860</v>
       </c>
       <c r="N52" s="19"/>
-      <c r="O52" s="114"/>
+      <c r="O52" s="113"/>
       <c r="P52" s="17"/>
-      <c r="Q52" s="91">
+      <c r="Q52" s="90">
         <v>42901</v>
       </c>
-      <c r="R52" s="93" t="s">
+      <c r="R52" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S52" s="95">
+      <c r="S52" s="94">
         <v>42914</v>
       </c>
-      <c r="T52" s="96">
+      <c r="T52" s="95">
         <v>42923</v>
       </c>
-      <c r="U52" s="114">
+      <c r="U52" s="113">
         <v>41</v>
       </c>
       <c r="V52" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W52" s="114">
+      <c r="W52" s="113">
         <v>5553</v>
       </c>
       <c r="X52" s="17"/>
@@ -6839,13 +6894,13 @@
       <c r="C53" s="16">
         <v>4800</v>
       </c>
-      <c r="D53" s="114" t="s">
+      <c r="D53" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="114" t="s">
+      <c r="F53" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G53" s="17" t="s">
@@ -6854,7 +6909,7 @@
       <c r="H53" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I53" s="114" t="s">
+      <c r="I53" s="113" t="s">
         <v>80</v>
       </c>
       <c r="J53" s="17" t="s">
@@ -6863,11 +6918,11 @@
       <c r="K53" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="L53" s="114">
+      <c r="L53" s="113">
         <v>0</v>
       </c>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
@@ -6885,13 +6940,13 @@
       <c r="C54" s="16">
         <v>6186</v>
       </c>
-      <c r="D54" s="114" t="s">
+      <c r="D54" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="114" t="s">
+      <c r="F54" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G54" s="17" t="s">
@@ -6900,7 +6955,7 @@
       <c r="H54" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="114" t="s">
+      <c r="I54" s="113" t="s">
         <v>80</v>
       </c>
       <c r="J54" s="17" t="s">
@@ -6909,11 +6964,11 @@
       <c r="K54" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L54" s="114">
+      <c r="L54" s="113">
         <v>0</v>
       </c>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
@@ -6926,20 +6981,18 @@
       <c r="X54" s="17"/>
     </row>
     <row r="55" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A55" s="113"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="48">
         <v>5915</v>
       </c>
-      <c r="D55" s="114" t="s">
+      <c r="D55" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="114" t="s">
+      <c r="F55" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="17" t="s">
@@ -6948,7 +7001,7 @@
       <c r="H55" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="114" t="s">
+      <c r="I55" s="113" t="s">
         <v>324</v>
       </c>
       <c r="J55" s="27" t="s">
@@ -6957,111 +7010,107 @@
       <c r="K55" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L55" s="114">
+      <c r="L55" s="113">
         <v>8</v>
       </c>
       <c r="M55" s="19">
         <v>42894</v>
       </c>
       <c r="N55" s="19"/>
-      <c r="O55" s="114"/>
+      <c r="O55" s="113"/>
       <c r="P55" s="17"/>
-      <c r="Q55" s="91">
+      <c r="Q55" s="90">
         <v>42906</v>
       </c>
-      <c r="R55" s="93" t="s">
+      <c r="R55" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S55" s="95">
+      <c r="S55" s="94">
         <v>42922</v>
       </c>
-      <c r="T55" s="96">
+      <c r="T55" s="95">
         <v>42944</v>
       </c>
-      <c r="U55" s="114">
+      <c r="U55" s="113">
         <v>47</v>
       </c>
       <c r="V55" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W55" s="114">
+      <c r="W55" s="113">
         <v>6183</v>
       </c>
       <c r="X55" s="17"/>
     </row>
     <row r="56" spans="1:25" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
-      <c r="B56" s="48" t="s">
-        <v>153</v>
-      </c>
+      <c r="B56" s="48"/>
       <c r="C56" s="48">
         <v>5929</v>
       </c>
-      <c r="D56" s="114" t="s">
+      <c r="D56" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="114" t="s">
+      <c r="F56" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="114" t="s">
+      <c r="H56" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="I56" s="114" t="s">
+      <c r="I56" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J56" s="114" t="s">
+      <c r="J56" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K56" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="L56" s="114">
+      <c r="L56" s="113">
         <v>12</v>
       </c>
       <c r="M56" s="19">
         <v>42894</v>
       </c>
       <c r="N56" s="19"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="114">
+      <c r="O56" s="113"/>
+      <c r="P56" s="113">
         <v>4</v>
       </c>
-      <c r="Q56" s="91">
+      <c r="Q56" s="90">
         <v>42905</v>
       </c>
-      <c r="R56" s="93" t="s">
+      <c r="R56" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S56" s="95">
+      <c r="S56" s="94">
         <v>42914</v>
       </c>
-      <c r="T56" s="96">
+      <c r="T56" s="95">
         <v>42923</v>
       </c>
-      <c r="U56" s="114">
+      <c r="U56" s="113">
         <v>41</v>
       </c>
       <c r="V56" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W56" s="114">
+      <c r="W56" s="113">
         <v>5553</v>
       </c>
       <c r="X56" s="17"/>
       <c r="Y56" s="30"/>
     </row>
     <row r="57" spans="1:25" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
-      <c r="B57" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="98">
+      <c r="A57" s="113"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="97">
         <v>5972</v>
       </c>
       <c r="D57" s="23" t="s">
@@ -7097,16 +7146,16 @@
       <c r="N57" s="24"/>
       <c r="O57" s="23"/>
       <c r="P57" s="22"/>
-      <c r="Q57" s="91">
+      <c r="Q57" s="90">
         <v>42893</v>
       </c>
-      <c r="R57" s="93" t="s">
+      <c r="R57" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S57" s="95">
+      <c r="S57" s="94">
         <v>42914</v>
       </c>
-      <c r="T57" s="96">
+      <c r="T57" s="95">
         <v>42923</v>
       </c>
       <c r="U57" s="23">
@@ -7115,77 +7164,73 @@
       <c r="V57" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W57" s="114">
+      <c r="W57" s="113">
         <v>5553</v>
       </c>
       <c r="X57" s="22"/>
     </row>
     <row r="58" spans="1:25" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
-      <c r="B58" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A58" s="113"/>
+      <c r="B58" s="124"/>
       <c r="C58" s="48">
         <v>6041</v>
       </c>
-      <c r="D58" s="114" t="s">
+      <c r="D58" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="114" t="s">
+      <c r="F58" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="114" t="s">
+      <c r="H58" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="114" t="s">
+      <c r="I58" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="J58" s="114" t="s">
+      <c r="J58" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K58" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L58" s="114">
+      <c r="L58" s="113">
         <v>0</v>
       </c>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
-      <c r="Q58" s="92"/>
-      <c r="R58" s="93" t="s">
+      <c r="Q58" s="91"/>
+      <c r="R58" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S58" s="95">
+      <c r="S58" s="94">
         <v>42922</v>
       </c>
-      <c r="T58" s="96">
+      <c r="T58" s="95">
         <v>42944</v>
       </c>
-      <c r="U58" s="114">
+      <c r="U58" s="113">
         <v>101</v>
       </c>
       <c r="V58" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="W58" s="114">
+      <c r="W58" s="113">
         <v>6041</v>
       </c>
       <c r="X58" s="17"/>
     </row>
     <row r="59" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="98">
+      <c r="A59" s="113"/>
+      <c r="B59" s="124"/>
+      <c r="C59" s="97">
         <v>6042</v>
       </c>
       <c r="D59" s="27" t="s">
@@ -7203,11 +7248,11 @@
       <c r="H59" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I59" s="98" t="s">
-        <v>92</v>
+      <c r="I59" s="144" t="s">
+        <v>324</v>
       </c>
       <c r="J59" s="27" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="K59" s="28" t="s">
         <v>83</v>
@@ -7221,16 +7266,16 @@
       <c r="N59" s="29"/>
       <c r="O59" s="27"/>
       <c r="P59" s="28"/>
-      <c r="Q59" s="91">
+      <c r="Q59" s="90">
         <v>42906</v>
       </c>
-      <c r="R59" s="113">
-        <v>42940</v>
-      </c>
-      <c r="S59" s="95">
+      <c r="R59" s="112" t="s">
+        <v>343</v>
+      </c>
+      <c r="S59" s="94">
         <v>42922</v>
       </c>
-      <c r="T59" s="96">
+      <c r="T59" s="95">
         <v>42944</v>
       </c>
       <c r="U59" s="27">
@@ -7245,20 +7290,20 @@
       <c r="X59" s="28"/>
     </row>
     <row r="60" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="125" t="s">
+      <c r="A60" s="113"/>
+      <c r="B60" s="124" t="s">
         <v>153</v>
       </c>
       <c r="C60" s="48">
         <v>6044</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="114" t="s">
+      <c r="F60" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="17" t="s">
@@ -7267,116 +7312,114 @@
       <c r="H60" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="131" t="s">
+      <c r="I60" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="141" t="s">
+      <c r="J60" s="140" t="s">
         <v>357</v>
       </c>
       <c r="K60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L60" s="114">
+      <c r="L60" s="113">
         <v>0</v>
       </c>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
+      <c r="M60" s="113"/>
+      <c r="N60" s="113"/>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
-      <c r="Q60" s="92"/>
-      <c r="R60" s="93" t="s">
-        <v>343</v>
-      </c>
-      <c r="S60" s="95">
+      <c r="Q60" s="91"/>
+      <c r="R60" s="92">
+        <v>42944</v>
+      </c>
+      <c r="S60" s="94">
         <v>42937</v>
       </c>
-      <c r="T60" s="96">
+      <c r="T60" s="95">
         <v>42944</v>
       </c>
-      <c r="U60" s="114">
+      <c r="U60" s="113">
         <v>113</v>
       </c>
       <c r="V60" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="W60" s="114">
+      <c r="W60" s="113">
         <v>6044</v>
       </c>
       <c r="X60" s="17"/>
     </row>
     <row r="61" spans="1:25" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
-      <c r="B61" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="B61" s="23"/>
       <c r="C61" s="48">
         <v>6045</v>
       </c>
-      <c r="D61" s="114" t="s">
+      <c r="D61" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="114" t="s">
+      <c r="F61" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="114" t="s">
+      <c r="H61" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="I61" s="114" t="s">
+      <c r="I61" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="114" t="s">
+      <c r="J61" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K61" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L61" s="114">
+      <c r="L61" s="113">
         <v>0</v>
       </c>
-      <c r="M61" s="114"/>
-      <c r="N61" s="114"/>
+      <c r="M61" s="113"/>
+      <c r="N61" s="113"/>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
-      <c r="Q61" s="92"/>
-      <c r="R61" s="93" t="s">
+      <c r="Q61" s="91"/>
+      <c r="R61" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S61" s="95">
+      <c r="S61" s="94">
         <v>42914</v>
       </c>
-      <c r="T61" s="96">
+      <c r="T61" s="95">
         <v>42944</v>
       </c>
-      <c r="U61" s="114">
+      <c r="U61" s="113">
         <v>1362</v>
       </c>
       <c r="V61" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="W61" s="114">
+      <c r="W61" s="113">
         <v>6045</v>
       </c>
       <c r="X61" s="17"/>
     </row>
     <row r="62" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="111">
+      <c r="A62" s="124"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="110">
         <v>6046</v>
       </c>
-      <c r="D62" s="114" t="s">
+      <c r="D62" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E62" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="114" t="s">
+      <c r="F62" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="26" t="s">
@@ -7385,51 +7428,49 @@
       <c r="H62" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I62" s="114" t="s">
+      <c r="I62" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="J62" s="114" t="s">
+      <c r="J62" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K62" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="L62" s="114"/>
-      <c r="M62" s="125"/>
-      <c r="N62" s="125"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="92"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="95">
+      <c r="L62" s="113"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="113"/>
+      <c r="P62" s="113"/>
+      <c r="Q62" s="91"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="94">
         <v>42914</v>
       </c>
-      <c r="T62" s="96">
+      <c r="T62" s="95">
         <v>42923</v>
       </c>
-      <c r="U62" s="114">
+      <c r="U62" s="113">
         <v>43</v>
       </c>
       <c r="V62" s="26"/>
-      <c r="W62" s="114"/>
+      <c r="W62" s="113"/>
       <c r="X62" s="26"/>
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
-      <c r="B63" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="B63" s="23"/>
       <c r="C63" s="48">
         <v>6047</v>
       </c>
-      <c r="D63" s="114" t="s">
+      <c r="D63" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="114" t="s">
+      <c r="F63" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G63" s="17" t="s">
@@ -7438,62 +7479,62 @@
       <c r="H63" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="114" t="s">
+      <c r="I63" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J63" s="114" t="s">
+      <c r="J63" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K63" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L63" s="114">
+      <c r="L63" s="113">
         <v>8</v>
       </c>
       <c r="M63" s="19">
         <v>42825</v>
       </c>
       <c r="N63" s="19"/>
-      <c r="O63" s="125"/>
-      <c r="P63" s="125" t="s">
+      <c r="O63" s="124"/>
+      <c r="P63" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="Q63" s="91">
+      <c r="Q63" s="90">
         <v>42900</v>
       </c>
-      <c r="R63" s="93" t="s">
+      <c r="R63" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="S63" s="95">
+      <c r="S63" s="94">
         <v>42914</v>
       </c>
-      <c r="T63" s="96">
+      <c r="T63" s="95">
         <v>42923</v>
       </c>
-      <c r="U63" s="114">
+      <c r="U63" s="113">
         <v>43</v>
       </c>
       <c r="V63" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="W63" s="125">
+      <c r="W63" s="124">
         <v>5553</v>
       </c>
       <c r="X63" s="17"/>
     </row>
-    <row r="64" spans="1:25" s="104" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="125"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="98">
+    <row r="64" spans="1:25" s="103" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="124"/>
+      <c r="B64" s="124"/>
+      <c r="C64" s="97">
         <v>6048</v>
       </c>
-      <c r="D64" s="125" t="s">
+      <c r="D64" s="124" t="s">
         <v>27</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="125" t="s">
+      <c r="F64" s="124" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="17" t="s">
@@ -7502,35 +7543,35 @@
       <c r="H64" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I64" s="125" t="s">
+      <c r="I64" s="124" t="s">
         <v>324</v>
       </c>
-      <c r="J64" s="125" t="s">
+      <c r="J64" s="124" t="s">
         <v>357</v>
       </c>
       <c r="K64" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L64" s="114">
+      <c r="L64" s="113">
         <v>0</v>
       </c>
-      <c r="M64" s="114"/>
-      <c r="N64" s="114"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="113"/>
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
-      <c r="Q64" s="91">
+      <c r="Q64" s="90">
         <v>42900</v>
       </c>
-      <c r="R64" s="93" t="s">
+      <c r="R64" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="S64" s="95">
+      <c r="S64" s="94">
         <v>42914</v>
       </c>
-      <c r="T64" s="96">
+      <c r="T64" s="95">
         <v>42923</v>
       </c>
-      <c r="U64" s="125">
+      <c r="U64" s="124">
         <v>43</v>
       </c>
       <c r="V64" s="17"/>
@@ -7539,59 +7580,59 @@
       <c r="Y64" s="3"/>
     </row>
     <row r="65" spans="1:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="105"/>
-      <c r="B65" s="105" t="s">
+      <c r="A65" s="104"/>
+      <c r="B65" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="98">
+      <c r="C65" s="97">
         <v>6049</v>
       </c>
-      <c r="D65" s="105" t="s">
+      <c r="D65" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="106" t="s">
+      <c r="E65" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="105" t="s">
+      <c r="F65" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="106" t="s">
+      <c r="G65" s="105" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I65" s="105" t="s">
+      <c r="I65" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="J65" s="105"/>
-      <c r="K65" s="106" t="s">
+      <c r="J65" s="104"/>
+      <c r="K65" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="L65" s="114">
+      <c r="L65" s="113">
         <v>0</v>
       </c>
-      <c r="M65" s="125"/>
-      <c r="N65" s="125"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="124"/>
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
-      <c r="Q65" s="107">
+      <c r="Q65" s="106">
         <v>42900</v>
       </c>
-      <c r="R65" s="108"/>
-      <c r="S65" s="109">
+      <c r="R65" s="107"/>
+      <c r="S65" s="108">
         <v>42914</v>
       </c>
-      <c r="T65" s="110">
+      <c r="T65" s="109">
         <v>42923</v>
       </c>
-      <c r="U65" s="105">
+      <c r="U65" s="104">
         <v>46</v>
       </c>
-      <c r="V65" s="106"/>
-      <c r="W65" s="106"/>
-      <c r="X65" s="106"/>
-      <c r="Y65" s="104"/>
+      <c r="V65" s="105"/>
+      <c r="W65" s="105"/>
+      <c r="X65" s="105"/>
+      <c r="Y65" s="103"/>
     </row>
     <row r="66" spans="1:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
@@ -7599,13 +7640,13 @@
       <c r="C66" s="16">
         <v>5008</v>
       </c>
-      <c r="D66" s="114" t="s">
+      <c r="D66" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F66" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G66" s="17" t="s">
@@ -7614,7 +7655,7 @@
       <c r="H66" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I66" s="114" t="s">
+      <c r="I66" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J66" s="17" t="s">
@@ -7623,11 +7664,11 @@
       <c r="K66" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="L66" s="114">
+      <c r="L66" s="113">
         <v>0</v>
       </c>
-      <c r="M66" s="114"/>
-      <c r="N66" s="114"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="113"/>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="17"/>
@@ -7645,13 +7686,13 @@
       <c r="C67" s="16">
         <v>5029</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="114" t="s">
+      <c r="F67" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G67" s="17" t="s">
@@ -7660,7 +7701,7 @@
       <c r="H67" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="114" t="s">
+      <c r="I67" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J67" s="17" t="s">
@@ -7669,11 +7710,11 @@
       <c r="K67" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="L67" s="114">
+      <c r="L67" s="113">
         <v>0</v>
       </c>
-      <c r="M67" s="114"/>
-      <c r="N67" s="114"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="17"/>
@@ -7691,13 +7732,13 @@
       <c r="C68" s="16">
         <v>5503</v>
       </c>
-      <c r="D68" s="114" t="s">
+      <c r="D68" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="114" t="s">
+      <c r="F68" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G68" s="17" t="s">
@@ -7706,7 +7747,7 @@
       <c r="H68" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I68" s="114" t="s">
+      <c r="I68" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J68" s="17" t="s">
@@ -7715,11 +7756,11 @@
       <c r="K68" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="L68" s="114">
+      <c r="L68" s="113">
         <v>0</v>
       </c>
-      <c r="M68" s="114"/>
-      <c r="N68" s="114"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="113"/>
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="17"/>
@@ -7737,13 +7778,13 @@
       <c r="C69" s="16">
         <v>5817</v>
       </c>
-      <c r="D69" s="114" t="s">
+      <c r="D69" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="114" t="s">
+      <c r="F69" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G69" s="17" t="s">
@@ -7752,7 +7793,7 @@
       <c r="H69" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I69" s="114" t="s">
+      <c r="I69" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J69" s="17" t="s">
@@ -7761,11 +7802,11 @@
       <c r="K69" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L69" s="114">
+      <c r="L69" s="113">
         <v>0</v>
       </c>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="113"/>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="17"/>
@@ -7783,13 +7824,13 @@
       <c r="C70" s="16">
         <v>5946</v>
       </c>
-      <c r="D70" s="114" t="s">
+      <c r="D70" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F70" s="114" t="s">
+      <c r="F70" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G70" s="17" t="s">
@@ -7798,7 +7839,7 @@
       <c r="H70" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I70" s="114" t="s">
+      <c r="I70" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J70" s="17" t="s">
@@ -7807,7 +7848,7 @@
       <c r="K70" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="L70" s="114">
+      <c r="L70" s="113">
         <v>0</v>
       </c>
       <c r="M70" s="19">
@@ -7831,13 +7872,13 @@
       <c r="C71" s="16">
         <v>5967</v>
       </c>
-      <c r="D71" s="114" t="s">
+      <c r="D71" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="114" t="s">
+      <c r="F71" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G71" s="17" t="s">
@@ -7846,7 +7887,7 @@
       <c r="H71" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="114" t="s">
+      <c r="I71" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J71" s="17" t="s">
@@ -7855,11 +7896,11 @@
       <c r="K71" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="L71" s="114">
+      <c r="L71" s="113">
         <v>0</v>
       </c>
-      <c r="M71" s="114"/>
-      <c r="N71" s="114"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="17"/>
@@ -7877,13 +7918,13 @@
       <c r="C72" s="16">
         <v>5968</v>
       </c>
-      <c r="D72" s="114" t="s">
+      <c r="D72" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="114" t="s">
+      <c r="F72" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="17" t="s">
@@ -7892,7 +7933,7 @@
       <c r="H72" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="114" t="s">
+      <c r="I72" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J72" s="17" t="s">
@@ -7901,11 +7942,11 @@
       <c r="K72" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="L72" s="114">
+      <c r="L72" s="113">
         <v>0</v>
       </c>
-      <c r="M72" s="114"/>
-      <c r="N72" s="114"/>
+      <c r="M72" s="113"/>
+      <c r="N72" s="113"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="17"/>
@@ -7923,13 +7964,13 @@
       <c r="C73" s="16">
         <v>6040</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F73" s="114" t="s">
+      <c r="F73" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G73" s="17" t="s">
@@ -7938,7 +7979,7 @@
       <c r="H73" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I73" s="114" t="s">
+      <c r="I73" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J73" s="17" t="s">
@@ -7947,11 +7988,11 @@
       <c r="K73" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="L73" s="114">
+      <c r="L73" s="113">
         <v>0</v>
       </c>
-      <c r="M73" s="114"/>
-      <c r="N73" s="114"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
@@ -7964,63 +8005,63 @@
       <c r="X73" s="17"/>
     </row>
     <row r="74" spans="1:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="114"/>
-      <c r="B74" s="125"/>
-      <c r="C74" s="98">
+      <c r="A74" s="113"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="97">
         <v>6054</v>
       </c>
-      <c r="D74" s="114" t="s">
+      <c r="D74" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="125" t="s">
+      <c r="H74" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="114" t="s">
+      <c r="I74" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="J74" s="114" t="s">
+      <c r="J74" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K74" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="L74" s="114">
+      <c r="L74" s="113">
         <v>8</v>
       </c>
       <c r="M74" s="19">
         <v>42894</v>
       </c>
       <c r="N74" s="19"/>
-      <c r="O74" s="114"/>
-      <c r="P74" s="125"/>
-      <c r="Q74" s="91">
+      <c r="O74" s="113"/>
+      <c r="P74" s="124"/>
+      <c r="Q74" s="90">
         <v>42893</v>
       </c>
-      <c r="R74" s="93" t="s">
+      <c r="R74" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="S74" s="95">
+      <c r="S74" s="94">
         <v>42914</v>
       </c>
-      <c r="T74" s="96">
+      <c r="T74" s="95">
         <v>42923</v>
       </c>
-      <c r="U74" s="114">
+      <c r="U74" s="113">
         <v>41</v>
       </c>
       <c r="V74" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W74" s="114">
+      <c r="W74" s="113">
         <v>5553</v>
       </c>
       <c r="X74" s="17"/>
@@ -8031,13 +8072,13 @@
       <c r="C75" s="16">
         <v>6050</v>
       </c>
-      <c r="D75" s="114" t="s">
+      <c r="D75" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="114" t="s">
+      <c r="F75" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G75" s="17" t="s">
@@ -8046,7 +8087,7 @@
       <c r="H75" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I75" s="114" t="s">
+      <c r="I75" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J75" s="17" t="s">
@@ -8055,11 +8096,11 @@
       <c r="K75" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L75" s="114">
+      <c r="L75" s="113">
         <v>0</v>
       </c>
-      <c r="M75" s="114"/>
-      <c r="N75" s="114"/>
+      <c r="M75" s="113"/>
+      <c r="N75" s="113"/>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
       <c r="Q75" s="17"/>
@@ -8072,18 +8113,18 @@
       <c r="X75" s="17"/>
     </row>
     <row r="76" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="114"/>
-      <c r="B76" s="125"/>
-      <c r="C76" s="98">
+      <c r="A76" s="113"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="97">
         <v>6137</v>
       </c>
-      <c r="D76" s="114" t="s">
+      <c r="D76" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="111" t="s">
+      <c r="F76" s="110" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="17" t="s">
@@ -8092,35 +8133,35 @@
       <c r="H76" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="114" t="s">
+      <c r="I76" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="J76" s="114" t="s">
+      <c r="J76" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K76" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="L76" s="114">
+      <c r="L76" s="113">
         <v>0</v>
       </c>
-      <c r="M76" s="114"/>
-      <c r="N76" s="114"/>
+      <c r="M76" s="113"/>
+      <c r="N76" s="113"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
-      <c r="Q76" s="91" t="s">
+      <c r="Q76" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="R76" s="93" t="s">
+      <c r="R76" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="S76" s="95">
+      <c r="S76" s="94">
         <v>42914</v>
       </c>
-      <c r="T76" s="96">
+      <c r="T76" s="95">
         <v>42923</v>
       </c>
-      <c r="U76" s="114">
+      <c r="U76" s="113">
         <v>43</v>
       </c>
       <c r="V76" s="17" t="s">
@@ -8135,13 +8176,13 @@
       <c r="C77" s="16">
         <v>5901</v>
       </c>
-      <c r="D77" s="114" t="s">
+      <c r="D77" s="113" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="114" t="s">
+      <c r="F77" s="113" t="s">
         <v>24</v>
       </c>
       <c r="G77" s="17" t="s">
@@ -8150,7 +8191,7 @@
       <c r="H77" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="114" t="s">
+      <c r="I77" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J77" s="17" t="s">
@@ -8159,11 +8200,11 @@
       <c r="K77" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="L77" s="114">
+      <c r="L77" s="113">
         <v>0</v>
       </c>
-      <c r="M77" s="114"/>
-      <c r="N77" s="114"/>
+      <c r="M77" s="113"/>
+      <c r="N77" s="113"/>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
       <c r="Q77" s="17"/>
@@ -8176,20 +8217,18 @@
       <c r="X77" s="17"/>
     </row>
     <row r="78" spans="1:25" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="114"/>
-      <c r="B78" s="125" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="125">
+      <c r="A78" s="113"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="124">
         <v>6141</v>
       </c>
-      <c r="D78" s="114" t="s">
+      <c r="D78" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F78" s="114" t="s">
+      <c r="F78" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G78" s="17" t="s">
@@ -8198,101 +8237,101 @@
       <c r="H78" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="114" t="s">
+      <c r="I78" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J78" s="114"/>
+      <c r="J78" s="113"/>
       <c r="K78" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L78" s="114">
+      <c r="L78" s="113">
         <v>0</v>
       </c>
       <c r="M78" s="19">
         <v>42874</v>
       </c>
       <c r="N78" s="19"/>
-      <c r="O78" s="114"/>
+      <c r="O78" s="113"/>
       <c r="P78" s="17"/>
-      <c r="Q78" s="91">
+      <c r="Q78" s="90">
         <v>42900</v>
       </c>
-      <c r="R78" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="S78" s="95">
+      <c r="R78" s="112">
+        <v>42941</v>
+      </c>
+      <c r="S78" s="94">
         <v>42922</v>
       </c>
-      <c r="T78" s="96">
+      <c r="T78" s="95">
         <v>42944</v>
       </c>
-      <c r="U78" s="114">
+      <c r="U78" s="113">
         <v>1032</v>
       </c>
       <c r="V78" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="W78" s="114" t="s">
+      <c r="W78" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X78" s="17"/>
     </row>
     <row r="79" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="114"/>
-      <c r="B79" s="125" t="s">
+      <c r="A79" s="113"/>
+      <c r="B79" s="124" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="48">
         <v>6183</v>
       </c>
-      <c r="D79" s="114" t="s">
+      <c r="D79" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F79" s="114" t="s">
+      <c r="F79" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="141" t="s">
+      <c r="H79" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="114" t="s">
+      <c r="I79" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="J79" s="141" t="s">
+      <c r="J79" s="140" t="s">
         <v>357</v>
       </c>
       <c r="K79" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="L79" s="114">
+      <c r="L79" s="113">
         <v>0</v>
       </c>
-      <c r="M79" s="125"/>
-      <c r="N79" s="125"/>
-      <c r="O79" s="114"/>
+      <c r="M79" s="124"/>
+      <c r="N79" s="124"/>
+      <c r="O79" s="113"/>
       <c r="P79" s="17"/>
-      <c r="Q79" s="92"/>
-      <c r="R79" s="93" t="s">
+      <c r="Q79" s="91"/>
+      <c r="R79" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S79" s="95">
+      <c r="S79" s="94">
         <v>42922</v>
       </c>
-      <c r="T79" s="96">
+      <c r="T79" s="95">
         <v>42944</v>
       </c>
-      <c r="U79" s="114">
+      <c r="U79" s="113">
         <v>47</v>
       </c>
       <c r="V79" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W79" s="114">
+      <c r="W79" s="113">
         <v>6183</v>
       </c>
       <c r="X79" s="17"/>
@@ -8301,25 +8340,25 @@
     <row r="80" spans="1:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
-      <c r="C80" s="114">
+      <c r="C80" s="113">
         <v>4781</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="113" t="s">
         <v>147</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="114" t="s">
+      <c r="F80" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="122" t="s">
+      <c r="H80" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="114" t="s">
+      <c r="I80" s="113" t="s">
         <v>15</v>
       </c>
       <c r="J80" s="17" t="s">
@@ -8328,35 +8367,33 @@
       <c r="K80" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="L80" s="114"/>
-      <c r="M80" s="114"/>
-      <c r="N80" s="114"/>
-      <c r="O80" s="114"/>
-      <c r="P80" s="114"/>
-      <c r="Q80" s="114"/>
-      <c r="R80" s="114"/>
-      <c r="S80" s="114"/>
-      <c r="T80" s="114"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="113"/>
+      <c r="N80" s="113"/>
+      <c r="O80" s="113"/>
+      <c r="P80" s="113"/>
+      <c r="Q80" s="113"/>
+      <c r="R80" s="113"/>
+      <c r="S80" s="113"/>
+      <c r="T80" s="113"/>
       <c r="U80" s="26"/>
       <c r="V80" s="26"/>
       <c r="W80" s="26"/>
       <c r="X80" s="26"/>
     </row>
     <row r="81" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="114"/>
-      <c r="B81" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A81" s="113"/>
+      <c r="B81" s="124"/>
       <c r="C81" s="48">
         <v>6200</v>
       </c>
-      <c r="D81" s="114" t="s">
+      <c r="D81" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F81" s="114" t="s">
+      <c r="F81" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="17" t="s">
@@ -8365,7 +8402,7 @@
       <c r="H81" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="114" t="s">
+      <c r="I81" s="113" t="s">
         <v>324</v>
       </c>
       <c r="J81" s="27" t="s">
@@ -8374,114 +8411,110 @@
       <c r="K81" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L81" s="114">
+      <c r="L81" s="113">
         <v>4</v>
       </c>
       <c r="M81" s="19">
         <v>42894</v>
       </c>
       <c r="N81" s="19"/>
-      <c r="O81" s="125"/>
-      <c r="P81" s="125"/>
-      <c r="Q81" s="91">
+      <c r="O81" s="124"/>
+      <c r="P81" s="124"/>
+      <c r="Q81" s="90">
         <v>42906</v>
       </c>
-      <c r="R81" s="93" t="s">
+      <c r="R81" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="S81" s="95">
+      <c r="S81" s="94">
         <v>42922</v>
       </c>
-      <c r="T81" s="96">
+      <c r="T81" s="95">
         <v>42944</v>
       </c>
-      <c r="U81" s="114">
+      <c r="U81" s="113">
         <v>47</v>
       </c>
       <c r="V81" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W81" s="114">
+      <c r="W81" s="113">
         <v>6183</v>
       </c>
       <c r="X81" s="17"/>
     </row>
     <row r="82" spans="1:25" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="114"/>
-      <c r="B82" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A82" s="113"/>
+      <c r="B82" s="124"/>
       <c r="C82" s="48">
         <v>6201</v>
       </c>
-      <c r="D82" s="114" t="s">
+      <c r="D82" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="114" t="s">
+      <c r="F82" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="141" t="s">
+      <c r="H82" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I82" s="114" t="s">
+      <c r="I82" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="J82" s="141" t="s">
+      <c r="J82" s="140" t="s">
         <v>357</v>
       </c>
       <c r="K82" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="L82" s="114">
+      <c r="L82" s="113">
         <v>0</v>
       </c>
-      <c r="M82" s="125"/>
-      <c r="N82" s="125"/>
+      <c r="M82" s="124"/>
+      <c r="N82" s="124"/>
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
-      <c r="Q82" s="92"/>
-      <c r="R82" s="93" t="s">
+      <c r="Q82" s="91"/>
+      <c r="R82" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S82" s="95">
+      <c r="S82" s="94">
         <v>42937</v>
       </c>
-      <c r="T82" s="96">
+      <c r="T82" s="95">
         <v>42944</v>
       </c>
-      <c r="U82" s="114">
+      <c r="U82" s="113">
         <v>1051</v>
       </c>
       <c r="V82" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="W82" s="114">
+      <c r="W82" s="113">
         <v>6201</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="114"/>
-      <c r="B83" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A83" s="113"/>
+      <c r="B83" s="124"/>
       <c r="C83" s="48">
         <v>6202</v>
       </c>
-      <c r="D83" s="114" t="s">
+      <c r="D83" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F83" s="114" t="s">
+      <c r="F83" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="17" t="s">
@@ -8490,123 +8523,123 @@
       <c r="H83" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="114" t="s">
+      <c r="I83" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J83" s="114" t="s">
+      <c r="J83" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K83" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L83" s="114">
+      <c r="L83" s="113">
         <v>4</v>
       </c>
       <c r="M83" s="19">
         <v>42881</v>
       </c>
       <c r="N83" s="19"/>
-      <c r="O83" s="114"/>
+      <c r="O83" s="113"/>
       <c r="P83" s="17"/>
-      <c r="Q83" s="91">
+      <c r="Q83" s="90">
         <v>42913</v>
       </c>
-      <c r="R83" s="93" t="s">
+      <c r="R83" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S83" s="95">
+      <c r="S83" s="94">
         <v>42937</v>
       </c>
-      <c r="T83" s="96">
+      <c r="T83" s="95">
         <v>42944</v>
       </c>
-      <c r="U83" s="114">
+      <c r="U83" s="113">
         <v>1051</v>
       </c>
       <c r="V83" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="W83" s="114">
+      <c r="W83" s="113">
         <v>6201</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="4"/>
     </row>
     <row r="84" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="114"/>
-      <c r="B84" s="125"/>
-      <c r="C84" s="125">
+      <c r="A84" s="113"/>
+      <c r="B84" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="124">
         <v>6208</v>
       </c>
-      <c r="D84" s="114" t="s">
+      <c r="D84" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="114" t="s">
+      <c r="F84" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="125" t="s">
+      <c r="H84" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="114" t="s">
+      <c r="I84" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="J84" s="114" t="s">
+      <c r="J84" s="113" t="s">
         <v>357</v>
       </c>
-      <c r="K84" s="123" t="s">
+      <c r="K84" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="L84" s="114">
+      <c r="L84" s="113">
         <v>40</v>
       </c>
       <c r="M84" s="19">
         <v>42853</v>
       </c>
       <c r="N84" s="19"/>
-      <c r="O84" s="114"/>
+      <c r="O84" s="113"/>
       <c r="P84" s="17"/>
-      <c r="Q84" s="92"/>
-      <c r="R84" s="93" t="s">
+      <c r="Q84" s="91"/>
+      <c r="R84" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S84" s="95">
+      <c r="S84" s="94">
         <v>42937</v>
       </c>
-      <c r="T84" s="96">
+      <c r="T84" s="95">
         <v>42944</v>
       </c>
-      <c r="U84" s="114">
+      <c r="U84" s="113">
         <v>1846</v>
       </c>
       <c r="V84" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="W84" s="114" t="s">
+      <c r="W84" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X84" s="17"/>
     </row>
     <row r="85" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="114"/>
-      <c r="B85" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A85" s="113"/>
+      <c r="B85" s="124"/>
       <c r="C85" s="27">
         <v>6220</v>
       </c>
-      <c r="D85" s="114" t="s">
+      <c r="D85" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="114" t="s">
+      <c r="F85" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G85" s="17" t="s">
@@ -8615,66 +8648,64 @@
       <c r="H85" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I85" s="114" t="s">
+      <c r="I85" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="J85" s="125" t="s">
+      <c r="J85" s="124" t="s">
         <v>357</v>
       </c>
       <c r="K85" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="L85" s="114">
+      <c r="L85" s="113">
         <v>2</v>
       </c>
       <c r="M85" s="19">
         <v>42886</v>
       </c>
       <c r="N85" s="19"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="91">
+      <c r="O85" s="113"/>
+      <c r="P85" s="113"/>
+      <c r="Q85" s="90">
         <v>42906</v>
       </c>
-      <c r="R85" s="113" t="s">
+      <c r="R85" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="S85" s="95">
+      <c r="S85" s="94">
         <v>42914</v>
       </c>
-      <c r="T85" s="96">
+      <c r="T85" s="95">
         <v>42923</v>
       </c>
-      <c r="U85" s="114">
+      <c r="U85" s="113">
         <v>506</v>
       </c>
       <c r="V85" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="W85" s="114" t="s">
+      <c r="W85" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="X85" s="125">
+      <c r="X85" s="124">
         <v>4251</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="114" t="s">
+      <c r="A86" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="B86" s="124"/>
       <c r="C86" s="55">
         <v>6231</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="114" t="s">
+      <c r="F86" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="26" t="s">
@@ -8683,7 +8714,7 @@
       <c r="H86" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="114" t="s">
+      <c r="I86" s="113" t="s">
         <v>324</v>
       </c>
       <c r="J86" s="27" t="s">
@@ -8692,55 +8723,53 @@
       <c r="K86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L86" s="114">
+      <c r="L86" s="113">
         <v>16</v>
       </c>
-      <c r="M86" s="114" t="s">
+      <c r="M86" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="N86" s="114"/>
-      <c r="O86" s="114"/>
-      <c r="P86" s="114"/>
-      <c r="Q86" s="91">
+      <c r="N86" s="113"/>
+      <c r="O86" s="113"/>
+      <c r="P86" s="113"/>
+      <c r="Q86" s="90">
         <v>42908</v>
       </c>
-      <c r="R86" s="93" t="s">
+      <c r="R86" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S86" s="95">
+      <c r="S86" s="94">
         <v>42937</v>
       </c>
-      <c r="T86" s="96">
+      <c r="T86" s="95">
         <v>42944</v>
       </c>
-      <c r="U86" s="114">
+      <c r="U86" s="113">
         <v>1051</v>
       </c>
       <c r="V86" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="W86" s="114">
+      <c r="W86" s="113">
         <v>6201</v>
       </c>
       <c r="X86" s="26"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="114" t="s">
+      <c r="A87" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="B87" s="124"/>
       <c r="C87" s="55">
         <v>6232</v>
       </c>
-      <c r="D87" s="114" t="s">
+      <c r="D87" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="114" t="s">
+      <c r="F87" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="17" t="s">
@@ -8749,7 +8778,7 @@
       <c r="H87" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="114" t="s">
+      <c r="I87" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J87" s="27" t="s">
@@ -8758,49 +8787,49 @@
       <c r="K87" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="L87" s="114"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="114"/>
-      <c r="O87" s="114"/>
-      <c r="P87" s="114"/>
-      <c r="Q87" s="91">
+      <c r="L87" s="113"/>
+      <c r="M87" s="113"/>
+      <c r="N87" s="113"/>
+      <c r="O87" s="113"/>
+      <c r="P87" s="113"/>
+      <c r="Q87" s="90">
         <v>42908</v>
       </c>
-      <c r="R87" s="93" t="s">
+      <c r="R87" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S87" s="95">
+      <c r="S87" s="94">
         <v>42937</v>
       </c>
-      <c r="T87" s="96">
+      <c r="T87" s="95">
         <v>42944</v>
       </c>
-      <c r="U87" s="114">
+      <c r="U87" s="113">
         <v>1051</v>
       </c>
       <c r="V87" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="W87" s="114">
+      <c r="W87" s="113">
         <v>6201</v>
       </c>
       <c r="X87" s="26"/>
     </row>
     <row r="88" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="114" t="s">
+      <c r="A88" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="125"/>
+      <c r="B88" s="124"/>
       <c r="C88" s="21">
         <v>6235</v>
       </c>
-      <c r="D88" s="114" t="s">
+      <c r="D88" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="114" t="s">
+      <c r="F88" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="17" t="s">
@@ -8809,57 +8838,55 @@
       <c r="H88" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I88" s="114" t="s">
+      <c r="I88" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="J88" s="125" t="s">
+      <c r="J88" s="124" t="s">
         <v>357</v>
       </c>
       <c r="K88" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="L88" s="114"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="114"/>
-      <c r="O88" s="114"/>
-      <c r="P88" s="114"/>
-      <c r="Q88" s="92"/>
-      <c r="R88" s="93" t="s">
+      <c r="L88" s="113"/>
+      <c r="M88" s="113"/>
+      <c r="N88" s="113"/>
+      <c r="O88" s="113"/>
+      <c r="P88" s="113"/>
+      <c r="Q88" s="91"/>
+      <c r="R88" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S88" s="95">
+      <c r="S88" s="94">
         <v>42922</v>
       </c>
-      <c r="T88" s="96">
+      <c r="T88" s="95">
         <v>42944</v>
       </c>
-      <c r="U88" s="114" t="s">
+      <c r="U88" s="113" t="s">
         <v>170</v>
       </c>
       <c r="V88" s="26"/>
-      <c r="W88" s="114" t="s">
+      <c r="W88" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X88" s="26"/>
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="114" t="s">
+      <c r="A89" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="B89" s="124"/>
       <c r="C89" s="21">
         <v>6236</v>
       </c>
-      <c r="D89" s="114" t="s">
+      <c r="D89" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F89" s="114" t="s">
+      <c r="F89" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="17" t="s">
@@ -8868,7 +8895,7 @@
       <c r="H89" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="125" t="s">
+      <c r="I89" s="124" t="s">
         <v>324</v>
       </c>
       <c r="J89" s="27" t="s">
@@ -8877,48 +8904,48 @@
       <c r="K89" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="L89" s="114"/>
-      <c r="M89" s="114"/>
-      <c r="N89" s="114"/>
-      <c r="O89" s="114"/>
-      <c r="P89" s="114"/>
-      <c r="Q89" s="91">
+      <c r="L89" s="113"/>
+      <c r="M89" s="113"/>
+      <c r="N89" s="113"/>
+      <c r="O89" s="113"/>
+      <c r="P89" s="113"/>
+      <c r="Q89" s="90">
         <v>42906</v>
       </c>
-      <c r="R89" s="93" t="s">
+      <c r="R89" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S89" s="95">
+      <c r="S89" s="94">
         <v>42937</v>
       </c>
-      <c r="T89" s="96">
+      <c r="T89" s="95">
         <v>42944</v>
       </c>
-      <c r="U89" s="114" t="s">
+      <c r="U89" s="113" t="s">
         <v>170</v>
       </c>
       <c r="V89" s="26"/>
-      <c r="W89" s="114" t="s">
+      <c r="W89" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X89" s="26"/>
       <c r="Y89" s="3"/>
     </row>
     <row r="90" spans="1:25" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="114" t="s">
+      <c r="A90" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="125"/>
-      <c r="C90" s="97">
+      <c r="B90" s="124"/>
+      <c r="C90" s="96">
         <v>6257</v>
       </c>
-      <c r="D90" s="114" t="s">
+      <c r="D90" s="113" t="s">
         <v>147</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="114" t="s">
+      <c r="F90" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="17" t="s">
@@ -8927,56 +8954,54 @@
       <c r="H90" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="114" t="s">
+      <c r="I90" s="113" t="s">
         <v>80</v>
       </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="L90" s="114"/>
+      <c r="L90" s="113"/>
       <c r="M90" s="19">
         <v>42894</v>
       </c>
-      <c r="N90" s="114"/>
-      <c r="O90" s="114"/>
-      <c r="P90" s="114"/>
-      <c r="Q90" s="91">
+      <c r="N90" s="113"/>
+      <c r="O90" s="113"/>
+      <c r="P90" s="113"/>
+      <c r="Q90" s="90">
         <v>42893</v>
       </c>
-      <c r="R90" s="93">
+      <c r="R90" s="92">
         <v>42907</v>
       </c>
-      <c r="S90" s="95">
+      <c r="S90" s="94">
         <v>42914</v>
       </c>
-      <c r="T90" s="96">
+      <c r="T90" s="95">
         <v>42923</v>
       </c>
-      <c r="U90" s="114">
+      <c r="U90" s="113">
         <v>41</v>
       </c>
       <c r="V90" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="W90" s="114">
+      <c r="W90" s="113">
         <v>5553</v>
       </c>
       <c r="X90" s="17"/>
     </row>
     <row r="91" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="114"/>
-      <c r="B91" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A91" s="113"/>
+      <c r="B91" s="124"/>
       <c r="C91" s="48">
         <v>6252</v>
       </c>
-      <c r="D91" s="114" t="s">
+      <c r="D91" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="26"/>
-      <c r="F91" s="114" t="s">
+      <c r="F91" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="17" t="s">
@@ -8985,56 +9010,54 @@
       <c r="H91" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I91" s="131" t="s">
+      <c r="I91" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="J91" s="114"/>
+      <c r="J91" s="113"/>
       <c r="K91" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L91" s="114"/>
-      <c r="M91" s="114"/>
-      <c r="N91" s="114"/>
-      <c r="O91" s="114"/>
-      <c r="P91" s="114"/>
-      <c r="Q91" s="91">
+      <c r="L91" s="113"/>
+      <c r="M91" s="113"/>
+      <c r="N91" s="113"/>
+      <c r="O91" s="113"/>
+      <c r="P91" s="113"/>
+      <c r="Q91" s="90">
         <v>42913</v>
       </c>
-      <c r="R91" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="S91" s="95">
+      <c r="R91" s="112">
+        <v>42944</v>
+      </c>
+      <c r="S91" s="94">
         <v>42937</v>
       </c>
-      <c r="T91" s="96">
+      <c r="T91" s="95">
         <v>42944</v>
       </c>
-      <c r="U91" s="114">
+      <c r="U91" s="113">
         <v>1311</v>
       </c>
       <c r="V91" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="W91" s="114" t="s">
+      <c r="W91" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X91" s="26"/>
     </row>
     <row r="92" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="114"/>
-      <c r="B92" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A92" s="113"/>
+      <c r="B92" s="124"/>
       <c r="C92" s="48">
         <v>6274</v>
       </c>
-      <c r="D92" s="114" t="s">
+      <c r="D92" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="114" t="s">
+      <c r="F92" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="17" t="s">
@@ -9043,65 +9066,63 @@
       <c r="H92" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I92" s="131" t="s">
-        <v>92</v>
+      <c r="I92" s="144" t="s">
+        <v>324</v>
       </c>
       <c r="J92" s="27" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="K92" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="L92" s="114"/>
-      <c r="M92" s="114"/>
-      <c r="N92" s="114"/>
-      <c r="O92" s="114"/>
-      <c r="P92" s="114"/>
-      <c r="Q92" s="91">
+      <c r="L92" s="113"/>
+      <c r="M92" s="113"/>
+      <c r="N92" s="113"/>
+      <c r="O92" s="113"/>
+      <c r="P92" s="113"/>
+      <c r="Q92" s="90">
         <v>42906</v>
       </c>
-      <c r="R92" s="113">
-        <v>42940</v>
-      </c>
-      <c r="S92" s="95">
+      <c r="R92" s="112" t="s">
+        <v>343</v>
+      </c>
+      <c r="S92" s="94">
         <v>42922</v>
       </c>
-      <c r="T92" s="96">
+      <c r="T92" s="95">
         <v>42944</v>
       </c>
-      <c r="U92" s="114">
+      <c r="U92" s="113">
         <v>520</v>
       </c>
       <c r="V92" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="W92" s="114" t="s">
+      <c r="W92" s="113" t="s">
         <v>165</v>
       </c>
       <c r="X92" s="26"/>
     </row>
     <row r="93" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="114" t="s">
+      <c r="A93" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B93" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="B93" s="124"/>
       <c r="C93" s="55">
         <v>6278</v>
       </c>
-      <c r="D93" s="114" t="s">
+      <c r="D93" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="26"/>
-      <c r="F93" s="114" t="s">
+      <c r="F93" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="26"/>
       <c r="H93" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I93" s="114" t="s">
+      <c r="I93" s="113" t="s">
         <v>92</v>
       </c>
       <c r="J93" s="27" t="s">
@@ -9110,49 +9131,47 @@
       <c r="K93" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="L93" s="114"/>
-      <c r="M93" s="114"/>
-      <c r="N93" s="114"/>
-      <c r="O93" s="114"/>
-      <c r="P93" s="114"/>
-      <c r="Q93" s="91">
+      <c r="L93" s="113"/>
+      <c r="M93" s="113"/>
+      <c r="N93" s="113"/>
+      <c r="O93" s="113"/>
+      <c r="P93" s="113"/>
+      <c r="Q93" s="90">
         <v>42906</v>
       </c>
-      <c r="R93" s="93" t="s">
+      <c r="R93" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S93" s="95">
+      <c r="S93" s="94">
         <v>42922</v>
       </c>
-      <c r="T93" s="96">
+      <c r="T93" s="95">
         <v>42944</v>
       </c>
-      <c r="U93" s="114">
+      <c r="U93" s="113">
         <v>47</v>
       </c>
-      <c r="V93" s="125" t="s">
+      <c r="V93" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="W93" s="114">
+      <c r="W93" s="113">
         <v>6183</v>
       </c>
       <c r="X93" s="26"/>
     </row>
     <row r="94" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="114"/>
-      <c r="B94" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A94" s="113"/>
+      <c r="B94" s="124"/>
       <c r="C94" s="48">
         <v>6279</v>
       </c>
-      <c r="D94" s="114" t="s">
+      <c r="D94" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="114" t="s">
+      <c r="F94" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="26" t="s">
@@ -9161,54 +9180,54 @@
       <c r="H94" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I94" s="114" t="s">
+      <c r="I94" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="J94" s="114"/>
+      <c r="J94" s="113"/>
       <c r="K94" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="L94" s="114"/>
-      <c r="M94" s="114"/>
-      <c r="N94" s="114"/>
-      <c r="O94" s="114"/>
-      <c r="P94" s="114"/>
-      <c r="Q94" s="92" t="s">
+      <c r="L94" s="113"/>
+      <c r="M94" s="113"/>
+      <c r="N94" s="113"/>
+      <c r="O94" s="113"/>
+      <c r="P94" s="113"/>
+      <c r="Q94" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="R94" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="S94" s="95">
+      <c r="R94" s="112">
+        <v>42944</v>
+      </c>
+      <c r="S94" s="94">
         <v>42914</v>
       </c>
-      <c r="T94" s="96">
+      <c r="T94" s="95">
         <v>42944</v>
       </c>
-      <c r="U94" s="114">
+      <c r="U94" s="113">
         <v>1362</v>
       </c>
       <c r="V94" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="W94" s="114"/>
+      <c r="W94" s="113"/>
       <c r="X94" s="26"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="114" t="s">
+      <c r="A95" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="125"/>
+      <c r="B95" s="124"/>
       <c r="C95" s="55">
         <v>6284</v>
       </c>
-      <c r="D95" s="114" t="s">
+      <c r="D95" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="114" t="s">
+      <c r="F95" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="17" t="s">
@@ -9217,56 +9236,56 @@
       <c r="H95" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I95" s="114" t="s">
+      <c r="I95" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="J95" s="114" t="s">
+      <c r="J95" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K95" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="L95" s="114"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="114"/>
-      <c r="O95" s="114"/>
-      <c r="P95" s="114"/>
-      <c r="Q95" s="91">
+      <c r="L95" s="113"/>
+      <c r="M95" s="113"/>
+      <c r="N95" s="113"/>
+      <c r="O95" s="113"/>
+      <c r="P95" s="113"/>
+      <c r="Q95" s="90">
         <v>42906</v>
       </c>
-      <c r="R95" s="93" t="s">
+      <c r="R95" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S95" s="95">
+      <c r="S95" s="94">
         <v>42937</v>
       </c>
-      <c r="T95" s="96">
+      <c r="T95" s="95">
         <v>42944</v>
       </c>
-      <c r="U95" s="114">
+      <c r="U95" s="113">
         <v>1051</v>
       </c>
       <c r="V95" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="W95" s="114"/>
+      <c r="W95" s="113"/>
       <c r="X95" s="26"/>
     </row>
     <row r="96" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="114" t="s">
+      <c r="A96" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="B96" s="125"/>
+      <c r="B96" s="124"/>
       <c r="C96" s="55">
         <v>6285</v>
       </c>
-      <c r="D96" s="114" t="s">
+      <c r="D96" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="114" t="s">
+      <c r="F96" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="17" t="s">
@@ -9275,56 +9294,54 @@
       <c r="H96" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="125" t="s">
+      <c r="I96" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="J96" s="114" t="s">
+      <c r="J96" s="113" t="s">
         <v>357</v>
       </c>
       <c r="K96" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="L96" s="114"/>
-      <c r="M96" s="114"/>
-      <c r="N96" s="114"/>
-      <c r="O96" s="114"/>
-      <c r="P96" s="114"/>
-      <c r="Q96" s="91">
+      <c r="L96" s="113"/>
+      <c r="M96" s="113"/>
+      <c r="N96" s="113"/>
+      <c r="O96" s="113"/>
+      <c r="P96" s="113"/>
+      <c r="Q96" s="90">
         <v>42906</v>
       </c>
-      <c r="R96" s="93" t="s">
+      <c r="R96" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="S96" s="95">
+      <c r="S96" s="94">
         <v>42922</v>
       </c>
-      <c r="T96" s="96">
+      <c r="T96" s="95">
         <v>42944</v>
       </c>
-      <c r="U96" s="114">
+      <c r="U96" s="113">
         <v>47</v>
       </c>
       <c r="V96" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="W96" s="114"/>
+      <c r="W96" s="113"/>
       <c r="X96" s="26"/>
     </row>
     <row r="97" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="114"/>
-      <c r="B97" s="125" t="s">
-        <v>153</v>
-      </c>
+      <c r="A97" s="113"/>
+      <c r="B97" s="124"/>
       <c r="C97" s="48">
         <v>6295</v>
       </c>
-      <c r="D97" s="114" t="s">
+      <c r="D97" s="113" t="s">
         <v>10</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="114" t="s">
+      <c r="F97" s="113" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="26" t="s">
@@ -9333,144 +9350,140 @@
       <c r="H97" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I97" s="131" t="s">
+      <c r="I97" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="J97" s="114"/>
+      <c r="J97" s="113"/>
       <c r="K97" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="L97" s="114"/>
-      <c r="M97" s="114"/>
-      <c r="N97" s="114"/>
-      <c r="O97" s="114"/>
-      <c r="P97" s="114"/>
-      <c r="Q97" s="92" t="s">
+      <c r="L97" s="113"/>
+      <c r="M97" s="113"/>
+      <c r="N97" s="113"/>
+      <c r="O97" s="113"/>
+      <c r="P97" s="113"/>
+      <c r="Q97" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="R97" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="S97" s="95">
+      <c r="R97" s="112">
+        <v>42944</v>
+      </c>
+      <c r="S97" s="94">
         <v>42914</v>
       </c>
-      <c r="T97" s="96">
+      <c r="T97" s="95">
         <v>42944</v>
       </c>
-      <c r="U97" s="114">
+      <c r="U97" s="113">
         <v>1362</v>
       </c>
       <c r="V97" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="W97" s="114"/>
+      <c r="W97" s="113"/>
       <c r="X97" s="26"/>
     </row>
     <row r="98" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="116"/>
-      <c r="B98" s="125"/>
+      <c r="A98" s="115"/>
+      <c r="B98" s="124"/>
       <c r="C98" s="48">
         <v>6298</v>
       </c>
-      <c r="D98" s="124"/>
+      <c r="D98" s="123"/>
       <c r="E98" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="125"/>
+      <c r="F98" s="124"/>
       <c r="G98" s="26"/>
       <c r="H98" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I98" s="116" t="s">
+      <c r="I98" s="115" t="s">
         <v>358</v>
       </c>
-      <c r="J98" s="116" t="s">
+      <c r="J98" s="115" t="s">
         <v>357</v>
       </c>
       <c r="K98" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="L98" s="124"/>
-      <c r="M98" s="125"/>
-      <c r="N98" s="125"/>
-      <c r="O98" s="125"/>
-      <c r="P98" s="125"/>
-      <c r="Q98" s="92"/>
-      <c r="R98" s="94" t="s">
+      <c r="L98" s="123"/>
+      <c r="M98" s="124"/>
+      <c r="N98" s="124"/>
+      <c r="O98" s="124"/>
+      <c r="P98" s="124"/>
+      <c r="Q98" s="91"/>
+      <c r="R98" s="93" t="s">
         <v>343</v>
       </c>
-      <c r="S98" s="95"/>
-      <c r="T98" s="96">
+      <c r="S98" s="94"/>
+      <c r="T98" s="95">
         <v>42944</v>
       </c>
-      <c r="U98" s="92">
+      <c r="U98" s="91">
         <v>1051</v>
       </c>
       <c r="V98" s="26"/>
-      <c r="W98" s="116"/>
+      <c r="W98" s="115"/>
       <c r="X98" s="26"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A99" s="127"/>
-      <c r="B99" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" s="134">
+      <c r="A99" s="126"/>
+      <c r="B99" s="126"/>
+      <c r="C99" s="133">
         <v>6299</v>
       </c>
-      <c r="D99" s="132" t="s">
+      <c r="D99" s="131" t="s">
         <v>10</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="132" t="s">
+      <c r="F99" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="133" t="s">
+      <c r="G99" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="135" t="s">
+      <c r="H99" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="127" t="s">
+      <c r="I99" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="J99" s="127" t="s">
+      <c r="J99" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="K99" s="136" t="s">
+      <c r="K99" s="135" t="s">
         <v>356</v>
       </c>
-      <c r="L99" s="132"/>
-      <c r="M99" s="132"/>
-      <c r="N99" s="132"/>
-      <c r="O99" s="132"/>
-      <c r="P99" s="132"/>
-      <c r="Q99" s="92"/>
-      <c r="R99" s="113">
+      <c r="L99" s="131"/>
+      <c r="M99" s="131"/>
+      <c r="N99" s="131"/>
+      <c r="O99" s="131"/>
+      <c r="P99" s="131"/>
+      <c r="Q99" s="91"/>
+      <c r="R99" s="112">
         <v>42944</v>
       </c>
-      <c r="S99" s="137">
+      <c r="S99" s="136">
         <v>42937</v>
       </c>
-      <c r="T99" s="138">
+      <c r="T99" s="137">
         <v>42944</v>
       </c>
-      <c r="U99" s="127">
+      <c r="U99" s="126">
         <v>1051</v>
       </c>
-      <c r="V99" s="139" t="s">
+      <c r="V99" s="138" t="s">
         <v>270</v>
       </c>
-      <c r="W99" s="127"/>
-      <c r="X99" s="139"/>
+      <c r="W99" s="126"/>
+      <c r="X99" s="138"/>
     </row>
     <row r="100" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="128"/>
-      <c r="B100" s="128" t="s">
-        <v>153</v>
-      </c>
+      <c r="A100" s="127"/>
+      <c r="B100" s="127"/>
       <c r="C100" s="48">
         <v>6307</v>
       </c>
@@ -9480,7 +9493,7 @@
       <c r="E100" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="128" t="s">
+      <c r="F100" s="127" t="s">
         <v>34</v>
       </c>
       <c r="H100" s="47" t="s">
@@ -9489,21 +9502,23 @@
       <c r="I100" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J100" s="128"/>
+      <c r="J100" s="127"/>
       <c r="K100" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="R100" s="128"/>
-      <c r="S100" s="128"/>
-      <c r="T100" s="128"/>
-      <c r="U100" s="128"/>
+      <c r="R100" s="127"/>
+      <c r="S100" s="127"/>
+      <c r="T100" s="127"/>
+      <c r="U100" s="127"/>
       <c r="V100" s="26"/>
-      <c r="W100" s="128"/>
+      <c r="W100" s="127"/>
       <c r="X100" s="26"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A101" s="141"/>
-      <c r="B101" s="141"/>
+      <c r="A101" s="140"/>
+      <c r="B101" s="140" t="s">
+        <v>153</v>
+      </c>
       <c r="C101" s="48">
         <v>6316</v>
       </c>
@@ -9513,38 +9528,40 @@
       <c r="E101" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="141" t="s">
+      <c r="F101" s="140" t="s">
         <v>34</v>
       </c>
       <c r="H101" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I101" s="141" t="s">
+      <c r="I101" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="J101" s="141" t="s">
+      <c r="J101" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="K101" s="144" t="s">
+      <c r="K101" s="142" t="s">
         <v>379</v>
       </c>
-      <c r="R101" s="93">
+      <c r="R101" s="92">
         <v>42942</v>
       </c>
-      <c r="S101" s="141"/>
-      <c r="T101" s="141"/>
-      <c r="U101" s="141">
+      <c r="S101" s="140"/>
+      <c r="T101" s="140"/>
+      <c r="U101" s="140">
         <v>1054</v>
       </c>
       <c r="V101" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="W101" s="141"/>
+      <c r="W101" s="140"/>
       <c r="X101" s="26"/>
     </row>
     <row r="102" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="141"/>
-      <c r="B102" s="141"/>
+      <c r="A102" s="140"/>
+      <c r="B102" s="140" t="s">
+        <v>153</v>
+      </c>
       <c r="C102" s="48">
         <v>6317</v>
       </c>
@@ -9554,78 +9571,243 @@
       <c r="E102" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="141" t="s">
+      <c r="F102" s="140" t="s">
         <v>34</v>
       </c>
       <c r="H102" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I102" s="141" t="s">
+      <c r="I102" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="J102" s="141" t="s">
+      <c r="J102" s="140" t="s">
         <v>156</v>
       </c>
       <c r="K102" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="R102" s="93">
+      <c r="R102" s="92">
         <v>42942</v>
       </c>
-      <c r="S102" s="141"/>
-      <c r="T102" s="141"/>
-      <c r="U102" s="141">
+      <c r="S102" s="140"/>
+      <c r="T102" s="140"/>
+      <c r="U102" s="140">
         <v>1753</v>
       </c>
       <c r="V102" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="W102" s="141"/>
+      <c r="W102" s="140"/>
       <c r="X102" s="26"/>
     </row>
     <row r="103" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="141"/>
-      <c r="B103" s="141"/>
+      <c r="A103" s="144"/>
+      <c r="B103" s="144" t="s">
+        <v>153</v>
+      </c>
       <c r="C103" s="48">
         <v>6318</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="141" t="s">
+      <c r="F103" s="143" t="s">
         <v>34</v>
       </c>
       <c r="H103" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I103" s="141" t="s">
+      <c r="I103" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="J103" s="141" t="s">
+      <c r="J103" s="144" t="s">
         <v>156</v>
       </c>
       <c r="K103" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="R103" s="93">
-        <v>42942</v>
-      </c>
-      <c r="S103" s="141"/>
-      <c r="T103" s="141"/>
-      <c r="U103" s="141">
+      <c r="R103" s="92">
+        <v>42941</v>
+      </c>
+      <c r="S103" s="144"/>
+      <c r="T103" s="144"/>
+      <c r="U103" s="144">
         <v>47</v>
       </c>
       <c r="V103" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="W103" s="141"/>
-      <c r="X103" s="26"/>
+      <c r="W103" s="144"/>
+      <c r="X103" s="138"/>
+    </row>
+    <row r="104" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="144"/>
+      <c r="B104" s="144"/>
+      <c r="C104" s="48">
+        <v>6314</v>
+      </c>
+      <c r="D104" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="26"/>
+      <c r="H104" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="J104" s="144" t="s">
+        <v>357</v>
+      </c>
+      <c r="K104" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="R104" s="112" t="s">
+        <v>343</v>
+      </c>
+      <c r="S104" s="144"/>
+      <c r="T104" s="144"/>
+      <c r="U104" s="144">
+        <v>41</v>
+      </c>
+      <c r="V104" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="W104" s="144"/>
+      <c r="X104" s="26"/>
+    </row>
+    <row r="105" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="144"/>
+      <c r="B105" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="48">
+        <v>6320</v>
+      </c>
+      <c r="D105" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="26"/>
+      <c r="H105" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="J105" s="144"/>
+      <c r="K105" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="R105" s="92">
+        <v>42942</v>
+      </c>
+      <c r="S105" s="144"/>
+      <c r="T105" s="144"/>
+      <c r="U105" s="144">
+        <v>1050</v>
+      </c>
+      <c r="V105" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="W105" s="144"/>
+      <c r="X105" s="26"/>
+    </row>
+    <row r="106" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="144"/>
+      <c r="B106" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="48">
+        <v>6315</v>
+      </c>
+      <c r="D106" s="123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="26"/>
+      <c r="H106" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="J106" s="144"/>
+      <c r="K106" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="R106" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="S106" s="144"/>
+      <c r="T106" s="144"/>
+      <c r="U106" s="144"/>
+      <c r="V106" s="26"/>
+      <c r="W106" s="144"/>
+      <c r="X106" s="26"/>
+    </row>
+    <row r="107" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="144"/>
+      <c r="B107" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="48">
+        <v>6321</v>
+      </c>
+      <c r="D107" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="26"/>
+      <c r="H107" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" s="144" t="s">
+        <v>92</v>
+      </c>
+      <c r="J107" s="144"/>
+      <c r="K107" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="R107" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="S107" s="144"/>
+      <c r="T107" s="144"/>
+      <c r="U107" s="144">
+        <v>442</v>
+      </c>
+      <c r="V107" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="W107" s="144"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y103">
+  <autoFilter ref="A1:Y107">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="CR_Geometry_2"/>
@@ -9690,19 +9872,23 @@
     <hyperlink ref="H102" r:id="rId42"/>
     <hyperlink ref="H103" r:id="rId43"/>
     <hyperlink ref="H65" r:id="rId44"/>
+    <hyperlink ref="H104" r:id="rId45"/>
+    <hyperlink ref="H105" r:id="rId46"/>
+    <hyperlink ref="H106" r:id="rId47"/>
+    <hyperlink ref="H107" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId45"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="A46:XFD48"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9749,7 +9935,7 @@
       <c r="A3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="154" t="s">
         <v>165</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -9770,7 +9956,7 @@
       <c r="A4" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="52" t="s">
         <v>194</v>
       </c>
@@ -9789,7 +9975,7 @@
       <c r="A5" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="148"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="52" t="s">
         <v>195</v>
       </c>
@@ -9804,62 +9990,62 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" s="176" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="148"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174" t="s">
+      <c r="D6" s="149"/>
+      <c r="E6" s="149" t="s">
         <v>368</v>
       </c>
-      <c r="F6" s="175">
+      <c r="F6" s="150">
         <v>42934</v>
       </c>
       <c r="G6" s="51"/>
     </row>
-    <row r="7" spans="1:7" s="176" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="151" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="148"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="174"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="F7" s="177">
+      <c r="F7" s="152">
         <v>42934</v>
       </c>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="1:7" s="176" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="151" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="146"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174" t="s">
+      <c r="D8" s="149"/>
+      <c r="E8" s="149" t="s">
         <v>370</v>
       </c>
-      <c r="F8" s="177">
+      <c r="F8" s="152">
         <v>42934</v>
       </c>
       <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="147">
+      <c r="A9" s="154">
         <v>5553</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="154" t="s">
         <v>225</v>
       </c>
       <c r="C9" s="52" t="s">
@@ -9871,84 +10057,84 @@
       <c r="E9" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="80">
         <v>42845</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="147"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="78" t="s">
+      <c r="A10" s="155"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="77" t="s">
         <v>335</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="79" t="s">
         <v>330</v>
       </c>
       <c r="F10" s="19">
         <v>42894</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="78" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="78" t="s">
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="77" t="s">
         <v>336</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="79" t="s">
         <v>331</v>
       </c>
       <c r="F11" s="19">
         <v>42894</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="78" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="78" t="s">
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="77" t="s">
         <v>337</v>
       </c>
       <c r="D12" s="26"/>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="79" t="s">
         <v>332</v>
       </c>
       <c r="F12" s="19">
         <v>42894</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="173" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="143"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="129" t="s">
+    <row r="13" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="156"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="128" t="s">
         <v>384</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="170" t="s">
+      <c r="D13" s="129"/>
+      <c r="E13" s="145" t="s">
         <v>383</v>
       </c>
-      <c r="F13" s="171">
+      <c r="F13" s="146">
         <v>42937</v>
       </c>
-      <c r="G13" s="172"/>
+      <c r="G13" s="147"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="145">
+      <c r="B14" s="154">
         <v>6047</v>
       </c>
       <c r="C14" s="52" t="s">
@@ -9957,24 +10143,24 @@
       <c r="D14" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="81">
         <v>42845</v>
       </c>
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="78" t="s">
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="77" t="s">
         <v>338</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="77" t="s">
+      <c r="E15" s="76" t="s">
         <v>333</v>
       </c>
       <c r="F15" s="19">
@@ -9985,17 +10171,17 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="149">
+      <c r="A16" s="158">
         <v>6183</v>
       </c>
-      <c r="B16" s="147" t="s">
+      <c r="B16" s="157" t="s">
         <v>229</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>245</v>
       </c>
       <c r="D16" s="52"/>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="76" t="s">
         <v>244</v>
       </c>
       <c r="F16" s="45">
@@ -10004,13 +10190,13 @@
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="150"/>
-      <c r="B17" s="147"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="52" t="s">
         <v>236</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="76" t="s">
         <v>250</v>
       </c>
       <c r="F17" s="45">
@@ -10021,13 +10207,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
-      <c r="B18" s="147"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="157"/>
       <c r="C18" s="52" t="s">
         <v>237</v>
       </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="76" t="s">
         <v>251</v>
       </c>
       <c r="F18" s="45">
@@ -10038,10 +10224,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="145">
+      <c r="A19" s="154">
         <v>6041</v>
       </c>
-      <c r="B19" s="145">
+      <c r="B19" s="154">
         <v>6042</v>
       </c>
       <c r="C19" s="52" t="s">
@@ -10057,8 +10243,8 @@
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="146"/>
-      <c r="B20" s="146"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="52" t="s">
         <v>248</v>
       </c>
@@ -10074,10 +10260,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="145">
+      <c r="A21" s="154">
         <v>6044</v>
       </c>
-      <c r="B21" s="145">
+      <c r="B21" s="154">
         <v>5006</v>
       </c>
       <c r="C21" s="52" t="s">
@@ -10093,13 +10279,13 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="146"/>
-      <c r="B22" s="146"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="156"/>
       <c r="C22" s="27" t="s">
         <v>255</v>
       </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="76" t="s">
         <v>253</v>
       </c>
       <c r="F22" s="45">
@@ -10109,87 +10295,87 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="154"/>
+      <c r="B23" s="154">
+        <v>6321</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="F23" s="45">
+        <v>42940</v>
+      </c>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="156"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="45">
+        <v>42940</v>
+      </c>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="145">
+      <c r="B25" s="154">
         <v>6220</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C25" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D25" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E25" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F25" s="45">
         <v>42845</v>
       </c>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="146"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="52" t="s">
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="156"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D26" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E26" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F26" s="45">
         <v>42845</v>
       </c>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="145" t="s">
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="145">
+      <c r="B27" s="154">
         <v>6252</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C27" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="77" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="76" t="s">
         <v>238</v>
-      </c>
-      <c r="F25" s="45">
-        <v>42880</v>
-      </c>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="148"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="45">
-        <v>42880</v>
-      </c>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="146"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="77" t="s">
-        <v>240</v>
       </c>
       <c r="F27" s="45">
         <v>42880</v>
@@ -10197,54 +10383,50 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="155"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="45">
+        <v>42880</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="156"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="45">
+        <v>42880</v>
+      </c>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="145">
+      <c r="B30" s="154">
         <v>4251</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C30" s="52" t="s">
         <v>200</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="45">
-        <v>42845</v>
-      </c>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" s="45">
-        <v>42845</v>
-      </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="147"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="52" t="s">
-        <v>204</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="77" t="s">
-        <v>205</v>
+      <c r="E30" s="76" t="s">
+        <v>201</v>
       </c>
       <c r="F30" s="45">
         <v>42845</v>
@@ -10252,48 +10434,52 @@
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="145">
+      <c r="A31" s="157"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="45">
+        <v>42845</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="157"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="45">
+        <v>42845</v>
+      </c>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="154">
         <v>5142</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B33" s="157" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="77" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="76" t="s">
         <v>256</v>
-      </c>
-      <c r="F31" s="45">
-        <v>42880</v>
-      </c>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="148"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="77" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" s="45">
-        <v>42880</v>
-      </c>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="77" t="s">
-        <v>258</v>
       </c>
       <c r="F33" s="45">
         <v>42880</v>
@@ -10301,71 +10487,67 @@
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="155"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="45">
+        <v>42880</v>
+      </c>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="45">
+        <v>42880</v>
+      </c>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B36" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C36" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="77" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F36" s="45">
         <v>42871</v>
       </c>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="147" t="s">
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="147">
+      <c r="B37" s="157">
         <v>6274</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C37" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="77" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="76" t="s">
         <v>291</v>
-      </c>
-      <c r="F35" s="45">
-        <v>42888</v>
-      </c>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="147"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="45">
-        <v>42888</v>
-      </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="147">
-        <v>6141</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>312</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
-        <v>293</v>
       </c>
       <c r="F37" s="45">
         <v>42888</v>
@@ -10373,14 +10555,14 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="147"/>
-      <c r="B38" s="147"/>
-      <c r="C38" s="75" t="s">
-        <v>313</v>
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="D38" s="26"/>
-      <c r="E38" s="26" t="s">
-        <v>294</v>
+      <c r="E38" s="76" t="s">
+        <v>292</v>
       </c>
       <c r="F38" s="45">
         <v>42888</v>
@@ -10388,14 +10570,18 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="147"/>
-      <c r="B39" s="147"/>
+      <c r="A39" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="157">
+        <v>6141</v>
+      </c>
       <c r="C39" s="75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F39" s="45">
         <v>42888</v>
@@ -10403,18 +10589,14 @@
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="147">
-        <v>6201</v>
-      </c>
-      <c r="B40" s="147" t="s">
-        <v>296</v>
-      </c>
+      <c r="A40" s="157"/>
+      <c r="B40" s="157"/>
       <c r="C40" s="75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F40" s="45">
         <v>42888</v>
@@ -10422,14 +10604,14 @@
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="147"/>
-      <c r="B41" s="147"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F41" s="45">
         <v>42888</v>
@@ -10437,14 +10619,18 @@
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="147"/>
-      <c r="B42" s="147"/>
+      <c r="A42" s="157">
+        <v>6201</v>
+      </c>
+      <c r="B42" s="157" t="s">
+        <v>296</v>
+      </c>
       <c r="C42" s="75" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F42" s="45">
         <v>42888</v>
@@ -10452,18 +10638,14 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="147" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" s="147">
-        <v>4388</v>
-      </c>
+      <c r="A43" s="157"/>
+      <c r="B43" s="157"/>
       <c r="C43" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F43" s="45">
         <v>42888</v>
@@ -10471,97 +10653,95 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="147"/>
-      <c r="B44" s="147"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="157"/>
       <c r="C44" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F44" s="45">
         <v>42888</v>
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="147"/>
-      <c r="B45" s="147"/>
-      <c r="C45" s="75" t="s">
-        <v>320</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F45" s="45">
+    <row r="45" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="183"/>
+      <c r="B45" s="183">
+        <v>6316</v>
+      </c>
+      <c r="C45" s="128" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129" t="s">
+        <v>398</v>
+      </c>
+      <c r="F45" s="184">
+        <v>42940</v>
+      </c>
+      <c r="G45" s="185"/>
+    </row>
+    <row r="46" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="186"/>
+      <c r="B46" s="186"/>
+      <c r="C46" s="128" t="s">
+        <v>393</v>
+      </c>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129" t="s">
+        <v>399</v>
+      </c>
+      <c r="F46" s="184">
+        <v>42940</v>
+      </c>
+      <c r="G46" s="185"/>
+    </row>
+    <row r="47" spans="1:7" s="148" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="187"/>
+      <c r="B47" s="187"/>
+      <c r="C47" s="128" t="s">
+        <v>393</v>
+      </c>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" s="184">
+        <v>42940</v>
+      </c>
+      <c r="G47" s="185"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="157">
+        <v>4388</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="45">
         <v>42888</v>
       </c>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" s="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="178">
-        <v>5402</v>
-      </c>
-      <c r="C46" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="D46" s="179"/>
-      <c r="E46" s="179" t="s">
-        <v>362</v>
-      </c>
-      <c r="F46" s="175">
-        <v>42934</v>
-      </c>
-      <c r="G46" s="51"/>
-    </row>
-    <row r="47" spans="1:7" s="176" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="180"/>
-      <c r="B47" s="180"/>
-      <c r="C47" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="D47" s="179"/>
-      <c r="E47" s="179" t="s">
-        <v>363</v>
-      </c>
-      <c r="F47" s="175">
-        <v>42934</v>
-      </c>
-      <c r="G47" s="51"/>
-    </row>
-    <row r="48" spans="1:7" s="176" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="181"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="D48" s="179"/>
-      <c r="E48" s="179" t="s">
-        <v>364</v>
-      </c>
-      <c r="F48" s="175">
-        <v>42934</v>
-      </c>
-      <c r="G48" s="51"/>
+      <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="147">
-        <v>6044</v>
-      </c>
-      <c r="B49" s="147">
-        <v>3701</v>
-      </c>
+      <c r="A49" s="157"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F49" s="45">
         <v>42888</v>
@@ -10569,83 +10749,219 @@
       <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="147"/>
-      <c r="B50" s="147"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="75" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F50" s="45">
         <v>42888</v>
       </c>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="147"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="75" t="s">
+    <row r="51" spans="1:7" s="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="161">
+        <v>5402</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" s="150">
+        <v>42934</v>
+      </c>
+      <c r="G51" s="51"/>
+    </row>
+    <row r="52" spans="1:7" s="151" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="162"/>
+      <c r="B52" s="162"/>
+      <c r="C52" s="48" t="s">
+        <v>372</v>
+      </c>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153" t="s">
+        <v>363</v>
+      </c>
+      <c r="F52" s="150">
+        <v>42934</v>
+      </c>
+      <c r="G52" s="51"/>
+    </row>
+    <row r="53" spans="1:7" s="151" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="163"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153" t="s">
+        <v>364</v>
+      </c>
+      <c r="F53" s="150">
+        <v>42934</v>
+      </c>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="1:7" s="148" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="183"/>
+      <c r="B54" s="190">
+        <v>6317</v>
+      </c>
+      <c r="C54" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="D54" s="188"/>
+      <c r="E54" s="188" t="s">
+        <v>394</v>
+      </c>
+      <c r="F54" s="189">
+        <v>42940</v>
+      </c>
+      <c r="G54" s="190" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="148" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="186"/>
+      <c r="B55" s="191"/>
+      <c r="C55" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="D55" s="188"/>
+      <c r="E55" s="188" t="s">
+        <v>395</v>
+      </c>
+      <c r="F55" s="189">
+        <v>42940</v>
+      </c>
+      <c r="G55" s="191"/>
+    </row>
+    <row r="56" spans="1:7" s="148" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="187"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="F56" s="189">
+        <v>42940</v>
+      </c>
+      <c r="G56" s="192"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="157">
+        <v>6044</v>
+      </c>
+      <c r="B57" s="157">
+        <v>3701</v>
+      </c>
+      <c r="C57" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="45">
+        <v>42888</v>
+      </c>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="157"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" s="45">
+        <v>42888</v>
+      </c>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="157"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26" t="s">
+      <c r="D59" s="26"/>
+      <c r="E59" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F59" s="45">
         <v>42888</v>
       </c>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="147">
-        <v>6049</v>
-      </c>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="147"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="147"/>
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="144"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="144"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="144"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G52"/>
-  <mergeCells count="32">
+  <autoFilter ref="A2:G60"/>
+  <mergeCells count="38">
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A51:A53"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10654,10 +10970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T25"/>
+  <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10674,8 +10990,8 @@
     <col min="10" max="10" width="19.5703125" style="10" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="0.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="86" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="85" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="85" customWidth="1"/>
     <col min="15" max="15" width="0.28515625" customWidth="1"/>
     <col min="16" max="16" width="16.140625" customWidth="1"/>
     <col min="17" max="18" width="15.28515625" style="10" customWidth="1"/>
@@ -10693,14 +11009,14 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
     </row>
     <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="101" t="s">
         <v>348</v>
       </c>
       <c r="D2" s="37"/>
@@ -10709,10 +11025,10 @@
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="100" t="s">
         <v>268</v>
       </c>
       <c r="E3" s="37"/>
@@ -10720,10 +11036,10 @@
       <c r="P3" s="37"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="100" t="s">
         <v>267</v>
       </c>
       <c r="E4" s="37"/>
@@ -10731,31 +11047,31 @@
       <c r="P4" s="37"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="164" t="s">
         <v>346</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="89"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="34"/>
       <c r="G7" s="41"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="154" t="s">
+      <c r="H7" s="83"/>
+      <c r="I7" s="166" t="s">
         <v>344</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="168"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="157" t="s">
+      <c r="M7" s="169" t="s">
         <v>345</v>
       </c>
-      <c r="N7" s="157"/>
+      <c r="N7" s="169"/>
       <c r="O7" s="43"/>
-      <c r="P7" s="158" t="s">
+      <c r="P7" s="170" t="s">
         <v>382</v>
       </c>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="160"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="172"/>
       <c r="S7" s="44" t="s">
         <v>213</v>
       </c>
@@ -10764,7 +11080,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="89" t="s">
         <v>347</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -10789,10 +11105,10 @@
         <v>191</v>
       </c>
       <c r="L8" s="38"/>
-      <c r="M8" s="83" t="s">
+      <c r="M8" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="83" t="s">
+      <c r="N8" s="82" t="s">
         <v>215</v>
       </c>
       <c r="O8" s="41"/>
@@ -10805,10 +11121,10 @@
       <c r="R8" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="S8" s="153">
+      <c r="S8" s="165">
         <v>42951</v>
       </c>
-      <c r="T8" s="153">
+      <c r="T8" s="165">
         <v>42968</v>
       </c>
     </row>
@@ -10816,13 +11132,13 @@
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="98">
         <v>41</v>
       </c>
       <c r="D9" s="11">
         <v>9</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="99">
         <v>42901</v>
       </c>
       <c r="F9" s="11"/>
@@ -10841,7 +11157,7 @@
       <c r="M9" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N9" s="87">
+      <c r="N9" s="86">
         <v>42922</v>
       </c>
       <c r="O9" s="40"/>
@@ -10851,23 +11167,23 @@
       <c r="Q9" s="14">
         <v>4</v>
       </c>
-      <c r="R9" s="88">
+      <c r="R9" s="87">
         <v>42937</v>
       </c>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="98">
         <v>47</v>
       </c>
       <c r="D10" s="11">
         <v>9</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="99">
         <v>42906</v>
       </c>
       <c r="F10" s="11"/>
@@ -10886,7 +11202,7 @@
       <c r="M10" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N10" s="87">
+      <c r="N10" s="86">
         <v>42926</v>
       </c>
       <c r="O10" s="40"/>
@@ -10896,23 +11212,23 @@
       <c r="Q10" s="14">
         <v>4</v>
       </c>
-      <c r="R10" s="88">
+      <c r="R10" s="87">
         <v>42944</v>
       </c>
-      <c r="S10" s="153"/>
-      <c r="T10" s="153"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="165"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="98">
         <v>101</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -10929,7 +11245,7 @@
       <c r="M11" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N11" s="87">
+      <c r="N11" s="86">
         <v>42926</v>
       </c>
       <c r="O11" s="40"/>
@@ -10939,23 +11255,23 @@
       <c r="Q11" s="35">
         <v>2</v>
       </c>
-      <c r="R11" s="88">
+      <c r="R11" s="87">
         <v>42944</v>
       </c>
-      <c r="S11" s="153"/>
-      <c r="T11" s="153"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="165"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="98">
         <v>113</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -10972,7 +11288,7 @@
       <c r="M12" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N12" s="87">
+      <c r="N12" s="86">
         <v>42942</v>
       </c>
       <c r="O12" s="40"/>
@@ -10982,23 +11298,23 @@
       <c r="Q12" s="14">
         <v>2</v>
       </c>
-      <c r="R12" s="88">
+      <c r="R12" s="87">
         <v>42951</v>
       </c>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
+      <c r="S12" s="165"/>
+      <c r="T12" s="165"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="98">
         <v>506</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="99">
         <v>42906</v>
       </c>
       <c r="F13" s="11"/>
@@ -11017,7 +11333,7 @@
       <c r="M13" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N13" s="87">
+      <c r="N13" s="86">
         <v>42922</v>
       </c>
       <c r="O13" s="40"/>
@@ -11027,23 +11343,23 @@
       <c r="Q13" s="35">
         <v>1</v>
       </c>
-      <c r="R13" s="88">
+      <c r="R13" s="87">
         <v>42937</v>
       </c>
-      <c r="S13" s="153"/>
-      <c r="T13" s="153"/>
+      <c r="S13" s="165"/>
+      <c r="T13" s="165"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="98">
         <v>520</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -11060,7 +11376,7 @@
       <c r="M14" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N14" s="87">
+      <c r="N14" s="86">
         <v>42926</v>
       </c>
       <c r="O14" s="40"/>
@@ -11070,23 +11386,23 @@
       <c r="Q14" s="35">
         <v>1</v>
       </c>
-      <c r="R14" s="88">
+      <c r="R14" s="87">
         <v>42944</v>
       </c>
-      <c r="S14" s="153"/>
-      <c r="T14" s="153"/>
+      <c r="S14" s="165"/>
+      <c r="T14" s="165"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="98">
         <v>1032</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -11103,7 +11419,7 @@
       <c r="M15" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N15" s="87">
+      <c r="N15" s="86">
         <v>42926</v>
       </c>
       <c r="O15" s="40"/>
@@ -11113,17 +11429,17 @@
       <c r="Q15" s="35">
         <v>1</v>
       </c>
-      <c r="R15" s="88">
+      <c r="R15" s="87">
         <v>42944</v>
       </c>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
+      <c r="S15" s="165"/>
+      <c r="T15" s="165"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="98">
         <v>1051</v>
       </c>
       <c r="D16" s="11">
@@ -11146,7 +11462,7 @@
       <c r="M16" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N16" s="87">
+      <c r="N16" s="86">
         <v>42942</v>
       </c>
       <c r="O16" s="40"/>
@@ -11156,61 +11472,41 @@
       <c r="Q16" s="35">
         <v>2</v>
       </c>
-      <c r="R16" s="88">
+      <c r="R16" s="87">
         <v>42951</v>
       </c>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
+      <c r="S16" s="165"/>
+      <c r="T16" s="165"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
-        <v>2</v>
-      </c>
-      <c r="C17" s="99">
-        <v>1110</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="182">
+        <v>1054</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="J17" s="35">
-        <v>3</v>
-      </c>
-      <c r="K17" s="12">
-        <v>42937</v>
-      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="N17" s="87">
-        <v>42942</v>
-      </c>
+      <c r="M17" s="66"/>
+      <c r="N17" s="86"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="12">
-        <v>42944</v>
-      </c>
-      <c r="Q17" s="35">
-        <v>1</v>
-      </c>
-      <c r="R17" s="88">
-        <v>42951</v>
-      </c>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>2</v>
       </c>
-      <c r="C18" s="99">
-        <v>1311</v>
+      <c r="C18" s="98">
+        <v>1110</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
@@ -11223,7 +11519,7 @@
         <v>187</v>
       </c>
       <c r="J18" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="12">
         <v>42937</v>
@@ -11232,7 +11528,7 @@
       <c r="M18" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N18" s="87">
+      <c r="N18" s="86">
         <v>42942</v>
       </c>
       <c r="O18" s="40"/>
@@ -11242,18 +11538,18 @@
       <c r="Q18" s="35">
         <v>1</v>
       </c>
-      <c r="R18" s="88">
+      <c r="R18" s="87">
         <v>42951</v>
       </c>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="165"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>2</v>
       </c>
-      <c r="C19" s="99">
-        <v>1315</v>
+      <c r="C19" s="98">
+        <v>1311</v>
       </c>
       <c r="D19" s="11">
         <v>1</v>
@@ -11265,7 +11561,9 @@
       <c r="I19" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="35">
+        <v>2</v>
+      </c>
       <c r="K19" s="12">
         <v>42937</v>
       </c>
@@ -11273,7 +11571,7 @@
       <c r="M19" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N19" s="87">
+      <c r="N19" s="86">
         <v>42942</v>
       </c>
       <c r="O19" s="40"/>
@@ -11281,151 +11579,129 @@
         <v>42944</v>
       </c>
       <c r="Q19" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="88">
+        <v>1</v>
+      </c>
+      <c r="R19" s="87">
         <v>42951</v>
       </c>
-      <c r="S19" s="153"/>
-      <c r="T19" s="153"/>
+      <c r="S19" s="165"/>
+      <c r="T19" s="165"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="99">
-        <v>1362</v>
+      <c r="C20" s="182">
+        <v>1315</v>
       </c>
       <c r="D20" s="11">
-        <v>4</v>
-      </c>
-      <c r="E20" s="100">
-        <v>42906</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="J20" s="35">
-        <v>3</v>
-      </c>
+      <c r="J20" s="35"/>
       <c r="K20" s="12">
-        <v>42914</v>
+        <v>42937</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N20" s="87">
-        <v>42922</v>
+      <c r="N20" s="86">
+        <v>42942</v>
       </c>
       <c r="O20" s="40"/>
       <c r="P20" s="12">
-        <v>42923</v>
+        <v>42944</v>
       </c>
       <c r="Q20" s="35">
-        <v>1</v>
-      </c>
-      <c r="R20" s="88">
-        <v>42937</v>
-      </c>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="87">
+        <v>42951</v>
+      </c>
+      <c r="S20" s="165"/>
+      <c r="T20" s="165"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="59">
-        <v>1846</v>
-      </c>
-      <c r="D21" s="35">
-        <v>3</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="35" t="s">
+      <c r="C21" s="98">
+        <v>1362</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="99">
+        <v>42906</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11" t="s">
         <v>187</v>
       </c>
       <c r="J21" s="35">
         <v>3</v>
       </c>
       <c r="K21" s="12">
-        <v>42937</v>
+        <v>42914</v>
       </c>
       <c r="L21" s="42"/>
       <c r="M21" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N21" s="87">
-        <v>42942</v>
+      <c r="N21" s="86">
+        <v>42922</v>
       </c>
       <c r="O21" s="40"/>
       <c r="P21" s="12">
-        <v>42944</v>
+        <v>42923</v>
       </c>
       <c r="Q21" s="35">
-        <v>2</v>
-      </c>
-      <c r="R21" s="88">
-        <v>42951</v>
-      </c>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
+        <v>1</v>
+      </c>
+      <c r="R21" s="87">
+        <v>42937</v>
+      </c>
+      <c r="S21" s="165"/>
+      <c r="T21" s="165"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
-        <v>2</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="35">
-        <v>1</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" s="35">
-        <v>3</v>
-      </c>
-      <c r="K22" s="12">
-        <v>42937</v>
-      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="182">
+        <v>1753</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="66" t="s">
-        <v>339</v>
-      </c>
-      <c r="N22" s="87">
-        <v>42942</v>
-      </c>
+      <c r="M22" s="66"/>
+      <c r="N22" s="86"/>
       <c r="O22" s="40"/>
-      <c r="P22" s="12">
-        <v>42944</v>
-      </c>
-      <c r="Q22" s="35">
-        <v>0.5</v>
-      </c>
-      <c r="R22" s="88">
-        <v>42951</v>
-      </c>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="165"/>
+      <c r="T22" s="165"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="C23" s="58" t="s">
-        <v>174</v>
+      <c r="C23" s="59">
+        <v>1846</v>
       </c>
       <c r="D23" s="35">
         <v>3</v>
@@ -11438,7 +11714,7 @@
         <v>187</v>
       </c>
       <c r="J23" s="35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" s="12">
         <v>42937</v>
@@ -11447,7 +11723,7 @@
       <c r="M23" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N23" s="87">
+      <c r="N23" s="86">
         <v>42942</v>
       </c>
       <c r="O23" s="40"/>
@@ -11457,21 +11733,21 @@
       <c r="Q23" s="35">
         <v>2</v>
       </c>
-      <c r="R23" s="88">
+      <c r="R23" s="87">
         <v>42951</v>
       </c>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>2</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D24" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="39"/>
@@ -11481,7 +11757,7 @@
         <v>187</v>
       </c>
       <c r="J24" s="35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K24" s="12">
         <v>42937</v>
@@ -11490,48 +11766,134 @@
       <c r="M24" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="N24" s="87">
-        <v>42926</v>
+      <c r="N24" s="86">
+        <v>42942</v>
       </c>
       <c r="O24" s="40"/>
       <c r="P24" s="12">
         <v>42944</v>
       </c>
       <c r="Q24" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="87">
+        <v>42951</v>
+      </c>
+      <c r="S24" s="165"/>
+      <c r="T24" s="165"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>2</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="35">
+        <v>3</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" s="35">
+        <v>4</v>
+      </c>
+      <c r="K25" s="12">
+        <v>42937</v>
+      </c>
+      <c r="L25" s="42"/>
+      <c r="M25" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="N25" s="86">
+        <v>42942</v>
+      </c>
+      <c r="O25" s="40"/>
+      <c r="P25" s="12">
+        <v>42944</v>
+      </c>
+      <c r="Q25" s="35">
+        <v>2</v>
+      </c>
+      <c r="R25" s="87">
+        <v>42951</v>
+      </c>
+      <c r="S25" s="165"/>
+      <c r="T25" s="165"/>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="35">
+        <v>2</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="35">
+        <v>8</v>
+      </c>
+      <c r="K26" s="12">
+        <v>42937</v>
+      </c>
+      <c r="L26" s="42"/>
+      <c r="M26" s="66" t="s">
+        <v>339</v>
+      </c>
+      <c r="N26" s="86">
+        <v>42926</v>
+      </c>
+      <c r="O26" s="40"/>
+      <c r="P26" s="12">
+        <v>42944</v>
+      </c>
+      <c r="Q26" s="35">
         <v>0</v>
       </c>
-      <c r="R24" s="88">
+      <c r="R26" s="87">
         <v>42951</v>
       </c>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-    </row>
-    <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="103" t="s">
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="102" t="s">
         <v>349</v>
       </c>
-      <c r="D25" s="10">
-        <f>SUM(D9:D24)</f>
+      <c r="D27" s="10">
+        <f>SUM(D9:D26)</f>
         <v>50</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="J25" s="10">
-        <f>SUM(J9:J24)</f>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="J27" s="10">
+        <f>SUM(J9:J26)</f>
         <v>58</v>
       </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10">
-        <f>SUM(Q9:Q24)</f>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10">
+        <f>SUM(Q9:Q26)</f>
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:U25"/>
+  <autoFilter ref="B8:U27"/>
   <mergeCells count="6">
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="S8:S24"/>
-    <mergeCell ref="T8:T24"/>
+    <mergeCell ref="S8:S26"/>
+    <mergeCell ref="T8:T26"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="P7:R7"/>
@@ -11560,65 +11922,65 @@
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N2" s="63"/>
-      <c r="P2" s="164" t="s">
+      <c r="P2" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="166"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="178"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="157" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="163" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="157" t="s">
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="169" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="163" t="s">
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="175" t="s">
         <v>271</v>
       </c>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163" t="s">
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175" t="s">
         <v>272</v>
       </c>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="167" t="s">
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
+      <c r="Y4" s="175"/>
+      <c r="Z4" s="179" t="s">
         <v>273</v>
       </c>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="169"/>
+      <c r="AA4" s="180"/>
+      <c r="AB4" s="180"/>
+      <c r="AC4" s="181"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
